--- a/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>UGP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,153 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21179800</v>
+        <v>16522800</v>
       </c>
       <c r="E8" s="3">
-        <v>18501800</v>
+        <v>16781800</v>
       </c>
       <c r="F8" s="3">
-        <v>18063500</v>
+        <v>14659900</v>
       </c>
       <c r="G8" s="3">
-        <v>17667000</v>
+        <v>14312600</v>
       </c>
       <c r="H8" s="3">
-        <v>15817800</v>
+        <v>13998500</v>
       </c>
       <c r="I8" s="3">
-        <v>14230800</v>
+        <v>12533200</v>
       </c>
       <c r="J8" s="3">
+        <v>11275800</v>
+      </c>
+      <c r="K8" s="3">
         <v>12579500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12063800</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19741200</v>
+        <v>15392100</v>
       </c>
       <c r="E9" s="3">
-        <v>16914200</v>
+        <v>15641900</v>
       </c>
       <c r="F9" s="3">
-        <v>16426400</v>
+        <v>13402000</v>
       </c>
       <c r="G9" s="3">
-        <v>16097400</v>
+        <v>13015500</v>
       </c>
       <c r="H9" s="3">
-        <v>14549400</v>
+        <v>12754800</v>
       </c>
       <c r="I9" s="3">
-        <v>26231500</v>
+        <v>11528200</v>
       </c>
       <c r="J9" s="3">
+        <v>20784600</v>
+      </c>
+      <c r="K9" s="3">
         <v>11621900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11194400</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1438600</v>
+        <v>1130700</v>
       </c>
       <c r="E10" s="3">
-        <v>1587600</v>
+        <v>1139900</v>
       </c>
       <c r="F10" s="3">
-        <v>1637000</v>
+        <v>1257900</v>
       </c>
       <c r="G10" s="3">
-        <v>1569600</v>
+        <v>1297100</v>
       </c>
       <c r="H10" s="3">
-        <v>1268400</v>
+        <v>1243700</v>
       </c>
       <c r="I10" s="3">
-        <v>-12000700</v>
+        <v>1005000</v>
       </c>
       <c r="J10" s="3">
+        <v>-9508800</v>
+      </c>
+      <c r="K10" s="3">
         <v>957600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>869400</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -843,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>109800</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>19700</v>
+        <v>20200</v>
       </c>
       <c r="E15" s="3">
-        <v>16100</v>
+        <v>15600</v>
       </c>
       <c r="F15" s="3">
-        <v>126200</v>
-      </c>
-      <c r="G15" s="3" t="s">
+        <v>12800</v>
+      </c>
+      <c r="G15" s="3">
+        <v>100000</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="3">
-        <v>95100</v>
-      </c>
       <c r="I15" s="3">
-        <v>76900</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+        <v>75400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>60900</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20739700</v>
+        <v>16284400</v>
       </c>
       <c r="E17" s="3">
-        <v>17844800</v>
+        <v>16433100</v>
       </c>
       <c r="F17" s="3">
-        <v>17336500</v>
+        <v>14139400</v>
       </c>
       <c r="G17" s="3">
-        <v>16978000</v>
+        <v>13736600</v>
       </c>
       <c r="H17" s="3">
-        <v>15283800</v>
+        <v>13452500</v>
       </c>
       <c r="I17" s="3">
-        <v>13730100</v>
+        <v>12110200</v>
       </c>
       <c r="J17" s="3">
+        <v>10879100</v>
+      </c>
+      <c r="K17" s="3">
         <v>12180600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11702700</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>440100</v>
+        <v>238400</v>
       </c>
       <c r="E18" s="3">
-        <v>657000</v>
+        <v>348700</v>
       </c>
       <c r="F18" s="3">
-        <v>727000</v>
+        <v>520600</v>
       </c>
       <c r="G18" s="3">
-        <v>689000</v>
+        <v>576000</v>
       </c>
       <c r="H18" s="3">
-        <v>534000</v>
+        <v>546000</v>
       </c>
       <c r="I18" s="3">
-        <v>500700</v>
+        <v>423100</v>
       </c>
       <c r="J18" s="3">
+        <v>396700</v>
+      </c>
+      <c r="K18" s="3">
         <v>398800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>361100</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>180100</v>
+        <v>92000</v>
       </c>
       <c r="E20" s="3">
-        <v>137300</v>
+        <v>142700</v>
       </c>
       <c r="F20" s="3">
-        <v>74000</v>
+        <v>108800</v>
       </c>
       <c r="G20" s="3">
-        <v>64400</v>
+        <v>58600</v>
       </c>
       <c r="H20" s="3">
-        <v>62400</v>
+        <v>51000</v>
       </c>
       <c r="I20" s="3">
-        <v>33200</v>
+        <v>49400</v>
       </c>
       <c r="J20" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K20" s="3">
         <v>48200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>71800</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>812000</v>
+        <v>547500</v>
       </c>
       <c r="E21" s="3">
-        <v>960600</v>
+        <v>645500</v>
       </c>
       <c r="F21" s="3">
-        <v>1061500</v>
+        <v>762900</v>
       </c>
       <c r="G21" s="3">
-        <v>990200</v>
+        <v>843900</v>
       </c>
       <c r="H21" s="3">
-        <v>806000</v>
+        <v>787100</v>
       </c>
       <c r="I21" s="3">
-        <v>717800</v>
+        <v>640900</v>
       </c>
       <c r="J21" s="3">
+        <v>570700</v>
+      </c>
+      <c r="K21" s="3">
         <v>610700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>574700</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>206600</v>
+        <v>185800</v>
       </c>
       <c r="E22" s="3">
-        <v>248000</v>
+        <v>163700</v>
       </c>
       <c r="F22" s="3">
-        <v>270700</v>
+        <v>196500</v>
       </c>
       <c r="G22" s="3">
-        <v>228600</v>
+        <v>214500</v>
       </c>
       <c r="H22" s="3">
-        <v>170200</v>
+        <v>181200</v>
       </c>
       <c r="I22" s="3">
-        <v>113200</v>
+        <v>134900</v>
       </c>
       <c r="J22" s="3">
+        <v>89700</v>
+      </c>
+      <c r="K22" s="3">
         <v>108900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>144700</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>413600</v>
+        <v>144600</v>
       </c>
       <c r="E23" s="3">
-        <v>546200</v>
+        <v>327700</v>
       </c>
       <c r="F23" s="3">
-        <v>530200</v>
+        <v>432800</v>
       </c>
       <c r="G23" s="3">
-        <v>524800</v>
+        <v>420100</v>
       </c>
       <c r="H23" s="3">
-        <v>426100</v>
+        <v>415800</v>
       </c>
       <c r="I23" s="3">
-        <v>420700</v>
+        <v>337600</v>
       </c>
       <c r="J23" s="3">
+        <v>333300</v>
+      </c>
+      <c r="K23" s="3">
         <v>338100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>288300</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>149200</v>
+        <v>70100</v>
       </c>
       <c r="E24" s="3">
-        <v>189900</v>
+        <v>118200</v>
       </c>
       <c r="F24" s="3">
-        <v>163500</v>
+        <v>150500</v>
       </c>
       <c r="G24" s="3">
-        <v>171500</v>
+        <v>129500</v>
       </c>
       <c r="H24" s="3">
-        <v>133900</v>
+        <v>135900</v>
       </c>
       <c r="I24" s="3">
-        <v>133700</v>
+        <v>106100</v>
       </c>
       <c r="J24" s="3">
+        <v>106000</v>
+      </c>
+      <c r="K24" s="3">
         <v>98400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>74800</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1198,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>264400</v>
+        <v>74600</v>
       </c>
       <c r="E26" s="3">
-        <v>356300</v>
+        <v>209500</v>
       </c>
       <c r="F26" s="3">
-        <v>366800</v>
+        <v>282300</v>
       </c>
       <c r="G26" s="3">
-        <v>353300</v>
+        <v>290600</v>
       </c>
       <c r="H26" s="3">
-        <v>292200</v>
+        <v>279900</v>
       </c>
       <c r="I26" s="3">
-        <v>286900</v>
+        <v>231500</v>
       </c>
       <c r="J26" s="3">
+        <v>227300</v>
+      </c>
+      <c r="K26" s="3">
         <v>239800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>213400</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>268600</v>
+        <v>69100</v>
       </c>
       <c r="E27" s="3">
-        <v>356500</v>
+        <v>212900</v>
       </c>
       <c r="F27" s="3">
-        <v>364700</v>
+        <v>282400</v>
       </c>
       <c r="G27" s="3">
-        <v>351100</v>
+        <v>288900</v>
       </c>
       <c r="H27" s="3">
-        <v>289900</v>
+        <v>278200</v>
       </c>
       <c r="I27" s="3">
-        <v>286100</v>
+        <v>229700</v>
       </c>
       <c r="J27" s="3">
+        <v>226700</v>
+      </c>
+      <c r="K27" s="3">
         <v>238200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>211900</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1318,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-180100</v>
+        <v>-92000</v>
       </c>
       <c r="E32" s="3">
-        <v>-137300</v>
+        <v>-142700</v>
       </c>
       <c r="F32" s="3">
-        <v>-74000</v>
+        <v>-108800</v>
       </c>
       <c r="G32" s="3">
-        <v>-64400</v>
+        <v>-58600</v>
       </c>
       <c r="H32" s="3">
-        <v>-62400</v>
+        <v>-51000</v>
       </c>
       <c r="I32" s="3">
-        <v>-33200</v>
+        <v>-49400</v>
       </c>
       <c r="J32" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-48200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-71800</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>268600</v>
+        <v>69100</v>
       </c>
       <c r="E33" s="3">
-        <v>356500</v>
+        <v>212900</v>
       </c>
       <c r="F33" s="3">
-        <v>364700</v>
+        <v>282400</v>
       </c>
       <c r="G33" s="3">
-        <v>351100</v>
+        <v>288900</v>
       </c>
       <c r="H33" s="3">
-        <v>289900</v>
+        <v>278200</v>
       </c>
       <c r="I33" s="3">
-        <v>286100</v>
+        <v>229700</v>
       </c>
       <c r="J33" s="3">
+        <v>226700</v>
+      </c>
+      <c r="K33" s="3">
         <v>238200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>211900</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>268600</v>
+        <v>69100</v>
       </c>
       <c r="E35" s="3">
-        <v>356500</v>
+        <v>212900</v>
       </c>
       <c r="F35" s="3">
-        <v>364700</v>
+        <v>282400</v>
       </c>
       <c r="G35" s="3">
-        <v>351100</v>
+        <v>288900</v>
       </c>
       <c r="H35" s="3">
-        <v>289900</v>
+        <v>278200</v>
       </c>
       <c r="I35" s="3">
-        <v>286100</v>
+        <v>229700</v>
       </c>
       <c r="J35" s="3">
+        <v>226700</v>
+      </c>
+      <c r="K35" s="3">
         <v>238200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>211900</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>919800</v>
+        <v>396400</v>
       </c>
       <c r="E41" s="3">
-        <v>1168100</v>
+        <v>738200</v>
       </c>
       <c r="F41" s="3">
-        <v>1996200</v>
+        <v>937400</v>
       </c>
       <c r="G41" s="3">
-        <v>631200</v>
+        <v>1602000</v>
       </c>
       <c r="H41" s="3">
-        <v>1320500</v>
+        <v>506500</v>
       </c>
       <c r="I41" s="3">
-        <v>531500</v>
+        <v>1059700</v>
       </c>
       <c r="J41" s="3">
+        <v>426500</v>
+      </c>
+      <c r="K41" s="3">
         <v>472000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>26700</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>666300</v>
+        <v>579100</v>
       </c>
       <c r="E42" s="3">
-        <v>599400</v>
+        <v>534700</v>
       </c>
       <c r="F42" s="3">
-        <v>659700</v>
+        <v>481100</v>
       </c>
       <c r="G42" s="3">
-        <v>187600</v>
+        <v>529400</v>
       </c>
       <c r="H42" s="3">
-        <v>336700</v>
+        <v>150500</v>
       </c>
       <c r="I42" s="3">
-        <v>268300</v>
+        <v>270200</v>
       </c>
       <c r="J42" s="3">
+        <v>215300</v>
+      </c>
+      <c r="K42" s="3">
         <v>684500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>645100</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1259400</v>
+        <v>1042000</v>
       </c>
       <c r="E43" s="3">
-        <v>2156000</v>
+        <v>1010700</v>
       </c>
       <c r="F43" s="3">
-        <v>1913700</v>
+        <v>1730200</v>
       </c>
       <c r="G43" s="3">
-        <v>894000</v>
+        <v>1535700</v>
       </c>
       <c r="H43" s="3">
-        <v>756800</v>
+        <v>717400</v>
       </c>
       <c r="I43" s="3">
-        <v>658800</v>
+        <v>607300</v>
       </c>
       <c r="J43" s="3">
+        <v>528700</v>
+      </c>
+      <c r="K43" s="3">
         <v>655300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>624500</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>783400</v>
+        <v>696300</v>
       </c>
       <c r="E44" s="3">
-        <v>820500</v>
+        <v>628600</v>
       </c>
       <c r="F44" s="3">
-        <v>1294300</v>
+        <v>658500</v>
       </c>
       <c r="G44" s="3">
-        <v>582700</v>
+        <v>1038700</v>
       </c>
       <c r="H44" s="3">
-        <v>899100</v>
+        <v>467600</v>
       </c>
       <c r="I44" s="3">
-        <v>371900</v>
+        <v>721500</v>
       </c>
       <c r="J44" s="3">
+        <v>298400</v>
+      </c>
+      <c r="K44" s="3">
         <v>301400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>302900</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>156900</v>
+        <v>108100</v>
       </c>
       <c r="E45" s="3">
-        <v>141600</v>
+        <v>125900</v>
       </c>
       <c r="F45" s="3">
-        <v>133600</v>
+        <v>113600</v>
       </c>
       <c r="G45" s="3">
-        <v>19000</v>
+        <v>107200</v>
       </c>
       <c r="H45" s="3">
-        <v>15700</v>
+        <v>15300</v>
       </c>
       <c r="I45" s="3">
-        <v>15200</v>
+        <v>12600</v>
       </c>
       <c r="J45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K45" s="3">
         <v>29900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>32100</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3785800</v>
+        <v>2821900</v>
       </c>
       <c r="E46" s="3">
-        <v>3617300</v>
+        <v>3038100</v>
       </c>
       <c r="F46" s="3">
-        <v>3121300</v>
+        <v>2902800</v>
       </c>
       <c r="G46" s="3">
-        <v>2314500</v>
+        <v>2504800</v>
       </c>
       <c r="H46" s="3">
-        <v>2219000</v>
+        <v>1857400</v>
       </c>
       <c r="I46" s="3">
-        <v>1845700</v>
+        <v>1780700</v>
       </c>
       <c r="J46" s="3">
+        <v>1481200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1665700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1631200</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>377400</v>
+        <v>371600</v>
       </c>
       <c r="E47" s="3">
-        <v>207000</v>
+        <v>302800</v>
       </c>
       <c r="F47" s="3">
-        <v>133000</v>
+        <v>166100</v>
       </c>
       <c r="G47" s="3">
-        <v>204400</v>
+        <v>106800</v>
       </c>
       <c r="H47" s="3">
-        <v>117400</v>
+        <v>164000</v>
       </c>
       <c r="I47" s="3">
-        <v>85800</v>
+        <v>94200</v>
       </c>
       <c r="J47" s="3">
+        <v>68900</v>
+      </c>
+      <c r="K47" s="3">
         <v>132300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>72000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1699800</v>
+        <v>1790400</v>
       </c>
       <c r="E48" s="3">
-        <v>3099400</v>
+        <v>1364100</v>
       </c>
       <c r="F48" s="3">
-        <v>2705200</v>
+        <v>2487200</v>
       </c>
       <c r="G48" s="3">
-        <v>1270100</v>
+        <v>2170900</v>
       </c>
       <c r="H48" s="3">
-        <v>1189100</v>
+        <v>1019200</v>
       </c>
       <c r="I48" s="3">
-        <v>1135000</v>
+        <v>954200</v>
       </c>
       <c r="J48" s="3">
+        <v>910800</v>
+      </c>
+      <c r="K48" s="3">
         <v>381600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1061500</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>553300</v>
+        <v>330300</v>
       </c>
       <c r="E49" s="3">
-        <v>1027600</v>
+        <v>444000</v>
       </c>
       <c r="F49" s="3">
-        <v>1229100</v>
+        <v>824700</v>
       </c>
       <c r="G49" s="3">
-        <v>769200</v>
+        <v>986300</v>
       </c>
       <c r="H49" s="3">
-        <v>737500</v>
+        <v>617300</v>
       </c>
       <c r="I49" s="3">
-        <v>482600</v>
+        <v>591800</v>
       </c>
       <c r="J49" s="3">
+        <v>387300</v>
+      </c>
+      <c r="K49" s="3">
         <v>918600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>381800</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>706100</v>
+        <v>531900</v>
       </c>
       <c r="E52" s="3">
-        <v>708100</v>
+        <v>566600</v>
       </c>
       <c r="F52" s="3">
-        <v>572300</v>
+        <v>568200</v>
       </c>
       <c r="G52" s="3">
-        <v>278700</v>
+        <v>459300</v>
       </c>
       <c r="H52" s="3">
-        <v>266200</v>
+        <v>223700</v>
       </c>
       <c r="I52" s="3">
-        <v>254300</v>
+        <v>213600</v>
       </c>
       <c r="J52" s="3">
+        <v>204100</v>
+      </c>
+      <c r="K52" s="3">
         <v>274300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>262700</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7122200</v>
+        <v>5846000</v>
       </c>
       <c r="E54" s="3">
-        <v>6605000</v>
+        <v>5715600</v>
       </c>
       <c r="F54" s="3">
-        <v>5621900</v>
+        <v>5300500</v>
       </c>
       <c r="G54" s="3">
-        <v>4836900</v>
+        <v>4511600</v>
       </c>
       <c r="H54" s="3">
-        <v>4513900</v>
+        <v>3881600</v>
       </c>
       <c r="I54" s="3">
-        <v>3824700</v>
+        <v>3622400</v>
       </c>
       <c r="J54" s="3">
+        <v>3069300</v>
+      </c>
+      <c r="K54" s="3">
         <v>3561100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3409300</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>637900</v>
+        <v>506000</v>
       </c>
       <c r="E57" s="3">
-        <v>503400</v>
+        <v>511900</v>
       </c>
       <c r="F57" s="3">
-        <v>399200</v>
+        <v>403900</v>
       </c>
       <c r="G57" s="3">
-        <v>341100</v>
+        <v>320400</v>
       </c>
       <c r="H57" s="3">
-        <v>597600</v>
+        <v>273700</v>
       </c>
       <c r="I57" s="3">
-        <v>226300</v>
+        <v>479600</v>
       </c>
       <c r="J57" s="3">
+        <v>181600</v>
+      </c>
+      <c r="K57" s="3">
         <v>609500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>266700</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>531000</v>
+        <v>248100</v>
       </c>
       <c r="E58" s="3">
-        <v>818200</v>
+        <v>426100</v>
       </c>
       <c r="F58" s="3">
-        <v>578100</v>
+        <v>656600</v>
       </c>
       <c r="G58" s="3">
-        <v>256400</v>
+        <v>463900</v>
       </c>
       <c r="H58" s="3">
-        <v>803900</v>
+        <v>205700</v>
       </c>
       <c r="I58" s="3">
-        <v>427300</v>
+        <v>645100</v>
       </c>
       <c r="J58" s="3">
+        <v>342900</v>
+      </c>
+      <c r="K58" s="3">
         <v>380200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>571800</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>310800</v>
+        <v>219500</v>
       </c>
       <c r="E59" s="3">
-        <v>315400</v>
+        <v>249500</v>
       </c>
       <c r="F59" s="3">
-        <v>303400</v>
+        <v>253100</v>
       </c>
       <c r="G59" s="3">
-        <v>297700</v>
+        <v>243400</v>
       </c>
       <c r="H59" s="3">
-        <v>257900</v>
+        <v>238900</v>
       </c>
       <c r="I59" s="3">
-        <v>225500</v>
+        <v>207000</v>
       </c>
       <c r="J59" s="3">
+        <v>180900</v>
+      </c>
+      <c r="K59" s="3">
         <v>185800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>178000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1479800</v>
+        <v>973600</v>
       </c>
       <c r="E60" s="3">
-        <v>1636900</v>
+        <v>1187500</v>
       </c>
       <c r="F60" s="3">
-        <v>1280700</v>
+        <v>1313600</v>
       </c>
       <c r="G60" s="3">
-        <v>895200</v>
+        <v>1027800</v>
       </c>
       <c r="H60" s="3">
-        <v>1329200</v>
+        <v>718400</v>
       </c>
       <c r="I60" s="3">
-        <v>879100</v>
+        <v>1066700</v>
       </c>
       <c r="J60" s="3">
+        <v>705500</v>
+      </c>
+      <c r="K60" s="3">
         <v>869000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1016600</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3019900</v>
+        <v>2746800</v>
       </c>
       <c r="E61" s="3">
-        <v>2355500</v>
+        <v>2423500</v>
       </c>
       <c r="F61" s="3">
-        <v>2088000</v>
+        <v>1890300</v>
       </c>
       <c r="G61" s="3">
-        <v>1822300</v>
+        <v>1675600</v>
       </c>
       <c r="H61" s="3">
-        <v>1151900</v>
+        <v>1462400</v>
       </c>
       <c r="I61" s="3">
-        <v>1200200</v>
+        <v>924400</v>
       </c>
       <c r="J61" s="3">
+        <v>963200</v>
+      </c>
+      <c r="K61" s="3">
         <v>1071400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>807900</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>334000</v>
+        <v>282500</v>
       </c>
       <c r="E62" s="3">
-        <v>365200</v>
+        <v>268100</v>
       </c>
       <c r="F62" s="3">
-        <v>273800</v>
+        <v>293000</v>
       </c>
       <c r="G62" s="3">
-        <v>283500</v>
+        <v>219800</v>
       </c>
       <c r="H62" s="3">
-        <v>249900</v>
+        <v>227500</v>
       </c>
       <c r="I62" s="3">
-        <v>216600</v>
+        <v>200500</v>
       </c>
       <c r="J62" s="3">
+        <v>173800</v>
+      </c>
+      <c r="K62" s="3">
         <v>218200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>201200</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4915900</v>
+        <v>4073600</v>
       </c>
       <c r="E66" s="3">
-        <v>4445800</v>
+        <v>3945000</v>
       </c>
       <c r="F66" s="3">
-        <v>3649800</v>
+        <v>3567700</v>
       </c>
       <c r="G66" s="3">
-        <v>2981600</v>
+        <v>2928900</v>
       </c>
       <c r="H66" s="3">
-        <v>2716200</v>
+        <v>2392700</v>
       </c>
       <c r="I66" s="3">
-        <v>2302200</v>
+        <v>2179800</v>
       </c>
       <c r="J66" s="3">
+        <v>1847500</v>
+      </c>
+      <c r="K66" s="3">
         <v>2164500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2032200</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2408,14 +2573,17 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>-26800</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>-29300</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1111500</v>
+        <v>902500</v>
       </c>
       <c r="E72" s="3">
-        <v>1144000</v>
+        <v>892000</v>
       </c>
       <c r="F72" s="3">
-        <v>1321500</v>
+        <v>918100</v>
       </c>
       <c r="G72" s="3">
-        <v>1053500</v>
+        <v>1060500</v>
       </c>
       <c r="H72" s="3">
-        <v>913500</v>
+        <v>845400</v>
       </c>
       <c r="I72" s="3">
-        <v>675900</v>
+        <v>733100</v>
       </c>
       <c r="J72" s="3">
+        <v>542400</v>
+      </c>
+      <c r="K72" s="3">
         <v>560100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>458300</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2206300</v>
+        <v>1772500</v>
       </c>
       <c r="E76" s="3">
-        <v>2159200</v>
+        <v>1770600</v>
       </c>
       <c r="F76" s="3">
-        <v>1972100</v>
+        <v>1732700</v>
       </c>
       <c r="G76" s="3">
-        <v>1855300</v>
+        <v>1582600</v>
       </c>
       <c r="H76" s="3">
-        <v>1797600</v>
+        <v>1488900</v>
       </c>
       <c r="I76" s="3">
-        <v>1522500</v>
+        <v>1442600</v>
       </c>
       <c r="J76" s="3">
+        <v>1221800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1423400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1406400</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>268600</v>
+        <v>69100</v>
       </c>
       <c r="E81" s="3">
-        <v>356500</v>
+        <v>212900</v>
       </c>
       <c r="F81" s="3">
-        <v>364700</v>
+        <v>282400</v>
       </c>
       <c r="G81" s="3">
-        <v>351100</v>
+        <v>288900</v>
       </c>
       <c r="H81" s="3">
-        <v>289900</v>
+        <v>278200</v>
       </c>
       <c r="I81" s="3">
-        <v>286100</v>
+        <v>229700</v>
       </c>
       <c r="J81" s="3">
+        <v>226700</v>
+      </c>
+      <c r="K81" s="3">
         <v>238200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>211900</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>189700</v>
+        <v>211800</v>
       </c>
       <c r="E83" s="3">
-        <v>164500</v>
+        <v>150300</v>
       </c>
       <c r="F83" s="3">
-        <v>257700</v>
+        <v>130400</v>
       </c>
       <c r="G83" s="3">
-        <v>234100</v>
+        <v>204200</v>
       </c>
       <c r="H83" s="3">
-        <v>207300</v>
+        <v>185500</v>
       </c>
       <c r="I83" s="3">
-        <v>181900</v>
+        <v>164300</v>
       </c>
       <c r="J83" s="3">
+        <v>144100</v>
+      </c>
+      <c r="K83" s="3">
         <v>161800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>143900</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>674600</v>
+        <v>541200</v>
       </c>
       <c r="E89" s="3">
-        <v>406100</v>
+        <v>534500</v>
       </c>
       <c r="F89" s="3">
-        <v>587000</v>
+        <v>321800</v>
       </c>
       <c r="G89" s="3">
-        <v>747700</v>
+        <v>465100</v>
       </c>
       <c r="H89" s="3">
-        <v>619000</v>
+        <v>592400</v>
       </c>
       <c r="I89" s="3">
-        <v>495200</v>
+        <v>490500</v>
       </c>
       <c r="J89" s="3">
+        <v>392400</v>
+      </c>
+      <c r="K89" s="3">
         <v>570600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>424200</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-275200</v>
+        <v>-188700</v>
       </c>
       <c r="E91" s="3">
-        <v>-304100</v>
+        <v>-218000</v>
       </c>
       <c r="F91" s="3">
-        <v>-237100</v>
+        <v>-240900</v>
       </c>
       <c r="G91" s="3">
-        <v>-187600</v>
+        <v>-187800</v>
       </c>
       <c r="H91" s="3">
-        <v>-164900</v>
+        <v>-148700</v>
       </c>
       <c r="I91" s="3">
-        <v>-154400</v>
+        <v>-130600</v>
       </c>
       <c r="J91" s="3">
+        <v>-122300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-176100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-265800</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-742000</v>
+        <v>-339600</v>
       </c>
       <c r="E94" s="3">
-        <v>-320300</v>
+        <v>-588000</v>
       </c>
       <c r="F94" s="3">
-        <v>-431700</v>
+        <v>-253800</v>
       </c>
       <c r="G94" s="3">
-        <v>-187200</v>
+        <v>-342100</v>
       </c>
       <c r="H94" s="3">
-        <v>-359700</v>
+        <v>-148400</v>
       </c>
       <c r="I94" s="3">
-        <v>-300800</v>
+        <v>-285000</v>
       </c>
       <c r="J94" s="3">
+        <v>-238300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-365500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-361700</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-188800</v>
+        <v>-110400</v>
       </c>
       <c r="E96" s="3">
-        <v>-219600</v>
+        <v>-149600</v>
       </c>
       <c r="F96" s="3">
-        <v>-203900</v>
+        <v>-174000</v>
       </c>
       <c r="G96" s="3">
-        <v>-194200</v>
+        <v>-161600</v>
       </c>
       <c r="H96" s="3">
-        <v>-182900</v>
+        <v>-153900</v>
       </c>
       <c r="I96" s="3">
-        <v>-166100</v>
+        <v>-144900</v>
       </c>
       <c r="J96" s="3">
+        <v>-131600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-128100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-124500</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-187100</v>
+        <v>-540700</v>
       </c>
       <c r="E100" s="3">
-        <v>79500</v>
+        <v>-148200</v>
       </c>
       <c r="F100" s="3">
-        <v>216800</v>
+        <v>63000</v>
       </c>
       <c r="G100" s="3">
-        <v>-588600</v>
+        <v>171800</v>
       </c>
       <c r="H100" s="3">
-        <v>-125900</v>
+        <v>-466400</v>
       </c>
       <c r="I100" s="3">
-        <v>-135200</v>
+        <v>-99800</v>
       </c>
       <c r="J100" s="3">
+        <v>-107100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-145400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-274000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6200</v>
+        <v>1700</v>
       </c>
       <c r="E101" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="F101" s="3">
-        <v>-5100</v>
+        <v>3700</v>
       </c>
       <c r="G101" s="3">
-        <v>-900</v>
+        <v>-4100</v>
       </c>
       <c r="H101" s="3">
-        <v>-4600</v>
+        <v>-700</v>
       </c>
       <c r="I101" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-248200</v>
+        <v>-337400</v>
       </c>
       <c r="E102" s="3">
-        <v>170000</v>
+        <v>-196700</v>
       </c>
       <c r="F102" s="3">
-        <v>366900</v>
+        <v>134700</v>
       </c>
       <c r="G102" s="3">
-        <v>-29100</v>
+        <v>290700</v>
       </c>
       <c r="H102" s="3">
-        <v>128700</v>
+        <v>-23000</v>
       </c>
       <c r="I102" s="3">
-        <v>59500</v>
+        <v>102000</v>
       </c>
       <c r="J102" s="3">
+        <v>47200</v>
+      </c>
+      <c r="K102" s="3">
         <v>59700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-211200</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16522800</v>
+        <v>15930800</v>
       </c>
       <c r="E8" s="3">
-        <v>16781800</v>
+        <v>16180500</v>
       </c>
       <c r="F8" s="3">
-        <v>14659900</v>
+        <v>14134600</v>
       </c>
       <c r="G8" s="3">
-        <v>14312600</v>
+        <v>13799800</v>
       </c>
       <c r="H8" s="3">
-        <v>13998500</v>
+        <v>13496900</v>
       </c>
       <c r="I8" s="3">
-        <v>12533200</v>
+        <v>12084200</v>
       </c>
       <c r="J8" s="3">
-        <v>11275800</v>
+        <v>10871700</v>
       </c>
       <c r="K8" s="3">
         <v>12579500</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15392100</v>
+        <v>14840600</v>
       </c>
       <c r="E9" s="3">
-        <v>15641900</v>
+        <v>15081500</v>
       </c>
       <c r="F9" s="3">
-        <v>13402000</v>
+        <v>12921800</v>
       </c>
       <c r="G9" s="3">
-        <v>13015500</v>
+        <v>12549100</v>
       </c>
       <c r="H9" s="3">
-        <v>12754800</v>
+        <v>12297800</v>
       </c>
       <c r="I9" s="3">
-        <v>11528200</v>
+        <v>11115100</v>
       </c>
       <c r="J9" s="3">
-        <v>20784600</v>
+        <v>20039800</v>
       </c>
       <c r="K9" s="3">
         <v>11621900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1130700</v>
+        <v>1090200</v>
       </c>
       <c r="E10" s="3">
-        <v>1139900</v>
+        <v>1099100</v>
       </c>
       <c r="F10" s="3">
-        <v>1257900</v>
+        <v>1212900</v>
       </c>
       <c r="G10" s="3">
-        <v>1297100</v>
+        <v>1250600</v>
       </c>
       <c r="H10" s="3">
-        <v>1243700</v>
+        <v>1199100</v>
       </c>
       <c r="I10" s="3">
-        <v>1005000</v>
+        <v>969000</v>
       </c>
       <c r="J10" s="3">
-        <v>-9508800</v>
+        <v>-9168100</v>
       </c>
       <c r="K10" s="3">
         <v>957600</v>
@@ -897,7 +897,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>109800</v>
+        <v>105800</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>20200</v>
+        <v>19500</v>
       </c>
       <c r="E15" s="3">
-        <v>15600</v>
+        <v>15000</v>
       </c>
       <c r="F15" s="3">
-        <v>12800</v>
+        <v>12300</v>
       </c>
       <c r="G15" s="3">
-        <v>100000</v>
+        <v>96400</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I15" s="3">
-        <v>75400</v>
+        <v>72700</v>
       </c>
       <c r="J15" s="3">
-        <v>60900</v>
+        <v>58700</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16284400</v>
+        <v>15700900</v>
       </c>
       <c r="E17" s="3">
-        <v>16433100</v>
+        <v>15844300</v>
       </c>
       <c r="F17" s="3">
-        <v>14139400</v>
+        <v>13632700</v>
       </c>
       <c r="G17" s="3">
-        <v>13736600</v>
+        <v>13244400</v>
       </c>
       <c r="H17" s="3">
-        <v>13452500</v>
+        <v>12970500</v>
       </c>
       <c r="I17" s="3">
-        <v>12110200</v>
+        <v>11676200</v>
       </c>
       <c r="J17" s="3">
-        <v>10879100</v>
+        <v>10489200</v>
       </c>
       <c r="K17" s="3">
         <v>12180600</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>238400</v>
+        <v>229900</v>
       </c>
       <c r="E18" s="3">
-        <v>348700</v>
+        <v>336200</v>
       </c>
       <c r="F18" s="3">
-        <v>520600</v>
+        <v>501900</v>
       </c>
       <c r="G18" s="3">
-        <v>576000</v>
+        <v>555400</v>
       </c>
       <c r="H18" s="3">
-        <v>546000</v>
+        <v>526400</v>
       </c>
       <c r="I18" s="3">
-        <v>423100</v>
+        <v>407900</v>
       </c>
       <c r="J18" s="3">
-        <v>396700</v>
+        <v>382500</v>
       </c>
       <c r="K18" s="3">
         <v>398800</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>92000</v>
+        <v>88700</v>
       </c>
       <c r="E20" s="3">
-        <v>142700</v>
+        <v>137600</v>
       </c>
       <c r="F20" s="3">
-        <v>108800</v>
+        <v>104900</v>
       </c>
       <c r="G20" s="3">
-        <v>58600</v>
+        <v>56500</v>
       </c>
       <c r="H20" s="3">
-        <v>51000</v>
+        <v>49200</v>
       </c>
       <c r="I20" s="3">
-        <v>49400</v>
+        <v>47700</v>
       </c>
       <c r="J20" s="3">
-        <v>26300</v>
+        <v>25400</v>
       </c>
       <c r="K20" s="3">
         <v>48200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>547500</v>
+        <v>526400</v>
       </c>
       <c r="E21" s="3">
-        <v>645500</v>
+        <v>621300</v>
       </c>
       <c r="F21" s="3">
-        <v>762900</v>
+        <v>734700</v>
       </c>
       <c r="G21" s="3">
-        <v>843900</v>
+        <v>812300</v>
       </c>
       <c r="H21" s="3">
-        <v>787100</v>
+        <v>757600</v>
       </c>
       <c r="I21" s="3">
-        <v>640900</v>
+        <v>616800</v>
       </c>
       <c r="J21" s="3">
-        <v>570700</v>
+        <v>549300</v>
       </c>
       <c r="K21" s="3">
         <v>610700</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>185800</v>
+        <v>179200</v>
       </c>
       <c r="E22" s="3">
-        <v>163700</v>
+        <v>157800</v>
       </c>
       <c r="F22" s="3">
-        <v>196500</v>
+        <v>189500</v>
       </c>
       <c r="G22" s="3">
-        <v>214500</v>
+        <v>206800</v>
       </c>
       <c r="H22" s="3">
-        <v>181200</v>
+        <v>174700</v>
       </c>
       <c r="I22" s="3">
-        <v>134900</v>
+        <v>130100</v>
       </c>
       <c r="J22" s="3">
-        <v>89700</v>
+        <v>86500</v>
       </c>
       <c r="K22" s="3">
         <v>108900</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>144600</v>
+        <v>139400</v>
       </c>
       <c r="E23" s="3">
-        <v>327700</v>
+        <v>316000</v>
       </c>
       <c r="F23" s="3">
-        <v>432800</v>
+        <v>417300</v>
       </c>
       <c r="G23" s="3">
-        <v>420100</v>
+        <v>405100</v>
       </c>
       <c r="H23" s="3">
-        <v>415800</v>
+        <v>400900</v>
       </c>
       <c r="I23" s="3">
-        <v>337600</v>
+        <v>325500</v>
       </c>
       <c r="J23" s="3">
-        <v>333300</v>
+        <v>321400</v>
       </c>
       <c r="K23" s="3">
         <v>338100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>70100</v>
+        <v>67500</v>
       </c>
       <c r="E24" s="3">
-        <v>118200</v>
+        <v>113900</v>
       </c>
       <c r="F24" s="3">
-        <v>150500</v>
+        <v>145100</v>
       </c>
       <c r="G24" s="3">
-        <v>129500</v>
+        <v>124900</v>
       </c>
       <c r="H24" s="3">
-        <v>135900</v>
+        <v>131000</v>
       </c>
       <c r="I24" s="3">
-        <v>106100</v>
+        <v>102300</v>
       </c>
       <c r="J24" s="3">
-        <v>106000</v>
+        <v>102200</v>
       </c>
       <c r="K24" s="3">
         <v>98400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>74600</v>
+        <v>71900</v>
       </c>
       <c r="E26" s="3">
-        <v>209500</v>
+        <v>202000</v>
       </c>
       <c r="F26" s="3">
-        <v>282300</v>
+        <v>272200</v>
       </c>
       <c r="G26" s="3">
-        <v>290600</v>
+        <v>280200</v>
       </c>
       <c r="H26" s="3">
-        <v>279900</v>
+        <v>269900</v>
       </c>
       <c r="I26" s="3">
-        <v>231500</v>
+        <v>223200</v>
       </c>
       <c r="J26" s="3">
-        <v>227300</v>
+        <v>219200</v>
       </c>
       <c r="K26" s="3">
         <v>239800</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>69100</v>
+        <v>66600</v>
       </c>
       <c r="E27" s="3">
-        <v>212900</v>
+        <v>205200</v>
       </c>
       <c r="F27" s="3">
-        <v>282400</v>
+        <v>272300</v>
       </c>
       <c r="G27" s="3">
-        <v>288900</v>
+        <v>278600</v>
       </c>
       <c r="H27" s="3">
-        <v>278200</v>
+        <v>268200</v>
       </c>
       <c r="I27" s="3">
-        <v>229700</v>
+        <v>221500</v>
       </c>
       <c r="J27" s="3">
-        <v>226700</v>
+        <v>218600</v>
       </c>
       <c r="K27" s="3">
         <v>238200</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-92000</v>
+        <v>-88700</v>
       </c>
       <c r="E32" s="3">
-        <v>-142700</v>
+        <v>-137600</v>
       </c>
       <c r="F32" s="3">
-        <v>-108800</v>
+        <v>-104900</v>
       </c>
       <c r="G32" s="3">
-        <v>-58600</v>
+        <v>-56500</v>
       </c>
       <c r="H32" s="3">
-        <v>-51000</v>
+        <v>-49200</v>
       </c>
       <c r="I32" s="3">
-        <v>-49400</v>
+        <v>-47700</v>
       </c>
       <c r="J32" s="3">
-        <v>-26300</v>
+        <v>-25400</v>
       </c>
       <c r="K32" s="3">
         <v>-48200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>69100</v>
+        <v>66600</v>
       </c>
       <c r="E33" s="3">
-        <v>212900</v>
+        <v>205200</v>
       </c>
       <c r="F33" s="3">
-        <v>282400</v>
+        <v>272300</v>
       </c>
       <c r="G33" s="3">
-        <v>288900</v>
+        <v>278600</v>
       </c>
       <c r="H33" s="3">
-        <v>278200</v>
+        <v>268200</v>
       </c>
       <c r="I33" s="3">
-        <v>229700</v>
+        <v>221500</v>
       </c>
       <c r="J33" s="3">
-        <v>226700</v>
+        <v>218600</v>
       </c>
       <c r="K33" s="3">
         <v>238200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>69100</v>
+        <v>66600</v>
       </c>
       <c r="E35" s="3">
-        <v>212900</v>
+        <v>205200</v>
       </c>
       <c r="F35" s="3">
-        <v>282400</v>
+        <v>272300</v>
       </c>
       <c r="G35" s="3">
-        <v>288900</v>
+        <v>278600</v>
       </c>
       <c r="H35" s="3">
-        <v>278200</v>
+        <v>268200</v>
       </c>
       <c r="I35" s="3">
-        <v>229700</v>
+        <v>221500</v>
       </c>
       <c r="J35" s="3">
-        <v>226700</v>
+        <v>218600</v>
       </c>
       <c r="K35" s="3">
         <v>238200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>396400</v>
+        <v>377400</v>
       </c>
       <c r="E41" s="3">
-        <v>738200</v>
+        <v>702700</v>
       </c>
       <c r="F41" s="3">
-        <v>937400</v>
+        <v>892400</v>
       </c>
       <c r="G41" s="3">
-        <v>1602000</v>
+        <v>1525000</v>
       </c>
       <c r="H41" s="3">
-        <v>506500</v>
+        <v>482200</v>
       </c>
       <c r="I41" s="3">
-        <v>1059700</v>
+        <v>1008800</v>
       </c>
       <c r="J41" s="3">
-        <v>426500</v>
+        <v>406100</v>
       </c>
       <c r="K41" s="3">
         <v>472000</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>579100</v>
+        <v>551300</v>
       </c>
       <c r="E42" s="3">
-        <v>534700</v>
+        <v>509000</v>
       </c>
       <c r="F42" s="3">
-        <v>481100</v>
+        <v>458000</v>
       </c>
       <c r="G42" s="3">
-        <v>529400</v>
+        <v>504000</v>
       </c>
       <c r="H42" s="3">
-        <v>150500</v>
+        <v>143300</v>
       </c>
       <c r="I42" s="3">
-        <v>270200</v>
+        <v>257200</v>
       </c>
       <c r="J42" s="3">
-        <v>215300</v>
+        <v>205000</v>
       </c>
       <c r="K42" s="3">
         <v>684500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1042000</v>
+        <v>991900</v>
       </c>
       <c r="E43" s="3">
-        <v>1010700</v>
+        <v>962100</v>
       </c>
       <c r="F43" s="3">
-        <v>1730200</v>
+        <v>1647100</v>
       </c>
       <c r="G43" s="3">
-        <v>1535700</v>
+        <v>1462000</v>
       </c>
       <c r="H43" s="3">
-        <v>717400</v>
+        <v>683000</v>
       </c>
       <c r="I43" s="3">
-        <v>607300</v>
+        <v>578200</v>
       </c>
       <c r="J43" s="3">
-        <v>528700</v>
+        <v>503300</v>
       </c>
       <c r="K43" s="3">
         <v>655300</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>696300</v>
+        <v>662900</v>
       </c>
       <c r="E44" s="3">
-        <v>628600</v>
+        <v>598400</v>
       </c>
       <c r="F44" s="3">
-        <v>658500</v>
+        <v>626800</v>
       </c>
       <c r="G44" s="3">
-        <v>1038700</v>
+        <v>988800</v>
       </c>
       <c r="H44" s="3">
-        <v>467600</v>
+        <v>445200</v>
       </c>
       <c r="I44" s="3">
-        <v>721500</v>
+        <v>686800</v>
       </c>
       <c r="J44" s="3">
-        <v>298400</v>
+        <v>284100</v>
       </c>
       <c r="K44" s="3">
         <v>301400</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>108100</v>
+        <v>102900</v>
       </c>
       <c r="E45" s="3">
-        <v>125900</v>
+        <v>119900</v>
       </c>
       <c r="F45" s="3">
-        <v>113600</v>
+        <v>108200</v>
       </c>
       <c r="G45" s="3">
-        <v>107200</v>
+        <v>102100</v>
       </c>
       <c r="H45" s="3">
-        <v>15300</v>
+        <v>14500</v>
       </c>
       <c r="I45" s="3">
-        <v>12600</v>
+        <v>12000</v>
       </c>
       <c r="J45" s="3">
-        <v>12200</v>
+        <v>11600</v>
       </c>
       <c r="K45" s="3">
         <v>29900</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2821900</v>
+        <v>2686400</v>
       </c>
       <c r="E46" s="3">
-        <v>3038100</v>
+        <v>2892200</v>
       </c>
       <c r="F46" s="3">
-        <v>2902800</v>
+        <v>2763400</v>
       </c>
       <c r="G46" s="3">
-        <v>2504800</v>
+        <v>2384500</v>
       </c>
       <c r="H46" s="3">
-        <v>1857400</v>
+        <v>1768200</v>
       </c>
       <c r="I46" s="3">
-        <v>1780700</v>
+        <v>1695200</v>
       </c>
       <c r="J46" s="3">
-        <v>1481200</v>
+        <v>1410100</v>
       </c>
       <c r="K46" s="3">
         <v>1665700</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>371600</v>
+        <v>353700</v>
       </c>
       <c r="E47" s="3">
-        <v>302800</v>
+        <v>288300</v>
       </c>
       <c r="F47" s="3">
-        <v>166100</v>
+        <v>158100</v>
       </c>
       <c r="G47" s="3">
-        <v>106800</v>
+        <v>101600</v>
       </c>
       <c r="H47" s="3">
-        <v>164000</v>
+        <v>156200</v>
       </c>
       <c r="I47" s="3">
-        <v>94200</v>
+        <v>89700</v>
       </c>
       <c r="J47" s="3">
-        <v>68900</v>
+        <v>65600</v>
       </c>
       <c r="K47" s="3">
         <v>132300</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1790400</v>
+        <v>1704400</v>
       </c>
       <c r="E48" s="3">
-        <v>1364100</v>
+        <v>1298500</v>
       </c>
       <c r="F48" s="3">
-        <v>2487200</v>
+        <v>2367800</v>
       </c>
       <c r="G48" s="3">
-        <v>2170900</v>
+        <v>2066700</v>
       </c>
       <c r="H48" s="3">
-        <v>1019200</v>
+        <v>970300</v>
       </c>
       <c r="I48" s="3">
-        <v>954200</v>
+        <v>908400</v>
       </c>
       <c r="J48" s="3">
-        <v>910800</v>
+        <v>867100</v>
       </c>
       <c r="K48" s="3">
         <v>381600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>330300</v>
+        <v>314400</v>
       </c>
       <c r="E49" s="3">
-        <v>444000</v>
+        <v>422700</v>
       </c>
       <c r="F49" s="3">
-        <v>824700</v>
+        <v>785100</v>
       </c>
       <c r="G49" s="3">
-        <v>986300</v>
+        <v>939000</v>
       </c>
       <c r="H49" s="3">
-        <v>617300</v>
+        <v>587600</v>
       </c>
       <c r="I49" s="3">
-        <v>591800</v>
+        <v>563400</v>
       </c>
       <c r="J49" s="3">
-        <v>387300</v>
+        <v>368700</v>
       </c>
       <c r="K49" s="3">
         <v>918600</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>531900</v>
+        <v>506400</v>
       </c>
       <c r="E52" s="3">
-        <v>566600</v>
+        <v>539400</v>
       </c>
       <c r="F52" s="3">
-        <v>568200</v>
+        <v>540900</v>
       </c>
       <c r="G52" s="3">
-        <v>459300</v>
+        <v>437200</v>
       </c>
       <c r="H52" s="3">
-        <v>223700</v>
+        <v>212900</v>
       </c>
       <c r="I52" s="3">
-        <v>213600</v>
+        <v>203400</v>
       </c>
       <c r="J52" s="3">
-        <v>204100</v>
+        <v>194300</v>
       </c>
       <c r="K52" s="3">
         <v>274300</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5846000</v>
+        <v>5565300</v>
       </c>
       <c r="E54" s="3">
-        <v>5715600</v>
+        <v>5441100</v>
       </c>
       <c r="F54" s="3">
-        <v>5300500</v>
+        <v>5045900</v>
       </c>
       <c r="G54" s="3">
-        <v>4511600</v>
+        <v>4294900</v>
       </c>
       <c r="H54" s="3">
-        <v>3881600</v>
+        <v>3695200</v>
       </c>
       <c r="I54" s="3">
-        <v>3622400</v>
+        <v>3448400</v>
       </c>
       <c r="J54" s="3">
-        <v>3069300</v>
+        <v>2921900</v>
       </c>
       <c r="K54" s="3">
         <v>3561100</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>506000</v>
+        <v>481700</v>
       </c>
       <c r="E57" s="3">
-        <v>511900</v>
+        <v>487300</v>
       </c>
       <c r="F57" s="3">
-        <v>403900</v>
+        <v>384500</v>
       </c>
       <c r="G57" s="3">
-        <v>320400</v>
+        <v>305000</v>
       </c>
       <c r="H57" s="3">
-        <v>273700</v>
+        <v>260600</v>
       </c>
       <c r="I57" s="3">
-        <v>479600</v>
+        <v>456500</v>
       </c>
       <c r="J57" s="3">
-        <v>181600</v>
+        <v>172900</v>
       </c>
       <c r="K57" s="3">
         <v>609500</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>248100</v>
+        <v>236200</v>
       </c>
       <c r="E58" s="3">
-        <v>426100</v>
+        <v>405700</v>
       </c>
       <c r="F58" s="3">
-        <v>656600</v>
+        <v>625100</v>
       </c>
       <c r="G58" s="3">
-        <v>463900</v>
+        <v>441600</v>
       </c>
       <c r="H58" s="3">
-        <v>205700</v>
+        <v>195900</v>
       </c>
       <c r="I58" s="3">
-        <v>645100</v>
+        <v>614100</v>
       </c>
       <c r="J58" s="3">
-        <v>342900</v>
+        <v>326500</v>
       </c>
       <c r="K58" s="3">
         <v>380200</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>219500</v>
+        <v>208900</v>
       </c>
       <c r="E59" s="3">
-        <v>249500</v>
+        <v>237500</v>
       </c>
       <c r="F59" s="3">
-        <v>253100</v>
+        <v>240900</v>
       </c>
       <c r="G59" s="3">
-        <v>243400</v>
+        <v>231700</v>
       </c>
       <c r="H59" s="3">
-        <v>238900</v>
+        <v>227500</v>
       </c>
       <c r="I59" s="3">
-        <v>207000</v>
+        <v>197100</v>
       </c>
       <c r="J59" s="3">
-        <v>180900</v>
+        <v>172300</v>
       </c>
       <c r="K59" s="3">
         <v>185800</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>973600</v>
+        <v>926800</v>
       </c>
       <c r="E60" s="3">
-        <v>1187500</v>
+        <v>1130500</v>
       </c>
       <c r="F60" s="3">
-        <v>1313600</v>
+        <v>1250500</v>
       </c>
       <c r="G60" s="3">
-        <v>1027800</v>
+        <v>978400</v>
       </c>
       <c r="H60" s="3">
-        <v>718400</v>
+        <v>683900</v>
       </c>
       <c r="I60" s="3">
-        <v>1066700</v>
+        <v>1015500</v>
       </c>
       <c r="J60" s="3">
-        <v>705500</v>
+        <v>671600</v>
       </c>
       <c r="K60" s="3">
         <v>869000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2746800</v>
+        <v>2614900</v>
       </c>
       <c r="E61" s="3">
-        <v>2423500</v>
+        <v>2307100</v>
       </c>
       <c r="F61" s="3">
-        <v>1890300</v>
+        <v>1799500</v>
       </c>
       <c r="G61" s="3">
-        <v>1675600</v>
+        <v>1595200</v>
       </c>
       <c r="H61" s="3">
-        <v>1462400</v>
+        <v>1392200</v>
       </c>
       <c r="I61" s="3">
-        <v>924400</v>
+        <v>880000</v>
       </c>
       <c r="J61" s="3">
-        <v>963200</v>
+        <v>916900</v>
       </c>
       <c r="K61" s="3">
         <v>1071400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>282500</v>
+        <v>269000</v>
       </c>
       <c r="E62" s="3">
-        <v>268100</v>
+        <v>255200</v>
       </c>
       <c r="F62" s="3">
-        <v>293000</v>
+        <v>279000</v>
       </c>
       <c r="G62" s="3">
-        <v>219800</v>
+        <v>209200</v>
       </c>
       <c r="H62" s="3">
-        <v>227500</v>
+        <v>216600</v>
       </c>
       <c r="I62" s="3">
-        <v>200500</v>
+        <v>190900</v>
       </c>
       <c r="J62" s="3">
-        <v>173800</v>
+        <v>165500</v>
       </c>
       <c r="K62" s="3">
         <v>218200</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4073600</v>
+        <v>3877900</v>
       </c>
       <c r="E66" s="3">
-        <v>3945000</v>
+        <v>3755600</v>
       </c>
       <c r="F66" s="3">
-        <v>3567700</v>
+        <v>3396400</v>
       </c>
       <c r="G66" s="3">
-        <v>2928900</v>
+        <v>2788300</v>
       </c>
       <c r="H66" s="3">
-        <v>2392700</v>
+        <v>2277800</v>
       </c>
       <c r="I66" s="3">
-        <v>2179800</v>
+        <v>2075100</v>
       </c>
       <c r="J66" s="3">
-        <v>1847500</v>
+        <v>1758800</v>
       </c>
       <c r="K66" s="3">
         <v>2164500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>902500</v>
+        <v>859100</v>
       </c>
       <c r="E72" s="3">
-        <v>892000</v>
+        <v>849200</v>
       </c>
       <c r="F72" s="3">
-        <v>918100</v>
+        <v>874000</v>
       </c>
       <c r="G72" s="3">
-        <v>1060500</v>
+        <v>1009500</v>
       </c>
       <c r="H72" s="3">
-        <v>845400</v>
+        <v>804800</v>
       </c>
       <c r="I72" s="3">
-        <v>733100</v>
+        <v>697900</v>
       </c>
       <c r="J72" s="3">
-        <v>542400</v>
+        <v>516400</v>
       </c>
       <c r="K72" s="3">
         <v>560100</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1772500</v>
+        <v>1687400</v>
       </c>
       <c r="E76" s="3">
-        <v>1770600</v>
+        <v>1685500</v>
       </c>
       <c r="F76" s="3">
-        <v>1732700</v>
+        <v>1649500</v>
       </c>
       <c r="G76" s="3">
-        <v>1582600</v>
+        <v>1506600</v>
       </c>
       <c r="H76" s="3">
-        <v>1488900</v>
+        <v>1417400</v>
       </c>
       <c r="I76" s="3">
-        <v>1442600</v>
+        <v>1373300</v>
       </c>
       <c r="J76" s="3">
-        <v>1221800</v>
+        <v>1163200</v>
       </c>
       <c r="K76" s="3">
         <v>1423400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>69100</v>
+        <v>66600</v>
       </c>
       <c r="E81" s="3">
-        <v>212900</v>
+        <v>205200</v>
       </c>
       <c r="F81" s="3">
-        <v>282400</v>
+        <v>272300</v>
       </c>
       <c r="G81" s="3">
-        <v>288900</v>
+        <v>278600</v>
       </c>
       <c r="H81" s="3">
-        <v>278200</v>
+        <v>268200</v>
       </c>
       <c r="I81" s="3">
-        <v>229700</v>
+        <v>221500</v>
       </c>
       <c r="J81" s="3">
-        <v>226700</v>
+        <v>218600</v>
       </c>
       <c r="K81" s="3">
         <v>238200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>211800</v>
+        <v>204200</v>
       </c>
       <c r="E83" s="3">
-        <v>150300</v>
+        <v>144900</v>
       </c>
       <c r="F83" s="3">
-        <v>130400</v>
+        <v>125700</v>
       </c>
       <c r="G83" s="3">
-        <v>204200</v>
+        <v>196900</v>
       </c>
       <c r="H83" s="3">
-        <v>185500</v>
+        <v>178900</v>
       </c>
       <c r="I83" s="3">
-        <v>164300</v>
+        <v>158400</v>
       </c>
       <c r="J83" s="3">
-        <v>144100</v>
+        <v>139000</v>
       </c>
       <c r="K83" s="3">
         <v>161800</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>541200</v>
+        <v>521800</v>
       </c>
       <c r="E89" s="3">
-        <v>534500</v>
+        <v>515400</v>
       </c>
       <c r="F89" s="3">
-        <v>321800</v>
+        <v>310200</v>
       </c>
       <c r="G89" s="3">
-        <v>465100</v>
+        <v>448400</v>
       </c>
       <c r="H89" s="3">
-        <v>592400</v>
+        <v>571200</v>
       </c>
       <c r="I89" s="3">
-        <v>490500</v>
+        <v>472900</v>
       </c>
       <c r="J89" s="3">
-        <v>392400</v>
+        <v>378300</v>
       </c>
       <c r="K89" s="3">
         <v>570600</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-188700</v>
+        <v>-182000</v>
       </c>
       <c r="E91" s="3">
-        <v>-218000</v>
+        <v>-210200</v>
       </c>
       <c r="F91" s="3">
-        <v>-240900</v>
+        <v>-232300</v>
       </c>
       <c r="G91" s="3">
-        <v>-187800</v>
+        <v>-181100</v>
       </c>
       <c r="H91" s="3">
-        <v>-148700</v>
+        <v>-143300</v>
       </c>
       <c r="I91" s="3">
-        <v>-130600</v>
+        <v>-125900</v>
       </c>
       <c r="J91" s="3">
-        <v>-122300</v>
+        <v>-118000</v>
       </c>
       <c r="K91" s="3">
         <v>-176100</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-339600</v>
+        <v>-327400</v>
       </c>
       <c r="E94" s="3">
-        <v>-588000</v>
+        <v>-566900</v>
       </c>
       <c r="F94" s="3">
-        <v>-253800</v>
+        <v>-244700</v>
       </c>
       <c r="G94" s="3">
-        <v>-342100</v>
+        <v>-329800</v>
       </c>
       <c r="H94" s="3">
-        <v>-148400</v>
+        <v>-143000</v>
       </c>
       <c r="I94" s="3">
-        <v>-285000</v>
+        <v>-274800</v>
       </c>
       <c r="J94" s="3">
-        <v>-238300</v>
+        <v>-229800</v>
       </c>
       <c r="K94" s="3">
         <v>-365500</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-110400</v>
+        <v>-106400</v>
       </c>
       <c r="E96" s="3">
-        <v>-149600</v>
+        <v>-144300</v>
       </c>
       <c r="F96" s="3">
-        <v>-174000</v>
+        <v>-167700</v>
       </c>
       <c r="G96" s="3">
-        <v>-161600</v>
+        <v>-155800</v>
       </c>
       <c r="H96" s="3">
-        <v>-153900</v>
+        <v>-148400</v>
       </c>
       <c r="I96" s="3">
-        <v>-144900</v>
+        <v>-139700</v>
       </c>
       <c r="J96" s="3">
-        <v>-131600</v>
+        <v>-126900</v>
       </c>
       <c r="K96" s="3">
         <v>-128100</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-540700</v>
+        <v>-521300</v>
       </c>
       <c r="E100" s="3">
-        <v>-148200</v>
+        <v>-142900</v>
       </c>
       <c r="F100" s="3">
-        <v>63000</v>
+        <v>60700</v>
       </c>
       <c r="G100" s="3">
-        <v>171800</v>
+        <v>165600</v>
       </c>
       <c r="H100" s="3">
-        <v>-466400</v>
+        <v>-449700</v>
       </c>
       <c r="I100" s="3">
-        <v>-99800</v>
+        <v>-96200</v>
       </c>
       <c r="J100" s="3">
-        <v>-107100</v>
+        <v>-103300</v>
       </c>
       <c r="K100" s="3">
         <v>-145400</v>
@@ -3463,22 +3463,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E101" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="F101" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="G101" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="H101" s="3">
         <v>-700</v>
       </c>
       <c r="I101" s="3">
-        <v>-3700</v>
+        <v>-3500</v>
       </c>
       <c r="J101" s="3">
         <v>200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-337400</v>
+        <v>-325300</v>
       </c>
       <c r="E102" s="3">
-        <v>-196700</v>
+        <v>-189600</v>
       </c>
       <c r="F102" s="3">
-        <v>134700</v>
+        <v>129800</v>
       </c>
       <c r="G102" s="3">
-        <v>290700</v>
+        <v>280300</v>
       </c>
       <c r="H102" s="3">
-        <v>-23000</v>
+        <v>-22200</v>
       </c>
       <c r="I102" s="3">
-        <v>102000</v>
+        <v>98400</v>
       </c>
       <c r="J102" s="3">
-        <v>47200</v>
+        <v>45500</v>
       </c>
       <c r="K102" s="3">
         <v>59700</v>

--- a/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15930800</v>
+        <v>16710300</v>
       </c>
       <c r="E8" s="3">
-        <v>16180500</v>
+        <v>16972300</v>
       </c>
       <c r="F8" s="3">
-        <v>14134600</v>
+        <v>14826300</v>
       </c>
       <c r="G8" s="3">
-        <v>13799800</v>
+        <v>14475100</v>
       </c>
       <c r="H8" s="3">
-        <v>13496900</v>
+        <v>14157400</v>
       </c>
       <c r="I8" s="3">
-        <v>12084200</v>
+        <v>12675500</v>
       </c>
       <c r="J8" s="3">
-        <v>10871700</v>
+        <v>11403700</v>
       </c>
       <c r="K8" s="3">
         <v>12579500</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14840600</v>
+        <v>15566800</v>
       </c>
       <c r="E9" s="3">
-        <v>15081500</v>
+        <v>15819500</v>
       </c>
       <c r="F9" s="3">
-        <v>12921800</v>
+        <v>13554100</v>
       </c>
       <c r="G9" s="3">
-        <v>12549100</v>
+        <v>13163200</v>
       </c>
       <c r="H9" s="3">
-        <v>12297800</v>
+        <v>12899600</v>
       </c>
       <c r="I9" s="3">
-        <v>11115100</v>
+        <v>11659100</v>
       </c>
       <c r="J9" s="3">
-        <v>20039800</v>
+        <v>21020500</v>
       </c>
       <c r="K9" s="3">
         <v>11621900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1090200</v>
+        <v>1143500</v>
       </c>
       <c r="E10" s="3">
-        <v>1099100</v>
+        <v>1152800</v>
       </c>
       <c r="F10" s="3">
-        <v>1212900</v>
+        <v>1272200</v>
       </c>
       <c r="G10" s="3">
-        <v>1250600</v>
+        <v>1311800</v>
       </c>
       <c r="H10" s="3">
-        <v>1199100</v>
+        <v>1257800</v>
       </c>
       <c r="I10" s="3">
-        <v>969000</v>
+        <v>1016400</v>
       </c>
       <c r="J10" s="3">
-        <v>-9168100</v>
+        <v>-9616700</v>
       </c>
       <c r="K10" s="3">
         <v>957600</v>
@@ -897,7 +897,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>105800</v>
+        <v>111000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="E15" s="3">
-        <v>15000</v>
+        <v>15800</v>
       </c>
       <c r="F15" s="3">
-        <v>12300</v>
+        <v>12900</v>
       </c>
       <c r="G15" s="3">
-        <v>96400</v>
+        <v>101100</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I15" s="3">
-        <v>72700</v>
+        <v>76200</v>
       </c>
       <c r="J15" s="3">
-        <v>58700</v>
+        <v>61600</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15700900</v>
+        <v>16469200</v>
       </c>
       <c r="E17" s="3">
-        <v>15844300</v>
+        <v>16619700</v>
       </c>
       <c r="F17" s="3">
-        <v>13632700</v>
+        <v>14299800</v>
       </c>
       <c r="G17" s="3">
-        <v>13244400</v>
+        <v>13892500</v>
       </c>
       <c r="H17" s="3">
-        <v>12970500</v>
+        <v>13605200</v>
       </c>
       <c r="I17" s="3">
-        <v>11676200</v>
+        <v>12247600</v>
       </c>
       <c r="J17" s="3">
-        <v>10489200</v>
+        <v>11002500</v>
       </c>
       <c r="K17" s="3">
         <v>12180600</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>229900</v>
+        <v>241100</v>
       </c>
       <c r="E18" s="3">
-        <v>336200</v>
+        <v>352700</v>
       </c>
       <c r="F18" s="3">
-        <v>501900</v>
+        <v>526500</v>
       </c>
       <c r="G18" s="3">
-        <v>555400</v>
+        <v>582600</v>
       </c>
       <c r="H18" s="3">
-        <v>526400</v>
+        <v>552200</v>
       </c>
       <c r="I18" s="3">
-        <v>407900</v>
+        <v>427900</v>
       </c>
       <c r="J18" s="3">
-        <v>382500</v>
+        <v>401200</v>
       </c>
       <c r="K18" s="3">
         <v>398800</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>88700</v>
+        <v>93100</v>
       </c>
       <c r="E20" s="3">
-        <v>137600</v>
+        <v>144300</v>
       </c>
       <c r="F20" s="3">
-        <v>104900</v>
+        <v>110000</v>
       </c>
       <c r="G20" s="3">
-        <v>56500</v>
+        <v>59300</v>
       </c>
       <c r="H20" s="3">
-        <v>49200</v>
+        <v>51600</v>
       </c>
       <c r="I20" s="3">
-        <v>47700</v>
+        <v>50000</v>
       </c>
       <c r="J20" s="3">
-        <v>25400</v>
+        <v>26600</v>
       </c>
       <c r="K20" s="3">
         <v>48200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>526400</v>
+        <v>548700</v>
       </c>
       <c r="E21" s="3">
-        <v>621300</v>
+        <v>649200</v>
       </c>
       <c r="F21" s="3">
-        <v>734700</v>
+        <v>768500</v>
       </c>
       <c r="G21" s="3">
-        <v>812300</v>
+        <v>848600</v>
       </c>
       <c r="H21" s="3">
-        <v>757600</v>
+        <v>791600</v>
       </c>
       <c r="I21" s="3">
-        <v>616800</v>
+        <v>644200</v>
       </c>
       <c r="J21" s="3">
-        <v>549300</v>
+        <v>573800</v>
       </c>
       <c r="K21" s="3">
         <v>610700</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>179200</v>
+        <v>187900</v>
       </c>
       <c r="E22" s="3">
-        <v>157800</v>
+        <v>165600</v>
       </c>
       <c r="F22" s="3">
-        <v>189500</v>
+        <v>198800</v>
       </c>
       <c r="G22" s="3">
-        <v>206800</v>
+        <v>217000</v>
       </c>
       <c r="H22" s="3">
-        <v>174700</v>
+        <v>183200</v>
       </c>
       <c r="I22" s="3">
-        <v>130100</v>
+        <v>136400</v>
       </c>
       <c r="J22" s="3">
-        <v>86500</v>
+        <v>90700</v>
       </c>
       <c r="K22" s="3">
         <v>108900</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>139400</v>
+        <v>146300</v>
       </c>
       <c r="E23" s="3">
-        <v>316000</v>
+        <v>331400</v>
       </c>
       <c r="F23" s="3">
-        <v>417300</v>
+        <v>437700</v>
       </c>
       <c r="G23" s="3">
-        <v>405100</v>
+        <v>424900</v>
       </c>
       <c r="H23" s="3">
-        <v>400900</v>
+        <v>420500</v>
       </c>
       <c r="I23" s="3">
-        <v>325500</v>
+        <v>341500</v>
       </c>
       <c r="J23" s="3">
-        <v>321400</v>
+        <v>337100</v>
       </c>
       <c r="K23" s="3">
         <v>338100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>67500</v>
+        <v>70800</v>
       </c>
       <c r="E24" s="3">
-        <v>113900</v>
+        <v>119500</v>
       </c>
       <c r="F24" s="3">
-        <v>145100</v>
+        <v>152200</v>
       </c>
       <c r="G24" s="3">
-        <v>124900</v>
+        <v>131000</v>
       </c>
       <c r="H24" s="3">
-        <v>131000</v>
+        <v>137400</v>
       </c>
       <c r="I24" s="3">
-        <v>102300</v>
+        <v>107300</v>
       </c>
       <c r="J24" s="3">
-        <v>102200</v>
+        <v>107200</v>
       </c>
       <c r="K24" s="3">
         <v>98400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>71900</v>
+        <v>75400</v>
       </c>
       <c r="E26" s="3">
-        <v>202000</v>
+        <v>211900</v>
       </c>
       <c r="F26" s="3">
-        <v>272200</v>
+        <v>285500</v>
       </c>
       <c r="G26" s="3">
-        <v>280200</v>
+        <v>293900</v>
       </c>
       <c r="H26" s="3">
-        <v>269900</v>
+        <v>283100</v>
       </c>
       <c r="I26" s="3">
-        <v>223200</v>
+        <v>234100</v>
       </c>
       <c r="J26" s="3">
-        <v>219200</v>
+        <v>229900</v>
       </c>
       <c r="K26" s="3">
         <v>239800</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>66600</v>
+        <v>69900</v>
       </c>
       <c r="E27" s="3">
-        <v>205200</v>
+        <v>215300</v>
       </c>
       <c r="F27" s="3">
-        <v>272300</v>
+        <v>285700</v>
       </c>
       <c r="G27" s="3">
-        <v>278600</v>
+        <v>292200</v>
       </c>
       <c r="H27" s="3">
-        <v>268200</v>
+        <v>281300</v>
       </c>
       <c r="I27" s="3">
-        <v>221500</v>
+        <v>232300</v>
       </c>
       <c r="J27" s="3">
-        <v>218600</v>
+        <v>229300</v>
       </c>
       <c r="K27" s="3">
         <v>238200</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-88700</v>
+        <v>-93100</v>
       </c>
       <c r="E32" s="3">
-        <v>-137600</v>
+        <v>-144300</v>
       </c>
       <c r="F32" s="3">
-        <v>-104900</v>
+        <v>-110000</v>
       </c>
       <c r="G32" s="3">
-        <v>-56500</v>
+        <v>-59300</v>
       </c>
       <c r="H32" s="3">
-        <v>-49200</v>
+        <v>-51600</v>
       </c>
       <c r="I32" s="3">
-        <v>-47700</v>
+        <v>-50000</v>
       </c>
       <c r="J32" s="3">
-        <v>-25400</v>
+        <v>-26600</v>
       </c>
       <c r="K32" s="3">
         <v>-48200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>66600</v>
+        <v>69900</v>
       </c>
       <c r="E33" s="3">
-        <v>205200</v>
+        <v>215300</v>
       </c>
       <c r="F33" s="3">
-        <v>272300</v>
+        <v>285700</v>
       </c>
       <c r="G33" s="3">
-        <v>278600</v>
+        <v>292200</v>
       </c>
       <c r="H33" s="3">
-        <v>268200</v>
+        <v>281300</v>
       </c>
       <c r="I33" s="3">
-        <v>221500</v>
+        <v>232300</v>
       </c>
       <c r="J33" s="3">
-        <v>218600</v>
+        <v>229300</v>
       </c>
       <c r="K33" s="3">
         <v>238200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>66600</v>
+        <v>69900</v>
       </c>
       <c r="E35" s="3">
-        <v>205200</v>
+        <v>215300</v>
       </c>
       <c r="F35" s="3">
-        <v>272300</v>
+        <v>285700</v>
       </c>
       <c r="G35" s="3">
-        <v>278600</v>
+        <v>292200</v>
       </c>
       <c r="H35" s="3">
-        <v>268200</v>
+        <v>281300</v>
       </c>
       <c r="I35" s="3">
-        <v>221500</v>
+        <v>232300</v>
       </c>
       <c r="J35" s="3">
-        <v>218600</v>
+        <v>229300</v>
       </c>
       <c r="K35" s="3">
         <v>238200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>377400</v>
+        <v>395900</v>
       </c>
       <c r="E41" s="3">
-        <v>702700</v>
+        <v>737100</v>
       </c>
       <c r="F41" s="3">
-        <v>892400</v>
+        <v>936000</v>
       </c>
       <c r="G41" s="3">
-        <v>1525000</v>
+        <v>1599600</v>
       </c>
       <c r="H41" s="3">
-        <v>482200</v>
+        <v>505800</v>
       </c>
       <c r="I41" s="3">
-        <v>1008800</v>
+        <v>1058200</v>
       </c>
       <c r="J41" s="3">
-        <v>406100</v>
+        <v>425900</v>
       </c>
       <c r="K41" s="3">
         <v>472000</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>551300</v>
+        <v>578300</v>
       </c>
       <c r="E42" s="3">
-        <v>509000</v>
+        <v>533900</v>
       </c>
       <c r="F42" s="3">
-        <v>458000</v>
+        <v>480400</v>
       </c>
       <c r="G42" s="3">
-        <v>504000</v>
+        <v>528700</v>
       </c>
       <c r="H42" s="3">
-        <v>143300</v>
+        <v>150300</v>
       </c>
       <c r="I42" s="3">
-        <v>257200</v>
+        <v>269800</v>
       </c>
       <c r="J42" s="3">
-        <v>205000</v>
+        <v>215000</v>
       </c>
       <c r="K42" s="3">
         <v>684500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>991900</v>
+        <v>1040500</v>
       </c>
       <c r="E43" s="3">
-        <v>962100</v>
+        <v>1009200</v>
       </c>
       <c r="F43" s="3">
-        <v>1647100</v>
+        <v>1727700</v>
       </c>
       <c r="G43" s="3">
-        <v>1462000</v>
+        <v>1533500</v>
       </c>
       <c r="H43" s="3">
-        <v>683000</v>
+        <v>716400</v>
       </c>
       <c r="I43" s="3">
-        <v>578200</v>
+        <v>606500</v>
       </c>
       <c r="J43" s="3">
-        <v>503300</v>
+        <v>527900</v>
       </c>
       <c r="K43" s="3">
         <v>655300</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>662900</v>
+        <v>695300</v>
       </c>
       <c r="E44" s="3">
-        <v>598400</v>
+        <v>627700</v>
       </c>
       <c r="F44" s="3">
-        <v>626800</v>
+        <v>657500</v>
       </c>
       <c r="G44" s="3">
-        <v>988800</v>
+        <v>1037200</v>
       </c>
       <c r="H44" s="3">
-        <v>445200</v>
+        <v>466900</v>
       </c>
       <c r="I44" s="3">
-        <v>686800</v>
+        <v>720500</v>
       </c>
       <c r="J44" s="3">
-        <v>284100</v>
+        <v>298000</v>
       </c>
       <c r="K44" s="3">
         <v>301400</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>102900</v>
+        <v>107900</v>
       </c>
       <c r="E45" s="3">
-        <v>119900</v>
+        <v>125800</v>
       </c>
       <c r="F45" s="3">
-        <v>108200</v>
+        <v>113400</v>
       </c>
       <c r="G45" s="3">
-        <v>102100</v>
+        <v>107100</v>
       </c>
       <c r="H45" s="3">
-        <v>14500</v>
+        <v>15200</v>
       </c>
       <c r="I45" s="3">
-        <v>12000</v>
+        <v>12600</v>
       </c>
       <c r="J45" s="3">
-        <v>11600</v>
+        <v>12200</v>
       </c>
       <c r="K45" s="3">
         <v>29900</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2686400</v>
+        <v>2817800</v>
       </c>
       <c r="E46" s="3">
-        <v>2892200</v>
+        <v>3033700</v>
       </c>
       <c r="F46" s="3">
-        <v>2763400</v>
+        <v>2898700</v>
       </c>
       <c r="G46" s="3">
-        <v>2384500</v>
+        <v>2501200</v>
       </c>
       <c r="H46" s="3">
-        <v>1768200</v>
+        <v>1854700</v>
       </c>
       <c r="I46" s="3">
-        <v>1695200</v>
+        <v>1778200</v>
       </c>
       <c r="J46" s="3">
-        <v>1410100</v>
+        <v>1479100</v>
       </c>
       <c r="K46" s="3">
         <v>1665700</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>353700</v>
+        <v>371000</v>
       </c>
       <c r="E47" s="3">
-        <v>288300</v>
+        <v>302400</v>
       </c>
       <c r="F47" s="3">
-        <v>158100</v>
+        <v>165800</v>
       </c>
       <c r="G47" s="3">
-        <v>101600</v>
+        <v>106600</v>
       </c>
       <c r="H47" s="3">
-        <v>156200</v>
+        <v>163800</v>
       </c>
       <c r="I47" s="3">
-        <v>89700</v>
+        <v>94100</v>
       </c>
       <c r="J47" s="3">
-        <v>65600</v>
+        <v>68800</v>
       </c>
       <c r="K47" s="3">
         <v>132300</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1704400</v>
+        <v>1787800</v>
       </c>
       <c r="E48" s="3">
-        <v>1298500</v>
+        <v>1362100</v>
       </c>
       <c r="F48" s="3">
-        <v>2367800</v>
+        <v>2483700</v>
       </c>
       <c r="G48" s="3">
-        <v>2066700</v>
+        <v>2167800</v>
       </c>
       <c r="H48" s="3">
-        <v>970300</v>
+        <v>1017800</v>
       </c>
       <c r="I48" s="3">
-        <v>908400</v>
+        <v>952900</v>
       </c>
       <c r="J48" s="3">
-        <v>867100</v>
+        <v>909500</v>
       </c>
       <c r="K48" s="3">
         <v>381600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>314400</v>
+        <v>329800</v>
       </c>
       <c r="E49" s="3">
-        <v>422700</v>
+        <v>443400</v>
       </c>
       <c r="F49" s="3">
-        <v>785100</v>
+        <v>823500</v>
       </c>
       <c r="G49" s="3">
-        <v>939000</v>
+        <v>984900</v>
       </c>
       <c r="H49" s="3">
-        <v>587600</v>
+        <v>616400</v>
       </c>
       <c r="I49" s="3">
-        <v>563400</v>
+        <v>591000</v>
       </c>
       <c r="J49" s="3">
-        <v>368700</v>
+        <v>386800</v>
       </c>
       <c r="K49" s="3">
         <v>918600</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>506400</v>
+        <v>531100</v>
       </c>
       <c r="E52" s="3">
-        <v>539400</v>
+        <v>565800</v>
       </c>
       <c r="F52" s="3">
-        <v>540900</v>
+        <v>567400</v>
       </c>
       <c r="G52" s="3">
-        <v>437200</v>
+        <v>458600</v>
       </c>
       <c r="H52" s="3">
-        <v>212900</v>
+        <v>223300</v>
       </c>
       <c r="I52" s="3">
-        <v>203400</v>
+        <v>213300</v>
       </c>
       <c r="J52" s="3">
-        <v>194300</v>
+        <v>203800</v>
       </c>
       <c r="K52" s="3">
         <v>274300</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5565300</v>
+        <v>5837600</v>
       </c>
       <c r="E54" s="3">
-        <v>5441100</v>
+        <v>5707400</v>
       </c>
       <c r="F54" s="3">
-        <v>5045900</v>
+        <v>5292800</v>
       </c>
       <c r="G54" s="3">
-        <v>4294900</v>
+        <v>4505100</v>
       </c>
       <c r="H54" s="3">
-        <v>3695200</v>
+        <v>3876000</v>
       </c>
       <c r="I54" s="3">
-        <v>3448400</v>
+        <v>3617200</v>
       </c>
       <c r="J54" s="3">
-        <v>2921900</v>
+        <v>3064900</v>
       </c>
       <c r="K54" s="3">
         <v>3561100</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>481700</v>
+        <v>505300</v>
       </c>
       <c r="E57" s="3">
-        <v>487300</v>
+        <v>511200</v>
       </c>
       <c r="F57" s="3">
-        <v>384500</v>
+        <v>403400</v>
       </c>
       <c r="G57" s="3">
-        <v>305000</v>
+        <v>319900</v>
       </c>
       <c r="H57" s="3">
-        <v>260600</v>
+        <v>273300</v>
       </c>
       <c r="I57" s="3">
-        <v>456500</v>
+        <v>478900</v>
       </c>
       <c r="J57" s="3">
-        <v>172900</v>
+        <v>181300</v>
       </c>
       <c r="K57" s="3">
         <v>609500</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>236200</v>
+        <v>247700</v>
       </c>
       <c r="E58" s="3">
-        <v>405700</v>
+        <v>425500</v>
       </c>
       <c r="F58" s="3">
-        <v>625100</v>
+        <v>655600</v>
       </c>
       <c r="G58" s="3">
-        <v>441600</v>
+        <v>463300</v>
       </c>
       <c r="H58" s="3">
-        <v>195900</v>
+        <v>205400</v>
       </c>
       <c r="I58" s="3">
-        <v>614100</v>
+        <v>644200</v>
       </c>
       <c r="J58" s="3">
-        <v>326500</v>
+        <v>342400</v>
       </c>
       <c r="K58" s="3">
         <v>380200</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>208900</v>
+        <v>219200</v>
       </c>
       <c r="E59" s="3">
-        <v>237500</v>
+        <v>249100</v>
       </c>
       <c r="F59" s="3">
-        <v>240900</v>
+        <v>252700</v>
       </c>
       <c r="G59" s="3">
-        <v>231700</v>
+        <v>243100</v>
       </c>
       <c r="H59" s="3">
-        <v>227500</v>
+        <v>238600</v>
       </c>
       <c r="I59" s="3">
-        <v>197100</v>
+        <v>206700</v>
       </c>
       <c r="J59" s="3">
-        <v>172300</v>
+        <v>180700</v>
       </c>
       <c r="K59" s="3">
         <v>185800</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>926800</v>
+        <v>972200</v>
       </c>
       <c r="E60" s="3">
-        <v>1130500</v>
+        <v>1185800</v>
       </c>
       <c r="F60" s="3">
-        <v>1250500</v>
+        <v>1311700</v>
       </c>
       <c r="G60" s="3">
-        <v>978400</v>
+        <v>1026300</v>
       </c>
       <c r="H60" s="3">
-        <v>683900</v>
+        <v>717300</v>
       </c>
       <c r="I60" s="3">
-        <v>1015500</v>
+        <v>1065200</v>
       </c>
       <c r="J60" s="3">
-        <v>671600</v>
+        <v>704400</v>
       </c>
       <c r="K60" s="3">
         <v>869000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2614900</v>
+        <v>2742900</v>
       </c>
       <c r="E61" s="3">
-        <v>2307100</v>
+        <v>2420000</v>
       </c>
       <c r="F61" s="3">
-        <v>1799500</v>
+        <v>1887600</v>
       </c>
       <c r="G61" s="3">
-        <v>1595200</v>
+        <v>1673200</v>
       </c>
       <c r="H61" s="3">
-        <v>1392200</v>
+        <v>1460300</v>
       </c>
       <c r="I61" s="3">
-        <v>880000</v>
+        <v>923100</v>
       </c>
       <c r="J61" s="3">
-        <v>916900</v>
+        <v>961800</v>
       </c>
       <c r="K61" s="3">
         <v>1071400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>269000</v>
+        <v>282100</v>
       </c>
       <c r="E62" s="3">
-        <v>255200</v>
+        <v>267700</v>
       </c>
       <c r="F62" s="3">
-        <v>279000</v>
+        <v>292600</v>
       </c>
       <c r="G62" s="3">
-        <v>209200</v>
+        <v>219400</v>
       </c>
       <c r="H62" s="3">
-        <v>216600</v>
+        <v>227200</v>
       </c>
       <c r="I62" s="3">
-        <v>190900</v>
+        <v>200300</v>
       </c>
       <c r="J62" s="3">
-        <v>165500</v>
+        <v>173600</v>
       </c>
       <c r="K62" s="3">
         <v>218200</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3877900</v>
+        <v>4067700</v>
       </c>
       <c r="E66" s="3">
-        <v>3755600</v>
+        <v>3939300</v>
       </c>
       <c r="F66" s="3">
-        <v>3396400</v>
+        <v>3562600</v>
       </c>
       <c r="G66" s="3">
-        <v>2788300</v>
+        <v>2924700</v>
       </c>
       <c r="H66" s="3">
-        <v>2277800</v>
+        <v>2389300</v>
       </c>
       <c r="I66" s="3">
-        <v>2075100</v>
+        <v>2176600</v>
       </c>
       <c r="J66" s="3">
-        <v>1758800</v>
+        <v>1844800</v>
       </c>
       <c r="K66" s="3">
         <v>2164500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>859100</v>
+        <v>901200</v>
       </c>
       <c r="E72" s="3">
-        <v>849200</v>
+        <v>890700</v>
       </c>
       <c r="F72" s="3">
-        <v>874000</v>
+        <v>916800</v>
       </c>
       <c r="G72" s="3">
-        <v>1009500</v>
+        <v>1058900</v>
       </c>
       <c r="H72" s="3">
-        <v>804800</v>
+        <v>844200</v>
       </c>
       <c r="I72" s="3">
-        <v>697900</v>
+        <v>732100</v>
       </c>
       <c r="J72" s="3">
-        <v>516400</v>
+        <v>541700</v>
       </c>
       <c r="K72" s="3">
         <v>560100</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1687400</v>
+        <v>1769900</v>
       </c>
       <c r="E76" s="3">
-        <v>1685500</v>
+        <v>1768000</v>
       </c>
       <c r="F76" s="3">
-        <v>1649500</v>
+        <v>1730200</v>
       </c>
       <c r="G76" s="3">
-        <v>1506600</v>
+        <v>1580300</v>
       </c>
       <c r="H76" s="3">
-        <v>1417400</v>
+        <v>1486800</v>
       </c>
       <c r="I76" s="3">
-        <v>1373300</v>
+        <v>1440500</v>
       </c>
       <c r="J76" s="3">
-        <v>1163200</v>
+        <v>1220100</v>
       </c>
       <c r="K76" s="3">
         <v>1423400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>66600</v>
+        <v>69900</v>
       </c>
       <c r="E81" s="3">
-        <v>205200</v>
+        <v>215300</v>
       </c>
       <c r="F81" s="3">
-        <v>272300</v>
+        <v>285700</v>
       </c>
       <c r="G81" s="3">
-        <v>278600</v>
+        <v>292200</v>
       </c>
       <c r="H81" s="3">
-        <v>268200</v>
+        <v>281300</v>
       </c>
       <c r="I81" s="3">
-        <v>221500</v>
+        <v>232300</v>
       </c>
       <c r="J81" s="3">
-        <v>218600</v>
+        <v>229300</v>
       </c>
       <c r="K81" s="3">
         <v>238200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>204200</v>
+        <v>214200</v>
       </c>
       <c r="E83" s="3">
-        <v>144900</v>
+        <v>152000</v>
       </c>
       <c r="F83" s="3">
-        <v>125700</v>
+        <v>131800</v>
       </c>
       <c r="G83" s="3">
-        <v>196900</v>
+        <v>206500</v>
       </c>
       <c r="H83" s="3">
-        <v>178900</v>
+        <v>187600</v>
       </c>
       <c r="I83" s="3">
-        <v>158400</v>
+        <v>166100</v>
       </c>
       <c r="J83" s="3">
-        <v>139000</v>
+        <v>145800</v>
       </c>
       <c r="K83" s="3">
         <v>161800</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>521800</v>
+        <v>547300</v>
       </c>
       <c r="E89" s="3">
-        <v>515400</v>
+        <v>540600</v>
       </c>
       <c r="F89" s="3">
-        <v>310200</v>
+        <v>325400</v>
       </c>
       <c r="G89" s="3">
-        <v>448400</v>
+        <v>470400</v>
       </c>
       <c r="H89" s="3">
-        <v>571200</v>
+        <v>599100</v>
       </c>
       <c r="I89" s="3">
-        <v>472900</v>
+        <v>496000</v>
       </c>
       <c r="J89" s="3">
-        <v>378300</v>
+        <v>396800</v>
       </c>
       <c r="K89" s="3">
         <v>570600</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-182000</v>
+        <v>-190900</v>
       </c>
       <c r="E91" s="3">
-        <v>-210200</v>
+        <v>-220500</v>
       </c>
       <c r="F91" s="3">
-        <v>-232300</v>
+        <v>-243700</v>
       </c>
       <c r="G91" s="3">
-        <v>-181100</v>
+        <v>-190000</v>
       </c>
       <c r="H91" s="3">
-        <v>-143300</v>
+        <v>-150400</v>
       </c>
       <c r="I91" s="3">
-        <v>-125900</v>
+        <v>-132100</v>
       </c>
       <c r="J91" s="3">
-        <v>-118000</v>
+        <v>-123700</v>
       </c>
       <c r="K91" s="3">
         <v>-176100</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-327400</v>
+        <v>-343400</v>
       </c>
       <c r="E94" s="3">
-        <v>-566900</v>
+        <v>-594600</v>
       </c>
       <c r="F94" s="3">
-        <v>-244700</v>
+        <v>-256700</v>
       </c>
       <c r="G94" s="3">
-        <v>-329800</v>
+        <v>-346000</v>
       </c>
       <c r="H94" s="3">
-        <v>-143000</v>
+        <v>-150000</v>
       </c>
       <c r="I94" s="3">
-        <v>-274800</v>
+        <v>-288200</v>
       </c>
       <c r="J94" s="3">
-        <v>-229800</v>
+        <v>-241000</v>
       </c>
       <c r="K94" s="3">
         <v>-365500</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-106400</v>
+        <v>-111600</v>
       </c>
       <c r="E96" s="3">
-        <v>-144300</v>
+        <v>-151300</v>
       </c>
       <c r="F96" s="3">
-        <v>-167700</v>
+        <v>-175900</v>
       </c>
       <c r="G96" s="3">
-        <v>-155800</v>
+        <v>-163400</v>
       </c>
       <c r="H96" s="3">
-        <v>-148400</v>
+        <v>-155600</v>
       </c>
       <c r="I96" s="3">
-        <v>-139700</v>
+        <v>-146500</v>
       </c>
       <c r="J96" s="3">
-        <v>-126900</v>
+        <v>-133100</v>
       </c>
       <c r="K96" s="3">
         <v>-128100</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-521300</v>
+        <v>-546800</v>
       </c>
       <c r="E100" s="3">
-        <v>-142900</v>
+        <v>-149900</v>
       </c>
       <c r="F100" s="3">
-        <v>60700</v>
+        <v>63700</v>
       </c>
       <c r="G100" s="3">
-        <v>165600</v>
+        <v>173700</v>
       </c>
       <c r="H100" s="3">
-        <v>-449700</v>
+        <v>-471700</v>
       </c>
       <c r="I100" s="3">
-        <v>-96200</v>
+        <v>-100900</v>
       </c>
       <c r="J100" s="3">
-        <v>-103300</v>
+        <v>-108300</v>
       </c>
       <c r="K100" s="3">
         <v>-145400</v>
@@ -3463,22 +3463,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E101" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="F101" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="G101" s="3">
-        <v>-3900</v>
+        <v>-4100</v>
       </c>
       <c r="H101" s="3">
         <v>-700</v>
       </c>
       <c r="I101" s="3">
-        <v>-3500</v>
+        <v>-3700</v>
       </c>
       <c r="J101" s="3">
         <v>200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-325300</v>
+        <v>-341200</v>
       </c>
       <c r="E102" s="3">
-        <v>-189600</v>
+        <v>-198900</v>
       </c>
       <c r="F102" s="3">
-        <v>129800</v>
+        <v>136200</v>
       </c>
       <c r="G102" s="3">
-        <v>280300</v>
+        <v>294000</v>
       </c>
       <c r="H102" s="3">
-        <v>-22200</v>
+        <v>-23300</v>
       </c>
       <c r="I102" s="3">
-        <v>98400</v>
+        <v>103200</v>
       </c>
       <c r="J102" s="3">
-        <v>45500</v>
+        <v>47700</v>
       </c>
       <c r="K102" s="3">
         <v>59700</v>

--- a/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>UGP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16710300</v>
+        <v>14385400</v>
       </c>
       <c r="E8" s="3">
-        <v>16972300</v>
+        <v>15812000</v>
       </c>
       <c r="F8" s="3">
-        <v>14826300</v>
+        <v>16059900</v>
       </c>
       <c r="G8" s="3">
-        <v>14475100</v>
+        <v>14029300</v>
       </c>
       <c r="H8" s="3">
-        <v>14157400</v>
+        <v>13696900</v>
       </c>
       <c r="I8" s="3">
-        <v>12675500</v>
+        <v>13396300</v>
       </c>
       <c r="J8" s="3">
+        <v>11994100</v>
+      </c>
+      <c r="K8" s="3">
         <v>11403700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12579500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12063800</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15566800</v>
+        <v>13391500</v>
       </c>
       <c r="E9" s="3">
-        <v>15819500</v>
+        <v>14729900</v>
       </c>
       <c r="F9" s="3">
-        <v>13554100</v>
+        <v>14969000</v>
       </c>
       <c r="G9" s="3">
-        <v>13163200</v>
+        <v>12825400</v>
       </c>
       <c r="H9" s="3">
-        <v>12899600</v>
+        <v>12455600</v>
       </c>
       <c r="I9" s="3">
-        <v>11659100</v>
+        <v>12206100</v>
       </c>
       <c r="J9" s="3">
+        <v>11032300</v>
+      </c>
+      <c r="K9" s="3">
         <v>21020500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11621900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11194400</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1143500</v>
+        <v>993900</v>
       </c>
       <c r="E10" s="3">
-        <v>1152800</v>
+        <v>1082100</v>
       </c>
       <c r="F10" s="3">
-        <v>1272200</v>
+        <v>1090900</v>
       </c>
       <c r="G10" s="3">
-        <v>1311800</v>
+        <v>1203800</v>
       </c>
       <c r="H10" s="3">
-        <v>1257800</v>
+        <v>1241300</v>
       </c>
       <c r="I10" s="3">
-        <v>1016400</v>
+        <v>1190200</v>
       </c>
       <c r="J10" s="3">
+        <v>961800</v>
+      </c>
+      <c r="K10" s="3">
         <v>-9616700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>957600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>869400</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,16 +837,17 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
+      <c r="D12" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10900</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>8</v>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,17 +906,20 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>111000</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>105100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -917,48 +936,54 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>20500</v>
+        <v>138500</v>
       </c>
       <c r="E15" s="3">
-        <v>15800</v>
+        <v>123200</v>
       </c>
       <c r="F15" s="3">
-        <v>12900</v>
+        <v>14900</v>
       </c>
       <c r="G15" s="3">
-        <v>101100</v>
-      </c>
-      <c r="H15" s="3" t="s">
+        <v>12200</v>
+      </c>
+      <c r="H15" s="3">
+        <v>95700</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="3">
-        <v>76200</v>
-      </c>
       <c r="J15" s="3">
+        <v>72100</v>
+      </c>
+      <c r="K15" s="3">
         <v>61600</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16469200</v>
+        <v>14072200</v>
       </c>
       <c r="E17" s="3">
-        <v>16619700</v>
+        <v>15583900</v>
       </c>
       <c r="F17" s="3">
-        <v>14299800</v>
+        <v>15726200</v>
       </c>
       <c r="G17" s="3">
-        <v>13892500</v>
+        <v>13531100</v>
       </c>
       <c r="H17" s="3">
-        <v>13605200</v>
+        <v>13145600</v>
       </c>
       <c r="I17" s="3">
-        <v>12247600</v>
+        <v>12873800</v>
       </c>
       <c r="J17" s="3">
+        <v>11589200</v>
+      </c>
+      <c r="K17" s="3">
         <v>11002500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12180600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11702700</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>241100</v>
+        <v>313100</v>
       </c>
       <c r="E18" s="3">
-        <v>352700</v>
+        <v>228100</v>
       </c>
       <c r="F18" s="3">
-        <v>526500</v>
+        <v>333700</v>
       </c>
       <c r="G18" s="3">
-        <v>582600</v>
+        <v>498200</v>
       </c>
       <c r="H18" s="3">
-        <v>552200</v>
+        <v>551300</v>
       </c>
       <c r="I18" s="3">
-        <v>427900</v>
+        <v>522500</v>
       </c>
       <c r="J18" s="3">
+        <v>404900</v>
+      </c>
+      <c r="K18" s="3">
         <v>401200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>398800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>361100</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>93100</v>
+        <v>101300</v>
       </c>
       <c r="E20" s="3">
-        <v>144300</v>
+        <v>88100</v>
       </c>
       <c r="F20" s="3">
-        <v>110000</v>
+        <v>136600</v>
       </c>
       <c r="G20" s="3">
-        <v>59300</v>
+        <v>104100</v>
       </c>
       <c r="H20" s="3">
-        <v>51600</v>
+        <v>56100</v>
       </c>
       <c r="I20" s="3">
-        <v>50000</v>
+        <v>48800</v>
       </c>
       <c r="J20" s="3">
+        <v>47300</v>
+      </c>
+      <c r="K20" s="3">
         <v>26600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>48200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>71800</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>548700</v>
+        <v>639900</v>
       </c>
       <c r="E21" s="3">
-        <v>649200</v>
+        <v>519900</v>
       </c>
       <c r="F21" s="3">
-        <v>768500</v>
+        <v>614800</v>
       </c>
       <c r="G21" s="3">
-        <v>848600</v>
+        <v>727600</v>
       </c>
       <c r="H21" s="3">
-        <v>791600</v>
+        <v>803700</v>
       </c>
       <c r="I21" s="3">
-        <v>644200</v>
+        <v>749700</v>
       </c>
       <c r="J21" s="3">
+        <v>610100</v>
+      </c>
+      <c r="K21" s="3">
         <v>573800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>610700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>574700</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>187900</v>
+        <v>149000</v>
       </c>
       <c r="E22" s="3">
-        <v>165600</v>
+        <v>177800</v>
       </c>
       <c r="F22" s="3">
-        <v>198800</v>
+        <v>156700</v>
       </c>
       <c r="G22" s="3">
-        <v>217000</v>
+        <v>188100</v>
       </c>
       <c r="H22" s="3">
-        <v>183200</v>
+        <v>205300</v>
       </c>
       <c r="I22" s="3">
-        <v>136400</v>
+        <v>173400</v>
       </c>
       <c r="J22" s="3">
+        <v>129100</v>
+      </c>
+      <c r="K22" s="3">
         <v>90700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>108900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>144700</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>146300</v>
+        <v>265400</v>
       </c>
       <c r="E23" s="3">
-        <v>331400</v>
+        <v>138400</v>
       </c>
       <c r="F23" s="3">
-        <v>437700</v>
+        <v>313600</v>
       </c>
       <c r="G23" s="3">
-        <v>424900</v>
+        <v>414200</v>
       </c>
       <c r="H23" s="3">
-        <v>420500</v>
+        <v>402100</v>
       </c>
       <c r="I23" s="3">
-        <v>341500</v>
+        <v>397900</v>
       </c>
       <c r="J23" s="3">
+        <v>323100</v>
+      </c>
+      <c r="K23" s="3">
         <v>337100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>338100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>288300</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>70800</v>
+        <v>101200</v>
       </c>
       <c r="E24" s="3">
-        <v>119500</v>
+        <v>67000</v>
       </c>
       <c r="F24" s="3">
-        <v>152200</v>
+        <v>113100</v>
       </c>
       <c r="G24" s="3">
-        <v>131000</v>
+        <v>144000</v>
       </c>
       <c r="H24" s="3">
-        <v>137400</v>
+        <v>123900</v>
       </c>
       <c r="I24" s="3">
-        <v>107300</v>
+        <v>130000</v>
       </c>
       <c r="J24" s="3">
+        <v>101500</v>
+      </c>
+      <c r="K24" s="3">
         <v>107200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>98400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>74800</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>75400</v>
+        <v>164300</v>
       </c>
       <c r="E26" s="3">
-        <v>211900</v>
+        <v>71300</v>
       </c>
       <c r="F26" s="3">
-        <v>285500</v>
+        <v>200500</v>
       </c>
       <c r="G26" s="3">
-        <v>293900</v>
+        <v>270200</v>
       </c>
       <c r="H26" s="3">
-        <v>283100</v>
+        <v>278100</v>
       </c>
       <c r="I26" s="3">
-        <v>234100</v>
+        <v>267900</v>
       </c>
       <c r="J26" s="3">
+        <v>221600</v>
+      </c>
+      <c r="K26" s="3">
         <v>229900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>239800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>213400</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>69900</v>
+        <v>158200</v>
       </c>
       <c r="E27" s="3">
-        <v>215300</v>
+        <v>66100</v>
       </c>
       <c r="F27" s="3">
-        <v>285700</v>
+        <v>203700</v>
       </c>
       <c r="G27" s="3">
-        <v>292200</v>
+        <v>270300</v>
       </c>
       <c r="H27" s="3">
-        <v>281300</v>
+        <v>276500</v>
       </c>
       <c r="I27" s="3">
-        <v>232300</v>
+        <v>266200</v>
       </c>
       <c r="J27" s="3">
+        <v>219800</v>
+      </c>
+      <c r="K27" s="3">
         <v>229300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>238200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>211900</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-93100</v>
+        <v>-101300</v>
       </c>
       <c r="E32" s="3">
-        <v>-144300</v>
+        <v>-88100</v>
       </c>
       <c r="F32" s="3">
-        <v>-110000</v>
+        <v>-136600</v>
       </c>
       <c r="G32" s="3">
-        <v>-59300</v>
+        <v>-104100</v>
       </c>
       <c r="H32" s="3">
-        <v>-51600</v>
+        <v>-56100</v>
       </c>
       <c r="I32" s="3">
-        <v>-50000</v>
+        <v>-48800</v>
       </c>
       <c r="J32" s="3">
+        <v>-47300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-26600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-48200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-71800</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>69900</v>
+        <v>158200</v>
       </c>
       <c r="E33" s="3">
-        <v>215300</v>
+        <v>66100</v>
       </c>
       <c r="F33" s="3">
-        <v>285700</v>
+        <v>203700</v>
       </c>
       <c r="G33" s="3">
-        <v>292200</v>
+        <v>270300</v>
       </c>
       <c r="H33" s="3">
-        <v>281300</v>
+        <v>276500</v>
       </c>
       <c r="I33" s="3">
-        <v>232300</v>
+        <v>266200</v>
       </c>
       <c r="J33" s="3">
+        <v>219800</v>
+      </c>
+      <c r="K33" s="3">
         <v>229300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>238200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>211900</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>69900</v>
+        <v>158200</v>
       </c>
       <c r="E35" s="3">
-        <v>215300</v>
+        <v>66100</v>
       </c>
       <c r="F35" s="3">
-        <v>285700</v>
+        <v>203700</v>
       </c>
       <c r="G35" s="3">
-        <v>292200</v>
+        <v>270300</v>
       </c>
       <c r="H35" s="3">
-        <v>281300</v>
+        <v>276500</v>
       </c>
       <c r="I35" s="3">
-        <v>232300</v>
+        <v>266200</v>
       </c>
       <c r="J35" s="3">
+        <v>219800</v>
+      </c>
+      <c r="K35" s="3">
         <v>229300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>238200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>211900</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>395900</v>
+        <v>471300</v>
       </c>
       <c r="E41" s="3">
-        <v>737100</v>
+        <v>374600</v>
       </c>
       <c r="F41" s="3">
-        <v>936000</v>
+        <v>697500</v>
       </c>
       <c r="G41" s="3">
-        <v>1599600</v>
+        <v>885700</v>
       </c>
       <c r="H41" s="3">
-        <v>505800</v>
+        <v>1513600</v>
       </c>
       <c r="I41" s="3">
-        <v>1058200</v>
+        <v>478600</v>
       </c>
       <c r="J41" s="3">
+        <v>1001300</v>
+      </c>
+      <c r="K41" s="3">
         <v>425900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>472000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>26700</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>578300</v>
+        <v>891200</v>
       </c>
       <c r="E42" s="3">
-        <v>533900</v>
+        <v>547200</v>
       </c>
       <c r="F42" s="3">
-        <v>480400</v>
+        <v>505200</v>
       </c>
       <c r="G42" s="3">
-        <v>528700</v>
+        <v>454500</v>
       </c>
       <c r="H42" s="3">
-        <v>150300</v>
+        <v>500300</v>
       </c>
       <c r="I42" s="3">
-        <v>269800</v>
+        <v>142200</v>
       </c>
       <c r="J42" s="3">
+        <v>255300</v>
+      </c>
+      <c r="K42" s="3">
         <v>215000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>684500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>645100</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1040500</v>
+        <v>945000</v>
       </c>
       <c r="E43" s="3">
-        <v>1009200</v>
+        <v>984500</v>
       </c>
       <c r="F43" s="3">
-        <v>1727700</v>
+        <v>955000</v>
       </c>
       <c r="G43" s="3">
-        <v>1533500</v>
+        <v>1634800</v>
       </c>
       <c r="H43" s="3">
-        <v>716400</v>
+        <v>1451100</v>
       </c>
       <c r="I43" s="3">
-        <v>606500</v>
+        <v>677900</v>
       </c>
       <c r="J43" s="3">
+        <v>573900</v>
+      </c>
+      <c r="K43" s="3">
         <v>527900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>655300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>624500</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>695300</v>
+        <v>681000</v>
       </c>
       <c r="E44" s="3">
-        <v>627700</v>
+        <v>657900</v>
       </c>
       <c r="F44" s="3">
-        <v>657500</v>
+        <v>594000</v>
       </c>
       <c r="G44" s="3">
-        <v>1037200</v>
+        <v>622200</v>
       </c>
       <c r="H44" s="3">
-        <v>466900</v>
+        <v>981400</v>
       </c>
       <c r="I44" s="3">
-        <v>720500</v>
+        <v>441800</v>
       </c>
       <c r="J44" s="3">
+        <v>681700</v>
+      </c>
+      <c r="K44" s="3">
         <v>298000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>301400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>302900</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>107900</v>
+        <v>108200</v>
       </c>
       <c r="E45" s="3">
-        <v>125800</v>
+        <v>102100</v>
       </c>
       <c r="F45" s="3">
-        <v>113400</v>
+        <v>119000</v>
       </c>
       <c r="G45" s="3">
-        <v>107100</v>
+        <v>107400</v>
       </c>
       <c r="H45" s="3">
-        <v>15200</v>
+        <v>101300</v>
       </c>
       <c r="I45" s="3">
-        <v>12600</v>
+        <v>14400</v>
       </c>
       <c r="J45" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K45" s="3">
         <v>12200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>29900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>32100</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2817800</v>
+        <v>3096800</v>
       </c>
       <c r="E46" s="3">
-        <v>3033700</v>
+        <v>2666300</v>
       </c>
       <c r="F46" s="3">
-        <v>2898700</v>
+        <v>2870600</v>
       </c>
       <c r="G46" s="3">
-        <v>2501200</v>
+        <v>2742800</v>
       </c>
       <c r="H46" s="3">
-        <v>1854700</v>
+        <v>2366700</v>
       </c>
       <c r="I46" s="3">
-        <v>1778200</v>
+        <v>1755000</v>
       </c>
       <c r="J46" s="3">
+        <v>1682600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1479100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1665700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1631200</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>371000</v>
+        <v>601200</v>
       </c>
       <c r="E47" s="3">
-        <v>302400</v>
+        <v>351100</v>
       </c>
       <c r="F47" s="3">
-        <v>165800</v>
+        <v>286100</v>
       </c>
       <c r="G47" s="3">
-        <v>106600</v>
+        <v>156900</v>
       </c>
       <c r="H47" s="3">
-        <v>163800</v>
+        <v>100900</v>
       </c>
       <c r="I47" s="3">
-        <v>94100</v>
+        <v>155000</v>
       </c>
       <c r="J47" s="3">
+        <v>89000</v>
+      </c>
+      <c r="K47" s="3">
         <v>68800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>132300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>72000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1787800</v>
+        <v>1798300</v>
       </c>
       <c r="E48" s="3">
-        <v>1362100</v>
+        <v>1691700</v>
       </c>
       <c r="F48" s="3">
-        <v>2483700</v>
+        <v>1288900</v>
       </c>
       <c r="G48" s="3">
-        <v>2167800</v>
+        <v>2350100</v>
       </c>
       <c r="H48" s="3">
-        <v>1017800</v>
+        <v>2051200</v>
       </c>
       <c r="I48" s="3">
-        <v>952900</v>
+        <v>963100</v>
       </c>
       <c r="J48" s="3">
+        <v>901600</v>
+      </c>
+      <c r="K48" s="3">
         <v>909500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>381600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1061500</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>329800</v>
+        <v>315700</v>
       </c>
       <c r="E49" s="3">
-        <v>443400</v>
+        <v>312100</v>
       </c>
       <c r="F49" s="3">
-        <v>823500</v>
+        <v>419500</v>
       </c>
       <c r="G49" s="3">
-        <v>984900</v>
+        <v>779200</v>
       </c>
       <c r="H49" s="3">
-        <v>616400</v>
+        <v>932000</v>
       </c>
       <c r="I49" s="3">
-        <v>591000</v>
+        <v>583300</v>
       </c>
       <c r="J49" s="3">
+        <v>559200</v>
+      </c>
+      <c r="K49" s="3">
         <v>386800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>918600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>381800</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>531100</v>
+        <v>606800</v>
       </c>
       <c r="E52" s="3">
-        <v>565800</v>
+        <v>502600</v>
       </c>
       <c r="F52" s="3">
-        <v>567400</v>
+        <v>535400</v>
       </c>
       <c r="G52" s="3">
-        <v>458600</v>
+        <v>536900</v>
       </c>
       <c r="H52" s="3">
-        <v>223300</v>
+        <v>433900</v>
       </c>
       <c r="I52" s="3">
-        <v>213300</v>
+        <v>211300</v>
       </c>
       <c r="J52" s="3">
+        <v>201800</v>
+      </c>
+      <c r="K52" s="3">
         <v>203800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>274300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>262700</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5837600</v>
+        <v>6418800</v>
       </c>
       <c r="E54" s="3">
-        <v>5707400</v>
+        <v>5523800</v>
       </c>
       <c r="F54" s="3">
-        <v>5292800</v>
+        <v>5400500</v>
       </c>
       <c r="G54" s="3">
-        <v>4505100</v>
+        <v>5008300</v>
       </c>
       <c r="H54" s="3">
-        <v>3876000</v>
+        <v>4262900</v>
       </c>
       <c r="I54" s="3">
-        <v>3617200</v>
+        <v>3667700</v>
       </c>
       <c r="J54" s="3">
+        <v>3422700</v>
+      </c>
+      <c r="K54" s="3">
         <v>3064900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3561100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3409300</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>505300</v>
+        <v>715500</v>
       </c>
       <c r="E57" s="3">
-        <v>511200</v>
+        <v>478100</v>
       </c>
       <c r="F57" s="3">
-        <v>403400</v>
+        <v>483700</v>
       </c>
       <c r="G57" s="3">
-        <v>319900</v>
+        <v>381700</v>
       </c>
       <c r="H57" s="3">
-        <v>273300</v>
+        <v>302700</v>
       </c>
       <c r="I57" s="3">
-        <v>478900</v>
+        <v>258600</v>
       </c>
       <c r="J57" s="3">
+        <v>453100</v>
+      </c>
+      <c r="K57" s="3">
         <v>181300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>609500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>266700</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>247700</v>
+        <v>622600</v>
       </c>
       <c r="E58" s="3">
-        <v>425500</v>
+        <v>234400</v>
       </c>
       <c r="F58" s="3">
-        <v>655600</v>
+        <v>402700</v>
       </c>
       <c r="G58" s="3">
-        <v>463300</v>
+        <v>620400</v>
       </c>
       <c r="H58" s="3">
-        <v>205400</v>
+        <v>438400</v>
       </c>
       <c r="I58" s="3">
-        <v>644200</v>
+        <v>194400</v>
       </c>
       <c r="J58" s="3">
+        <v>609500</v>
+      </c>
+      <c r="K58" s="3">
         <v>342400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>380200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>571800</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>219200</v>
+        <v>298200</v>
       </c>
       <c r="E59" s="3">
-        <v>249100</v>
+        <v>207400</v>
       </c>
       <c r="F59" s="3">
-        <v>252700</v>
+        <v>235700</v>
       </c>
       <c r="G59" s="3">
-        <v>243100</v>
+        <v>239100</v>
       </c>
       <c r="H59" s="3">
-        <v>238600</v>
+        <v>230000</v>
       </c>
       <c r="I59" s="3">
-        <v>206700</v>
+        <v>225800</v>
       </c>
       <c r="J59" s="3">
+        <v>195600</v>
+      </c>
+      <c r="K59" s="3">
         <v>180700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>185800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>178000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>972200</v>
+        <v>1636300</v>
       </c>
       <c r="E60" s="3">
-        <v>1185800</v>
+        <v>919900</v>
       </c>
       <c r="F60" s="3">
-        <v>1311700</v>
+        <v>1122100</v>
       </c>
       <c r="G60" s="3">
-        <v>1026300</v>
+        <v>1241200</v>
       </c>
       <c r="H60" s="3">
-        <v>717300</v>
+        <v>971100</v>
       </c>
       <c r="I60" s="3">
-        <v>1065200</v>
+        <v>678800</v>
       </c>
       <c r="J60" s="3">
+        <v>1007900</v>
+      </c>
+      <c r="K60" s="3">
         <v>704400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>869000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1016600</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2742900</v>
+        <v>2778800</v>
       </c>
       <c r="E61" s="3">
-        <v>2420000</v>
+        <v>2595400</v>
       </c>
       <c r="F61" s="3">
-        <v>1887600</v>
+        <v>2289900</v>
       </c>
       <c r="G61" s="3">
-        <v>1673200</v>
+        <v>1786100</v>
       </c>
       <c r="H61" s="3">
-        <v>1460300</v>
+        <v>1583300</v>
       </c>
       <c r="I61" s="3">
-        <v>923100</v>
+        <v>1381800</v>
       </c>
       <c r="J61" s="3">
+        <v>873500</v>
+      </c>
+      <c r="K61" s="3">
         <v>961800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1071400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>807900</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>282100</v>
+        <v>248900</v>
       </c>
       <c r="E62" s="3">
-        <v>267700</v>
+        <v>267000</v>
       </c>
       <c r="F62" s="3">
-        <v>292600</v>
+        <v>253300</v>
       </c>
       <c r="G62" s="3">
-        <v>219400</v>
+        <v>276900</v>
       </c>
       <c r="H62" s="3">
-        <v>227200</v>
+        <v>207600</v>
       </c>
       <c r="I62" s="3">
-        <v>200300</v>
+        <v>215000</v>
       </c>
       <c r="J62" s="3">
+        <v>189500</v>
+      </c>
+      <c r="K62" s="3">
         <v>173600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>218200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>201200</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4067700</v>
+        <v>4730700</v>
       </c>
       <c r="E66" s="3">
-        <v>3939300</v>
+        <v>3849000</v>
       </c>
       <c r="F66" s="3">
-        <v>3562600</v>
+        <v>3727600</v>
       </c>
       <c r="G66" s="3">
-        <v>2924700</v>
+        <v>3371100</v>
       </c>
       <c r="H66" s="3">
-        <v>2389300</v>
+        <v>2767500</v>
       </c>
       <c r="I66" s="3">
-        <v>2176600</v>
+        <v>2260800</v>
       </c>
       <c r="J66" s="3">
+        <v>2059600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1844800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2164500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2032200</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2576,14 +2743,17 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>-26800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>-29300</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>901200</v>
+        <v>900300</v>
       </c>
       <c r="E72" s="3">
-        <v>890700</v>
+        <v>852700</v>
       </c>
       <c r="F72" s="3">
-        <v>916800</v>
+        <v>842800</v>
       </c>
       <c r="G72" s="3">
-        <v>1058900</v>
+        <v>867500</v>
       </c>
       <c r="H72" s="3">
-        <v>844200</v>
+        <v>1002000</v>
       </c>
       <c r="I72" s="3">
-        <v>732100</v>
+        <v>798800</v>
       </c>
       <c r="J72" s="3">
+        <v>692700</v>
+      </c>
+      <c r="K72" s="3">
         <v>541700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>560100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>458300</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1769900</v>
+        <v>1688100</v>
       </c>
       <c r="E76" s="3">
-        <v>1768000</v>
+        <v>1674800</v>
       </c>
       <c r="F76" s="3">
-        <v>1730200</v>
+        <v>1673000</v>
       </c>
       <c r="G76" s="3">
-        <v>1580300</v>
+        <v>1637200</v>
       </c>
       <c r="H76" s="3">
-        <v>1486800</v>
+        <v>1495400</v>
       </c>
       <c r="I76" s="3">
-        <v>1440500</v>
+        <v>1406800</v>
       </c>
       <c r="J76" s="3">
+        <v>1363100</v>
+      </c>
+      <c r="K76" s="3">
         <v>1220100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1423400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1406400</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>69900</v>
+        <v>158200</v>
       </c>
       <c r="E81" s="3">
-        <v>215300</v>
+        <v>66100</v>
       </c>
       <c r="F81" s="3">
-        <v>285700</v>
+        <v>203700</v>
       </c>
       <c r="G81" s="3">
-        <v>292200</v>
+        <v>270300</v>
       </c>
       <c r="H81" s="3">
-        <v>281300</v>
+        <v>276500</v>
       </c>
       <c r="I81" s="3">
-        <v>232300</v>
+        <v>266200</v>
       </c>
       <c r="J81" s="3">
+        <v>219800</v>
+      </c>
+      <c r="K81" s="3">
         <v>229300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>238200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>211900</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>214200</v>
+        <v>224400</v>
       </c>
       <c r="E83" s="3">
-        <v>152000</v>
+        <v>202700</v>
       </c>
       <c r="F83" s="3">
-        <v>131800</v>
+        <v>143900</v>
       </c>
       <c r="G83" s="3">
-        <v>206500</v>
+        <v>124800</v>
       </c>
       <c r="H83" s="3">
-        <v>187600</v>
+        <v>195400</v>
       </c>
       <c r="I83" s="3">
-        <v>166100</v>
+        <v>177500</v>
       </c>
       <c r="J83" s="3">
+        <v>157200</v>
+      </c>
+      <c r="K83" s="3">
         <v>145800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>161800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>143900</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>547300</v>
+        <v>555700</v>
       </c>
       <c r="E89" s="3">
-        <v>540600</v>
+        <v>517900</v>
       </c>
       <c r="F89" s="3">
-        <v>325400</v>
+        <v>511500</v>
       </c>
       <c r="G89" s="3">
-        <v>470400</v>
+        <v>307900</v>
       </c>
       <c r="H89" s="3">
-        <v>599100</v>
+        <v>445100</v>
       </c>
       <c r="I89" s="3">
-        <v>496000</v>
+        <v>566900</v>
       </c>
       <c r="J89" s="3">
+        <v>469400</v>
+      </c>
+      <c r="K89" s="3">
         <v>396800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>570600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>424200</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-190900</v>
+        <v>-171000</v>
       </c>
       <c r="E91" s="3">
-        <v>-220500</v>
+        <v>-180600</v>
       </c>
       <c r="F91" s="3">
-        <v>-243700</v>
+        <v>-208600</v>
       </c>
       <c r="G91" s="3">
-        <v>-190000</v>
+        <v>-230600</v>
       </c>
       <c r="H91" s="3">
-        <v>-150400</v>
+        <v>-179800</v>
       </c>
       <c r="I91" s="3">
-        <v>-132100</v>
+        <v>-142300</v>
       </c>
       <c r="J91" s="3">
+        <v>-125000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-123700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-176100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-265800</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-343400</v>
+        <v>-378300</v>
       </c>
       <c r="E94" s="3">
-        <v>-594600</v>
+        <v>-325000</v>
       </c>
       <c r="F94" s="3">
-        <v>-256700</v>
+        <v>-562700</v>
       </c>
       <c r="G94" s="3">
-        <v>-346000</v>
+        <v>-242900</v>
       </c>
       <c r="H94" s="3">
-        <v>-150000</v>
+        <v>-327400</v>
       </c>
       <c r="I94" s="3">
-        <v>-288200</v>
+        <v>-142000</v>
       </c>
       <c r="J94" s="3">
+        <v>-272700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-241000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-365500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-361700</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-111600</v>
+        <v>-50400</v>
       </c>
       <c r="E96" s="3">
-        <v>-151300</v>
+        <v>-105600</v>
       </c>
       <c r="F96" s="3">
-        <v>-175900</v>
+        <v>-143200</v>
       </c>
       <c r="G96" s="3">
-        <v>-163400</v>
+        <v>-166500</v>
       </c>
       <c r="H96" s="3">
-        <v>-155600</v>
+        <v>-154600</v>
       </c>
       <c r="I96" s="3">
-        <v>-146500</v>
+        <v>-147300</v>
       </c>
       <c r="J96" s="3">
+        <v>-138600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-133100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-128100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-124500</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-546800</v>
+        <v>-104900</v>
       </c>
       <c r="E100" s="3">
-        <v>-149900</v>
+        <v>-517400</v>
       </c>
       <c r="F100" s="3">
-        <v>63700</v>
+        <v>-141800</v>
       </c>
       <c r="G100" s="3">
-        <v>173700</v>
+        <v>60300</v>
       </c>
       <c r="H100" s="3">
-        <v>-471700</v>
+        <v>164400</v>
       </c>
       <c r="I100" s="3">
-        <v>-100900</v>
+        <v>-446300</v>
       </c>
       <c r="J100" s="3">
+        <v>-95500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-108300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-145400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-274000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1700</v>
+        <v>24200</v>
       </c>
       <c r="E101" s="3">
-        <v>5000</v>
+        <v>1600</v>
       </c>
       <c r="F101" s="3">
-        <v>3800</v>
+        <v>4700</v>
       </c>
       <c r="G101" s="3">
-        <v>-4100</v>
+        <v>3600</v>
       </c>
       <c r="H101" s="3">
-        <v>-700</v>
+        <v>-3900</v>
       </c>
       <c r="I101" s="3">
-        <v>-3700</v>
+        <v>-600</v>
       </c>
       <c r="J101" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-341200</v>
+        <v>96700</v>
       </c>
       <c r="E102" s="3">
-        <v>-198900</v>
+        <v>-322900</v>
       </c>
       <c r="F102" s="3">
-        <v>136200</v>
+        <v>-188200</v>
       </c>
       <c r="G102" s="3">
-        <v>294000</v>
+        <v>128900</v>
       </c>
       <c r="H102" s="3">
-        <v>-23300</v>
+        <v>278200</v>
       </c>
       <c r="I102" s="3">
-        <v>103200</v>
+        <v>-22000</v>
       </c>
       <c r="J102" s="3">
+        <v>97600</v>
+      </c>
+      <c r="K102" s="3">
         <v>47700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>59700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-211200</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14385400</v>
+        <v>15239200</v>
       </c>
       <c r="E8" s="3">
-        <v>15812000</v>
+        <v>16750500</v>
       </c>
       <c r="F8" s="3">
-        <v>16059900</v>
+        <v>17013100</v>
       </c>
       <c r="G8" s="3">
-        <v>14029300</v>
+        <v>14862000</v>
       </c>
       <c r="H8" s="3">
-        <v>13696900</v>
+        <v>14509900</v>
       </c>
       <c r="I8" s="3">
-        <v>13396300</v>
+        <v>14191400</v>
       </c>
       <c r="J8" s="3">
-        <v>11994100</v>
+        <v>12706000</v>
       </c>
       <c r="K8" s="3">
         <v>11403700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13391500</v>
+        <v>14186300</v>
       </c>
       <c r="E9" s="3">
-        <v>14729900</v>
+        <v>15604200</v>
       </c>
       <c r="F9" s="3">
-        <v>14969000</v>
+        <v>15857500</v>
       </c>
       <c r="G9" s="3">
-        <v>12825400</v>
+        <v>13586700</v>
       </c>
       <c r="H9" s="3">
-        <v>12455600</v>
+        <v>13194900</v>
       </c>
       <c r="I9" s="3">
-        <v>12206100</v>
+        <v>12930600</v>
       </c>
       <c r="J9" s="3">
-        <v>11032300</v>
+        <v>11687100</v>
       </c>
       <c r="K9" s="3">
         <v>21020500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>993900</v>
+        <v>1052900</v>
       </c>
       <c r="E10" s="3">
-        <v>1082100</v>
+        <v>1146300</v>
       </c>
       <c r="F10" s="3">
-        <v>1090900</v>
+        <v>1155600</v>
       </c>
       <c r="G10" s="3">
-        <v>1203800</v>
+        <v>1275300</v>
       </c>
       <c r="H10" s="3">
-        <v>1241300</v>
+        <v>1315000</v>
       </c>
       <c r="I10" s="3">
-        <v>1190200</v>
+        <v>1260800</v>
       </c>
       <c r="J10" s="3">
-        <v>961800</v>
+        <v>1018900</v>
       </c>
       <c r="K10" s="3">
         <v>-9616700</v>
@@ -844,10 +844,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>11300</v>
+        <v>12000</v>
       </c>
       <c r="E12" s="3">
-        <v>10900</v>
+        <v>11600</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>8</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>105100</v>
+        <v>111300</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>138500</v>
+        <v>146700</v>
       </c>
       <c r="E15" s="3">
-        <v>123200</v>
+        <v>130500</v>
       </c>
       <c r="F15" s="3">
-        <v>14900</v>
+        <v>15800</v>
       </c>
       <c r="G15" s="3">
-        <v>12200</v>
+        <v>13000</v>
       </c>
       <c r="H15" s="3">
-        <v>95700</v>
+        <v>101400</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J15" s="3">
-        <v>72100</v>
+        <v>76400</v>
       </c>
       <c r="K15" s="3">
         <v>61600</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14072200</v>
+        <v>14907500</v>
       </c>
       <c r="E17" s="3">
-        <v>15583900</v>
+        <v>16508800</v>
       </c>
       <c r="F17" s="3">
-        <v>15726200</v>
+        <v>16659600</v>
       </c>
       <c r="G17" s="3">
-        <v>13531100</v>
+        <v>14334200</v>
       </c>
       <c r="H17" s="3">
-        <v>13145600</v>
+        <v>13925900</v>
       </c>
       <c r="I17" s="3">
-        <v>12873800</v>
+        <v>13637900</v>
       </c>
       <c r="J17" s="3">
-        <v>11589200</v>
+        <v>12277100</v>
       </c>
       <c r="K17" s="3">
         <v>11002500</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>313100</v>
+        <v>331700</v>
       </c>
       <c r="E18" s="3">
-        <v>228100</v>
+        <v>241700</v>
       </c>
       <c r="F18" s="3">
-        <v>333700</v>
+        <v>353500</v>
       </c>
       <c r="G18" s="3">
-        <v>498200</v>
+        <v>527700</v>
       </c>
       <c r="H18" s="3">
-        <v>551300</v>
+        <v>584000</v>
       </c>
       <c r="I18" s="3">
-        <v>522500</v>
+        <v>553500</v>
       </c>
       <c r="J18" s="3">
-        <v>404900</v>
+        <v>428900</v>
       </c>
       <c r="K18" s="3">
         <v>401200</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>101300</v>
+        <v>107300</v>
       </c>
       <c r="E20" s="3">
-        <v>88100</v>
+        <v>93300</v>
       </c>
       <c r="F20" s="3">
-        <v>136600</v>
+        <v>144700</v>
       </c>
       <c r="G20" s="3">
-        <v>104100</v>
+        <v>110300</v>
       </c>
       <c r="H20" s="3">
-        <v>56100</v>
+        <v>59400</v>
       </c>
       <c r="I20" s="3">
-        <v>48800</v>
+        <v>51700</v>
       </c>
       <c r="J20" s="3">
-        <v>47300</v>
+        <v>50100</v>
       </c>
       <c r="K20" s="3">
         <v>26600</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>639900</v>
+        <v>677300</v>
       </c>
       <c r="E21" s="3">
-        <v>519900</v>
+        <v>550300</v>
       </c>
       <c r="F21" s="3">
-        <v>614800</v>
+        <v>651000</v>
       </c>
       <c r="G21" s="3">
-        <v>727600</v>
+        <v>770500</v>
       </c>
       <c r="H21" s="3">
-        <v>803700</v>
+        <v>850900</v>
       </c>
       <c r="I21" s="3">
-        <v>749700</v>
+        <v>793800</v>
       </c>
       <c r="J21" s="3">
-        <v>610100</v>
+        <v>646000</v>
       </c>
       <c r="K21" s="3">
         <v>573800</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>149000</v>
+        <v>157800</v>
       </c>
       <c r="E22" s="3">
-        <v>177800</v>
+        <v>188400</v>
       </c>
       <c r="F22" s="3">
-        <v>156700</v>
+        <v>166000</v>
       </c>
       <c r="G22" s="3">
-        <v>188100</v>
+        <v>199200</v>
       </c>
       <c r="H22" s="3">
-        <v>205300</v>
+        <v>217500</v>
       </c>
       <c r="I22" s="3">
-        <v>173400</v>
+        <v>183700</v>
       </c>
       <c r="J22" s="3">
-        <v>129100</v>
+        <v>136700</v>
       </c>
       <c r="K22" s="3">
         <v>90700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>265400</v>
+        <v>281200</v>
       </c>
       <c r="E23" s="3">
-        <v>138400</v>
+        <v>146600</v>
       </c>
       <c r="F23" s="3">
-        <v>313600</v>
+        <v>332200</v>
       </c>
       <c r="G23" s="3">
-        <v>414200</v>
+        <v>438800</v>
       </c>
       <c r="H23" s="3">
-        <v>402100</v>
+        <v>425900</v>
       </c>
       <c r="I23" s="3">
-        <v>397900</v>
+        <v>421600</v>
       </c>
       <c r="J23" s="3">
-        <v>323100</v>
+        <v>342300</v>
       </c>
       <c r="K23" s="3">
         <v>337100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>101200</v>
+        <v>107200</v>
       </c>
       <c r="E24" s="3">
-        <v>67000</v>
+        <v>71000</v>
       </c>
       <c r="F24" s="3">
-        <v>113100</v>
+        <v>119800</v>
       </c>
       <c r="G24" s="3">
-        <v>144000</v>
+        <v>152600</v>
       </c>
       <c r="H24" s="3">
-        <v>123900</v>
+        <v>131300</v>
       </c>
       <c r="I24" s="3">
-        <v>130000</v>
+        <v>137700</v>
       </c>
       <c r="J24" s="3">
-        <v>101500</v>
+        <v>107600</v>
       </c>
       <c r="K24" s="3">
         <v>107200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>164300</v>
+        <v>174000</v>
       </c>
       <c r="E26" s="3">
-        <v>71300</v>
+        <v>75600</v>
       </c>
       <c r="F26" s="3">
-        <v>200500</v>
+        <v>212400</v>
       </c>
       <c r="G26" s="3">
-        <v>270200</v>
+        <v>286200</v>
       </c>
       <c r="H26" s="3">
-        <v>278100</v>
+        <v>294600</v>
       </c>
       <c r="I26" s="3">
-        <v>267900</v>
+        <v>283800</v>
       </c>
       <c r="J26" s="3">
-        <v>221600</v>
+        <v>234700</v>
       </c>
       <c r="K26" s="3">
         <v>229900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>158200</v>
+        <v>167600</v>
       </c>
       <c r="E27" s="3">
-        <v>66100</v>
+        <v>70100</v>
       </c>
       <c r="F27" s="3">
-        <v>203700</v>
+        <v>215800</v>
       </c>
       <c r="G27" s="3">
-        <v>270300</v>
+        <v>286300</v>
       </c>
       <c r="H27" s="3">
-        <v>276500</v>
+        <v>292900</v>
       </c>
       <c r="I27" s="3">
-        <v>266200</v>
+        <v>282000</v>
       </c>
       <c r="J27" s="3">
-        <v>219800</v>
+        <v>232900</v>
       </c>
       <c r="K27" s="3">
         <v>229300</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-101300</v>
+        <v>-107300</v>
       </c>
       <c r="E32" s="3">
-        <v>-88100</v>
+        <v>-93300</v>
       </c>
       <c r="F32" s="3">
-        <v>-136600</v>
+        <v>-144700</v>
       </c>
       <c r="G32" s="3">
-        <v>-104100</v>
+        <v>-110300</v>
       </c>
       <c r="H32" s="3">
-        <v>-56100</v>
+        <v>-59400</v>
       </c>
       <c r="I32" s="3">
-        <v>-48800</v>
+        <v>-51700</v>
       </c>
       <c r="J32" s="3">
-        <v>-47300</v>
+        <v>-50100</v>
       </c>
       <c r="K32" s="3">
         <v>-26600</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>158200</v>
+        <v>167600</v>
       </c>
       <c r="E33" s="3">
-        <v>66100</v>
+        <v>70100</v>
       </c>
       <c r="F33" s="3">
-        <v>203700</v>
+        <v>215800</v>
       </c>
       <c r="G33" s="3">
-        <v>270300</v>
+        <v>286300</v>
       </c>
       <c r="H33" s="3">
-        <v>276500</v>
+        <v>292900</v>
       </c>
       <c r="I33" s="3">
-        <v>266200</v>
+        <v>282000</v>
       </c>
       <c r="J33" s="3">
-        <v>219800</v>
+        <v>232900</v>
       </c>
       <c r="K33" s="3">
         <v>229300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>158200</v>
+        <v>167600</v>
       </c>
       <c r="E35" s="3">
-        <v>66100</v>
+        <v>70100</v>
       </c>
       <c r="F35" s="3">
-        <v>203700</v>
+        <v>215800</v>
       </c>
       <c r="G35" s="3">
-        <v>270300</v>
+        <v>286300</v>
       </c>
       <c r="H35" s="3">
-        <v>276500</v>
+        <v>292900</v>
       </c>
       <c r="I35" s="3">
-        <v>266200</v>
+        <v>282000</v>
       </c>
       <c r="J35" s="3">
-        <v>219800</v>
+        <v>232900</v>
       </c>
       <c r="K35" s="3">
         <v>229300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>471300</v>
+        <v>499200</v>
       </c>
       <c r="E41" s="3">
-        <v>374600</v>
+        <v>396800</v>
       </c>
       <c r="F41" s="3">
-        <v>697500</v>
+        <v>738900</v>
       </c>
       <c r="G41" s="3">
-        <v>885700</v>
+        <v>938300</v>
       </c>
       <c r="H41" s="3">
-        <v>1513600</v>
+        <v>1603500</v>
       </c>
       <c r="I41" s="3">
-        <v>478600</v>
+        <v>507000</v>
       </c>
       <c r="J41" s="3">
-        <v>1001300</v>
+        <v>1060700</v>
       </c>
       <c r="K41" s="3">
         <v>425900</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>891200</v>
+        <v>944100</v>
       </c>
       <c r="E42" s="3">
-        <v>547200</v>
+        <v>579700</v>
       </c>
       <c r="F42" s="3">
-        <v>505200</v>
+        <v>535200</v>
       </c>
       <c r="G42" s="3">
-        <v>454500</v>
+        <v>481500</v>
       </c>
       <c r="H42" s="3">
-        <v>500300</v>
+        <v>529900</v>
       </c>
       <c r="I42" s="3">
-        <v>142200</v>
+        <v>150700</v>
       </c>
       <c r="J42" s="3">
-        <v>255300</v>
+        <v>270500</v>
       </c>
       <c r="K42" s="3">
         <v>215000</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>945000</v>
+        <v>1001100</v>
       </c>
       <c r="E43" s="3">
-        <v>984500</v>
+        <v>1043000</v>
       </c>
       <c r="F43" s="3">
-        <v>955000</v>
+        <v>1011600</v>
       </c>
       <c r="G43" s="3">
-        <v>1634800</v>
+        <v>1731800</v>
       </c>
       <c r="H43" s="3">
-        <v>1451100</v>
+        <v>1537200</v>
       </c>
       <c r="I43" s="3">
-        <v>677900</v>
+        <v>718100</v>
       </c>
       <c r="J43" s="3">
-        <v>573900</v>
+        <v>607900</v>
       </c>
       <c r="K43" s="3">
         <v>527900</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>681000</v>
+        <v>721500</v>
       </c>
       <c r="E44" s="3">
-        <v>657900</v>
+        <v>697000</v>
       </c>
       <c r="F44" s="3">
-        <v>594000</v>
+        <v>629200</v>
       </c>
       <c r="G44" s="3">
-        <v>622200</v>
+        <v>659100</v>
       </c>
       <c r="H44" s="3">
-        <v>981400</v>
+        <v>1039700</v>
       </c>
       <c r="I44" s="3">
-        <v>441800</v>
+        <v>468100</v>
       </c>
       <c r="J44" s="3">
-        <v>681700</v>
+        <v>722200</v>
       </c>
       <c r="K44" s="3">
         <v>298000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>114600</v>
+      </c>
+      <c r="E45" s="3">
         <v>108200</v>
       </c>
-      <c r="E45" s="3">
-        <v>102100</v>
-      </c>
       <c r="F45" s="3">
-        <v>119000</v>
+        <v>126100</v>
       </c>
       <c r="G45" s="3">
-        <v>107400</v>
+        <v>113700</v>
       </c>
       <c r="H45" s="3">
-        <v>101300</v>
+        <v>107300</v>
       </c>
       <c r="I45" s="3">
-        <v>14400</v>
+        <v>15300</v>
       </c>
       <c r="J45" s="3">
-        <v>11900</v>
+        <v>12600</v>
       </c>
       <c r="K45" s="3">
         <v>12200</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3096800</v>
+        <v>3280600</v>
       </c>
       <c r="E46" s="3">
-        <v>2666300</v>
+        <v>2824600</v>
       </c>
       <c r="F46" s="3">
-        <v>2870600</v>
+        <v>3041000</v>
       </c>
       <c r="G46" s="3">
-        <v>2742800</v>
+        <v>2905600</v>
       </c>
       <c r="H46" s="3">
-        <v>2366700</v>
+        <v>2507200</v>
       </c>
       <c r="I46" s="3">
-        <v>1755000</v>
+        <v>1859200</v>
       </c>
       <c r="J46" s="3">
-        <v>1682600</v>
+        <v>1782500</v>
       </c>
       <c r="K46" s="3">
         <v>1479100</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>601200</v>
+        <v>636900</v>
       </c>
       <c r="E47" s="3">
-        <v>351100</v>
+        <v>371900</v>
       </c>
       <c r="F47" s="3">
-        <v>286100</v>
+        <v>303100</v>
       </c>
       <c r="G47" s="3">
-        <v>156900</v>
+        <v>166200</v>
       </c>
       <c r="H47" s="3">
-        <v>100900</v>
+        <v>106900</v>
       </c>
       <c r="I47" s="3">
-        <v>155000</v>
+        <v>164200</v>
       </c>
       <c r="J47" s="3">
-        <v>89000</v>
+        <v>94300</v>
       </c>
       <c r="K47" s="3">
         <v>68800</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1798300</v>
+        <v>1905100</v>
       </c>
       <c r="E48" s="3">
-        <v>1691700</v>
+        <v>1792100</v>
       </c>
       <c r="F48" s="3">
-        <v>1288900</v>
+        <v>1365400</v>
       </c>
       <c r="G48" s="3">
-        <v>2350100</v>
+        <v>2489600</v>
       </c>
       <c r="H48" s="3">
-        <v>2051200</v>
+        <v>2173000</v>
       </c>
       <c r="I48" s="3">
-        <v>963100</v>
+        <v>1020200</v>
       </c>
       <c r="J48" s="3">
-        <v>901600</v>
+        <v>955200</v>
       </c>
       <c r="K48" s="3">
         <v>909500</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>315700</v>
+        <v>334400</v>
       </c>
       <c r="E49" s="3">
-        <v>312100</v>
+        <v>330600</v>
       </c>
       <c r="F49" s="3">
-        <v>419500</v>
+        <v>444400</v>
       </c>
       <c r="G49" s="3">
-        <v>779200</v>
+        <v>825500</v>
       </c>
       <c r="H49" s="3">
-        <v>932000</v>
+        <v>987300</v>
       </c>
       <c r="I49" s="3">
-        <v>583300</v>
+        <v>617900</v>
       </c>
       <c r="J49" s="3">
-        <v>559200</v>
+        <v>592400</v>
       </c>
       <c r="K49" s="3">
         <v>386800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>606800</v>
+        <v>642800</v>
       </c>
       <c r="E52" s="3">
-        <v>502600</v>
+        <v>532400</v>
       </c>
       <c r="F52" s="3">
-        <v>535400</v>
+        <v>567200</v>
       </c>
       <c r="G52" s="3">
-        <v>536900</v>
+        <v>568800</v>
       </c>
       <c r="H52" s="3">
-        <v>433900</v>
+        <v>459700</v>
       </c>
       <c r="I52" s="3">
-        <v>211300</v>
+        <v>223900</v>
       </c>
       <c r="J52" s="3">
-        <v>201800</v>
+        <v>213800</v>
       </c>
       <c r="K52" s="3">
         <v>203800</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6418800</v>
+        <v>6799800</v>
       </c>
       <c r="E54" s="3">
-        <v>5523800</v>
+        <v>5851600</v>
       </c>
       <c r="F54" s="3">
-        <v>5400500</v>
+        <v>5721100</v>
       </c>
       <c r="G54" s="3">
-        <v>5008300</v>
+        <v>5305600</v>
       </c>
       <c r="H54" s="3">
-        <v>4262900</v>
+        <v>4515900</v>
       </c>
       <c r="I54" s="3">
-        <v>3667700</v>
+        <v>3885400</v>
       </c>
       <c r="J54" s="3">
-        <v>3422700</v>
+        <v>3625800</v>
       </c>
       <c r="K54" s="3">
         <v>3064900</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>715500</v>
+        <v>757900</v>
       </c>
       <c r="E57" s="3">
-        <v>478100</v>
+        <v>506500</v>
       </c>
       <c r="F57" s="3">
-        <v>483700</v>
+        <v>512400</v>
       </c>
       <c r="G57" s="3">
-        <v>381700</v>
+        <v>404300</v>
       </c>
       <c r="H57" s="3">
-        <v>302700</v>
+        <v>320700</v>
       </c>
       <c r="I57" s="3">
-        <v>258600</v>
+        <v>274000</v>
       </c>
       <c r="J57" s="3">
-        <v>453100</v>
+        <v>480000</v>
       </c>
       <c r="K57" s="3">
         <v>181300</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>622600</v>
+        <v>659600</v>
       </c>
       <c r="E58" s="3">
-        <v>234400</v>
+        <v>248300</v>
       </c>
       <c r="F58" s="3">
-        <v>402700</v>
+        <v>426600</v>
       </c>
       <c r="G58" s="3">
-        <v>620400</v>
+        <v>657200</v>
       </c>
       <c r="H58" s="3">
-        <v>438400</v>
+        <v>464400</v>
       </c>
       <c r="I58" s="3">
-        <v>194400</v>
+        <v>205900</v>
       </c>
       <c r="J58" s="3">
-        <v>609500</v>
+        <v>645700</v>
       </c>
       <c r="K58" s="3">
         <v>342400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>298200</v>
+        <v>315900</v>
       </c>
       <c r="E59" s="3">
-        <v>207400</v>
+        <v>219700</v>
       </c>
       <c r="F59" s="3">
-        <v>235700</v>
+        <v>249700</v>
       </c>
       <c r="G59" s="3">
-        <v>239100</v>
+        <v>253300</v>
       </c>
       <c r="H59" s="3">
-        <v>230000</v>
+        <v>243700</v>
       </c>
       <c r="I59" s="3">
-        <v>225800</v>
+        <v>239200</v>
       </c>
       <c r="J59" s="3">
-        <v>195600</v>
+        <v>207200</v>
       </c>
       <c r="K59" s="3">
         <v>180700</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1636300</v>
+        <v>1733400</v>
       </c>
       <c r="E60" s="3">
-        <v>919900</v>
+        <v>974500</v>
       </c>
       <c r="F60" s="3">
-        <v>1122100</v>
+        <v>1188700</v>
       </c>
       <c r="G60" s="3">
-        <v>1241200</v>
+        <v>1314900</v>
       </c>
       <c r="H60" s="3">
-        <v>971100</v>
+        <v>1028700</v>
       </c>
       <c r="I60" s="3">
-        <v>678800</v>
+        <v>719100</v>
       </c>
       <c r="J60" s="3">
-        <v>1007900</v>
+        <v>1067700</v>
       </c>
       <c r="K60" s="3">
         <v>704400</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2778800</v>
+        <v>2943800</v>
       </c>
       <c r="E61" s="3">
-        <v>2595400</v>
+        <v>2749500</v>
       </c>
       <c r="F61" s="3">
-        <v>2289900</v>
+        <v>2425800</v>
       </c>
       <c r="G61" s="3">
-        <v>1786100</v>
+        <v>1892100</v>
       </c>
       <c r="H61" s="3">
-        <v>1583300</v>
+        <v>1677300</v>
       </c>
       <c r="I61" s="3">
-        <v>1381800</v>
+        <v>1463800</v>
       </c>
       <c r="J61" s="3">
-        <v>873500</v>
+        <v>925300</v>
       </c>
       <c r="K61" s="3">
         <v>961800</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>248900</v>
+        <v>263700</v>
       </c>
       <c r="E62" s="3">
-        <v>267000</v>
+        <v>282800</v>
       </c>
       <c r="F62" s="3">
-        <v>253300</v>
+        <v>268300</v>
       </c>
       <c r="G62" s="3">
-        <v>276900</v>
+        <v>293300</v>
       </c>
       <c r="H62" s="3">
-        <v>207600</v>
+        <v>220000</v>
       </c>
       <c r="I62" s="3">
-        <v>215000</v>
+        <v>227700</v>
       </c>
       <c r="J62" s="3">
-        <v>189500</v>
+        <v>200700</v>
       </c>
       <c r="K62" s="3">
         <v>173600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4730700</v>
+        <v>5011500</v>
       </c>
       <c r="E66" s="3">
-        <v>3849000</v>
+        <v>4077500</v>
       </c>
       <c r="F66" s="3">
-        <v>3727600</v>
+        <v>3948800</v>
       </c>
       <c r="G66" s="3">
-        <v>3371100</v>
+        <v>3571200</v>
       </c>
       <c r="H66" s="3">
-        <v>2767500</v>
+        <v>2931700</v>
       </c>
       <c r="I66" s="3">
-        <v>2260800</v>
+        <v>2395000</v>
       </c>
       <c r="J66" s="3">
-        <v>2059600</v>
+        <v>2181900</v>
       </c>
       <c r="K66" s="3">
         <v>1844800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>900300</v>
+        <v>953700</v>
       </c>
       <c r="E72" s="3">
-        <v>852700</v>
+        <v>903300</v>
       </c>
       <c r="F72" s="3">
-        <v>842800</v>
+        <v>892900</v>
       </c>
       <c r="G72" s="3">
-        <v>867500</v>
+        <v>919000</v>
       </c>
       <c r="H72" s="3">
-        <v>1002000</v>
+        <v>1061500</v>
       </c>
       <c r="I72" s="3">
-        <v>798800</v>
+        <v>846200</v>
       </c>
       <c r="J72" s="3">
-        <v>692700</v>
+        <v>733800</v>
       </c>
       <c r="K72" s="3">
         <v>541700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1688100</v>
+        <v>1788300</v>
       </c>
       <c r="E76" s="3">
-        <v>1674800</v>
+        <v>1774200</v>
       </c>
       <c r="F76" s="3">
-        <v>1673000</v>
+        <v>1772300</v>
       </c>
       <c r="G76" s="3">
-        <v>1637200</v>
+        <v>1734400</v>
       </c>
       <c r="H76" s="3">
-        <v>1495400</v>
+        <v>1584100</v>
       </c>
       <c r="I76" s="3">
-        <v>1406800</v>
+        <v>1490300</v>
       </c>
       <c r="J76" s="3">
-        <v>1363100</v>
+        <v>1444000</v>
       </c>
       <c r="K76" s="3">
         <v>1220100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>158200</v>
+        <v>167600</v>
       </c>
       <c r="E81" s="3">
-        <v>66100</v>
+        <v>70100</v>
       </c>
       <c r="F81" s="3">
-        <v>203700</v>
+        <v>215800</v>
       </c>
       <c r="G81" s="3">
-        <v>270300</v>
+        <v>286300</v>
       </c>
       <c r="H81" s="3">
-        <v>276500</v>
+        <v>292900</v>
       </c>
       <c r="I81" s="3">
-        <v>266200</v>
+        <v>282000</v>
       </c>
       <c r="J81" s="3">
-        <v>219800</v>
+        <v>232900</v>
       </c>
       <c r="K81" s="3">
         <v>229300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>224400</v>
+        <v>237700</v>
       </c>
       <c r="E83" s="3">
-        <v>202700</v>
+        <v>214700</v>
       </c>
       <c r="F83" s="3">
-        <v>143900</v>
+        <v>152400</v>
       </c>
       <c r="G83" s="3">
-        <v>124800</v>
+        <v>132200</v>
       </c>
       <c r="H83" s="3">
-        <v>195400</v>
+        <v>207000</v>
       </c>
       <c r="I83" s="3">
-        <v>177500</v>
+        <v>188100</v>
       </c>
       <c r="J83" s="3">
-        <v>157200</v>
+        <v>166500</v>
       </c>
       <c r="K83" s="3">
         <v>145800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>555700</v>
+        <v>588600</v>
       </c>
       <c r="E89" s="3">
-        <v>517900</v>
+        <v>548600</v>
       </c>
       <c r="F89" s="3">
-        <v>511500</v>
+        <v>541900</v>
       </c>
       <c r="G89" s="3">
-        <v>307900</v>
+        <v>326200</v>
       </c>
       <c r="H89" s="3">
-        <v>445100</v>
+        <v>471500</v>
       </c>
       <c r="I89" s="3">
-        <v>566900</v>
+        <v>600600</v>
       </c>
       <c r="J89" s="3">
-        <v>469400</v>
+        <v>497200</v>
       </c>
       <c r="K89" s="3">
         <v>396800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-171000</v>
+        <v>-181200</v>
       </c>
       <c r="E91" s="3">
-        <v>-180600</v>
+        <v>-191300</v>
       </c>
       <c r="F91" s="3">
-        <v>-208600</v>
+        <v>-221000</v>
       </c>
       <c r="G91" s="3">
-        <v>-230600</v>
+        <v>-244300</v>
       </c>
       <c r="H91" s="3">
-        <v>-179800</v>
+        <v>-190400</v>
       </c>
       <c r="I91" s="3">
-        <v>-142300</v>
+        <v>-150700</v>
       </c>
       <c r="J91" s="3">
-        <v>-125000</v>
+        <v>-132400</v>
       </c>
       <c r="K91" s="3">
         <v>-123700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-378300</v>
+        <v>-400700</v>
       </c>
       <c r="E94" s="3">
-        <v>-325000</v>
+        <v>-344300</v>
       </c>
       <c r="F94" s="3">
-        <v>-562700</v>
+        <v>-596100</v>
       </c>
       <c r="G94" s="3">
-        <v>-242900</v>
+        <v>-257300</v>
       </c>
       <c r="H94" s="3">
-        <v>-327400</v>
+        <v>-346800</v>
       </c>
       <c r="I94" s="3">
-        <v>-142000</v>
+        <v>-150400</v>
       </c>
       <c r="J94" s="3">
-        <v>-272700</v>
+        <v>-288900</v>
       </c>
       <c r="K94" s="3">
         <v>-241000</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-50400</v>
+        <v>-53400</v>
       </c>
       <c r="E96" s="3">
-        <v>-105600</v>
+        <v>-111900</v>
       </c>
       <c r="F96" s="3">
-        <v>-143200</v>
+        <v>-151700</v>
       </c>
       <c r="G96" s="3">
-        <v>-166500</v>
+        <v>-176400</v>
       </c>
       <c r="H96" s="3">
-        <v>-154600</v>
+        <v>-163800</v>
       </c>
       <c r="I96" s="3">
-        <v>-147300</v>
+        <v>-156000</v>
       </c>
       <c r="J96" s="3">
-        <v>-138600</v>
+        <v>-146900</v>
       </c>
       <c r="K96" s="3">
         <v>-133100</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-104900</v>
+        <v>-111100</v>
       </c>
       <c r="E100" s="3">
-        <v>-517400</v>
+        <v>-548200</v>
       </c>
       <c r="F100" s="3">
-        <v>-141800</v>
+        <v>-150300</v>
       </c>
       <c r="G100" s="3">
-        <v>60300</v>
+        <v>63800</v>
       </c>
       <c r="H100" s="3">
-        <v>164400</v>
+        <v>174100</v>
       </c>
       <c r="I100" s="3">
-        <v>-446300</v>
+        <v>-472800</v>
       </c>
       <c r="J100" s="3">
-        <v>-95500</v>
+        <v>-101200</v>
       </c>
       <c r="K100" s="3">
         <v>-108300</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>24200</v>
+        <v>25600</v>
       </c>
       <c r="E101" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F101" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="G101" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="H101" s="3">
-        <v>-3900</v>
+        <v>-4100</v>
       </c>
       <c r="I101" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J101" s="3">
-        <v>-3500</v>
+        <v>-3700</v>
       </c>
       <c r="K101" s="3">
         <v>200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>96700</v>
+        <v>102400</v>
       </c>
       <c r="E102" s="3">
-        <v>-322900</v>
+        <v>-342100</v>
       </c>
       <c r="F102" s="3">
-        <v>-188200</v>
+        <v>-199400</v>
       </c>
       <c r="G102" s="3">
-        <v>128900</v>
+        <v>136500</v>
       </c>
       <c r="H102" s="3">
-        <v>278200</v>
+        <v>294700</v>
       </c>
       <c r="I102" s="3">
-        <v>-22000</v>
+        <v>-23300</v>
       </c>
       <c r="J102" s="3">
-        <v>97600</v>
+        <v>103400</v>
       </c>
       <c r="K102" s="3">
         <v>47700</v>

--- a/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15239200</v>
+        <v>15005200</v>
       </c>
       <c r="E8" s="3">
-        <v>16750500</v>
+        <v>16493300</v>
       </c>
       <c r="F8" s="3">
-        <v>17013100</v>
+        <v>16751900</v>
       </c>
       <c r="G8" s="3">
-        <v>14862000</v>
+        <v>14633800</v>
       </c>
       <c r="H8" s="3">
-        <v>14509900</v>
+        <v>14287100</v>
       </c>
       <c r="I8" s="3">
-        <v>14191400</v>
+        <v>13973500</v>
       </c>
       <c r="J8" s="3">
-        <v>12706000</v>
+        <v>12510900</v>
       </c>
       <c r="K8" s="3">
         <v>11403700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14186300</v>
+        <v>13968500</v>
       </c>
       <c r="E9" s="3">
-        <v>15604200</v>
+        <v>15364700</v>
       </c>
       <c r="F9" s="3">
-        <v>15857500</v>
+        <v>15614100</v>
       </c>
       <c r="G9" s="3">
-        <v>13586700</v>
+        <v>13378100</v>
       </c>
       <c r="H9" s="3">
-        <v>13194900</v>
+        <v>12992300</v>
       </c>
       <c r="I9" s="3">
-        <v>12930600</v>
+        <v>12732100</v>
       </c>
       <c r="J9" s="3">
-        <v>11687100</v>
+        <v>11507700</v>
       </c>
       <c r="K9" s="3">
         <v>21020500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1052900</v>
+        <v>1036700</v>
       </c>
       <c r="E10" s="3">
-        <v>1146300</v>
+        <v>1128700</v>
       </c>
       <c r="F10" s="3">
-        <v>1155600</v>
+        <v>1137900</v>
       </c>
       <c r="G10" s="3">
-        <v>1275300</v>
+        <v>1255700</v>
       </c>
       <c r="H10" s="3">
-        <v>1315000</v>
+        <v>1294800</v>
       </c>
       <c r="I10" s="3">
-        <v>1260800</v>
+        <v>1241500</v>
       </c>
       <c r="J10" s="3">
-        <v>1018900</v>
+        <v>1003200</v>
       </c>
       <c r="K10" s="3">
         <v>-9616700</v>
@@ -844,10 +844,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>12000</v>
+        <v>11800</v>
       </c>
       <c r="E12" s="3">
-        <v>11600</v>
+        <v>11400</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>8</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>111300</v>
+        <v>109600</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>146700</v>
+        <v>144500</v>
       </c>
       <c r="E15" s="3">
-        <v>130500</v>
+        <v>128500</v>
       </c>
       <c r="F15" s="3">
-        <v>15800</v>
+        <v>15600</v>
       </c>
       <c r="G15" s="3">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="H15" s="3">
-        <v>101400</v>
+        <v>99800</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J15" s="3">
-        <v>76400</v>
+        <v>75200</v>
       </c>
       <c r="K15" s="3">
         <v>61600</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14907500</v>
+        <v>14678600</v>
       </c>
       <c r="E17" s="3">
-        <v>16508800</v>
+        <v>16255400</v>
       </c>
       <c r="F17" s="3">
-        <v>16659600</v>
+        <v>16403800</v>
       </c>
       <c r="G17" s="3">
-        <v>14334200</v>
+        <v>14114100</v>
       </c>
       <c r="H17" s="3">
-        <v>13925900</v>
+        <v>13712100</v>
       </c>
       <c r="I17" s="3">
-        <v>13637900</v>
+        <v>13428500</v>
       </c>
       <c r="J17" s="3">
-        <v>12277100</v>
+        <v>12088600</v>
       </c>
       <c r="K17" s="3">
         <v>11002500</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>331700</v>
+        <v>326600</v>
       </c>
       <c r="E18" s="3">
-        <v>241700</v>
+        <v>238000</v>
       </c>
       <c r="F18" s="3">
-        <v>353500</v>
+        <v>348100</v>
       </c>
       <c r="G18" s="3">
-        <v>527700</v>
+        <v>519600</v>
       </c>
       <c r="H18" s="3">
-        <v>584000</v>
+        <v>575000</v>
       </c>
       <c r="I18" s="3">
-        <v>553500</v>
+        <v>545000</v>
       </c>
       <c r="J18" s="3">
-        <v>428900</v>
+        <v>422300</v>
       </c>
       <c r="K18" s="3">
         <v>401200</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>107300</v>
+        <v>105600</v>
       </c>
       <c r="E20" s="3">
-        <v>93300</v>
+        <v>91900</v>
       </c>
       <c r="F20" s="3">
-        <v>144700</v>
+        <v>142400</v>
       </c>
       <c r="G20" s="3">
-        <v>110300</v>
+        <v>108600</v>
       </c>
       <c r="H20" s="3">
-        <v>59400</v>
+        <v>58500</v>
       </c>
       <c r="I20" s="3">
-        <v>51700</v>
+        <v>50900</v>
       </c>
       <c r="J20" s="3">
-        <v>50100</v>
+        <v>49300</v>
       </c>
       <c r="K20" s="3">
         <v>26600</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>677300</v>
+        <v>667800</v>
       </c>
       <c r="E21" s="3">
-        <v>550300</v>
+        <v>542600</v>
       </c>
       <c r="F21" s="3">
-        <v>651000</v>
+        <v>641500</v>
       </c>
       <c r="G21" s="3">
-        <v>770500</v>
+        <v>759200</v>
       </c>
       <c r="H21" s="3">
-        <v>850900</v>
+        <v>838700</v>
       </c>
       <c r="I21" s="3">
-        <v>793800</v>
+        <v>782300</v>
       </c>
       <c r="J21" s="3">
-        <v>646000</v>
+        <v>636700</v>
       </c>
       <c r="K21" s="3">
         <v>573800</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>157800</v>
+        <v>155400</v>
       </c>
       <c r="E22" s="3">
-        <v>188400</v>
+        <v>185500</v>
       </c>
       <c r="F22" s="3">
-        <v>166000</v>
+        <v>163400</v>
       </c>
       <c r="G22" s="3">
-        <v>199200</v>
+        <v>196200</v>
       </c>
       <c r="H22" s="3">
-        <v>217500</v>
+        <v>214100</v>
       </c>
       <c r="I22" s="3">
-        <v>183700</v>
+        <v>180800</v>
       </c>
       <c r="J22" s="3">
-        <v>136700</v>
+        <v>134600</v>
       </c>
       <c r="K22" s="3">
         <v>90700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>281200</v>
+        <v>276900</v>
       </c>
       <c r="E23" s="3">
-        <v>146600</v>
+        <v>144400</v>
       </c>
       <c r="F23" s="3">
-        <v>332200</v>
+        <v>327100</v>
       </c>
       <c r="G23" s="3">
-        <v>438800</v>
+        <v>432000</v>
       </c>
       <c r="H23" s="3">
-        <v>425900</v>
+        <v>419400</v>
       </c>
       <c r="I23" s="3">
-        <v>421600</v>
+        <v>415100</v>
       </c>
       <c r="J23" s="3">
-        <v>342300</v>
+        <v>337000</v>
       </c>
       <c r="K23" s="3">
         <v>337100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>107200</v>
+        <v>105500</v>
       </c>
       <c r="E24" s="3">
-        <v>71000</v>
+        <v>69900</v>
       </c>
       <c r="F24" s="3">
-        <v>119800</v>
+        <v>118000</v>
       </c>
       <c r="G24" s="3">
-        <v>152600</v>
+        <v>150200</v>
       </c>
       <c r="H24" s="3">
-        <v>131300</v>
+        <v>129300</v>
       </c>
       <c r="I24" s="3">
-        <v>137700</v>
+        <v>135600</v>
       </c>
       <c r="J24" s="3">
-        <v>107600</v>
+        <v>105900</v>
       </c>
       <c r="K24" s="3">
         <v>107200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>174000</v>
+        <v>171300</v>
       </c>
       <c r="E26" s="3">
-        <v>75600</v>
+        <v>74400</v>
       </c>
       <c r="F26" s="3">
-        <v>212400</v>
+        <v>209100</v>
       </c>
       <c r="G26" s="3">
-        <v>286200</v>
+        <v>281800</v>
       </c>
       <c r="H26" s="3">
-        <v>294600</v>
+        <v>290100</v>
       </c>
       <c r="I26" s="3">
-        <v>283800</v>
+        <v>279400</v>
       </c>
       <c r="J26" s="3">
-        <v>234700</v>
+        <v>231100</v>
       </c>
       <c r="K26" s="3">
         <v>229900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>167600</v>
+        <v>165000</v>
       </c>
       <c r="E27" s="3">
-        <v>70100</v>
+        <v>69000</v>
       </c>
       <c r="F27" s="3">
-        <v>215800</v>
+        <v>212500</v>
       </c>
       <c r="G27" s="3">
-        <v>286300</v>
+        <v>281900</v>
       </c>
       <c r="H27" s="3">
-        <v>292900</v>
+        <v>288400</v>
       </c>
       <c r="I27" s="3">
-        <v>282000</v>
+        <v>277700</v>
       </c>
       <c r="J27" s="3">
-        <v>232900</v>
+        <v>229300</v>
       </c>
       <c r="K27" s="3">
         <v>229300</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-107300</v>
+        <v>-105600</v>
       </c>
       <c r="E32" s="3">
-        <v>-93300</v>
+        <v>-91900</v>
       </c>
       <c r="F32" s="3">
-        <v>-144700</v>
+        <v>-142400</v>
       </c>
       <c r="G32" s="3">
-        <v>-110300</v>
+        <v>-108600</v>
       </c>
       <c r="H32" s="3">
-        <v>-59400</v>
+        <v>-58500</v>
       </c>
       <c r="I32" s="3">
-        <v>-51700</v>
+        <v>-50900</v>
       </c>
       <c r="J32" s="3">
-        <v>-50100</v>
+        <v>-49300</v>
       </c>
       <c r="K32" s="3">
         <v>-26600</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>167600</v>
+        <v>165000</v>
       </c>
       <c r="E33" s="3">
-        <v>70100</v>
+        <v>69000</v>
       </c>
       <c r="F33" s="3">
-        <v>215800</v>
+        <v>212500</v>
       </c>
       <c r="G33" s="3">
-        <v>286300</v>
+        <v>281900</v>
       </c>
       <c r="H33" s="3">
-        <v>292900</v>
+        <v>288400</v>
       </c>
       <c r="I33" s="3">
-        <v>282000</v>
+        <v>277700</v>
       </c>
       <c r="J33" s="3">
-        <v>232900</v>
+        <v>229300</v>
       </c>
       <c r="K33" s="3">
         <v>229300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>167600</v>
+        <v>165000</v>
       </c>
       <c r="E35" s="3">
-        <v>70100</v>
+        <v>69000</v>
       </c>
       <c r="F35" s="3">
-        <v>215800</v>
+        <v>212500</v>
       </c>
       <c r="G35" s="3">
-        <v>286300</v>
+        <v>281900</v>
       </c>
       <c r="H35" s="3">
-        <v>292900</v>
+        <v>288400</v>
       </c>
       <c r="I35" s="3">
-        <v>282000</v>
+        <v>277700</v>
       </c>
       <c r="J35" s="3">
-        <v>232900</v>
+        <v>229300</v>
       </c>
       <c r="K35" s="3">
         <v>229300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>491600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>390700</v>
+      </c>
+      <c r="F41" s="3">
+        <v>727500</v>
+      </c>
+      <c r="G41" s="3">
+        <v>923900</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1578900</v>
+      </c>
+      <c r="I41" s="3">
         <v>499200</v>
       </c>
-      <c r="E41" s="3">
-        <v>396800</v>
-      </c>
-      <c r="F41" s="3">
-        <v>738900</v>
-      </c>
-      <c r="G41" s="3">
-        <v>938300</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1603500</v>
-      </c>
-      <c r="I41" s="3">
-        <v>507000</v>
-      </c>
       <c r="J41" s="3">
-        <v>1060700</v>
+        <v>1044400</v>
       </c>
       <c r="K41" s="3">
         <v>425900</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>944100</v>
+        <v>929600</v>
       </c>
       <c r="E42" s="3">
-        <v>579700</v>
+        <v>570800</v>
       </c>
       <c r="F42" s="3">
-        <v>535200</v>
+        <v>527000</v>
       </c>
       <c r="G42" s="3">
-        <v>481500</v>
+        <v>474100</v>
       </c>
       <c r="H42" s="3">
-        <v>529900</v>
+        <v>521800</v>
       </c>
       <c r="I42" s="3">
-        <v>150700</v>
+        <v>148400</v>
       </c>
       <c r="J42" s="3">
-        <v>270500</v>
+        <v>266300</v>
       </c>
       <c r="K42" s="3">
         <v>215000</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1001100</v>
+        <v>985800</v>
       </c>
       <c r="E43" s="3">
-        <v>1043000</v>
+        <v>1026900</v>
       </c>
       <c r="F43" s="3">
-        <v>1011600</v>
+        <v>996100</v>
       </c>
       <c r="G43" s="3">
-        <v>1731800</v>
+        <v>1705200</v>
       </c>
       <c r="H43" s="3">
-        <v>1537200</v>
+        <v>1513600</v>
       </c>
       <c r="I43" s="3">
-        <v>718100</v>
+        <v>707100</v>
       </c>
       <c r="J43" s="3">
-        <v>607900</v>
+        <v>598600</v>
       </c>
       <c r="K43" s="3">
         <v>527900</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>721500</v>
+        <v>710400</v>
       </c>
       <c r="E44" s="3">
-        <v>697000</v>
+        <v>686300</v>
       </c>
       <c r="F44" s="3">
-        <v>629200</v>
+        <v>619600</v>
       </c>
       <c r="G44" s="3">
-        <v>659100</v>
+        <v>649000</v>
       </c>
       <c r="H44" s="3">
-        <v>1039700</v>
+        <v>1023700</v>
       </c>
       <c r="I44" s="3">
-        <v>468100</v>
+        <v>460900</v>
       </c>
       <c r="J44" s="3">
-        <v>722200</v>
+        <v>711100</v>
       </c>
       <c r="K44" s="3">
         <v>298000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>114600</v>
+        <v>112900</v>
       </c>
       <c r="E45" s="3">
-        <v>108200</v>
+        <v>106500</v>
       </c>
       <c r="F45" s="3">
-        <v>126100</v>
+        <v>124100</v>
       </c>
       <c r="G45" s="3">
-        <v>113700</v>
+        <v>112000</v>
       </c>
       <c r="H45" s="3">
-        <v>107300</v>
+        <v>105700</v>
       </c>
       <c r="I45" s="3">
-        <v>15300</v>
+        <v>15000</v>
       </c>
       <c r="J45" s="3">
-        <v>12600</v>
+        <v>12400</v>
       </c>
       <c r="K45" s="3">
         <v>12200</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3280600</v>
+        <v>3230200</v>
       </c>
       <c r="E46" s="3">
-        <v>2824600</v>
+        <v>2781200</v>
       </c>
       <c r="F46" s="3">
-        <v>3041000</v>
+        <v>2994300</v>
       </c>
       <c r="G46" s="3">
-        <v>2905600</v>
+        <v>2861000</v>
       </c>
       <c r="H46" s="3">
-        <v>2507200</v>
+        <v>2468700</v>
       </c>
       <c r="I46" s="3">
-        <v>1859200</v>
+        <v>1830600</v>
       </c>
       <c r="J46" s="3">
-        <v>1782500</v>
+        <v>1755100</v>
       </c>
       <c r="K46" s="3">
         <v>1479100</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>636900</v>
+        <v>627100</v>
       </c>
       <c r="E47" s="3">
-        <v>371900</v>
+        <v>366200</v>
       </c>
       <c r="F47" s="3">
-        <v>303100</v>
+        <v>298500</v>
       </c>
       <c r="G47" s="3">
-        <v>166200</v>
+        <v>163700</v>
       </c>
       <c r="H47" s="3">
-        <v>106900</v>
+        <v>105200</v>
       </c>
       <c r="I47" s="3">
-        <v>164200</v>
+        <v>161700</v>
       </c>
       <c r="J47" s="3">
-        <v>94300</v>
+        <v>92800</v>
       </c>
       <c r="K47" s="3">
         <v>68800</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1905100</v>
+        <v>1875800</v>
       </c>
       <c r="E48" s="3">
-        <v>1792100</v>
+        <v>1764600</v>
       </c>
       <c r="F48" s="3">
-        <v>1365400</v>
+        <v>1344400</v>
       </c>
       <c r="G48" s="3">
-        <v>2489600</v>
+        <v>2451400</v>
       </c>
       <c r="H48" s="3">
-        <v>2173000</v>
+        <v>2139600</v>
       </c>
       <c r="I48" s="3">
-        <v>1020200</v>
+        <v>1004600</v>
       </c>
       <c r="J48" s="3">
-        <v>955200</v>
+        <v>940500</v>
       </c>
       <c r="K48" s="3">
         <v>909500</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>334400</v>
+        <v>329300</v>
       </c>
       <c r="E49" s="3">
-        <v>330600</v>
+        <v>325600</v>
       </c>
       <c r="F49" s="3">
-        <v>444400</v>
+        <v>437600</v>
       </c>
       <c r="G49" s="3">
-        <v>825500</v>
+        <v>812800</v>
       </c>
       <c r="H49" s="3">
-        <v>987300</v>
+        <v>972100</v>
       </c>
       <c r="I49" s="3">
-        <v>617900</v>
+        <v>608400</v>
       </c>
       <c r="J49" s="3">
-        <v>592400</v>
+        <v>583300</v>
       </c>
       <c r="K49" s="3">
         <v>386800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>642800</v>
+        <v>632900</v>
       </c>
       <c r="E52" s="3">
-        <v>532400</v>
+        <v>524200</v>
       </c>
       <c r="F52" s="3">
-        <v>567200</v>
+        <v>558400</v>
       </c>
       <c r="G52" s="3">
-        <v>568800</v>
+        <v>560000</v>
       </c>
       <c r="H52" s="3">
-        <v>459700</v>
+        <v>452600</v>
       </c>
       <c r="I52" s="3">
-        <v>223900</v>
+        <v>220400</v>
       </c>
       <c r="J52" s="3">
-        <v>213800</v>
+        <v>210500</v>
       </c>
       <c r="K52" s="3">
         <v>203800</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6799800</v>
+        <v>6695400</v>
       </c>
       <c r="E54" s="3">
-        <v>5851600</v>
+        <v>5761800</v>
       </c>
       <c r="F54" s="3">
-        <v>5721100</v>
+        <v>5633200</v>
       </c>
       <c r="G54" s="3">
-        <v>5305600</v>
+        <v>5224100</v>
       </c>
       <c r="H54" s="3">
-        <v>4515900</v>
+        <v>4446600</v>
       </c>
       <c r="I54" s="3">
-        <v>3885400</v>
+        <v>3825700</v>
       </c>
       <c r="J54" s="3">
-        <v>3625800</v>
+        <v>3570200</v>
       </c>
       <c r="K54" s="3">
         <v>3064900</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>757900</v>
+        <v>746300</v>
       </c>
       <c r="E57" s="3">
-        <v>506500</v>
+        <v>498700</v>
       </c>
       <c r="F57" s="3">
-        <v>512400</v>
+        <v>504500</v>
       </c>
       <c r="G57" s="3">
-        <v>404300</v>
+        <v>398100</v>
       </c>
       <c r="H57" s="3">
-        <v>320700</v>
+        <v>315800</v>
       </c>
       <c r="I57" s="3">
-        <v>274000</v>
+        <v>269800</v>
       </c>
       <c r="J57" s="3">
-        <v>480000</v>
+        <v>472600</v>
       </c>
       <c r="K57" s="3">
         <v>181300</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>659600</v>
+        <v>649400</v>
       </c>
       <c r="E58" s="3">
-        <v>248300</v>
+        <v>244500</v>
       </c>
       <c r="F58" s="3">
-        <v>426600</v>
+        <v>420000</v>
       </c>
       <c r="G58" s="3">
-        <v>657200</v>
+        <v>647100</v>
       </c>
       <c r="H58" s="3">
-        <v>464400</v>
+        <v>457200</v>
       </c>
       <c r="I58" s="3">
-        <v>205900</v>
+        <v>202800</v>
       </c>
       <c r="J58" s="3">
-        <v>645700</v>
+        <v>635800</v>
       </c>
       <c r="K58" s="3">
         <v>342400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>315900</v>
+        <v>311000</v>
       </c>
       <c r="E59" s="3">
-        <v>219700</v>
+        <v>216300</v>
       </c>
       <c r="F59" s="3">
-        <v>249700</v>
+        <v>245900</v>
       </c>
       <c r="G59" s="3">
-        <v>253300</v>
+        <v>249400</v>
       </c>
       <c r="H59" s="3">
-        <v>243700</v>
+        <v>239900</v>
       </c>
       <c r="I59" s="3">
-        <v>239200</v>
+        <v>235500</v>
       </c>
       <c r="J59" s="3">
-        <v>207200</v>
+        <v>204000</v>
       </c>
       <c r="K59" s="3">
         <v>180700</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1733400</v>
+        <v>1706800</v>
       </c>
       <c r="E60" s="3">
-        <v>974500</v>
+        <v>959500</v>
       </c>
       <c r="F60" s="3">
-        <v>1188700</v>
+        <v>1170400</v>
       </c>
       <c r="G60" s="3">
-        <v>1314900</v>
+        <v>1294700</v>
       </c>
       <c r="H60" s="3">
-        <v>1028700</v>
+        <v>1013000</v>
       </c>
       <c r="I60" s="3">
-        <v>719100</v>
+        <v>708000</v>
       </c>
       <c r="J60" s="3">
-        <v>1067700</v>
+        <v>1051300</v>
       </c>
       <c r="K60" s="3">
         <v>704400</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2943800</v>
+        <v>2898600</v>
       </c>
       <c r="E61" s="3">
-        <v>2749500</v>
+        <v>2707300</v>
       </c>
       <c r="F61" s="3">
-        <v>2425800</v>
+        <v>2388600</v>
       </c>
       <c r="G61" s="3">
-        <v>1892100</v>
+        <v>1863100</v>
       </c>
       <c r="H61" s="3">
-        <v>1677300</v>
+        <v>1651500</v>
       </c>
       <c r="I61" s="3">
-        <v>1463800</v>
+        <v>1441400</v>
       </c>
       <c r="J61" s="3">
-        <v>925300</v>
+        <v>911100</v>
       </c>
       <c r="K61" s="3">
         <v>961800</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>263700</v>
+        <v>259600</v>
       </c>
       <c r="E62" s="3">
-        <v>282800</v>
+        <v>278500</v>
       </c>
       <c r="F62" s="3">
-        <v>268300</v>
+        <v>264200</v>
       </c>
       <c r="G62" s="3">
-        <v>293300</v>
+        <v>288800</v>
       </c>
       <c r="H62" s="3">
-        <v>220000</v>
+        <v>216600</v>
       </c>
       <c r="I62" s="3">
-        <v>227700</v>
+        <v>224200</v>
       </c>
       <c r="J62" s="3">
-        <v>200700</v>
+        <v>197700</v>
       </c>
       <c r="K62" s="3">
         <v>173600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5011500</v>
+        <v>4934500</v>
       </c>
       <c r="E66" s="3">
-        <v>4077500</v>
+        <v>4014900</v>
       </c>
       <c r="F66" s="3">
-        <v>3948800</v>
+        <v>3888200</v>
       </c>
       <c r="G66" s="3">
-        <v>3571200</v>
+        <v>3516300</v>
       </c>
       <c r="H66" s="3">
-        <v>2931700</v>
+        <v>2886700</v>
       </c>
       <c r="I66" s="3">
-        <v>2395000</v>
+        <v>2358300</v>
       </c>
       <c r="J66" s="3">
-        <v>2181900</v>
+        <v>2148400</v>
       </c>
       <c r="K66" s="3">
         <v>1844800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>953700</v>
+        <v>939100</v>
       </c>
       <c r="E72" s="3">
-        <v>903300</v>
+        <v>889500</v>
       </c>
       <c r="F72" s="3">
-        <v>892900</v>
+        <v>879100</v>
       </c>
       <c r="G72" s="3">
-        <v>919000</v>
+        <v>904900</v>
       </c>
       <c r="H72" s="3">
-        <v>1061500</v>
+        <v>1045200</v>
       </c>
       <c r="I72" s="3">
-        <v>846200</v>
+        <v>833200</v>
       </c>
       <c r="J72" s="3">
-        <v>733800</v>
+        <v>722500</v>
       </c>
       <c r="K72" s="3">
         <v>541700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1788300</v>
+        <v>1760900</v>
       </c>
       <c r="E76" s="3">
-        <v>1774200</v>
+        <v>1746900</v>
       </c>
       <c r="F76" s="3">
-        <v>1772300</v>
+        <v>1745100</v>
       </c>
       <c r="G76" s="3">
-        <v>1734400</v>
+        <v>1707800</v>
       </c>
       <c r="H76" s="3">
-        <v>1584100</v>
+        <v>1559800</v>
       </c>
       <c r="I76" s="3">
-        <v>1490300</v>
+        <v>1467400</v>
       </c>
       <c r="J76" s="3">
-        <v>1444000</v>
+        <v>1421800</v>
       </c>
       <c r="K76" s="3">
         <v>1220100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>167600</v>
+        <v>165000</v>
       </c>
       <c r="E81" s="3">
-        <v>70100</v>
+        <v>69000</v>
       </c>
       <c r="F81" s="3">
-        <v>215800</v>
+        <v>212500</v>
       </c>
       <c r="G81" s="3">
-        <v>286300</v>
+        <v>281900</v>
       </c>
       <c r="H81" s="3">
-        <v>292900</v>
+        <v>288400</v>
       </c>
       <c r="I81" s="3">
-        <v>282000</v>
+        <v>277700</v>
       </c>
       <c r="J81" s="3">
-        <v>232900</v>
+        <v>229300</v>
       </c>
       <c r="K81" s="3">
         <v>229300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>237700</v>
+        <v>234000</v>
       </c>
       <c r="E83" s="3">
-        <v>214700</v>
+        <v>211400</v>
       </c>
       <c r="F83" s="3">
-        <v>152400</v>
+        <v>150100</v>
       </c>
       <c r="G83" s="3">
-        <v>132200</v>
+        <v>130100</v>
       </c>
       <c r="H83" s="3">
-        <v>207000</v>
+        <v>203800</v>
       </c>
       <c r="I83" s="3">
-        <v>188100</v>
+        <v>185200</v>
       </c>
       <c r="J83" s="3">
-        <v>166500</v>
+        <v>164000</v>
       </c>
       <c r="K83" s="3">
         <v>145800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>588600</v>
+        <v>579600</v>
       </c>
       <c r="E89" s="3">
-        <v>548600</v>
+        <v>540200</v>
       </c>
       <c r="F89" s="3">
-        <v>541900</v>
+        <v>533600</v>
       </c>
       <c r="G89" s="3">
-        <v>326200</v>
+        <v>321200</v>
       </c>
       <c r="H89" s="3">
-        <v>471500</v>
+        <v>464300</v>
       </c>
       <c r="I89" s="3">
-        <v>600600</v>
+        <v>591400</v>
       </c>
       <c r="J89" s="3">
-        <v>497200</v>
+        <v>489600</v>
       </c>
       <c r="K89" s="3">
         <v>396800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-181200</v>
+        <v>-178400</v>
       </c>
       <c r="E91" s="3">
-        <v>-191300</v>
+        <v>-188400</v>
       </c>
       <c r="F91" s="3">
-        <v>-221000</v>
+        <v>-217600</v>
       </c>
       <c r="G91" s="3">
-        <v>-244300</v>
+        <v>-240500</v>
       </c>
       <c r="H91" s="3">
-        <v>-190400</v>
+        <v>-187500</v>
       </c>
       <c r="I91" s="3">
-        <v>-150700</v>
+        <v>-148400</v>
       </c>
       <c r="J91" s="3">
-        <v>-132400</v>
+        <v>-130400</v>
       </c>
       <c r="K91" s="3">
         <v>-123700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-400700</v>
+        <v>-394600</v>
       </c>
       <c r="E94" s="3">
-        <v>-344300</v>
+        <v>-339000</v>
       </c>
       <c r="F94" s="3">
-        <v>-596100</v>
+        <v>-586900</v>
       </c>
       <c r="G94" s="3">
-        <v>-257300</v>
+        <v>-253400</v>
       </c>
       <c r="H94" s="3">
-        <v>-346800</v>
+        <v>-341500</v>
       </c>
       <c r="I94" s="3">
-        <v>-150400</v>
+        <v>-148100</v>
       </c>
       <c r="J94" s="3">
-        <v>-288900</v>
+        <v>-284500</v>
       </c>
       <c r="K94" s="3">
         <v>-241000</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-53400</v>
+        <v>-52600</v>
       </c>
       <c r="E96" s="3">
-        <v>-111900</v>
+        <v>-110200</v>
       </c>
       <c r="F96" s="3">
-        <v>-151700</v>
+        <v>-149300</v>
       </c>
       <c r="G96" s="3">
-        <v>-176400</v>
+        <v>-173700</v>
       </c>
       <c r="H96" s="3">
-        <v>-163800</v>
+        <v>-161300</v>
       </c>
       <c r="I96" s="3">
-        <v>-156000</v>
+        <v>-153600</v>
       </c>
       <c r="J96" s="3">
-        <v>-146900</v>
+        <v>-144600</v>
       </c>
       <c r="K96" s="3">
         <v>-133100</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-111100</v>
+        <v>-109400</v>
       </c>
       <c r="E100" s="3">
-        <v>-548200</v>
+        <v>-539700</v>
       </c>
       <c r="F100" s="3">
-        <v>-150300</v>
+        <v>-147900</v>
       </c>
       <c r="G100" s="3">
-        <v>63800</v>
+        <v>62900</v>
       </c>
       <c r="H100" s="3">
-        <v>174100</v>
+        <v>171500</v>
       </c>
       <c r="I100" s="3">
-        <v>-472800</v>
+        <v>-465600</v>
       </c>
       <c r="J100" s="3">
-        <v>-101200</v>
+        <v>-99600</v>
       </c>
       <c r="K100" s="3">
         <v>-108300</v>
@@ -3711,16 +3711,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>25600</v>
+        <v>25300</v>
       </c>
       <c r="E101" s="3">
         <v>1700</v>
       </c>
       <c r="F101" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="G101" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="H101" s="3">
         <v>-4100</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>102400</v>
+        <v>100900</v>
       </c>
       <c r="E102" s="3">
-        <v>-342100</v>
+        <v>-336800</v>
       </c>
       <c r="F102" s="3">
-        <v>-199400</v>
+        <v>-196300</v>
       </c>
       <c r="G102" s="3">
-        <v>136500</v>
+        <v>134400</v>
       </c>
       <c r="H102" s="3">
-        <v>294700</v>
+        <v>290200</v>
       </c>
       <c r="I102" s="3">
-        <v>-23300</v>
+        <v>-23000</v>
       </c>
       <c r="J102" s="3">
-        <v>103400</v>
+        <v>101800</v>
       </c>
       <c r="K102" s="3">
         <v>47700</v>

--- a/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15005200</v>
+        <v>14503200</v>
       </c>
       <c r="E8" s="3">
-        <v>16493300</v>
+        <v>15941500</v>
       </c>
       <c r="F8" s="3">
-        <v>16751900</v>
+        <v>16191400</v>
       </c>
       <c r="G8" s="3">
-        <v>14633800</v>
+        <v>14144100</v>
       </c>
       <c r="H8" s="3">
-        <v>14287100</v>
+        <v>13809000</v>
       </c>
       <c r="I8" s="3">
-        <v>13973500</v>
+        <v>13506000</v>
       </c>
       <c r="J8" s="3">
-        <v>12510900</v>
+        <v>12092300</v>
       </c>
       <c r="K8" s="3">
         <v>11403700</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13968500</v>
+        <v>13501100</v>
       </c>
       <c r="E9" s="3">
-        <v>15364700</v>
+        <v>14850600</v>
       </c>
       <c r="F9" s="3">
-        <v>15614100</v>
+        <v>15091600</v>
       </c>
       <c r="G9" s="3">
-        <v>13378100</v>
+        <v>12930500</v>
       </c>
       <c r="H9" s="3">
-        <v>12992300</v>
+        <v>12557600</v>
       </c>
       <c r="I9" s="3">
-        <v>12732100</v>
+        <v>12306000</v>
       </c>
       <c r="J9" s="3">
-        <v>11507700</v>
+        <v>11122600</v>
       </c>
       <c r="K9" s="3">
         <v>21020500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1036700</v>
+        <v>1002000</v>
       </c>
       <c r="E10" s="3">
-        <v>1128700</v>
+        <v>1090900</v>
       </c>
       <c r="F10" s="3">
-        <v>1137900</v>
+        <v>1099800</v>
       </c>
       <c r="G10" s="3">
-        <v>1255700</v>
+        <v>1213700</v>
       </c>
       <c r="H10" s="3">
-        <v>1294800</v>
+        <v>1251500</v>
       </c>
       <c r="I10" s="3">
-        <v>1241500</v>
+        <v>1199900</v>
       </c>
       <c r="J10" s="3">
-        <v>1003200</v>
+        <v>969700</v>
       </c>
       <c r="K10" s="3">
         <v>-9616700</v>
@@ -844,10 +844,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>11800</v>
+        <v>11400</v>
       </c>
       <c r="E12" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>8</v>
@@ -916,10 +916,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-52300</v>
       </c>
       <c r="E14" s="3">
-        <v>109600</v>
+        <v>105900</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>144500</v>
+        <v>139600</v>
       </c>
       <c r="E15" s="3">
-        <v>128500</v>
+        <v>124200</v>
       </c>
       <c r="F15" s="3">
-        <v>15600</v>
+        <v>15000</v>
       </c>
       <c r="G15" s="3">
-        <v>12800</v>
+        <v>12300</v>
       </c>
       <c r="H15" s="3">
-        <v>99800</v>
+        <v>96500</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J15" s="3">
-        <v>75200</v>
+        <v>72700</v>
       </c>
       <c r="K15" s="3">
         <v>61600</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14678600</v>
+        <v>14187500</v>
       </c>
       <c r="E17" s="3">
-        <v>16255400</v>
+        <v>15711500</v>
       </c>
       <c r="F17" s="3">
-        <v>16403800</v>
+        <v>15855000</v>
       </c>
       <c r="G17" s="3">
-        <v>14114100</v>
+        <v>13641900</v>
       </c>
       <c r="H17" s="3">
-        <v>13712100</v>
+        <v>13253300</v>
       </c>
       <c r="I17" s="3">
-        <v>13428500</v>
+        <v>12979200</v>
       </c>
       <c r="J17" s="3">
-        <v>12088600</v>
+        <v>11684100</v>
       </c>
       <c r="K17" s="3">
         <v>11002500</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>326600</v>
+        <v>315700</v>
       </c>
       <c r="E18" s="3">
-        <v>238000</v>
+        <v>230000</v>
       </c>
       <c r="F18" s="3">
-        <v>348100</v>
+        <v>336400</v>
       </c>
       <c r="G18" s="3">
-        <v>519600</v>
+        <v>502300</v>
       </c>
       <c r="H18" s="3">
-        <v>575000</v>
+        <v>555800</v>
       </c>
       <c r="I18" s="3">
-        <v>545000</v>
+        <v>526700</v>
       </c>
       <c r="J18" s="3">
-        <v>422300</v>
+        <v>408200</v>
       </c>
       <c r="K18" s="3">
         <v>401200</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>105600</v>
+        <v>102100</v>
       </c>
       <c r="E20" s="3">
-        <v>91900</v>
+        <v>88800</v>
       </c>
       <c r="F20" s="3">
-        <v>142400</v>
+        <v>137700</v>
       </c>
       <c r="G20" s="3">
-        <v>108600</v>
+        <v>104900</v>
       </c>
       <c r="H20" s="3">
-        <v>58500</v>
+        <v>56600</v>
       </c>
       <c r="I20" s="3">
-        <v>50900</v>
+        <v>49200</v>
       </c>
       <c r="J20" s="3">
-        <v>49300</v>
+        <v>47700</v>
       </c>
       <c r="K20" s="3">
         <v>26600</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>667800</v>
+        <v>643700</v>
       </c>
       <c r="E21" s="3">
-        <v>542600</v>
+        <v>522900</v>
       </c>
       <c r="F21" s="3">
-        <v>641500</v>
+        <v>619000</v>
       </c>
       <c r="G21" s="3">
-        <v>759200</v>
+        <v>732800</v>
       </c>
       <c r="H21" s="3">
-        <v>838700</v>
+        <v>809100</v>
       </c>
       <c r="I21" s="3">
-        <v>782300</v>
+        <v>754700</v>
       </c>
       <c r="J21" s="3">
-        <v>636700</v>
+        <v>614200</v>
       </c>
       <c r="K21" s="3">
         <v>573800</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>155400</v>
+        <v>150200</v>
       </c>
       <c r="E22" s="3">
-        <v>185500</v>
+        <v>179300</v>
       </c>
       <c r="F22" s="3">
-        <v>163400</v>
+        <v>157900</v>
       </c>
       <c r="G22" s="3">
-        <v>196200</v>
+        <v>189600</v>
       </c>
       <c r="H22" s="3">
-        <v>214100</v>
+        <v>207000</v>
       </c>
       <c r="I22" s="3">
-        <v>180800</v>
+        <v>174800</v>
       </c>
       <c r="J22" s="3">
-        <v>134600</v>
+        <v>130100</v>
       </c>
       <c r="K22" s="3">
         <v>90700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>276900</v>
+        <v>267600</v>
       </c>
       <c r="E23" s="3">
-        <v>144400</v>
+        <v>139500</v>
       </c>
       <c r="F23" s="3">
-        <v>327100</v>
+        <v>316200</v>
       </c>
       <c r="G23" s="3">
-        <v>432000</v>
+        <v>417600</v>
       </c>
       <c r="H23" s="3">
-        <v>419400</v>
+        <v>405300</v>
       </c>
       <c r="I23" s="3">
-        <v>415100</v>
+        <v>401200</v>
       </c>
       <c r="J23" s="3">
-        <v>337000</v>
+        <v>325700</v>
       </c>
       <c r="K23" s="3">
         <v>337100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>105500</v>
+        <v>102000</v>
       </c>
       <c r="E24" s="3">
-        <v>69900</v>
+        <v>67600</v>
       </c>
       <c r="F24" s="3">
-        <v>118000</v>
+        <v>114000</v>
       </c>
       <c r="G24" s="3">
-        <v>150200</v>
+        <v>145200</v>
       </c>
       <c r="H24" s="3">
-        <v>129300</v>
+        <v>125000</v>
       </c>
       <c r="I24" s="3">
-        <v>135600</v>
+        <v>131100</v>
       </c>
       <c r="J24" s="3">
-        <v>105900</v>
+        <v>102400</v>
       </c>
       <c r="K24" s="3">
         <v>107200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>171300</v>
+        <v>165600</v>
       </c>
       <c r="E26" s="3">
-        <v>74400</v>
+        <v>71900</v>
       </c>
       <c r="F26" s="3">
-        <v>209100</v>
+        <v>202100</v>
       </c>
       <c r="G26" s="3">
-        <v>281800</v>
+        <v>272400</v>
       </c>
       <c r="H26" s="3">
-        <v>290100</v>
+        <v>280400</v>
       </c>
       <c r="I26" s="3">
-        <v>279400</v>
+        <v>270100</v>
       </c>
       <c r="J26" s="3">
-        <v>231100</v>
+        <v>223400</v>
       </c>
       <c r="K26" s="3">
         <v>229900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>165000</v>
+        <v>159500</v>
       </c>
       <c r="E27" s="3">
-        <v>69000</v>
+        <v>66700</v>
       </c>
       <c r="F27" s="3">
-        <v>212500</v>
+        <v>205400</v>
       </c>
       <c r="G27" s="3">
-        <v>281900</v>
+        <v>272500</v>
       </c>
       <c r="H27" s="3">
-        <v>288400</v>
+        <v>278800</v>
       </c>
       <c r="I27" s="3">
-        <v>277700</v>
+        <v>268400</v>
       </c>
       <c r="J27" s="3">
-        <v>229300</v>
+        <v>221600</v>
       </c>
       <c r="K27" s="3">
         <v>229300</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-105600</v>
+        <v>-102100</v>
       </c>
       <c r="E32" s="3">
-        <v>-91900</v>
+        <v>-88800</v>
       </c>
       <c r="F32" s="3">
-        <v>-142400</v>
+        <v>-137700</v>
       </c>
       <c r="G32" s="3">
-        <v>-108600</v>
+        <v>-104900</v>
       </c>
       <c r="H32" s="3">
-        <v>-58500</v>
+        <v>-56600</v>
       </c>
       <c r="I32" s="3">
-        <v>-50900</v>
+        <v>-49200</v>
       </c>
       <c r="J32" s="3">
-        <v>-49300</v>
+        <v>-47700</v>
       </c>
       <c r="K32" s="3">
         <v>-26600</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>165000</v>
+        <v>159500</v>
       </c>
       <c r="E33" s="3">
-        <v>69000</v>
+        <v>66700</v>
       </c>
       <c r="F33" s="3">
-        <v>212500</v>
+        <v>205400</v>
       </c>
       <c r="G33" s="3">
-        <v>281900</v>
+        <v>272500</v>
       </c>
       <c r="H33" s="3">
-        <v>288400</v>
+        <v>278800</v>
       </c>
       <c r="I33" s="3">
-        <v>277700</v>
+        <v>268400</v>
       </c>
       <c r="J33" s="3">
-        <v>229300</v>
+        <v>221600</v>
       </c>
       <c r="K33" s="3">
         <v>229300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>165000</v>
+        <v>159500</v>
       </c>
       <c r="E35" s="3">
-        <v>69000</v>
+        <v>66700</v>
       </c>
       <c r="F35" s="3">
-        <v>212500</v>
+        <v>205400</v>
       </c>
       <c r="G35" s="3">
-        <v>281900</v>
+        <v>272500</v>
       </c>
       <c r="H35" s="3">
-        <v>288400</v>
+        <v>278800</v>
       </c>
       <c r="I35" s="3">
-        <v>277700</v>
+        <v>268400</v>
       </c>
       <c r="J35" s="3">
-        <v>229300</v>
+        <v>221600</v>
       </c>
       <c r="K35" s="3">
         <v>229300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>491600</v>
+        <v>475100</v>
       </c>
       <c r="E41" s="3">
-        <v>390700</v>
+        <v>377600</v>
       </c>
       <c r="F41" s="3">
-        <v>727500</v>
+        <v>703200</v>
       </c>
       <c r="G41" s="3">
-        <v>923900</v>
+        <v>893000</v>
       </c>
       <c r="H41" s="3">
-        <v>1578900</v>
+        <v>1526000</v>
       </c>
       <c r="I41" s="3">
-        <v>499200</v>
+        <v>482500</v>
       </c>
       <c r="J41" s="3">
-        <v>1044400</v>
+        <v>1009500</v>
       </c>
       <c r="K41" s="3">
         <v>425900</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>929600</v>
+        <v>898500</v>
       </c>
       <c r="E42" s="3">
-        <v>570800</v>
+        <v>551700</v>
       </c>
       <c r="F42" s="3">
-        <v>527000</v>
+        <v>509300</v>
       </c>
       <c r="G42" s="3">
-        <v>474100</v>
+        <v>458300</v>
       </c>
       <c r="H42" s="3">
-        <v>521800</v>
+        <v>504400</v>
       </c>
       <c r="I42" s="3">
-        <v>148400</v>
+        <v>143400</v>
       </c>
       <c r="J42" s="3">
-        <v>266300</v>
+        <v>257400</v>
       </c>
       <c r="K42" s="3">
         <v>215000</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>985800</v>
+        <v>952800</v>
       </c>
       <c r="E43" s="3">
-        <v>1026900</v>
+        <v>992600</v>
       </c>
       <c r="F43" s="3">
-        <v>996100</v>
+        <v>962800</v>
       </c>
       <c r="G43" s="3">
-        <v>1705200</v>
+        <v>1648200</v>
       </c>
       <c r="H43" s="3">
-        <v>1513600</v>
+        <v>1462900</v>
       </c>
       <c r="I43" s="3">
-        <v>707100</v>
+        <v>683500</v>
       </c>
       <c r="J43" s="3">
-        <v>598600</v>
+        <v>578600</v>
       </c>
       <c r="K43" s="3">
         <v>527900</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>710400</v>
+        <v>686600</v>
       </c>
       <c r="E44" s="3">
-        <v>686300</v>
+        <v>663300</v>
       </c>
       <c r="F44" s="3">
-        <v>619600</v>
+        <v>598900</v>
       </c>
       <c r="G44" s="3">
-        <v>649000</v>
+        <v>627300</v>
       </c>
       <c r="H44" s="3">
-        <v>1023700</v>
+        <v>989500</v>
       </c>
       <c r="I44" s="3">
-        <v>460900</v>
+        <v>445400</v>
       </c>
       <c r="J44" s="3">
-        <v>711100</v>
+        <v>687300</v>
       </c>
       <c r="K44" s="3">
         <v>298000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>112900</v>
+        <v>109100</v>
       </c>
       <c r="E45" s="3">
-        <v>106500</v>
+        <v>103000</v>
       </c>
       <c r="F45" s="3">
-        <v>124100</v>
+        <v>120000</v>
       </c>
       <c r="G45" s="3">
-        <v>112000</v>
+        <v>108200</v>
       </c>
       <c r="H45" s="3">
-        <v>105700</v>
+        <v>102100</v>
       </c>
       <c r="I45" s="3">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="J45" s="3">
-        <v>12400</v>
+        <v>12000</v>
       </c>
       <c r="K45" s="3">
         <v>12200</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3230200</v>
+        <v>3122100</v>
       </c>
       <c r="E46" s="3">
-        <v>2781200</v>
+        <v>2688200</v>
       </c>
       <c r="F46" s="3">
-        <v>2994300</v>
+        <v>2894100</v>
       </c>
       <c r="G46" s="3">
-        <v>2861000</v>
+        <v>2765300</v>
       </c>
       <c r="H46" s="3">
-        <v>2468700</v>
+        <v>2386100</v>
       </c>
       <c r="I46" s="3">
-        <v>1830600</v>
+        <v>1769400</v>
       </c>
       <c r="J46" s="3">
-        <v>1755100</v>
+        <v>1696400</v>
       </c>
       <c r="K46" s="3">
         <v>1479100</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>627100</v>
+        <v>606100</v>
       </c>
       <c r="E47" s="3">
-        <v>366200</v>
+        <v>354000</v>
       </c>
       <c r="F47" s="3">
-        <v>298500</v>
+        <v>288500</v>
       </c>
       <c r="G47" s="3">
-        <v>163700</v>
+        <v>158200</v>
       </c>
       <c r="H47" s="3">
-        <v>105200</v>
+        <v>101700</v>
       </c>
       <c r="I47" s="3">
-        <v>161700</v>
+        <v>156300</v>
       </c>
       <c r="J47" s="3">
-        <v>92800</v>
+        <v>89700</v>
       </c>
       <c r="K47" s="3">
         <v>68800</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1875800</v>
+        <v>1813100</v>
       </c>
       <c r="E48" s="3">
-        <v>1764600</v>
+        <v>1705500</v>
       </c>
       <c r="F48" s="3">
-        <v>1344400</v>
+        <v>1299400</v>
       </c>
       <c r="G48" s="3">
-        <v>2451400</v>
+        <v>2369400</v>
       </c>
       <c r="H48" s="3">
-        <v>2139600</v>
+        <v>2068000</v>
       </c>
       <c r="I48" s="3">
-        <v>1004600</v>
+        <v>971000</v>
       </c>
       <c r="J48" s="3">
-        <v>940500</v>
+        <v>909000</v>
       </c>
       <c r="K48" s="3">
         <v>909500</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>329300</v>
+        <v>318200</v>
       </c>
       <c r="E49" s="3">
-        <v>325600</v>
+        <v>314700</v>
       </c>
       <c r="F49" s="3">
-        <v>437600</v>
+        <v>423000</v>
       </c>
       <c r="G49" s="3">
-        <v>812800</v>
+        <v>785600</v>
       </c>
       <c r="H49" s="3">
-        <v>972100</v>
+        <v>939600</v>
       </c>
       <c r="I49" s="3">
-        <v>608400</v>
+        <v>588000</v>
       </c>
       <c r="J49" s="3">
-        <v>583300</v>
+        <v>563800</v>
       </c>
       <c r="K49" s="3">
         <v>386800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>632900</v>
+        <v>611800</v>
       </c>
       <c r="E52" s="3">
-        <v>524200</v>
+        <v>506700</v>
       </c>
       <c r="F52" s="3">
-        <v>558400</v>
+        <v>539800</v>
       </c>
       <c r="G52" s="3">
-        <v>560000</v>
+        <v>541300</v>
       </c>
       <c r="H52" s="3">
-        <v>452600</v>
+        <v>437500</v>
       </c>
       <c r="I52" s="3">
-        <v>220400</v>
+        <v>213100</v>
       </c>
       <c r="J52" s="3">
-        <v>210500</v>
+        <v>203500</v>
       </c>
       <c r="K52" s="3">
         <v>203800</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6695400</v>
+        <v>6471400</v>
       </c>
       <c r="E54" s="3">
-        <v>5761800</v>
+        <v>5569000</v>
       </c>
       <c r="F54" s="3">
-        <v>5633200</v>
+        <v>5444800</v>
       </c>
       <c r="G54" s="3">
-        <v>5224100</v>
+        <v>5049300</v>
       </c>
       <c r="H54" s="3">
-        <v>4446600</v>
+        <v>4297800</v>
       </c>
       <c r="I54" s="3">
-        <v>3825700</v>
+        <v>3697700</v>
       </c>
       <c r="J54" s="3">
-        <v>3570200</v>
+        <v>3450700</v>
       </c>
       <c r="K54" s="3">
         <v>3064900</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>746300</v>
+        <v>721300</v>
       </c>
       <c r="E57" s="3">
-        <v>498700</v>
+        <v>482000</v>
       </c>
       <c r="F57" s="3">
-        <v>504500</v>
+        <v>487700</v>
       </c>
       <c r="G57" s="3">
-        <v>398100</v>
+        <v>384800</v>
       </c>
       <c r="H57" s="3">
-        <v>315800</v>
+        <v>305200</v>
       </c>
       <c r="I57" s="3">
-        <v>269800</v>
+        <v>260700</v>
       </c>
       <c r="J57" s="3">
-        <v>472600</v>
+        <v>456800</v>
       </c>
       <c r="K57" s="3">
         <v>181300</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>649400</v>
+        <v>627700</v>
       </c>
       <c r="E58" s="3">
-        <v>244500</v>
+        <v>236300</v>
       </c>
       <c r="F58" s="3">
-        <v>420000</v>
+        <v>406000</v>
       </c>
       <c r="G58" s="3">
-        <v>647100</v>
+        <v>625500</v>
       </c>
       <c r="H58" s="3">
-        <v>457200</v>
+        <v>441900</v>
       </c>
       <c r="I58" s="3">
-        <v>202800</v>
+        <v>196000</v>
       </c>
       <c r="J58" s="3">
-        <v>635800</v>
+        <v>614500</v>
       </c>
       <c r="K58" s="3">
         <v>342400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>311000</v>
+        <v>300600</v>
       </c>
       <c r="E59" s="3">
-        <v>216300</v>
+        <v>209100</v>
       </c>
       <c r="F59" s="3">
-        <v>245900</v>
+        <v>237600</v>
       </c>
       <c r="G59" s="3">
-        <v>249400</v>
+        <v>241100</v>
       </c>
       <c r="H59" s="3">
-        <v>239900</v>
+        <v>231900</v>
       </c>
       <c r="I59" s="3">
-        <v>235500</v>
+        <v>227600</v>
       </c>
       <c r="J59" s="3">
-        <v>204000</v>
+        <v>197200</v>
       </c>
       <c r="K59" s="3">
         <v>180700</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1706800</v>
+        <v>1649700</v>
       </c>
       <c r="E60" s="3">
-        <v>959500</v>
+        <v>927400</v>
       </c>
       <c r="F60" s="3">
-        <v>1170400</v>
+        <v>1131200</v>
       </c>
       <c r="G60" s="3">
-        <v>1294700</v>
+        <v>1251400</v>
       </c>
       <c r="H60" s="3">
-        <v>1013000</v>
+        <v>979100</v>
       </c>
       <c r="I60" s="3">
-        <v>708000</v>
+        <v>684300</v>
       </c>
       <c r="J60" s="3">
-        <v>1051300</v>
+        <v>1016200</v>
       </c>
       <c r="K60" s="3">
         <v>704400</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2898600</v>
+        <v>2801600</v>
       </c>
       <c r="E61" s="3">
-        <v>2707300</v>
+        <v>2616700</v>
       </c>
       <c r="F61" s="3">
-        <v>2388600</v>
+        <v>2308600</v>
       </c>
       <c r="G61" s="3">
-        <v>1863100</v>
+        <v>1800700</v>
       </c>
       <c r="H61" s="3">
-        <v>1651500</v>
+        <v>1596200</v>
       </c>
       <c r="I61" s="3">
-        <v>1441400</v>
+        <v>1393100</v>
       </c>
       <c r="J61" s="3">
-        <v>911100</v>
+        <v>880600</v>
       </c>
       <c r="K61" s="3">
         <v>961800</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>259600</v>
+        <v>250900</v>
       </c>
       <c r="E62" s="3">
-        <v>278500</v>
+        <v>269100</v>
       </c>
       <c r="F62" s="3">
-        <v>264200</v>
+        <v>255400</v>
       </c>
       <c r="G62" s="3">
-        <v>288800</v>
+        <v>279200</v>
       </c>
       <c r="H62" s="3">
-        <v>216600</v>
+        <v>209300</v>
       </c>
       <c r="I62" s="3">
-        <v>224200</v>
+        <v>216700</v>
       </c>
       <c r="J62" s="3">
-        <v>197700</v>
+        <v>191000</v>
       </c>
       <c r="K62" s="3">
         <v>173600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4934500</v>
+        <v>4769400</v>
       </c>
       <c r="E66" s="3">
-        <v>4014900</v>
+        <v>3880500</v>
       </c>
       <c r="F66" s="3">
-        <v>3888200</v>
+        <v>3758100</v>
       </c>
       <c r="G66" s="3">
-        <v>3516300</v>
+        <v>3398700</v>
       </c>
       <c r="H66" s="3">
-        <v>2886700</v>
+        <v>2790100</v>
       </c>
       <c r="I66" s="3">
-        <v>2358300</v>
+        <v>2279300</v>
       </c>
       <c r="J66" s="3">
-        <v>2148400</v>
+        <v>2076500</v>
       </c>
       <c r="K66" s="3">
         <v>1844800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>939100</v>
+        <v>907700</v>
       </c>
       <c r="E72" s="3">
-        <v>889500</v>
+        <v>859700</v>
       </c>
       <c r="F72" s="3">
-        <v>879100</v>
+        <v>849700</v>
       </c>
       <c r="G72" s="3">
-        <v>904900</v>
+        <v>874600</v>
       </c>
       <c r="H72" s="3">
-        <v>1045200</v>
+        <v>1010200</v>
       </c>
       <c r="I72" s="3">
-        <v>833200</v>
+        <v>805400</v>
       </c>
       <c r="J72" s="3">
-        <v>722500</v>
+        <v>698400</v>
       </c>
       <c r="K72" s="3">
         <v>541700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1760900</v>
+        <v>1702000</v>
       </c>
       <c r="E76" s="3">
-        <v>1746900</v>
+        <v>1688500</v>
       </c>
       <c r="F76" s="3">
-        <v>1745100</v>
+        <v>1686700</v>
       </c>
       <c r="G76" s="3">
-        <v>1707800</v>
+        <v>1650600</v>
       </c>
       <c r="H76" s="3">
-        <v>1559800</v>
+        <v>1507600</v>
       </c>
       <c r="I76" s="3">
-        <v>1467400</v>
+        <v>1418300</v>
       </c>
       <c r="J76" s="3">
-        <v>1421800</v>
+        <v>1374200</v>
       </c>
       <c r="K76" s="3">
         <v>1220100</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>165000</v>
+        <v>159500</v>
       </c>
       <c r="E81" s="3">
-        <v>69000</v>
+        <v>66700</v>
       </c>
       <c r="F81" s="3">
-        <v>212500</v>
+        <v>205400</v>
       </c>
       <c r="G81" s="3">
-        <v>281900</v>
+        <v>272500</v>
       </c>
       <c r="H81" s="3">
-        <v>288400</v>
+        <v>278800</v>
       </c>
       <c r="I81" s="3">
-        <v>277700</v>
+        <v>268400</v>
       </c>
       <c r="J81" s="3">
-        <v>229300</v>
+        <v>221600</v>
       </c>
       <c r="K81" s="3">
         <v>229300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>234000</v>
+        <v>226200</v>
       </c>
       <c r="E83" s="3">
-        <v>211400</v>
+        <v>204400</v>
       </c>
       <c r="F83" s="3">
-        <v>150100</v>
+        <v>145000</v>
       </c>
       <c r="G83" s="3">
-        <v>130100</v>
+        <v>125800</v>
       </c>
       <c r="H83" s="3">
-        <v>203800</v>
+        <v>197000</v>
       </c>
       <c r="I83" s="3">
-        <v>185200</v>
+        <v>179000</v>
       </c>
       <c r="J83" s="3">
-        <v>164000</v>
+        <v>158500</v>
       </c>
       <c r="K83" s="3">
         <v>145800</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>579600</v>
+        <v>560200</v>
       </c>
       <c r="E89" s="3">
-        <v>540200</v>
+        <v>522100</v>
       </c>
       <c r="F89" s="3">
-        <v>533600</v>
+        <v>515700</v>
       </c>
       <c r="G89" s="3">
-        <v>321200</v>
+        <v>310500</v>
       </c>
       <c r="H89" s="3">
-        <v>464300</v>
+        <v>448700</v>
       </c>
       <c r="I89" s="3">
-        <v>591400</v>
+        <v>571600</v>
       </c>
       <c r="J89" s="3">
-        <v>489600</v>
+        <v>473200</v>
       </c>
       <c r="K89" s="3">
         <v>396800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-178400</v>
+        <v>-172400</v>
       </c>
       <c r="E91" s="3">
-        <v>-188400</v>
+        <v>-182100</v>
       </c>
       <c r="F91" s="3">
-        <v>-217600</v>
+        <v>-210400</v>
       </c>
       <c r="G91" s="3">
-        <v>-240500</v>
+        <v>-232500</v>
       </c>
       <c r="H91" s="3">
-        <v>-187500</v>
+        <v>-181200</v>
       </c>
       <c r="I91" s="3">
-        <v>-148400</v>
+        <v>-143400</v>
       </c>
       <c r="J91" s="3">
-        <v>-130400</v>
+        <v>-126000</v>
       </c>
       <c r="K91" s="3">
         <v>-123700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-394600</v>
+        <v>-381400</v>
       </c>
       <c r="E94" s="3">
-        <v>-339000</v>
+        <v>-327600</v>
       </c>
       <c r="F94" s="3">
-        <v>-586900</v>
+        <v>-567300</v>
       </c>
       <c r="G94" s="3">
-        <v>-253400</v>
+        <v>-244900</v>
       </c>
       <c r="H94" s="3">
-        <v>-341500</v>
+        <v>-330000</v>
       </c>
       <c r="I94" s="3">
-        <v>-148100</v>
+        <v>-143100</v>
       </c>
       <c r="J94" s="3">
-        <v>-284500</v>
+        <v>-275000</v>
       </c>
       <c r="K94" s="3">
         <v>-241000</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-52600</v>
+        <v>-50800</v>
       </c>
       <c r="E96" s="3">
-        <v>-110200</v>
+        <v>-106500</v>
       </c>
       <c r="F96" s="3">
-        <v>-149300</v>
+        <v>-144400</v>
       </c>
       <c r="G96" s="3">
-        <v>-173700</v>
+        <v>-167900</v>
       </c>
       <c r="H96" s="3">
-        <v>-161300</v>
+        <v>-155900</v>
       </c>
       <c r="I96" s="3">
-        <v>-153600</v>
+        <v>-148500</v>
       </c>
       <c r="J96" s="3">
-        <v>-144600</v>
+        <v>-139800</v>
       </c>
       <c r="K96" s="3">
         <v>-133100</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-109400</v>
+        <v>-105700</v>
       </c>
       <c r="E100" s="3">
-        <v>-539700</v>
+        <v>-521700</v>
       </c>
       <c r="F100" s="3">
-        <v>-147900</v>
+        <v>-143000</v>
       </c>
       <c r="G100" s="3">
-        <v>62900</v>
+        <v>60800</v>
       </c>
       <c r="H100" s="3">
-        <v>171500</v>
+        <v>165700</v>
       </c>
       <c r="I100" s="3">
-        <v>-465600</v>
+        <v>-450000</v>
       </c>
       <c r="J100" s="3">
-        <v>-99600</v>
+        <v>-96300</v>
       </c>
       <c r="K100" s="3">
         <v>-108300</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>25300</v>
+        <v>24400</v>
       </c>
       <c r="E101" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F101" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="G101" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="H101" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="I101" s="3">
         <v>-700</v>
       </c>
       <c r="J101" s="3">
-        <v>-3700</v>
+        <v>-3500</v>
       </c>
       <c r="K101" s="3">
         <v>200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100900</v>
+        <v>97500</v>
       </c>
       <c r="E102" s="3">
-        <v>-336800</v>
+        <v>-325500</v>
       </c>
       <c r="F102" s="3">
-        <v>-196300</v>
+        <v>-189800</v>
       </c>
       <c r="G102" s="3">
-        <v>134400</v>
+        <v>129900</v>
       </c>
       <c r="H102" s="3">
-        <v>290200</v>
+        <v>280500</v>
       </c>
       <c r="I102" s="3">
-        <v>-23000</v>
+        <v>-22200</v>
       </c>
       <c r="J102" s="3">
-        <v>101800</v>
+        <v>98400</v>
       </c>
       <c r="K102" s="3">
         <v>47700</v>

--- a/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>UGP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,179 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14503200</v>
+        <v>21624000</v>
       </c>
       <c r="E8" s="3">
-        <v>15941500</v>
+        <v>14593900</v>
       </c>
       <c r="F8" s="3">
-        <v>16191400</v>
+        <v>17597100</v>
       </c>
       <c r="G8" s="3">
-        <v>14144100</v>
+        <v>17872900</v>
       </c>
       <c r="H8" s="3">
-        <v>13809000</v>
+        <v>15613100</v>
       </c>
       <c r="I8" s="3">
-        <v>13506000</v>
+        <v>15243200</v>
       </c>
       <c r="J8" s="3">
+        <v>14908600</v>
+      </c>
+      <c r="K8" s="3">
         <v>12092300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11403700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12579500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12063800</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13501100</v>
+        <v>20657400</v>
       </c>
       <c r="E9" s="3">
-        <v>14850600</v>
+        <v>28708600</v>
       </c>
       <c r="F9" s="3">
-        <v>15091600</v>
+        <v>16392900</v>
       </c>
       <c r="G9" s="3">
-        <v>12930500</v>
+        <v>16658900</v>
       </c>
       <c r="H9" s="3">
-        <v>12557600</v>
+        <v>14273300</v>
       </c>
       <c r="I9" s="3">
-        <v>12306000</v>
+        <v>13861700</v>
       </c>
       <c r="J9" s="3">
+        <v>13584100</v>
+      </c>
+      <c r="K9" s="3">
         <v>11122600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>21020500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11621900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11194400</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1002000</v>
+        <v>966600</v>
       </c>
       <c r="E10" s="3">
-        <v>1090900</v>
+        <v>-14114700</v>
       </c>
       <c r="F10" s="3">
-        <v>1099800</v>
+        <v>1204200</v>
       </c>
       <c r="G10" s="3">
-        <v>1213700</v>
+        <v>1214000</v>
       </c>
       <c r="H10" s="3">
-        <v>1251500</v>
+        <v>1339700</v>
       </c>
       <c r="I10" s="3">
-        <v>1199900</v>
+        <v>1381400</v>
       </c>
       <c r="J10" s="3">
+        <v>1324600</v>
+      </c>
+      <c r="K10" s="3">
         <v>969700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-9616700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>957600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>869400</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,19 +852,20 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>11400</v>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E12" s="3">
-        <v>11000</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
+        <v>12600</v>
+      </c>
+      <c r="F12" s="3">
+        <v>12100</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -873,9 +888,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,20 +927,23 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-52300</v>
+        <v>-42000</v>
       </c>
       <c r="E14" s="3">
-        <v>105900</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+        <v>-26900</v>
+      </c>
+      <c r="F14" s="3">
+        <v>116900</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -939,51 +960,57 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>139600</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>124200</v>
+        <v>154100</v>
       </c>
       <c r="F15" s="3">
-        <v>15000</v>
+        <v>137100</v>
       </c>
       <c r="G15" s="3">
-        <v>12300</v>
+        <v>16600</v>
       </c>
       <c r="H15" s="3">
-        <v>96500</v>
-      </c>
-      <c r="I15" s="3" t="s">
+        <v>13600</v>
+      </c>
+      <c r="I15" s="3">
+        <v>106500</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>72700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>61600</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1022,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14187500</v>
+        <v>21275300</v>
       </c>
       <c r="E17" s="3">
-        <v>15711500</v>
+        <v>14297900</v>
       </c>
       <c r="F17" s="3">
-        <v>15855000</v>
+        <v>17343200</v>
       </c>
       <c r="G17" s="3">
-        <v>13641900</v>
+        <v>17501600</v>
       </c>
       <c r="H17" s="3">
-        <v>13253300</v>
+        <v>15058700</v>
       </c>
       <c r="I17" s="3">
-        <v>12979200</v>
+        <v>14629700</v>
       </c>
       <c r="J17" s="3">
+        <v>14327200</v>
+      </c>
+      <c r="K17" s="3">
         <v>11684100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11002500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12180600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11702700</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>315700</v>
+        <v>348700</v>
       </c>
       <c r="E18" s="3">
-        <v>230000</v>
+        <v>296000</v>
       </c>
       <c r="F18" s="3">
-        <v>336400</v>
+        <v>253900</v>
       </c>
       <c r="G18" s="3">
-        <v>502300</v>
+        <v>371400</v>
       </c>
       <c r="H18" s="3">
-        <v>555800</v>
+        <v>554400</v>
       </c>
       <c r="I18" s="3">
-        <v>526700</v>
+        <v>613500</v>
       </c>
       <c r="J18" s="3">
+        <v>581500</v>
+      </c>
+      <c r="K18" s="3">
         <v>408200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>401200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>398800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>361100</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1117,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>102100</v>
+        <v>12800</v>
       </c>
       <c r="E20" s="3">
-        <v>88800</v>
+        <v>42900</v>
       </c>
       <c r="F20" s="3">
-        <v>137700</v>
+        <v>98000</v>
       </c>
       <c r="G20" s="3">
-        <v>104900</v>
+        <v>152000</v>
       </c>
       <c r="H20" s="3">
-        <v>56600</v>
+        <v>115800</v>
       </c>
       <c r="I20" s="3">
-        <v>49200</v>
+        <v>62400</v>
       </c>
       <c r="J20" s="3">
+        <v>54300</v>
+      </c>
+      <c r="K20" s="3">
         <v>47700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>26600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>48200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>71800</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>643700</v>
+        <v>543800</v>
       </c>
       <c r="E21" s="3">
-        <v>522900</v>
+        <v>591700</v>
       </c>
       <c r="F21" s="3">
-        <v>619000</v>
+        <v>580300</v>
       </c>
       <c r="G21" s="3">
-        <v>732800</v>
+        <v>685400</v>
       </c>
       <c r="H21" s="3">
-        <v>809100</v>
+        <v>810800</v>
       </c>
       <c r="I21" s="3">
-        <v>754700</v>
+        <v>896100</v>
       </c>
       <c r="J21" s="3">
+        <v>835800</v>
+      </c>
+      <c r="K21" s="3">
         <v>614200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>573800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>610700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>574700</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>150200</v>
+        <v>163100</v>
       </c>
       <c r="E22" s="3">
-        <v>179300</v>
+        <v>151400</v>
       </c>
       <c r="F22" s="3">
-        <v>157900</v>
+        <v>197900</v>
       </c>
       <c r="G22" s="3">
-        <v>189600</v>
+        <v>174300</v>
       </c>
       <c r="H22" s="3">
-        <v>207000</v>
+        <v>209300</v>
       </c>
       <c r="I22" s="3">
-        <v>174800</v>
+        <v>228500</v>
       </c>
       <c r="J22" s="3">
+        <v>192900</v>
+      </c>
+      <c r="K22" s="3">
         <v>130100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>90700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>108900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>144700</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>267600</v>
+        <v>198400</v>
       </c>
       <c r="E23" s="3">
-        <v>139500</v>
+        <v>187500</v>
       </c>
       <c r="F23" s="3">
-        <v>316200</v>
+        <v>154000</v>
       </c>
       <c r="G23" s="3">
-        <v>417600</v>
+        <v>349000</v>
       </c>
       <c r="H23" s="3">
-        <v>405300</v>
+        <v>460900</v>
       </c>
       <c r="I23" s="3">
-        <v>401200</v>
+        <v>447400</v>
       </c>
       <c r="J23" s="3">
+        <v>442900</v>
+      </c>
+      <c r="K23" s="3">
         <v>325700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>337100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>338100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>288300</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>102000</v>
+        <v>37100</v>
       </c>
       <c r="E24" s="3">
-        <v>67600</v>
+        <v>60000</v>
       </c>
       <c r="F24" s="3">
-        <v>114000</v>
+        <v>74600</v>
       </c>
       <c r="G24" s="3">
-        <v>145200</v>
+        <v>125900</v>
       </c>
       <c r="H24" s="3">
-        <v>125000</v>
+        <v>160300</v>
       </c>
       <c r="I24" s="3">
-        <v>131100</v>
+        <v>137900</v>
       </c>
       <c r="J24" s="3">
+        <v>144700</v>
+      </c>
+      <c r="K24" s="3">
         <v>102400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>107200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>98400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>74800</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1348,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>165600</v>
+        <v>161300</v>
       </c>
       <c r="E26" s="3">
-        <v>71900</v>
+        <v>127500</v>
       </c>
       <c r="F26" s="3">
-        <v>202100</v>
+        <v>79400</v>
       </c>
       <c r="G26" s="3">
-        <v>272400</v>
+        <v>223100</v>
       </c>
       <c r="H26" s="3">
-        <v>280400</v>
+        <v>300700</v>
       </c>
       <c r="I26" s="3">
-        <v>270100</v>
+        <v>309500</v>
       </c>
       <c r="J26" s="3">
+        <v>298100</v>
+      </c>
+      <c r="K26" s="3">
         <v>223400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>229900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>239800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>213400</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>159500</v>
+        <v>154700</v>
       </c>
       <c r="E27" s="3">
-        <v>66700</v>
+        <v>120700</v>
       </c>
       <c r="F27" s="3">
-        <v>205400</v>
+        <v>73600</v>
       </c>
       <c r="G27" s="3">
-        <v>272500</v>
+        <v>226700</v>
       </c>
       <c r="H27" s="3">
-        <v>278800</v>
+        <v>300800</v>
       </c>
       <c r="I27" s="3">
-        <v>268400</v>
+        <v>307700</v>
       </c>
       <c r="J27" s="3">
+        <v>296300</v>
+      </c>
+      <c r="K27" s="3">
         <v>221600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>229300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>238200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>211900</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,32 +1465,35 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>12900</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>55300</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1442,9 +1504,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1543,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1582,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-102100</v>
+        <v>-12800</v>
       </c>
       <c r="E32" s="3">
-        <v>-88800</v>
+        <v>-42900</v>
       </c>
       <c r="F32" s="3">
-        <v>-137700</v>
+        <v>-98000</v>
       </c>
       <c r="G32" s="3">
-        <v>-104900</v>
+        <v>-152000</v>
       </c>
       <c r="H32" s="3">
-        <v>-56600</v>
+        <v>-115800</v>
       </c>
       <c r="I32" s="3">
-        <v>-49200</v>
+        <v>-62400</v>
       </c>
       <c r="J32" s="3">
+        <v>-54300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-47700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-26600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-48200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-71800</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>159500</v>
+        <v>167600</v>
       </c>
       <c r="E33" s="3">
-        <v>66700</v>
+        <v>176100</v>
       </c>
       <c r="F33" s="3">
-        <v>205400</v>
+        <v>73600</v>
       </c>
       <c r="G33" s="3">
-        <v>272500</v>
+        <v>226700</v>
       </c>
       <c r="H33" s="3">
-        <v>278800</v>
+        <v>300800</v>
       </c>
       <c r="I33" s="3">
-        <v>268400</v>
+        <v>307700</v>
       </c>
       <c r="J33" s="3">
+        <v>296300</v>
+      </c>
+      <c r="K33" s="3">
         <v>221600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>229300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>238200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>211900</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1699,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>159500</v>
+        <v>167600</v>
       </c>
       <c r="E35" s="3">
-        <v>66700</v>
+        <v>176100</v>
       </c>
       <c r="F35" s="3">
-        <v>205400</v>
+        <v>73600</v>
       </c>
       <c r="G35" s="3">
-        <v>272500</v>
+        <v>226700</v>
       </c>
       <c r="H35" s="3">
-        <v>278800</v>
+        <v>300800</v>
       </c>
       <c r="I35" s="3">
-        <v>268400</v>
+        <v>307700</v>
       </c>
       <c r="J35" s="3">
+        <v>296300</v>
+      </c>
+      <c r="K35" s="3">
         <v>221600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>229300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>238200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>211900</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1802,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1819,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>475100</v>
+        <v>449300</v>
       </c>
       <c r="E41" s="3">
-        <v>377600</v>
+        <v>524500</v>
       </c>
       <c r="F41" s="3">
-        <v>703200</v>
+        <v>416900</v>
       </c>
       <c r="G41" s="3">
-        <v>893000</v>
+        <v>776200</v>
       </c>
       <c r="H41" s="3">
-        <v>1526000</v>
+        <v>985700</v>
       </c>
       <c r="I41" s="3">
-        <v>482500</v>
+        <v>1684500</v>
       </c>
       <c r="J41" s="3">
+        <v>532600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1009500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>425900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>472000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>26700</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>898500</v>
+        <v>355500</v>
       </c>
       <c r="E42" s="3">
-        <v>551700</v>
+        <v>991900</v>
       </c>
       <c r="F42" s="3">
-        <v>509300</v>
+        <v>609000</v>
       </c>
       <c r="G42" s="3">
-        <v>458300</v>
+        <v>562200</v>
       </c>
       <c r="H42" s="3">
-        <v>504400</v>
+        <v>505900</v>
       </c>
       <c r="I42" s="3">
-        <v>143400</v>
+        <v>556700</v>
       </c>
       <c r="J42" s="3">
+        <v>158300</v>
+      </c>
+      <c r="K42" s="3">
         <v>257400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>215000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>684500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>645100</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>952800</v>
+        <v>1167000</v>
       </c>
       <c r="E43" s="3">
-        <v>992600</v>
+        <v>1051700</v>
       </c>
       <c r="F43" s="3">
-        <v>962800</v>
+        <v>1095700</v>
       </c>
       <c r="G43" s="3">
-        <v>1648200</v>
+        <v>1062800</v>
       </c>
       <c r="H43" s="3">
-        <v>1462900</v>
+        <v>1819400</v>
       </c>
       <c r="I43" s="3">
-        <v>683500</v>
+        <v>1614900</v>
       </c>
       <c r="J43" s="3">
+        <v>754400</v>
+      </c>
+      <c r="K43" s="3">
         <v>578600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>527900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>655300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>624500</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>686600</v>
+        <v>772200</v>
       </c>
       <c r="E44" s="3">
-        <v>663300</v>
+        <v>757900</v>
       </c>
       <c r="F44" s="3">
-        <v>598900</v>
+        <v>732200</v>
       </c>
       <c r="G44" s="3">
-        <v>627300</v>
+        <v>661000</v>
       </c>
       <c r="H44" s="3">
-        <v>989500</v>
+        <v>692400</v>
       </c>
       <c r="I44" s="3">
-        <v>445400</v>
+        <v>1092200</v>
       </c>
       <c r="J44" s="3">
+        <v>491700</v>
+      </c>
+      <c r="K44" s="3">
         <v>687300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>298000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>301400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>302900</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>109100</v>
+        <v>2187200</v>
       </c>
       <c r="E45" s="3">
-        <v>103000</v>
+        <v>120400</v>
       </c>
       <c r="F45" s="3">
-        <v>120000</v>
+        <v>113700</v>
       </c>
       <c r="G45" s="3">
-        <v>108200</v>
+        <v>132400</v>
       </c>
       <c r="H45" s="3">
-        <v>102100</v>
+        <v>119500</v>
       </c>
       <c r="I45" s="3">
-        <v>14500</v>
+        <v>112800</v>
       </c>
       <c r="J45" s="3">
+        <v>16100</v>
+      </c>
+      <c r="K45" s="3">
         <v>12000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>29900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>32100</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3122100</v>
+        <v>4931300</v>
       </c>
       <c r="E46" s="3">
-        <v>2688200</v>
+        <v>3446400</v>
       </c>
       <c r="F46" s="3">
-        <v>2894100</v>
+        <v>2967300</v>
       </c>
       <c r="G46" s="3">
-        <v>2765300</v>
+        <v>3194700</v>
       </c>
       <c r="H46" s="3">
-        <v>2386100</v>
+        <v>3052500</v>
       </c>
       <c r="I46" s="3">
-        <v>1769400</v>
+        <v>2633900</v>
       </c>
       <c r="J46" s="3">
+        <v>1953100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1696400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1479100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1665700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1631200</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>606100</v>
+        <v>727900</v>
       </c>
       <c r="E47" s="3">
-        <v>354000</v>
+        <v>669100</v>
       </c>
       <c r="F47" s="3">
-        <v>288500</v>
+        <v>390700</v>
       </c>
       <c r="G47" s="3">
-        <v>158200</v>
+        <v>318400</v>
       </c>
       <c r="H47" s="3">
-        <v>101700</v>
+        <v>174600</v>
       </c>
       <c r="I47" s="3">
-        <v>156300</v>
+        <v>112300</v>
       </c>
       <c r="J47" s="3">
+        <v>172500</v>
+      </c>
+      <c r="K47" s="3">
         <v>89700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>68800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>132300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>72000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1813100</v>
+        <v>1416100</v>
       </c>
       <c r="E48" s="3">
-        <v>1705500</v>
+        <v>2001400</v>
       </c>
       <c r="F48" s="3">
-        <v>1299400</v>
+        <v>1882600</v>
       </c>
       <c r="G48" s="3">
-        <v>2369400</v>
+        <v>1434400</v>
       </c>
       <c r="H48" s="3">
-        <v>2068000</v>
+        <v>2615500</v>
       </c>
       <c r="I48" s="3">
-        <v>971000</v>
+        <v>2282800</v>
       </c>
       <c r="J48" s="3">
+        <v>1071800</v>
+      </c>
+      <c r="K48" s="3">
         <v>909000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>909500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>381600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1061500</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>318200</v>
+        <v>289900</v>
       </c>
       <c r="E49" s="3">
-        <v>314700</v>
+        <v>351300</v>
       </c>
       <c r="F49" s="3">
-        <v>423000</v>
+        <v>347300</v>
       </c>
       <c r="G49" s="3">
-        <v>785600</v>
+        <v>466900</v>
       </c>
       <c r="H49" s="3">
-        <v>939600</v>
+        <v>867200</v>
       </c>
       <c r="I49" s="3">
-        <v>588000</v>
+        <v>1037200</v>
       </c>
       <c r="J49" s="3">
+        <v>649100</v>
+      </c>
+      <c r="K49" s="3">
         <v>563800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>386800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>918600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>381800</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2206,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2245,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>611800</v>
+        <v>322300</v>
       </c>
       <c r="E52" s="3">
-        <v>506700</v>
+        <v>675300</v>
       </c>
       <c r="F52" s="3">
-        <v>539800</v>
+        <v>559300</v>
       </c>
       <c r="G52" s="3">
-        <v>541300</v>
+        <v>595800</v>
       </c>
       <c r="H52" s="3">
-        <v>437500</v>
+        <v>597500</v>
       </c>
       <c r="I52" s="3">
-        <v>213100</v>
+        <v>482900</v>
       </c>
       <c r="J52" s="3">
+        <v>235200</v>
+      </c>
+      <c r="K52" s="3">
         <v>203500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>203800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>274300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>262700</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2323,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6471400</v>
+        <v>7687400</v>
       </c>
       <c r="E54" s="3">
-        <v>5569000</v>
+        <v>7143500</v>
       </c>
       <c r="F54" s="3">
-        <v>5444800</v>
+        <v>6147400</v>
       </c>
       <c r="G54" s="3">
-        <v>5049300</v>
+        <v>6010200</v>
       </c>
       <c r="H54" s="3">
-        <v>4297800</v>
+        <v>5573700</v>
       </c>
       <c r="I54" s="3">
-        <v>3697700</v>
+        <v>4744100</v>
       </c>
       <c r="J54" s="3">
+        <v>4081700</v>
+      </c>
+      <c r="K54" s="3">
         <v>3450700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3064900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3561100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3409300</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2382,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2399,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>721300</v>
+        <v>1141000</v>
       </c>
       <c r="E57" s="3">
-        <v>482000</v>
+        <v>796300</v>
       </c>
       <c r="F57" s="3">
-        <v>487700</v>
+        <v>532100</v>
       </c>
       <c r="G57" s="3">
-        <v>384800</v>
+        <v>538300</v>
       </c>
       <c r="H57" s="3">
-        <v>305200</v>
+        <v>424800</v>
       </c>
       <c r="I57" s="3">
-        <v>260700</v>
+        <v>336900</v>
       </c>
       <c r="J57" s="3">
+        <v>287800</v>
+      </c>
+      <c r="K57" s="3">
         <v>456800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>181300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>609500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>266700</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>627700</v>
+        <v>602000</v>
       </c>
       <c r="E58" s="3">
-        <v>236300</v>
+        <v>692900</v>
       </c>
       <c r="F58" s="3">
-        <v>406000</v>
+        <v>260900</v>
       </c>
       <c r="G58" s="3">
-        <v>625500</v>
+        <v>448100</v>
       </c>
       <c r="H58" s="3">
-        <v>441900</v>
+        <v>690400</v>
       </c>
       <c r="I58" s="3">
-        <v>196000</v>
+        <v>487800</v>
       </c>
       <c r="J58" s="3">
+        <v>216300</v>
+      </c>
+      <c r="K58" s="3">
         <v>614500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>342400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>380200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>571800</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300600</v>
+        <v>747900</v>
       </c>
       <c r="E59" s="3">
-        <v>209100</v>
+        <v>331900</v>
       </c>
       <c r="F59" s="3">
-        <v>237600</v>
+        <v>230800</v>
       </c>
       <c r="G59" s="3">
-        <v>241100</v>
+        <v>262300</v>
       </c>
       <c r="H59" s="3">
-        <v>231900</v>
+        <v>266100</v>
       </c>
       <c r="I59" s="3">
-        <v>227600</v>
+        <v>256000</v>
       </c>
       <c r="J59" s="3">
+        <v>251300</v>
+      </c>
+      <c r="K59" s="3">
         <v>197200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>180700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>185800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>178000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1649700</v>
+        <v>2490900</v>
       </c>
       <c r="E60" s="3">
-        <v>927400</v>
+        <v>1821000</v>
       </c>
       <c r="F60" s="3">
-        <v>1131200</v>
+        <v>1023700</v>
       </c>
       <c r="G60" s="3">
-        <v>1251400</v>
+        <v>1248700</v>
       </c>
       <c r="H60" s="3">
-        <v>979100</v>
+        <v>1381300</v>
       </c>
       <c r="I60" s="3">
-        <v>684300</v>
+        <v>1080700</v>
       </c>
       <c r="J60" s="3">
+        <v>755400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1016200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>704400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>869000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1016600</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2801600</v>
+        <v>2891100</v>
       </c>
       <c r="E61" s="3">
-        <v>2616700</v>
+        <v>3092500</v>
       </c>
       <c r="F61" s="3">
-        <v>2308600</v>
+        <v>2888400</v>
       </c>
       <c r="G61" s="3">
-        <v>1800700</v>
+        <v>2548400</v>
       </c>
       <c r="H61" s="3">
-        <v>1596200</v>
+        <v>1987700</v>
       </c>
       <c r="I61" s="3">
-        <v>1393100</v>
+        <v>1762000</v>
       </c>
       <c r="J61" s="3">
+        <v>1537800</v>
+      </c>
+      <c r="K61" s="3">
         <v>880600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>961800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1071400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>807900</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>250900</v>
+        <v>242300</v>
       </c>
       <c r="E62" s="3">
-        <v>269100</v>
+        <v>277000</v>
       </c>
       <c r="F62" s="3">
-        <v>255400</v>
+        <v>297100</v>
       </c>
       <c r="G62" s="3">
-        <v>279200</v>
+        <v>281900</v>
       </c>
       <c r="H62" s="3">
-        <v>209300</v>
+        <v>308100</v>
       </c>
       <c r="I62" s="3">
-        <v>216700</v>
+        <v>231100</v>
       </c>
       <c r="J62" s="3">
+        <v>239200</v>
+      </c>
+      <c r="K62" s="3">
         <v>191000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>173600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>218200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>201200</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2669,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2708,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2747,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4769400</v>
+        <v>5703600</v>
       </c>
       <c r="E66" s="3">
-        <v>3880500</v>
+        <v>5264700</v>
       </c>
       <c r="F66" s="3">
-        <v>3758100</v>
+        <v>4283500</v>
       </c>
       <c r="G66" s="3">
-        <v>3398700</v>
+        <v>4148400</v>
       </c>
       <c r="H66" s="3">
-        <v>2790100</v>
+        <v>3751700</v>
       </c>
       <c r="I66" s="3">
-        <v>2279300</v>
+        <v>3079900</v>
       </c>
       <c r="J66" s="3">
+        <v>2516100</v>
+      </c>
+      <c r="K66" s="3">
         <v>2076500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1844800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2164500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2032200</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2806,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2842,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2881,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2746,14 +2915,17 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>-26800</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>-29300</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2959,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>907700</v>
+        <v>1084000</v>
       </c>
       <c r="E72" s="3">
-        <v>859700</v>
+        <v>1001900</v>
       </c>
       <c r="F72" s="3">
-        <v>849700</v>
+        <v>949000</v>
       </c>
       <c r="G72" s="3">
-        <v>874600</v>
+        <v>938000</v>
       </c>
       <c r="H72" s="3">
-        <v>1010200</v>
+        <v>965400</v>
       </c>
       <c r="I72" s="3">
-        <v>805400</v>
+        <v>1115100</v>
       </c>
       <c r="J72" s="3">
+        <v>889000</v>
+      </c>
+      <c r="K72" s="3">
         <v>698400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>541700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>560100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>458300</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3037,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3076,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3115,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1702000</v>
+        <v>1983800</v>
       </c>
       <c r="E76" s="3">
-        <v>1688500</v>
+        <v>1878700</v>
       </c>
       <c r="F76" s="3">
-        <v>1686700</v>
+        <v>1863800</v>
       </c>
       <c r="G76" s="3">
-        <v>1650600</v>
+        <v>1861800</v>
       </c>
       <c r="H76" s="3">
-        <v>1507600</v>
+        <v>1822100</v>
       </c>
       <c r="I76" s="3">
-        <v>1418300</v>
+        <v>1664200</v>
       </c>
       <c r="J76" s="3">
+        <v>1565600</v>
+      </c>
+      <c r="K76" s="3">
         <v>1374200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1220100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1423400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1406400</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3193,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>159500</v>
+        <v>167600</v>
       </c>
       <c r="E81" s="3">
-        <v>66700</v>
+        <v>176100</v>
       </c>
       <c r="F81" s="3">
-        <v>205400</v>
+        <v>73600</v>
       </c>
       <c r="G81" s="3">
-        <v>272500</v>
+        <v>226700</v>
       </c>
       <c r="H81" s="3">
-        <v>278800</v>
+        <v>300800</v>
       </c>
       <c r="I81" s="3">
-        <v>268400</v>
+        <v>307700</v>
       </c>
       <c r="J81" s="3">
+        <v>296300</v>
+      </c>
+      <c r="K81" s="3">
         <v>221600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>229300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>238200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>211900</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3296,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>226200</v>
+        <v>180100</v>
       </c>
       <c r="E83" s="3">
-        <v>204400</v>
+        <v>249700</v>
       </c>
       <c r="F83" s="3">
-        <v>145000</v>
+        <v>225600</v>
       </c>
       <c r="G83" s="3">
-        <v>125800</v>
+        <v>160100</v>
       </c>
       <c r="H83" s="3">
-        <v>197000</v>
+        <v>138800</v>
       </c>
       <c r="I83" s="3">
-        <v>179000</v>
+        <v>217500</v>
       </c>
       <c r="J83" s="3">
+        <v>197600</v>
+      </c>
+      <c r="K83" s="3">
         <v>158500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>145800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>161800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>143900</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3371,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3410,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3449,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3488,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3527,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>560200</v>
+        <v>509600</v>
       </c>
       <c r="E89" s="3">
-        <v>522100</v>
+        <v>618400</v>
       </c>
       <c r="F89" s="3">
-        <v>515700</v>
+        <v>576400</v>
       </c>
       <c r="G89" s="3">
-        <v>310500</v>
+        <v>569300</v>
       </c>
       <c r="H89" s="3">
-        <v>448700</v>
+        <v>342700</v>
       </c>
       <c r="I89" s="3">
-        <v>571600</v>
+        <v>495300</v>
       </c>
       <c r="J89" s="3">
+        <v>630900</v>
+      </c>
+      <c r="K89" s="3">
         <v>473200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>396800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>570600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>424200</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3586,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-172400</v>
+        <v>-202700</v>
       </c>
       <c r="E91" s="3">
-        <v>-182100</v>
+        <v>-190300</v>
       </c>
       <c r="F91" s="3">
-        <v>-210400</v>
+        <v>-201000</v>
       </c>
       <c r="G91" s="3">
-        <v>-232500</v>
+        <v>-232200</v>
       </c>
       <c r="H91" s="3">
-        <v>-181200</v>
+        <v>-256600</v>
       </c>
       <c r="I91" s="3">
-        <v>-143400</v>
+        <v>-200100</v>
       </c>
       <c r="J91" s="3">
+        <v>-158300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-126000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-123700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-176100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-265800</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3661,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3700,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-381400</v>
+        <v>142700</v>
       </c>
       <c r="E94" s="3">
-        <v>-327600</v>
+        <v>-421000</v>
       </c>
       <c r="F94" s="3">
-        <v>-567300</v>
+        <v>-361700</v>
       </c>
       <c r="G94" s="3">
-        <v>-244900</v>
+        <v>-626200</v>
       </c>
       <c r="H94" s="3">
-        <v>-330000</v>
+        <v>-270300</v>
       </c>
       <c r="I94" s="3">
-        <v>-143100</v>
+        <v>-364300</v>
       </c>
       <c r="J94" s="3">
+        <v>-158000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-275000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-241000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-365500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-361700</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3759,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-50800</v>
+        <v>-139100</v>
       </c>
       <c r="E96" s="3">
-        <v>-106500</v>
+        <v>-56100</v>
       </c>
       <c r="F96" s="3">
-        <v>-144400</v>
+        <v>-117500</v>
       </c>
       <c r="G96" s="3">
-        <v>-167900</v>
+        <v>-159300</v>
       </c>
       <c r="H96" s="3">
-        <v>-155900</v>
+        <v>-185300</v>
       </c>
       <c r="I96" s="3">
-        <v>-148500</v>
+        <v>-172100</v>
       </c>
       <c r="J96" s="3">
+        <v>-163900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-139800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-133100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-128100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-124500</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3834,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3873,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3912,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-105700</v>
+        <v>-661200</v>
       </c>
       <c r="E100" s="3">
-        <v>-521700</v>
+        <v>-116700</v>
       </c>
       <c r="F100" s="3">
-        <v>-143000</v>
+        <v>-575900</v>
       </c>
       <c r="G100" s="3">
-        <v>60800</v>
+        <v>-157800</v>
       </c>
       <c r="H100" s="3">
-        <v>165700</v>
+        <v>67100</v>
       </c>
       <c r="I100" s="3">
-        <v>-450000</v>
+        <v>182900</v>
       </c>
       <c r="J100" s="3">
+        <v>-496700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-96300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-108300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-145400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-274000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>24400</v>
+        <v>10200</v>
       </c>
       <c r="E101" s="3">
-        <v>1600</v>
+        <v>26900</v>
       </c>
       <c r="F101" s="3">
-        <v>4800</v>
+        <v>1800</v>
       </c>
       <c r="G101" s="3">
-        <v>3600</v>
+        <v>5200</v>
       </c>
       <c r="H101" s="3">
-        <v>-3900</v>
+        <v>4000</v>
       </c>
       <c r="I101" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J101" s="3">
         <v>-700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>97500</v>
+        <v>1300</v>
       </c>
       <c r="E102" s="3">
-        <v>-325500</v>
+        <v>107600</v>
       </c>
       <c r="F102" s="3">
-        <v>-189800</v>
+        <v>-359400</v>
       </c>
       <c r="G102" s="3">
-        <v>129900</v>
+        <v>-209500</v>
       </c>
       <c r="H102" s="3">
-        <v>280500</v>
+        <v>143400</v>
       </c>
       <c r="I102" s="3">
-        <v>-22200</v>
+        <v>309600</v>
       </c>
       <c r="J102" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="K102" s="3">
         <v>98400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>47700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>59700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-211200</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21624000</v>
+        <v>21373800</v>
       </c>
       <c r="E8" s="3">
-        <v>14593900</v>
+        <v>14425000</v>
       </c>
       <c r="F8" s="3">
-        <v>17597100</v>
+        <v>17393500</v>
       </c>
       <c r="G8" s="3">
-        <v>17872900</v>
+        <v>17666200</v>
       </c>
       <c r="H8" s="3">
-        <v>15613100</v>
+        <v>15432400</v>
       </c>
       <c r="I8" s="3">
-        <v>15243200</v>
+        <v>15066800</v>
       </c>
       <c r="J8" s="3">
-        <v>14908600</v>
+        <v>14736100</v>
       </c>
       <c r="K8" s="3">
         <v>12092300</v>
@@ -764,25 +764,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>20657400</v>
+        <v>20418400</v>
       </c>
       <c r="E9" s="3">
-        <v>28708600</v>
+        <v>28376500</v>
       </c>
       <c r="F9" s="3">
-        <v>16392900</v>
+        <v>16203200</v>
       </c>
       <c r="G9" s="3">
-        <v>16658900</v>
+        <v>16466200</v>
       </c>
       <c r="H9" s="3">
-        <v>14273300</v>
+        <v>14108200</v>
       </c>
       <c r="I9" s="3">
-        <v>13861700</v>
+        <v>13701400</v>
       </c>
       <c r="J9" s="3">
-        <v>13584100</v>
+        <v>13426900</v>
       </c>
       <c r="K9" s="3">
         <v>11122600</v>
@@ -803,25 +803,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>966600</v>
+        <v>955400</v>
       </c>
       <c r="E10" s="3">
-        <v>-14114700</v>
+        <v>-13951400</v>
       </c>
       <c r="F10" s="3">
-        <v>1204200</v>
+        <v>1190300</v>
       </c>
       <c r="G10" s="3">
-        <v>1214000</v>
+        <v>1200000</v>
       </c>
       <c r="H10" s="3">
-        <v>1339700</v>
+        <v>1324200</v>
       </c>
       <c r="I10" s="3">
-        <v>1381400</v>
+        <v>1365500</v>
       </c>
       <c r="J10" s="3">
-        <v>1324600</v>
+        <v>1309200</v>
       </c>
       <c r="K10" s="3">
         <v>969700</v>
@@ -862,10 +862,10 @@
         <v>8</v>
       </c>
       <c r="E12" s="3">
-        <v>12600</v>
+        <v>12400</v>
       </c>
       <c r="F12" s="3">
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -937,13 +937,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-42000</v>
+        <v>-41500</v>
       </c>
       <c r="E14" s="3">
-        <v>-26900</v>
+        <v>-26600</v>
       </c>
       <c r="F14" s="3">
-        <v>116900</v>
+        <v>115600</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -979,19 +979,19 @@
         <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>154100</v>
+        <v>152400</v>
       </c>
       <c r="F15" s="3">
-        <v>137100</v>
+        <v>135500</v>
       </c>
       <c r="G15" s="3">
-        <v>16600</v>
+        <v>16400</v>
       </c>
       <c r="H15" s="3">
-        <v>13600</v>
+        <v>13500</v>
       </c>
       <c r="I15" s="3">
-        <v>106500</v>
+        <v>105200</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1029,25 +1029,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21275300</v>
+        <v>21029100</v>
       </c>
       <c r="E17" s="3">
-        <v>14297900</v>
+        <v>14132500</v>
       </c>
       <c r="F17" s="3">
-        <v>17343200</v>
+        <v>17142500</v>
       </c>
       <c r="G17" s="3">
-        <v>17501600</v>
+        <v>17299100</v>
       </c>
       <c r="H17" s="3">
-        <v>15058700</v>
+        <v>14884400</v>
       </c>
       <c r="I17" s="3">
-        <v>14629700</v>
+        <v>14460400</v>
       </c>
       <c r="J17" s="3">
-        <v>14327200</v>
+        <v>14161400</v>
       </c>
       <c r="K17" s="3">
         <v>11684100</v>
@@ -1068,25 +1068,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>348700</v>
+        <v>344600</v>
       </c>
       <c r="E18" s="3">
-        <v>296000</v>
+        <v>292500</v>
       </c>
       <c r="F18" s="3">
-        <v>253900</v>
+        <v>251000</v>
       </c>
       <c r="G18" s="3">
-        <v>371400</v>
+        <v>367100</v>
       </c>
       <c r="H18" s="3">
-        <v>554400</v>
+        <v>548000</v>
       </c>
       <c r="I18" s="3">
-        <v>613500</v>
+        <v>606400</v>
       </c>
       <c r="J18" s="3">
-        <v>581500</v>
+        <v>574700</v>
       </c>
       <c r="K18" s="3">
         <v>408200</v>
@@ -1124,25 +1124,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="E20" s="3">
-        <v>42900</v>
+        <v>42500</v>
       </c>
       <c r="F20" s="3">
-        <v>98000</v>
+        <v>96900</v>
       </c>
       <c r="G20" s="3">
-        <v>152000</v>
+        <v>150200</v>
       </c>
       <c r="H20" s="3">
-        <v>115800</v>
+        <v>114500</v>
       </c>
       <c r="I20" s="3">
-        <v>62400</v>
+        <v>61700</v>
       </c>
       <c r="J20" s="3">
-        <v>54300</v>
+        <v>53700</v>
       </c>
       <c r="K20" s="3">
         <v>47700</v>
@@ -1163,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>543800</v>
+        <v>535200</v>
       </c>
       <c r="E21" s="3">
-        <v>591700</v>
+        <v>581700</v>
       </c>
       <c r="F21" s="3">
-        <v>580300</v>
+        <v>570700</v>
       </c>
       <c r="G21" s="3">
-        <v>685400</v>
+        <v>675400</v>
       </c>
       <c r="H21" s="3">
-        <v>810800</v>
+        <v>799600</v>
       </c>
       <c r="I21" s="3">
-        <v>896100</v>
+        <v>882900</v>
       </c>
       <c r="J21" s="3">
-        <v>835800</v>
+        <v>823600</v>
       </c>
       <c r="K21" s="3">
         <v>614200</v>
@@ -1202,25 +1202,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>163100</v>
+        <v>161200</v>
       </c>
       <c r="E22" s="3">
-        <v>151400</v>
+        <v>149600</v>
       </c>
       <c r="F22" s="3">
-        <v>197900</v>
+        <v>195600</v>
       </c>
       <c r="G22" s="3">
-        <v>174300</v>
+        <v>172300</v>
       </c>
       <c r="H22" s="3">
-        <v>209300</v>
+        <v>206900</v>
       </c>
       <c r="I22" s="3">
-        <v>228500</v>
+        <v>225800</v>
       </c>
       <c r="J22" s="3">
-        <v>192900</v>
+        <v>190700</v>
       </c>
       <c r="K22" s="3">
         <v>130100</v>
@@ -1241,25 +1241,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>198400</v>
+        <v>196100</v>
       </c>
       <c r="E23" s="3">
-        <v>187500</v>
+        <v>185300</v>
       </c>
       <c r="F23" s="3">
-        <v>154000</v>
+        <v>152200</v>
       </c>
       <c r="G23" s="3">
-        <v>349000</v>
+        <v>345000</v>
       </c>
       <c r="H23" s="3">
-        <v>460900</v>
+        <v>455600</v>
       </c>
       <c r="I23" s="3">
-        <v>447400</v>
+        <v>442300</v>
       </c>
       <c r="J23" s="3">
-        <v>442900</v>
+        <v>437700</v>
       </c>
       <c r="K23" s="3">
         <v>325700</v>
@@ -1280,25 +1280,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>37100</v>
+        <v>36600</v>
       </c>
       <c r="E24" s="3">
-        <v>60000</v>
+        <v>59300</v>
       </c>
       <c r="F24" s="3">
-        <v>74600</v>
+        <v>73700</v>
       </c>
       <c r="G24" s="3">
-        <v>125900</v>
+        <v>124400</v>
       </c>
       <c r="H24" s="3">
-        <v>160300</v>
+        <v>158400</v>
       </c>
       <c r="I24" s="3">
-        <v>137900</v>
+        <v>136300</v>
       </c>
       <c r="J24" s="3">
-        <v>144700</v>
+        <v>143000</v>
       </c>
       <c r="K24" s="3">
         <v>102400</v>
@@ -1358,25 +1358,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>161300</v>
+        <v>159400</v>
       </c>
       <c r="E26" s="3">
-        <v>127500</v>
+        <v>126000</v>
       </c>
       <c r="F26" s="3">
-        <v>79400</v>
+        <v>78500</v>
       </c>
       <c r="G26" s="3">
-        <v>223100</v>
+        <v>220600</v>
       </c>
       <c r="H26" s="3">
-        <v>300700</v>
+        <v>297200</v>
       </c>
       <c r="I26" s="3">
-        <v>309500</v>
+        <v>305900</v>
       </c>
       <c r="J26" s="3">
-        <v>298100</v>
+        <v>294700</v>
       </c>
       <c r="K26" s="3">
         <v>223400</v>
@@ -1397,25 +1397,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>154700</v>
+        <v>152900</v>
       </c>
       <c r="E27" s="3">
-        <v>120700</v>
+        <v>119400</v>
       </c>
       <c r="F27" s="3">
-        <v>73600</v>
+        <v>72800</v>
       </c>
       <c r="G27" s="3">
-        <v>226700</v>
+        <v>224100</v>
       </c>
       <c r="H27" s="3">
-        <v>300800</v>
+        <v>297300</v>
       </c>
       <c r="I27" s="3">
-        <v>307700</v>
+        <v>304200</v>
       </c>
       <c r="J27" s="3">
-        <v>296300</v>
+        <v>292800</v>
       </c>
       <c r="K27" s="3">
         <v>221600</v>
@@ -1475,10 +1475,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>12900</v>
+        <v>12700</v>
       </c>
       <c r="E29" s="3">
-        <v>55300</v>
+        <v>54700</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1592,25 +1592,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-12800</v>
+        <v>-12700</v>
       </c>
       <c r="E32" s="3">
-        <v>-42900</v>
+        <v>-42500</v>
       </c>
       <c r="F32" s="3">
-        <v>-98000</v>
+        <v>-96900</v>
       </c>
       <c r="G32" s="3">
-        <v>-152000</v>
+        <v>-150200</v>
       </c>
       <c r="H32" s="3">
-        <v>-115800</v>
+        <v>-114500</v>
       </c>
       <c r="I32" s="3">
-        <v>-62400</v>
+        <v>-61700</v>
       </c>
       <c r="J32" s="3">
-        <v>-54300</v>
+        <v>-53700</v>
       </c>
       <c r="K32" s="3">
         <v>-47700</v>
@@ -1631,25 +1631,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>167600</v>
+        <v>165700</v>
       </c>
       <c r="E33" s="3">
-        <v>176100</v>
+        <v>174000</v>
       </c>
       <c r="F33" s="3">
-        <v>73600</v>
+        <v>72800</v>
       </c>
       <c r="G33" s="3">
-        <v>226700</v>
+        <v>224100</v>
       </c>
       <c r="H33" s="3">
-        <v>300800</v>
+        <v>297300</v>
       </c>
       <c r="I33" s="3">
-        <v>307700</v>
+        <v>304200</v>
       </c>
       <c r="J33" s="3">
-        <v>296300</v>
+        <v>292800</v>
       </c>
       <c r="K33" s="3">
         <v>221600</v>
@@ -1709,25 +1709,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>167600</v>
+        <v>165700</v>
       </c>
       <c r="E35" s="3">
-        <v>176100</v>
+        <v>174000</v>
       </c>
       <c r="F35" s="3">
-        <v>73600</v>
+        <v>72800</v>
       </c>
       <c r="G35" s="3">
-        <v>226700</v>
+        <v>224100</v>
       </c>
       <c r="H35" s="3">
-        <v>300800</v>
+        <v>297300</v>
       </c>
       <c r="I35" s="3">
-        <v>307700</v>
+        <v>304200</v>
       </c>
       <c r="J35" s="3">
-        <v>296300</v>
+        <v>292800</v>
       </c>
       <c r="K35" s="3">
         <v>221600</v>
@@ -1826,25 +1826,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>449300</v>
+        <v>444100</v>
       </c>
       <c r="E41" s="3">
-        <v>524500</v>
+        <v>518400</v>
       </c>
       <c r="F41" s="3">
-        <v>416900</v>
+        <v>412000</v>
       </c>
       <c r="G41" s="3">
-        <v>776200</v>
+        <v>767200</v>
       </c>
       <c r="H41" s="3">
-        <v>985700</v>
+        <v>974300</v>
       </c>
       <c r="I41" s="3">
-        <v>1684500</v>
+        <v>1665000</v>
       </c>
       <c r="J41" s="3">
-        <v>532600</v>
+        <v>526500</v>
       </c>
       <c r="K41" s="3">
         <v>1009500</v>
@@ -1865,25 +1865,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>355500</v>
+        <v>351400</v>
       </c>
       <c r="E42" s="3">
-        <v>991900</v>
+        <v>980400</v>
       </c>
       <c r="F42" s="3">
-        <v>609000</v>
+        <v>601900</v>
       </c>
       <c r="G42" s="3">
-        <v>562200</v>
+        <v>555700</v>
       </c>
       <c r="H42" s="3">
-        <v>505900</v>
+        <v>500000</v>
       </c>
       <c r="I42" s="3">
-        <v>556700</v>
+        <v>550300</v>
       </c>
       <c r="J42" s="3">
-        <v>158300</v>
+        <v>156500</v>
       </c>
       <c r="K42" s="3">
         <v>257400</v>
@@ -1904,25 +1904,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1167000</v>
+        <v>1153500</v>
       </c>
       <c r="E43" s="3">
-        <v>1051700</v>
+        <v>1039600</v>
       </c>
       <c r="F43" s="3">
-        <v>1095700</v>
+        <v>1083000</v>
       </c>
       <c r="G43" s="3">
-        <v>1062800</v>
+        <v>1050500</v>
       </c>
       <c r="H43" s="3">
-        <v>1819400</v>
+        <v>1798300</v>
       </c>
       <c r="I43" s="3">
-        <v>1614900</v>
+        <v>1596200</v>
       </c>
       <c r="J43" s="3">
-        <v>754400</v>
+        <v>745700</v>
       </c>
       <c r="K43" s="3">
         <v>578600</v>
@@ -1943,25 +1943,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>772200</v>
+        <v>763300</v>
       </c>
       <c r="E44" s="3">
-        <v>757900</v>
+        <v>749200</v>
       </c>
       <c r="F44" s="3">
-        <v>732200</v>
+        <v>723700</v>
       </c>
       <c r="G44" s="3">
-        <v>661000</v>
+        <v>653400</v>
       </c>
       <c r="H44" s="3">
-        <v>692400</v>
+        <v>684400</v>
       </c>
       <c r="I44" s="3">
-        <v>1092200</v>
+        <v>1079600</v>
       </c>
       <c r="J44" s="3">
-        <v>491700</v>
+        <v>486000</v>
       </c>
       <c r="K44" s="3">
         <v>687300</v>
@@ -1982,25 +1982,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2187200</v>
+        <v>2161900</v>
       </c>
       <c r="E45" s="3">
-        <v>120400</v>
+        <v>119000</v>
       </c>
       <c r="F45" s="3">
-        <v>113700</v>
+        <v>112400</v>
       </c>
       <c r="G45" s="3">
-        <v>132400</v>
+        <v>130900</v>
       </c>
       <c r="H45" s="3">
-        <v>119500</v>
+        <v>118100</v>
       </c>
       <c r="I45" s="3">
-        <v>112800</v>
+        <v>111500</v>
       </c>
       <c r="J45" s="3">
-        <v>16100</v>
+        <v>15900</v>
       </c>
       <c r="K45" s="3">
         <v>12000</v>
@@ -2021,25 +2021,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4931300</v>
+        <v>4874200</v>
       </c>
       <c r="E46" s="3">
-        <v>3446400</v>
+        <v>3406500</v>
       </c>
       <c r="F46" s="3">
-        <v>2967300</v>
+        <v>2933000</v>
       </c>
       <c r="G46" s="3">
-        <v>3194700</v>
+        <v>3157700</v>
       </c>
       <c r="H46" s="3">
-        <v>3052500</v>
+        <v>3017200</v>
       </c>
       <c r="I46" s="3">
-        <v>2633900</v>
+        <v>2603500</v>
       </c>
       <c r="J46" s="3">
-        <v>1953100</v>
+        <v>1930500</v>
       </c>
       <c r="K46" s="3">
         <v>1696400</v>
@@ -2060,25 +2060,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>727900</v>
+        <v>719500</v>
       </c>
       <c r="E47" s="3">
-        <v>669100</v>
+        <v>661400</v>
       </c>
       <c r="F47" s="3">
-        <v>390700</v>
+        <v>386200</v>
       </c>
       <c r="G47" s="3">
-        <v>318400</v>
+        <v>314800</v>
       </c>
       <c r="H47" s="3">
-        <v>174600</v>
+        <v>172600</v>
       </c>
       <c r="I47" s="3">
-        <v>112300</v>
+        <v>111000</v>
       </c>
       <c r="J47" s="3">
-        <v>172500</v>
+        <v>170500</v>
       </c>
       <c r="K47" s="3">
         <v>89700</v>
@@ -2099,25 +2099,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1416100</v>
+        <v>1399700</v>
       </c>
       <c r="E48" s="3">
-        <v>2001400</v>
+        <v>1978200</v>
       </c>
       <c r="F48" s="3">
-        <v>1882600</v>
+        <v>1860900</v>
       </c>
       <c r="G48" s="3">
-        <v>1434400</v>
+        <v>1417800</v>
       </c>
       <c r="H48" s="3">
-        <v>2615500</v>
+        <v>2585200</v>
       </c>
       <c r="I48" s="3">
-        <v>2282800</v>
+        <v>2256400</v>
       </c>
       <c r="J48" s="3">
-        <v>1071800</v>
+        <v>1059400</v>
       </c>
       <c r="K48" s="3">
         <v>909000</v>
@@ -2138,25 +2138,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>289900</v>
+        <v>286600</v>
       </c>
       <c r="E49" s="3">
-        <v>351300</v>
+        <v>347200</v>
       </c>
       <c r="F49" s="3">
-        <v>347300</v>
+        <v>343300</v>
       </c>
       <c r="G49" s="3">
-        <v>466900</v>
+        <v>461500</v>
       </c>
       <c r="H49" s="3">
-        <v>867200</v>
+        <v>857200</v>
       </c>
       <c r="I49" s="3">
-        <v>1037200</v>
+        <v>1025200</v>
       </c>
       <c r="J49" s="3">
-        <v>649100</v>
+        <v>641600</v>
       </c>
       <c r="K49" s="3">
         <v>563800</v>
@@ -2255,25 +2255,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>322300</v>
+        <v>318500</v>
       </c>
       <c r="E52" s="3">
-        <v>675300</v>
+        <v>667500</v>
       </c>
       <c r="F52" s="3">
-        <v>559300</v>
+        <v>552900</v>
       </c>
       <c r="G52" s="3">
-        <v>595800</v>
+        <v>588900</v>
       </c>
       <c r="H52" s="3">
-        <v>597500</v>
+        <v>590600</v>
       </c>
       <c r="I52" s="3">
-        <v>482900</v>
+        <v>477300</v>
       </c>
       <c r="J52" s="3">
-        <v>235200</v>
+        <v>232500</v>
       </c>
       <c r="K52" s="3">
         <v>203500</v>
@@ -2333,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7687400</v>
+        <v>7598400</v>
       </c>
       <c r="E54" s="3">
-        <v>7143500</v>
+        <v>7060800</v>
       </c>
       <c r="F54" s="3">
-        <v>6147400</v>
+        <v>6076300</v>
       </c>
       <c r="G54" s="3">
-        <v>6010200</v>
+        <v>5940700</v>
       </c>
       <c r="H54" s="3">
-        <v>5573700</v>
+        <v>5509200</v>
       </c>
       <c r="I54" s="3">
-        <v>4744100</v>
+        <v>4689200</v>
       </c>
       <c r="J54" s="3">
-        <v>4081700</v>
+        <v>4034500</v>
       </c>
       <c r="K54" s="3">
         <v>3450700</v>
@@ -2406,25 +2406,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1141000</v>
+        <v>1127800</v>
       </c>
       <c r="E57" s="3">
-        <v>796300</v>
+        <v>787000</v>
       </c>
       <c r="F57" s="3">
+        <v>525900</v>
+      </c>
+      <c r="G57" s="3">
         <v>532100</v>
       </c>
-      <c r="G57" s="3">
-        <v>538300</v>
-      </c>
       <c r="H57" s="3">
-        <v>424800</v>
+        <v>419800</v>
       </c>
       <c r="I57" s="3">
-        <v>336900</v>
+        <v>333000</v>
       </c>
       <c r="J57" s="3">
-        <v>287800</v>
+        <v>284500</v>
       </c>
       <c r="K57" s="3">
         <v>456800</v>
@@ -2445,25 +2445,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>602000</v>
+        <v>595000</v>
       </c>
       <c r="E58" s="3">
-        <v>692900</v>
+        <v>684900</v>
       </c>
       <c r="F58" s="3">
-        <v>260900</v>
+        <v>257900</v>
       </c>
       <c r="G58" s="3">
-        <v>448100</v>
+        <v>442900</v>
       </c>
       <c r="H58" s="3">
-        <v>690400</v>
+        <v>682400</v>
       </c>
       <c r="I58" s="3">
-        <v>487800</v>
+        <v>482200</v>
       </c>
       <c r="J58" s="3">
-        <v>216300</v>
+        <v>213800</v>
       </c>
       <c r="K58" s="3">
         <v>614500</v>
@@ -2484,25 +2484,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>747900</v>
+        <v>739300</v>
       </c>
       <c r="E59" s="3">
-        <v>331900</v>
+        <v>328000</v>
       </c>
       <c r="F59" s="3">
-        <v>230800</v>
+        <v>228100</v>
       </c>
       <c r="G59" s="3">
-        <v>262300</v>
+        <v>259300</v>
       </c>
       <c r="H59" s="3">
-        <v>266100</v>
+        <v>263100</v>
       </c>
       <c r="I59" s="3">
-        <v>256000</v>
+        <v>253000</v>
       </c>
       <c r="J59" s="3">
-        <v>251300</v>
+        <v>248300</v>
       </c>
       <c r="K59" s="3">
         <v>197200</v>
@@ -2523,25 +2523,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2490900</v>
+        <v>2462100</v>
       </c>
       <c r="E60" s="3">
-        <v>1821000</v>
+        <v>1799900</v>
       </c>
       <c r="F60" s="3">
-        <v>1023700</v>
+        <v>1011900</v>
       </c>
       <c r="G60" s="3">
-        <v>1248700</v>
+        <v>1234300</v>
       </c>
       <c r="H60" s="3">
-        <v>1381300</v>
+        <v>1365300</v>
       </c>
       <c r="I60" s="3">
-        <v>1080700</v>
+        <v>1068200</v>
       </c>
       <c r="J60" s="3">
-        <v>755400</v>
+        <v>746700</v>
       </c>
       <c r="K60" s="3">
         <v>1016200</v>
@@ -2562,25 +2562,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2891100</v>
+        <v>2857600</v>
       </c>
       <c r="E61" s="3">
-        <v>3092500</v>
+        <v>3056800</v>
       </c>
       <c r="F61" s="3">
-        <v>2888400</v>
+        <v>2855000</v>
       </c>
       <c r="G61" s="3">
-        <v>2548400</v>
+        <v>2518900</v>
       </c>
       <c r="H61" s="3">
-        <v>1987700</v>
+        <v>1964700</v>
       </c>
       <c r="I61" s="3">
-        <v>1762000</v>
+        <v>1741600</v>
       </c>
       <c r="J61" s="3">
-        <v>1537800</v>
+        <v>1520000</v>
       </c>
       <c r="K61" s="3">
         <v>880600</v>
@@ -2601,25 +2601,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>242300</v>
+        <v>239500</v>
       </c>
       <c r="E62" s="3">
-        <v>277000</v>
+        <v>273800</v>
       </c>
       <c r="F62" s="3">
-        <v>297100</v>
+        <v>293700</v>
       </c>
       <c r="G62" s="3">
-        <v>281900</v>
+        <v>278600</v>
       </c>
       <c r="H62" s="3">
-        <v>308100</v>
+        <v>304600</v>
       </c>
       <c r="I62" s="3">
-        <v>231100</v>
+        <v>228400</v>
       </c>
       <c r="J62" s="3">
-        <v>239200</v>
+        <v>236500</v>
       </c>
       <c r="K62" s="3">
         <v>191000</v>
@@ -2757,25 +2757,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5703600</v>
+        <v>5637600</v>
       </c>
       <c r="E66" s="3">
-        <v>5264700</v>
+        <v>5203800</v>
       </c>
       <c r="F66" s="3">
-        <v>4283500</v>
+        <v>4234000</v>
       </c>
       <c r="G66" s="3">
-        <v>4148400</v>
+        <v>4100400</v>
       </c>
       <c r="H66" s="3">
-        <v>3751700</v>
+        <v>3708200</v>
       </c>
       <c r="I66" s="3">
-        <v>3079900</v>
+        <v>3044300</v>
       </c>
       <c r="J66" s="3">
-        <v>2516100</v>
+        <v>2487000</v>
       </c>
       <c r="K66" s="3">
         <v>2076500</v>
@@ -2969,25 +2969,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1084000</v>
+        <v>1071500</v>
       </c>
       <c r="E72" s="3">
-        <v>1001900</v>
+        <v>990400</v>
       </c>
       <c r="F72" s="3">
-        <v>949000</v>
+        <v>938000</v>
       </c>
       <c r="G72" s="3">
-        <v>938000</v>
+        <v>927100</v>
       </c>
       <c r="H72" s="3">
-        <v>965400</v>
+        <v>954300</v>
       </c>
       <c r="I72" s="3">
-        <v>1115100</v>
+        <v>1102200</v>
       </c>
       <c r="J72" s="3">
-        <v>889000</v>
+        <v>878700</v>
       </c>
       <c r="K72" s="3">
         <v>698400</v>
@@ -3125,25 +3125,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1983800</v>
+        <v>1960800</v>
       </c>
       <c r="E76" s="3">
-        <v>1878700</v>
+        <v>1857000</v>
       </c>
       <c r="F76" s="3">
-        <v>1863800</v>
+        <v>1842300</v>
       </c>
       <c r="G76" s="3">
-        <v>1861800</v>
+        <v>1840300</v>
       </c>
       <c r="H76" s="3">
-        <v>1822100</v>
+        <v>1801000</v>
       </c>
       <c r="I76" s="3">
-        <v>1664200</v>
+        <v>1645000</v>
       </c>
       <c r="J76" s="3">
-        <v>1565600</v>
+        <v>1547500</v>
       </c>
       <c r="K76" s="3">
         <v>1374200</v>
@@ -3247,25 +3247,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>167600</v>
+        <v>165700</v>
       </c>
       <c r="E81" s="3">
-        <v>176100</v>
+        <v>174000</v>
       </c>
       <c r="F81" s="3">
-        <v>73600</v>
+        <v>72800</v>
       </c>
       <c r="G81" s="3">
-        <v>226700</v>
+        <v>224100</v>
       </c>
       <c r="H81" s="3">
-        <v>300800</v>
+        <v>297300</v>
       </c>
       <c r="I81" s="3">
-        <v>307700</v>
+        <v>304200</v>
       </c>
       <c r="J81" s="3">
-        <v>296300</v>
+        <v>292800</v>
       </c>
       <c r="K81" s="3">
         <v>221600</v>
@@ -3303,25 +3303,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>180100</v>
+        <v>178000</v>
       </c>
       <c r="E83" s="3">
-        <v>249700</v>
+        <v>246800</v>
       </c>
       <c r="F83" s="3">
-        <v>225600</v>
+        <v>223000</v>
       </c>
       <c r="G83" s="3">
-        <v>160100</v>
+        <v>158300</v>
       </c>
       <c r="H83" s="3">
-        <v>138800</v>
+        <v>137200</v>
       </c>
       <c r="I83" s="3">
-        <v>217500</v>
+        <v>214900</v>
       </c>
       <c r="J83" s="3">
-        <v>197600</v>
+        <v>195300</v>
       </c>
       <c r="K83" s="3">
         <v>158500</v>
@@ -3537,25 +3537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>509600</v>
+        <v>503700</v>
       </c>
       <c r="E89" s="3">
-        <v>618400</v>
+        <v>611200</v>
       </c>
       <c r="F89" s="3">
-        <v>576400</v>
+        <v>569700</v>
       </c>
       <c r="G89" s="3">
-        <v>569300</v>
+        <v>562700</v>
       </c>
       <c r="H89" s="3">
-        <v>342700</v>
+        <v>338700</v>
       </c>
       <c r="I89" s="3">
-        <v>495300</v>
+        <v>489600</v>
       </c>
       <c r="J89" s="3">
-        <v>630900</v>
+        <v>623600</v>
       </c>
       <c r="K89" s="3">
         <v>473200</v>
@@ -3593,25 +3593,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-202700</v>
+        <v>-200300</v>
       </c>
       <c r="E91" s="3">
-        <v>-190300</v>
+        <v>-188100</v>
       </c>
       <c r="F91" s="3">
-        <v>-201000</v>
+        <v>-198700</v>
       </c>
       <c r="G91" s="3">
-        <v>-232200</v>
+        <v>-229500</v>
       </c>
       <c r="H91" s="3">
-        <v>-256600</v>
+        <v>-253600</v>
       </c>
       <c r="I91" s="3">
-        <v>-200100</v>
+        <v>-197700</v>
       </c>
       <c r="J91" s="3">
-        <v>-158300</v>
+        <v>-156500</v>
       </c>
       <c r="K91" s="3">
         <v>-126000</v>
@@ -3710,25 +3710,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>142700</v>
+        <v>141000</v>
       </c>
       <c r="E94" s="3">
-        <v>-421000</v>
+        <v>-416100</v>
       </c>
       <c r="F94" s="3">
-        <v>-361700</v>
+        <v>-357500</v>
       </c>
       <c r="G94" s="3">
-        <v>-626200</v>
+        <v>-618900</v>
       </c>
       <c r="H94" s="3">
-        <v>-270300</v>
+        <v>-267200</v>
       </c>
       <c r="I94" s="3">
-        <v>-364300</v>
+        <v>-360100</v>
       </c>
       <c r="J94" s="3">
-        <v>-158000</v>
+        <v>-156200</v>
       </c>
       <c r="K94" s="3">
         <v>-275000</v>
@@ -3766,25 +3766,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-139100</v>
+        <v>-137500</v>
       </c>
       <c r="E96" s="3">
-        <v>-56100</v>
+        <v>-55500</v>
       </c>
       <c r="F96" s="3">
-        <v>-117500</v>
+        <v>-116200</v>
       </c>
       <c r="G96" s="3">
-        <v>-159300</v>
+        <v>-157500</v>
       </c>
       <c r="H96" s="3">
-        <v>-185300</v>
+        <v>-183100</v>
       </c>
       <c r="I96" s="3">
-        <v>-172100</v>
+        <v>-170100</v>
       </c>
       <c r="J96" s="3">
-        <v>-163900</v>
+        <v>-162000</v>
       </c>
       <c r="K96" s="3">
         <v>-139800</v>
@@ -3922,25 +3922,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-661200</v>
+        <v>-653600</v>
       </c>
       <c r="E100" s="3">
-        <v>-116700</v>
+        <v>-115400</v>
       </c>
       <c r="F100" s="3">
-        <v>-575900</v>
+        <v>-569200</v>
       </c>
       <c r="G100" s="3">
-        <v>-157800</v>
+        <v>-156000</v>
       </c>
       <c r="H100" s="3">
-        <v>67100</v>
+        <v>66300</v>
       </c>
       <c r="I100" s="3">
-        <v>182900</v>
+        <v>180800</v>
       </c>
       <c r="J100" s="3">
-        <v>-496700</v>
+        <v>-491000</v>
       </c>
       <c r="K100" s="3">
         <v>-96300</v>
@@ -3961,10 +3961,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="E101" s="3">
-        <v>26900</v>
+        <v>26600</v>
       </c>
       <c r="F101" s="3">
         <v>1800</v>
@@ -3973,7 +3973,7 @@
         <v>5200</v>
       </c>
       <c r="H101" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="I101" s="3">
         <v>-4300</v>
@@ -4003,22 +4003,22 @@
         <v>1300</v>
       </c>
       <c r="E102" s="3">
-        <v>107600</v>
+        <v>106400</v>
       </c>
       <c r="F102" s="3">
-        <v>-359400</v>
+        <v>-355200</v>
       </c>
       <c r="G102" s="3">
-        <v>-209500</v>
+        <v>-207100</v>
       </c>
       <c r="H102" s="3">
-        <v>143400</v>
+        <v>141800</v>
       </c>
       <c r="I102" s="3">
-        <v>309600</v>
+        <v>306100</v>
       </c>
       <c r="J102" s="3">
-        <v>-24500</v>
+        <v>-24200</v>
       </c>
       <c r="K102" s="3">
         <v>98400</v>

--- a/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21373800</v>
+        <v>21474700</v>
       </c>
       <c r="E8" s="3">
-        <v>14425000</v>
+        <v>14493200</v>
       </c>
       <c r="F8" s="3">
-        <v>17393500</v>
+        <v>17475600</v>
       </c>
       <c r="G8" s="3">
-        <v>17666200</v>
+        <v>17749600</v>
       </c>
       <c r="H8" s="3">
-        <v>15432400</v>
+        <v>15505300</v>
       </c>
       <c r="I8" s="3">
-        <v>15066800</v>
+        <v>15138000</v>
       </c>
       <c r="J8" s="3">
-        <v>14736100</v>
+        <v>14805700</v>
       </c>
       <c r="K8" s="3">
         <v>12092300</v>
@@ -764,25 +764,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>20418400</v>
+        <v>20514800</v>
       </c>
       <c r="E9" s="3">
-        <v>28376500</v>
+        <v>28510500</v>
       </c>
       <c r="F9" s="3">
-        <v>16203200</v>
+        <v>16279700</v>
       </c>
       <c r="G9" s="3">
-        <v>16466200</v>
+        <v>16544000</v>
       </c>
       <c r="H9" s="3">
-        <v>14108200</v>
+        <v>14174800</v>
       </c>
       <c r="I9" s="3">
-        <v>13701400</v>
+        <v>13766100</v>
       </c>
       <c r="J9" s="3">
-        <v>13426900</v>
+        <v>13490300</v>
       </c>
       <c r="K9" s="3">
         <v>11122600</v>
@@ -803,25 +803,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>955400</v>
+        <v>959900</v>
       </c>
       <c r="E10" s="3">
-        <v>-13951400</v>
+        <v>-14017300</v>
       </c>
       <c r="F10" s="3">
-        <v>1190300</v>
+        <v>1195900</v>
       </c>
       <c r="G10" s="3">
-        <v>1200000</v>
+        <v>1205600</v>
       </c>
       <c r="H10" s="3">
-        <v>1324200</v>
+        <v>1330500</v>
       </c>
       <c r="I10" s="3">
-        <v>1365500</v>
+        <v>1371900</v>
       </c>
       <c r="J10" s="3">
-        <v>1309200</v>
+        <v>1315400</v>
       </c>
       <c r="K10" s="3">
         <v>969700</v>
@@ -862,10 +862,10 @@
         <v>8</v>
       </c>
       <c r="E12" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="F12" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -937,13 +937,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-41500</v>
+        <v>-41700</v>
       </c>
       <c r="E14" s="3">
-        <v>-26600</v>
+        <v>-26700</v>
       </c>
       <c r="F14" s="3">
-        <v>115600</v>
+        <v>116100</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -979,19 +979,19 @@
         <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>152400</v>
+        <v>153100</v>
       </c>
       <c r="F15" s="3">
-        <v>135500</v>
+        <v>136100</v>
       </c>
       <c r="G15" s="3">
-        <v>16400</v>
+        <v>16500</v>
       </c>
       <c r="H15" s="3">
         <v>13500</v>
       </c>
       <c r="I15" s="3">
-        <v>105200</v>
+        <v>105700</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1029,25 +1029,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21029100</v>
+        <v>21128400</v>
       </c>
       <c r="E17" s="3">
-        <v>14132500</v>
+        <v>14199200</v>
       </c>
       <c r="F17" s="3">
-        <v>17142500</v>
+        <v>17223500</v>
       </c>
       <c r="G17" s="3">
-        <v>17299100</v>
+        <v>17380800</v>
       </c>
       <c r="H17" s="3">
-        <v>14884400</v>
+        <v>14954700</v>
       </c>
       <c r="I17" s="3">
-        <v>14460400</v>
+        <v>14528700</v>
       </c>
       <c r="J17" s="3">
-        <v>14161400</v>
+        <v>14228300</v>
       </c>
       <c r="K17" s="3">
         <v>11684100</v>
@@ -1068,25 +1068,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>344600</v>
+        <v>346300</v>
       </c>
       <c r="E18" s="3">
-        <v>292500</v>
+        <v>293900</v>
       </c>
       <c r="F18" s="3">
-        <v>251000</v>
+        <v>252100</v>
       </c>
       <c r="G18" s="3">
-        <v>367100</v>
+        <v>368800</v>
       </c>
       <c r="H18" s="3">
-        <v>548000</v>
+        <v>550600</v>
       </c>
       <c r="I18" s="3">
-        <v>606400</v>
+        <v>609300</v>
       </c>
       <c r="J18" s="3">
-        <v>574700</v>
+        <v>577400</v>
       </c>
       <c r="K18" s="3">
         <v>408200</v>
@@ -1127,22 +1127,22 @@
         <v>12700</v>
       </c>
       <c r="E20" s="3">
-        <v>42500</v>
+        <v>42700</v>
       </c>
       <c r="F20" s="3">
-        <v>96900</v>
+        <v>97300</v>
       </c>
       <c r="G20" s="3">
-        <v>150200</v>
+        <v>150900</v>
       </c>
       <c r="H20" s="3">
-        <v>114500</v>
+        <v>115000</v>
       </c>
       <c r="I20" s="3">
-        <v>61700</v>
+        <v>62000</v>
       </c>
       <c r="J20" s="3">
-        <v>53700</v>
+        <v>54000</v>
       </c>
       <c r="K20" s="3">
         <v>47700</v>
@@ -1163,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>535200</v>
+        <v>537800</v>
       </c>
       <c r="E21" s="3">
-        <v>581700</v>
+        <v>584500</v>
       </c>
       <c r="F21" s="3">
-        <v>570700</v>
+        <v>573400</v>
       </c>
       <c r="G21" s="3">
-        <v>675400</v>
+        <v>678700</v>
       </c>
       <c r="H21" s="3">
-        <v>799600</v>
+        <v>803500</v>
       </c>
       <c r="I21" s="3">
-        <v>882900</v>
+        <v>887100</v>
       </c>
       <c r="J21" s="3">
-        <v>823600</v>
+        <v>827600</v>
       </c>
       <c r="K21" s="3">
         <v>614200</v>
@@ -1202,25 +1202,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>161200</v>
+        <v>162000</v>
       </c>
       <c r="E22" s="3">
-        <v>149600</v>
+        <v>150400</v>
       </c>
       <c r="F22" s="3">
-        <v>195600</v>
+        <v>196500</v>
       </c>
       <c r="G22" s="3">
-        <v>172300</v>
+        <v>173100</v>
       </c>
       <c r="H22" s="3">
-        <v>206900</v>
+        <v>207900</v>
       </c>
       <c r="I22" s="3">
-        <v>225800</v>
+        <v>226900</v>
       </c>
       <c r="J22" s="3">
-        <v>190700</v>
+        <v>191600</v>
       </c>
       <c r="K22" s="3">
         <v>130100</v>
@@ -1241,25 +1241,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>196100</v>
+        <v>197000</v>
       </c>
       <c r="E23" s="3">
-        <v>185300</v>
+        <v>186200</v>
       </c>
       <c r="F23" s="3">
-        <v>152200</v>
+        <v>152900</v>
       </c>
       <c r="G23" s="3">
-        <v>345000</v>
+        <v>346600</v>
       </c>
       <c r="H23" s="3">
-        <v>455600</v>
+        <v>457800</v>
       </c>
       <c r="I23" s="3">
-        <v>442300</v>
+        <v>444400</v>
       </c>
       <c r="J23" s="3">
-        <v>437700</v>
+        <v>439800</v>
       </c>
       <c r="K23" s="3">
         <v>325700</v>
@@ -1280,25 +1280,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>36600</v>
+        <v>36800</v>
       </c>
       <c r="E24" s="3">
-        <v>59300</v>
+        <v>59600</v>
       </c>
       <c r="F24" s="3">
-        <v>73700</v>
+        <v>74100</v>
       </c>
       <c r="G24" s="3">
-        <v>124400</v>
+        <v>125000</v>
       </c>
       <c r="H24" s="3">
-        <v>158400</v>
+        <v>159200</v>
       </c>
       <c r="I24" s="3">
-        <v>136300</v>
+        <v>137000</v>
       </c>
       <c r="J24" s="3">
-        <v>143000</v>
+        <v>143700</v>
       </c>
       <c r="K24" s="3">
         <v>102400</v>
@@ -1358,25 +1358,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>159400</v>
+        <v>160200</v>
       </c>
       <c r="E26" s="3">
-        <v>126000</v>
+        <v>126600</v>
       </c>
       <c r="F26" s="3">
-        <v>78500</v>
+        <v>78900</v>
       </c>
       <c r="G26" s="3">
-        <v>220600</v>
+        <v>221600</v>
       </c>
       <c r="H26" s="3">
-        <v>297200</v>
+        <v>298600</v>
       </c>
       <c r="I26" s="3">
-        <v>305900</v>
+        <v>307400</v>
       </c>
       <c r="J26" s="3">
-        <v>294700</v>
+        <v>296100</v>
       </c>
       <c r="K26" s="3">
         <v>223400</v>
@@ -1397,25 +1397,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>152900</v>
+        <v>153700</v>
       </c>
       <c r="E27" s="3">
-        <v>119400</v>
+        <v>119900</v>
       </c>
       <c r="F27" s="3">
-        <v>72800</v>
+        <v>73100</v>
       </c>
       <c r="G27" s="3">
-        <v>224100</v>
+        <v>225100</v>
       </c>
       <c r="H27" s="3">
-        <v>297300</v>
+        <v>298700</v>
       </c>
       <c r="I27" s="3">
-        <v>304200</v>
+        <v>305600</v>
       </c>
       <c r="J27" s="3">
-        <v>292800</v>
+        <v>294200</v>
       </c>
       <c r="K27" s="3">
         <v>221600</v>
@@ -1475,10 +1475,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>12700</v>
+        <v>12800</v>
       </c>
       <c r="E29" s="3">
-        <v>54700</v>
+        <v>54900</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1595,22 +1595,22 @@
         <v>-12700</v>
       </c>
       <c r="E32" s="3">
-        <v>-42500</v>
+        <v>-42700</v>
       </c>
       <c r="F32" s="3">
-        <v>-96900</v>
+        <v>-97300</v>
       </c>
       <c r="G32" s="3">
-        <v>-150200</v>
+        <v>-150900</v>
       </c>
       <c r="H32" s="3">
-        <v>-114500</v>
+        <v>-115000</v>
       </c>
       <c r="I32" s="3">
-        <v>-61700</v>
+        <v>-62000</v>
       </c>
       <c r="J32" s="3">
-        <v>-53700</v>
+        <v>-54000</v>
       </c>
       <c r="K32" s="3">
         <v>-47700</v>
@@ -1631,25 +1631,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>165700</v>
+        <v>166400</v>
       </c>
       <c r="E33" s="3">
-        <v>174000</v>
+        <v>174800</v>
       </c>
       <c r="F33" s="3">
-        <v>72800</v>
+        <v>73100</v>
       </c>
       <c r="G33" s="3">
-        <v>224100</v>
+        <v>225100</v>
       </c>
       <c r="H33" s="3">
-        <v>297300</v>
+        <v>298700</v>
       </c>
       <c r="I33" s="3">
-        <v>304200</v>
+        <v>305600</v>
       </c>
       <c r="J33" s="3">
-        <v>292800</v>
+        <v>294200</v>
       </c>
       <c r="K33" s="3">
         <v>221600</v>
@@ -1709,25 +1709,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>165700</v>
+        <v>166400</v>
       </c>
       <c r="E35" s="3">
-        <v>174000</v>
+        <v>174800</v>
       </c>
       <c r="F35" s="3">
-        <v>72800</v>
+        <v>73100</v>
       </c>
       <c r="G35" s="3">
-        <v>224100</v>
+        <v>225100</v>
       </c>
       <c r="H35" s="3">
-        <v>297300</v>
+        <v>298700</v>
       </c>
       <c r="I35" s="3">
-        <v>304200</v>
+        <v>305600</v>
       </c>
       <c r="J35" s="3">
-        <v>292800</v>
+        <v>294200</v>
       </c>
       <c r="K35" s="3">
         <v>221600</v>
@@ -1826,25 +1826,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>444100</v>
+        <v>446200</v>
       </c>
       <c r="E41" s="3">
-        <v>518400</v>
+        <v>520900</v>
       </c>
       <c r="F41" s="3">
-        <v>412000</v>
+        <v>414000</v>
       </c>
       <c r="G41" s="3">
-        <v>767200</v>
+        <v>770900</v>
       </c>
       <c r="H41" s="3">
-        <v>974300</v>
+        <v>978900</v>
       </c>
       <c r="I41" s="3">
-        <v>1665000</v>
+        <v>1672900</v>
       </c>
       <c r="J41" s="3">
-        <v>526500</v>
+        <v>529000</v>
       </c>
       <c r="K41" s="3">
         <v>1009500</v>
@@ -1865,25 +1865,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>351400</v>
+        <v>353100</v>
       </c>
       <c r="E42" s="3">
-        <v>980400</v>
+        <v>985000</v>
       </c>
       <c r="F42" s="3">
-        <v>601900</v>
+        <v>604800</v>
       </c>
       <c r="G42" s="3">
-        <v>555700</v>
+        <v>558400</v>
       </c>
       <c r="H42" s="3">
-        <v>500000</v>
+        <v>502400</v>
       </c>
       <c r="I42" s="3">
-        <v>550300</v>
+        <v>552900</v>
       </c>
       <c r="J42" s="3">
-        <v>156500</v>
+        <v>157200</v>
       </c>
       <c r="K42" s="3">
         <v>257400</v>
@@ -1904,25 +1904,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1153500</v>
+        <v>1159000</v>
       </c>
       <c r="E43" s="3">
-        <v>1039600</v>
+        <v>1044500</v>
       </c>
       <c r="F43" s="3">
-        <v>1083000</v>
+        <v>1088100</v>
       </c>
       <c r="G43" s="3">
-        <v>1050500</v>
+        <v>1055400</v>
       </c>
       <c r="H43" s="3">
-        <v>1798300</v>
+        <v>1806800</v>
       </c>
       <c r="I43" s="3">
-        <v>1596200</v>
+        <v>1603700</v>
       </c>
       <c r="J43" s="3">
-        <v>745700</v>
+        <v>749200</v>
       </c>
       <c r="K43" s="3">
         <v>578600</v>
@@ -1943,25 +1943,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>763300</v>
+        <v>766900</v>
       </c>
       <c r="E44" s="3">
-        <v>749200</v>
+        <v>752700</v>
       </c>
       <c r="F44" s="3">
-        <v>723700</v>
+        <v>727100</v>
       </c>
       <c r="G44" s="3">
-        <v>653400</v>
+        <v>656500</v>
       </c>
       <c r="H44" s="3">
-        <v>684400</v>
+        <v>687600</v>
       </c>
       <c r="I44" s="3">
-        <v>1079600</v>
+        <v>1084700</v>
       </c>
       <c r="J44" s="3">
-        <v>486000</v>
+        <v>488300</v>
       </c>
       <c r="K44" s="3">
         <v>687300</v>
@@ -1982,22 +1982,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2161900</v>
+        <v>2172100</v>
       </c>
       <c r="E45" s="3">
-        <v>119000</v>
+        <v>119600</v>
       </c>
       <c r="F45" s="3">
-        <v>112400</v>
+        <v>112900</v>
       </c>
       <c r="G45" s="3">
-        <v>130900</v>
+        <v>131500</v>
       </c>
       <c r="H45" s="3">
-        <v>118100</v>
+        <v>118600</v>
       </c>
       <c r="I45" s="3">
-        <v>111500</v>
+        <v>112000</v>
       </c>
       <c r="J45" s="3">
         <v>15900</v>
@@ -2021,25 +2021,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4874200</v>
+        <v>4897200</v>
       </c>
       <c r="E46" s="3">
-        <v>3406500</v>
+        <v>3422600</v>
       </c>
       <c r="F46" s="3">
-        <v>2933000</v>
+        <v>2946900</v>
       </c>
       <c r="G46" s="3">
-        <v>3157700</v>
+        <v>3172600</v>
       </c>
       <c r="H46" s="3">
-        <v>3017200</v>
+        <v>3031400</v>
       </c>
       <c r="I46" s="3">
-        <v>2603500</v>
+        <v>2615800</v>
       </c>
       <c r="J46" s="3">
-        <v>1930500</v>
+        <v>1939700</v>
       </c>
       <c r="K46" s="3">
         <v>1696400</v>
@@ -2060,25 +2060,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>719500</v>
+        <v>722800</v>
       </c>
       <c r="E47" s="3">
-        <v>661400</v>
+        <v>664500</v>
       </c>
       <c r="F47" s="3">
-        <v>386200</v>
+        <v>388000</v>
       </c>
       <c r="G47" s="3">
-        <v>314800</v>
+        <v>316200</v>
       </c>
       <c r="H47" s="3">
-        <v>172600</v>
+        <v>173400</v>
       </c>
       <c r="I47" s="3">
-        <v>111000</v>
+        <v>111500</v>
       </c>
       <c r="J47" s="3">
-        <v>170500</v>
+        <v>171300</v>
       </c>
       <c r="K47" s="3">
         <v>89700</v>
@@ -2099,25 +2099,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1399700</v>
+        <v>1406300</v>
       </c>
       <c r="E48" s="3">
-        <v>1978200</v>
+        <v>1987600</v>
       </c>
       <c r="F48" s="3">
-        <v>1860900</v>
+        <v>1869700</v>
       </c>
       <c r="G48" s="3">
-        <v>1417800</v>
+        <v>1424500</v>
       </c>
       <c r="H48" s="3">
-        <v>2585200</v>
+        <v>2597400</v>
       </c>
       <c r="I48" s="3">
-        <v>2256400</v>
+        <v>2267100</v>
       </c>
       <c r="J48" s="3">
-        <v>1059400</v>
+        <v>1064400</v>
       </c>
       <c r="K48" s="3">
         <v>909000</v>
@@ -2138,25 +2138,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>286600</v>
+        <v>287900</v>
       </c>
       <c r="E49" s="3">
-        <v>347200</v>
+        <v>348900</v>
       </c>
       <c r="F49" s="3">
-        <v>343300</v>
+        <v>344900</v>
       </c>
       <c r="G49" s="3">
-        <v>461500</v>
+        <v>463700</v>
       </c>
       <c r="H49" s="3">
-        <v>857200</v>
+        <v>861200</v>
       </c>
       <c r="I49" s="3">
-        <v>1025200</v>
+        <v>1030000</v>
       </c>
       <c r="J49" s="3">
-        <v>641600</v>
+        <v>644600</v>
       </c>
       <c r="K49" s="3">
         <v>563800</v>
@@ -2255,25 +2255,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>318500</v>
+        <v>320000</v>
       </c>
       <c r="E52" s="3">
-        <v>667500</v>
+        <v>670600</v>
       </c>
       <c r="F52" s="3">
-        <v>552900</v>
+        <v>555500</v>
       </c>
       <c r="G52" s="3">
-        <v>588900</v>
+        <v>591700</v>
       </c>
       <c r="H52" s="3">
-        <v>590600</v>
+        <v>593400</v>
       </c>
       <c r="I52" s="3">
-        <v>477300</v>
+        <v>479600</v>
       </c>
       <c r="J52" s="3">
-        <v>232500</v>
+        <v>233600</v>
       </c>
       <c r="K52" s="3">
         <v>203500</v>
@@ -2333,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7598400</v>
+        <v>7634300</v>
       </c>
       <c r="E54" s="3">
-        <v>7060800</v>
+        <v>7094200</v>
       </c>
       <c r="F54" s="3">
-        <v>6076300</v>
+        <v>6105000</v>
       </c>
       <c r="G54" s="3">
-        <v>5940700</v>
+        <v>5968700</v>
       </c>
       <c r="H54" s="3">
-        <v>5509200</v>
+        <v>5535200</v>
       </c>
       <c r="I54" s="3">
-        <v>4689200</v>
+        <v>4711400</v>
       </c>
       <c r="J54" s="3">
-        <v>4034500</v>
+        <v>4053500</v>
       </c>
       <c r="K54" s="3">
         <v>3450700</v>
@@ -2406,25 +2406,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1127800</v>
+        <v>1133100</v>
       </c>
       <c r="E57" s="3">
-        <v>787000</v>
+        <v>790800</v>
       </c>
       <c r="F57" s="3">
-        <v>525900</v>
+        <v>528400</v>
       </c>
       <c r="G57" s="3">
-        <v>532100</v>
+        <v>534600</v>
       </c>
       <c r="H57" s="3">
-        <v>419800</v>
+        <v>421800</v>
       </c>
       <c r="I57" s="3">
-        <v>333000</v>
+        <v>334600</v>
       </c>
       <c r="J57" s="3">
-        <v>284500</v>
+        <v>285800</v>
       </c>
       <c r="K57" s="3">
         <v>456800</v>
@@ -2445,25 +2445,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>595000</v>
+        <v>597800</v>
       </c>
       <c r="E58" s="3">
-        <v>684900</v>
+        <v>688100</v>
       </c>
       <c r="F58" s="3">
-        <v>257900</v>
+        <v>259100</v>
       </c>
       <c r="G58" s="3">
-        <v>442900</v>
+        <v>445000</v>
       </c>
       <c r="H58" s="3">
-        <v>682400</v>
+        <v>685700</v>
       </c>
       <c r="I58" s="3">
-        <v>482200</v>
+        <v>484500</v>
       </c>
       <c r="J58" s="3">
-        <v>213800</v>
+        <v>214900</v>
       </c>
       <c r="K58" s="3">
         <v>614500</v>
@@ -2484,25 +2484,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>739300</v>
+        <v>742800</v>
       </c>
       <c r="E59" s="3">
-        <v>328000</v>
+        <v>329600</v>
       </c>
       <c r="F59" s="3">
-        <v>228100</v>
+        <v>229200</v>
       </c>
       <c r="G59" s="3">
-        <v>259300</v>
+        <v>260500</v>
       </c>
       <c r="H59" s="3">
-        <v>263100</v>
+        <v>264300</v>
       </c>
       <c r="I59" s="3">
-        <v>253000</v>
+        <v>254200</v>
       </c>
       <c r="J59" s="3">
-        <v>248300</v>
+        <v>249500</v>
       </c>
       <c r="K59" s="3">
         <v>197200</v>
@@ -2523,25 +2523,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2462100</v>
+        <v>2473700</v>
       </c>
       <c r="E60" s="3">
-        <v>1799900</v>
+        <v>1808400</v>
       </c>
       <c r="F60" s="3">
-        <v>1011900</v>
+        <v>1016700</v>
       </c>
       <c r="G60" s="3">
-        <v>1234300</v>
+        <v>1240100</v>
       </c>
       <c r="H60" s="3">
-        <v>1365300</v>
+        <v>1371800</v>
       </c>
       <c r="I60" s="3">
-        <v>1068200</v>
+        <v>1073300</v>
       </c>
       <c r="J60" s="3">
-        <v>746700</v>
+        <v>750200</v>
       </c>
       <c r="K60" s="3">
         <v>1016200</v>
@@ -2562,25 +2562,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2857600</v>
+        <v>2871100</v>
       </c>
       <c r="E61" s="3">
-        <v>3056800</v>
+        <v>3071200</v>
       </c>
       <c r="F61" s="3">
-        <v>2855000</v>
+        <v>2868500</v>
       </c>
       <c r="G61" s="3">
-        <v>2518900</v>
+        <v>2530800</v>
       </c>
       <c r="H61" s="3">
-        <v>1964700</v>
+        <v>1974000</v>
       </c>
       <c r="I61" s="3">
-        <v>1741600</v>
+        <v>1749900</v>
       </c>
       <c r="J61" s="3">
-        <v>1520000</v>
+        <v>1527200</v>
       </c>
       <c r="K61" s="3">
         <v>880600</v>
@@ -2601,25 +2601,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>239500</v>
+        <v>240700</v>
       </c>
       <c r="E62" s="3">
-        <v>273800</v>
+        <v>275100</v>
       </c>
       <c r="F62" s="3">
-        <v>293700</v>
+        <v>295100</v>
       </c>
       <c r="G62" s="3">
-        <v>278600</v>
+        <v>279900</v>
       </c>
       <c r="H62" s="3">
-        <v>304600</v>
+        <v>306000</v>
       </c>
       <c r="I62" s="3">
-        <v>228400</v>
+        <v>229500</v>
       </c>
       <c r="J62" s="3">
-        <v>236500</v>
+        <v>237600</v>
       </c>
       <c r="K62" s="3">
         <v>191000</v>
@@ -2757,25 +2757,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5637600</v>
+        <v>5664200</v>
       </c>
       <c r="E66" s="3">
-        <v>5203800</v>
+        <v>5228400</v>
       </c>
       <c r="F66" s="3">
-        <v>4234000</v>
+        <v>4254000</v>
       </c>
       <c r="G66" s="3">
-        <v>4100400</v>
+        <v>4119700</v>
       </c>
       <c r="H66" s="3">
-        <v>3708200</v>
+        <v>3725800</v>
       </c>
       <c r="I66" s="3">
-        <v>3044300</v>
+        <v>3058700</v>
       </c>
       <c r="J66" s="3">
-        <v>2487000</v>
+        <v>2498700</v>
       </c>
       <c r="K66" s="3">
         <v>2076500</v>
@@ -2969,25 +2969,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1071500</v>
+        <v>1076600</v>
       </c>
       <c r="E72" s="3">
-        <v>990400</v>
+        <v>995000</v>
       </c>
       <c r="F72" s="3">
-        <v>938000</v>
+        <v>942400</v>
       </c>
       <c r="G72" s="3">
-        <v>927100</v>
+        <v>931500</v>
       </c>
       <c r="H72" s="3">
-        <v>954300</v>
+        <v>958800</v>
       </c>
       <c r="I72" s="3">
-        <v>1102200</v>
+        <v>1107400</v>
       </c>
       <c r="J72" s="3">
-        <v>878700</v>
+        <v>882900</v>
       </c>
       <c r="K72" s="3">
         <v>698400</v>
@@ -3125,25 +3125,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1960800</v>
+        <v>1970100</v>
       </c>
       <c r="E76" s="3">
-        <v>1857000</v>
+        <v>1865800</v>
       </c>
       <c r="F76" s="3">
-        <v>1842300</v>
+        <v>1851000</v>
       </c>
       <c r="G76" s="3">
-        <v>1840300</v>
+        <v>1849000</v>
       </c>
       <c r="H76" s="3">
-        <v>1801000</v>
+        <v>1809500</v>
       </c>
       <c r="I76" s="3">
-        <v>1645000</v>
+        <v>1652700</v>
       </c>
       <c r="J76" s="3">
-        <v>1547500</v>
+        <v>1554800</v>
       </c>
       <c r="K76" s="3">
         <v>1374200</v>
@@ -3247,25 +3247,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>165700</v>
+        <v>166400</v>
       </c>
       <c r="E81" s="3">
-        <v>174000</v>
+        <v>174800</v>
       </c>
       <c r="F81" s="3">
-        <v>72800</v>
+        <v>73100</v>
       </c>
       <c r="G81" s="3">
-        <v>224100</v>
+        <v>225100</v>
       </c>
       <c r="H81" s="3">
-        <v>297300</v>
+        <v>298700</v>
       </c>
       <c r="I81" s="3">
-        <v>304200</v>
+        <v>305600</v>
       </c>
       <c r="J81" s="3">
-        <v>292800</v>
+        <v>294200</v>
       </c>
       <c r="K81" s="3">
         <v>221600</v>
@@ -3303,25 +3303,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>178000</v>
+        <v>178800</v>
       </c>
       <c r="E83" s="3">
-        <v>246800</v>
+        <v>248000</v>
       </c>
       <c r="F83" s="3">
-        <v>223000</v>
+        <v>224000</v>
       </c>
       <c r="G83" s="3">
-        <v>158300</v>
+        <v>159000</v>
       </c>
       <c r="H83" s="3">
-        <v>137200</v>
+        <v>137900</v>
       </c>
       <c r="I83" s="3">
-        <v>214900</v>
+        <v>216000</v>
       </c>
       <c r="J83" s="3">
-        <v>195300</v>
+        <v>196200</v>
       </c>
       <c r="K83" s="3">
         <v>158500</v>
@@ -3537,25 +3537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>503700</v>
+        <v>506100</v>
       </c>
       <c r="E89" s="3">
-        <v>611200</v>
+        <v>614100</v>
       </c>
       <c r="F89" s="3">
-        <v>569700</v>
+        <v>572400</v>
       </c>
       <c r="G89" s="3">
-        <v>562700</v>
+        <v>565400</v>
       </c>
       <c r="H89" s="3">
-        <v>338700</v>
+        <v>340300</v>
       </c>
       <c r="I89" s="3">
-        <v>489600</v>
+        <v>491900</v>
       </c>
       <c r="J89" s="3">
-        <v>623600</v>
+        <v>626600</v>
       </c>
       <c r="K89" s="3">
         <v>473200</v>
@@ -3593,25 +3593,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200300</v>
+        <v>-201300</v>
       </c>
       <c r="E91" s="3">
-        <v>-188100</v>
+        <v>-189000</v>
       </c>
       <c r="F91" s="3">
+        <v>-199600</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-230600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-254800</v>
+      </c>
+      <c r="I91" s="3">
         <v>-198700</v>
       </c>
-      <c r="G91" s="3">
-        <v>-229500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-253600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-197700</v>
-      </c>
       <c r="J91" s="3">
-        <v>-156500</v>
+        <v>-157200</v>
       </c>
       <c r="K91" s="3">
         <v>-126000</v>
@@ -3710,25 +3710,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>141000</v>
+        <v>141700</v>
       </c>
       <c r="E94" s="3">
-        <v>-416100</v>
+        <v>-418100</v>
       </c>
       <c r="F94" s="3">
-        <v>-357500</v>
+        <v>-359200</v>
       </c>
       <c r="G94" s="3">
-        <v>-618900</v>
+        <v>-621900</v>
       </c>
       <c r="H94" s="3">
-        <v>-267200</v>
+        <v>-268500</v>
       </c>
       <c r="I94" s="3">
-        <v>-360100</v>
+        <v>-361800</v>
       </c>
       <c r="J94" s="3">
-        <v>-156200</v>
+        <v>-156900</v>
       </c>
       <c r="K94" s="3">
         <v>-275000</v>
@@ -3766,25 +3766,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-137500</v>
+        <v>-138100</v>
       </c>
       <c r="E96" s="3">
-        <v>-55500</v>
+        <v>-55700</v>
       </c>
       <c r="F96" s="3">
-        <v>-116200</v>
+        <v>-116700</v>
       </c>
       <c r="G96" s="3">
-        <v>-157500</v>
+        <v>-158200</v>
       </c>
       <c r="H96" s="3">
-        <v>-183100</v>
+        <v>-184000</v>
       </c>
       <c r="I96" s="3">
-        <v>-170100</v>
+        <v>-170900</v>
       </c>
       <c r="J96" s="3">
-        <v>-162000</v>
+        <v>-162800</v>
       </c>
       <c r="K96" s="3">
         <v>-139800</v>
@@ -3922,25 +3922,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-653600</v>
+        <v>-656700</v>
       </c>
       <c r="E100" s="3">
-        <v>-115400</v>
+        <v>-115900</v>
       </c>
       <c r="F100" s="3">
-        <v>-569200</v>
+        <v>-571900</v>
       </c>
       <c r="G100" s="3">
-        <v>-156000</v>
+        <v>-156800</v>
       </c>
       <c r="H100" s="3">
-        <v>66300</v>
+        <v>66600</v>
       </c>
       <c r="I100" s="3">
-        <v>180800</v>
+        <v>181700</v>
       </c>
       <c r="J100" s="3">
-        <v>-491000</v>
+        <v>-493300</v>
       </c>
       <c r="K100" s="3">
         <v>-96300</v>
@@ -3961,10 +3961,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10100</v>
+        <v>10200</v>
       </c>
       <c r="E101" s="3">
-        <v>26600</v>
+        <v>26800</v>
       </c>
       <c r="F101" s="3">
         <v>1800</v>
@@ -3973,7 +3973,7 @@
         <v>5200</v>
       </c>
       <c r="H101" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="I101" s="3">
         <v>-4300</v>
@@ -4003,22 +4003,22 @@
         <v>1300</v>
       </c>
       <c r="E102" s="3">
-        <v>106400</v>
+        <v>106900</v>
       </c>
       <c r="F102" s="3">
-        <v>-355200</v>
+        <v>-356900</v>
       </c>
       <c r="G102" s="3">
-        <v>-207100</v>
+        <v>-208000</v>
       </c>
       <c r="H102" s="3">
-        <v>141800</v>
+        <v>142400</v>
       </c>
       <c r="I102" s="3">
-        <v>306100</v>
+        <v>307500</v>
       </c>
       <c r="J102" s="3">
-        <v>-24200</v>
+        <v>-24400</v>
       </c>
       <c r="K102" s="3">
         <v>98400</v>

--- a/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21474700</v>
+        <v>20529900</v>
       </c>
       <c r="E8" s="3">
-        <v>14493200</v>
+        <v>13855500</v>
       </c>
       <c r="F8" s="3">
-        <v>17475600</v>
+        <v>16706800</v>
       </c>
       <c r="G8" s="3">
-        <v>17749600</v>
+        <v>16968700</v>
       </c>
       <c r="H8" s="3">
-        <v>15505300</v>
+        <v>14823100</v>
       </c>
       <c r="I8" s="3">
-        <v>15138000</v>
+        <v>14472000</v>
       </c>
       <c r="J8" s="3">
-        <v>14805700</v>
+        <v>14154300</v>
       </c>
       <c r="K8" s="3">
         <v>12092300</v>
@@ -764,25 +764,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>20514800</v>
+        <v>19612300</v>
       </c>
       <c r="E9" s="3">
-        <v>28510500</v>
+        <v>27256100</v>
       </c>
       <c r="F9" s="3">
-        <v>16279700</v>
+        <v>15563500</v>
       </c>
       <c r="G9" s="3">
-        <v>16544000</v>
+        <v>15816100</v>
       </c>
       <c r="H9" s="3">
-        <v>14174800</v>
+        <v>13551200</v>
       </c>
       <c r="I9" s="3">
-        <v>13766100</v>
+        <v>13160400</v>
       </c>
       <c r="J9" s="3">
-        <v>13490300</v>
+        <v>12896800</v>
       </c>
       <c r="K9" s="3">
         <v>11122600</v>
@@ -803,25 +803,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>959900</v>
+        <v>917700</v>
       </c>
       <c r="E10" s="3">
-        <v>-14017300</v>
+        <v>-13400600</v>
       </c>
       <c r="F10" s="3">
-        <v>1195900</v>
+        <v>1143300</v>
       </c>
       <c r="G10" s="3">
-        <v>1205600</v>
+        <v>1152600</v>
       </c>
       <c r="H10" s="3">
-        <v>1330500</v>
+        <v>1271900</v>
       </c>
       <c r="I10" s="3">
-        <v>1371900</v>
+        <v>1311500</v>
       </c>
       <c r="J10" s="3">
-        <v>1315400</v>
+        <v>1257500</v>
       </c>
       <c r="K10" s="3">
         <v>969700</v>
@@ -862,10 +862,10 @@
         <v>8</v>
       </c>
       <c r="E12" s="3">
-        <v>12500</v>
+        <v>11900</v>
       </c>
       <c r="F12" s="3">
-        <v>12100</v>
+        <v>11500</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -937,13 +937,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-41700</v>
+        <v>-39900</v>
       </c>
       <c r="E14" s="3">
-        <v>-26700</v>
+        <v>-25500</v>
       </c>
       <c r="F14" s="3">
-        <v>116100</v>
+        <v>111000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -979,19 +979,19 @@
         <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>153100</v>
+        <v>146300</v>
       </c>
       <c r="F15" s="3">
-        <v>136100</v>
+        <v>130100</v>
       </c>
       <c r="G15" s="3">
-        <v>16500</v>
+        <v>15800</v>
       </c>
       <c r="H15" s="3">
-        <v>13500</v>
+        <v>12900</v>
       </c>
       <c r="I15" s="3">
-        <v>105700</v>
+        <v>101100</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1029,25 +1029,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21128400</v>
+        <v>20198900</v>
       </c>
       <c r="E17" s="3">
-        <v>14199200</v>
+        <v>13574500</v>
       </c>
       <c r="F17" s="3">
-        <v>17223500</v>
+        <v>16465700</v>
       </c>
       <c r="G17" s="3">
-        <v>17380800</v>
+        <v>16616100</v>
       </c>
       <c r="H17" s="3">
-        <v>14954700</v>
+        <v>14296800</v>
       </c>
       <c r="I17" s="3">
-        <v>14528700</v>
+        <v>13889500</v>
       </c>
       <c r="J17" s="3">
-        <v>14228300</v>
+        <v>13602300</v>
       </c>
       <c r="K17" s="3">
         <v>11684100</v>
@@ -1068,25 +1068,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>346300</v>
+        <v>331000</v>
       </c>
       <c r="E18" s="3">
-        <v>293900</v>
+        <v>281000</v>
       </c>
       <c r="F18" s="3">
-        <v>252100</v>
+        <v>241000</v>
       </c>
       <c r="G18" s="3">
-        <v>368800</v>
+        <v>352600</v>
       </c>
       <c r="H18" s="3">
-        <v>550600</v>
+        <v>526400</v>
       </c>
       <c r="I18" s="3">
-        <v>609300</v>
+        <v>582400</v>
       </c>
       <c r="J18" s="3">
-        <v>577400</v>
+        <v>552000</v>
       </c>
       <c r="K18" s="3">
         <v>408200</v>
@@ -1124,25 +1124,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>12700</v>
+        <v>12200</v>
       </c>
       <c r="E20" s="3">
-        <v>42700</v>
+        <v>40800</v>
       </c>
       <c r="F20" s="3">
-        <v>97300</v>
+        <v>93100</v>
       </c>
       <c r="G20" s="3">
-        <v>150900</v>
+        <v>144300</v>
       </c>
       <c r="H20" s="3">
-        <v>115000</v>
+        <v>110000</v>
       </c>
       <c r="I20" s="3">
-        <v>62000</v>
+        <v>59300</v>
       </c>
       <c r="J20" s="3">
-        <v>54000</v>
+        <v>51600</v>
       </c>
       <c r="K20" s="3">
         <v>47700</v>
@@ -1163,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>537800</v>
+        <v>519400</v>
       </c>
       <c r="E21" s="3">
-        <v>584500</v>
+        <v>566100</v>
       </c>
       <c r="F21" s="3">
-        <v>573400</v>
+        <v>554800</v>
       </c>
       <c r="G21" s="3">
-        <v>678700</v>
+        <v>653500</v>
       </c>
       <c r="H21" s="3">
-        <v>803500</v>
+        <v>772200</v>
       </c>
       <c r="I21" s="3">
-        <v>887100</v>
+        <v>854500</v>
       </c>
       <c r="J21" s="3">
-        <v>827600</v>
+        <v>796900</v>
       </c>
       <c r="K21" s="3">
         <v>614200</v>
@@ -1202,25 +1202,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>162000</v>
+        <v>154900</v>
       </c>
       <c r="E22" s="3">
-        <v>150400</v>
+        <v>143700</v>
       </c>
       <c r="F22" s="3">
-        <v>196500</v>
+        <v>187900</v>
       </c>
       <c r="G22" s="3">
-        <v>173100</v>
+        <v>165500</v>
       </c>
       <c r="H22" s="3">
-        <v>207900</v>
+        <v>198700</v>
       </c>
       <c r="I22" s="3">
-        <v>226900</v>
+        <v>216900</v>
       </c>
       <c r="J22" s="3">
-        <v>191600</v>
+        <v>183200</v>
       </c>
       <c r="K22" s="3">
         <v>130100</v>
@@ -1241,25 +1241,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>197000</v>
+        <v>188300</v>
       </c>
       <c r="E23" s="3">
-        <v>186200</v>
+        <v>178000</v>
       </c>
       <c r="F23" s="3">
-        <v>152900</v>
+        <v>146200</v>
       </c>
       <c r="G23" s="3">
-        <v>346600</v>
+        <v>331300</v>
       </c>
       <c r="H23" s="3">
-        <v>457800</v>
+        <v>437600</v>
       </c>
       <c r="I23" s="3">
-        <v>444400</v>
+        <v>424800</v>
       </c>
       <c r="J23" s="3">
-        <v>439800</v>
+        <v>420400</v>
       </c>
       <c r="K23" s="3">
         <v>325700</v>
@@ -1280,25 +1280,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>36800</v>
+        <v>35200</v>
       </c>
       <c r="E24" s="3">
-        <v>59600</v>
+        <v>57000</v>
       </c>
       <c r="F24" s="3">
-        <v>74100</v>
+        <v>70800</v>
       </c>
       <c r="G24" s="3">
-        <v>125000</v>
+        <v>119500</v>
       </c>
       <c r="H24" s="3">
-        <v>159200</v>
+        <v>152200</v>
       </c>
       <c r="I24" s="3">
-        <v>137000</v>
+        <v>131000</v>
       </c>
       <c r="J24" s="3">
-        <v>143700</v>
+        <v>137400</v>
       </c>
       <c r="K24" s="3">
         <v>102400</v>
@@ -1358,25 +1358,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>160200</v>
+        <v>153200</v>
       </c>
       <c r="E26" s="3">
-        <v>126600</v>
+        <v>121100</v>
       </c>
       <c r="F26" s="3">
-        <v>78900</v>
+        <v>75400</v>
       </c>
       <c r="G26" s="3">
-        <v>221600</v>
+        <v>211800</v>
       </c>
       <c r="H26" s="3">
-        <v>298600</v>
+        <v>285500</v>
       </c>
       <c r="I26" s="3">
-        <v>307400</v>
+        <v>293800</v>
       </c>
       <c r="J26" s="3">
-        <v>296100</v>
+        <v>283100</v>
       </c>
       <c r="K26" s="3">
         <v>223400</v>
@@ -1397,25 +1397,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>153700</v>
+        <v>146900</v>
       </c>
       <c r="E27" s="3">
-        <v>119900</v>
+        <v>114600</v>
       </c>
       <c r="F27" s="3">
-        <v>73100</v>
+        <v>69900</v>
       </c>
       <c r="G27" s="3">
-        <v>225100</v>
+        <v>215200</v>
       </c>
       <c r="H27" s="3">
-        <v>298700</v>
+        <v>285600</v>
       </c>
       <c r="I27" s="3">
-        <v>305600</v>
+        <v>292200</v>
       </c>
       <c r="J27" s="3">
-        <v>294200</v>
+        <v>281300</v>
       </c>
       <c r="K27" s="3">
         <v>221600</v>
@@ -1475,10 +1475,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>12800</v>
+        <v>12200</v>
       </c>
       <c r="E29" s="3">
-        <v>54900</v>
+        <v>52500</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1592,25 +1592,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-12700</v>
+        <v>-12200</v>
       </c>
       <c r="E32" s="3">
-        <v>-42700</v>
+        <v>-40800</v>
       </c>
       <c r="F32" s="3">
-        <v>-97300</v>
+        <v>-93100</v>
       </c>
       <c r="G32" s="3">
-        <v>-150900</v>
+        <v>-144300</v>
       </c>
       <c r="H32" s="3">
-        <v>-115000</v>
+        <v>-110000</v>
       </c>
       <c r="I32" s="3">
-        <v>-62000</v>
+        <v>-59300</v>
       </c>
       <c r="J32" s="3">
-        <v>-54000</v>
+        <v>-51600</v>
       </c>
       <c r="K32" s="3">
         <v>-47700</v>
@@ -1631,25 +1631,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>166400</v>
+        <v>159100</v>
       </c>
       <c r="E33" s="3">
-        <v>174800</v>
+        <v>167100</v>
       </c>
       <c r="F33" s="3">
-        <v>73100</v>
+        <v>69900</v>
       </c>
       <c r="G33" s="3">
-        <v>225100</v>
+        <v>215200</v>
       </c>
       <c r="H33" s="3">
-        <v>298700</v>
+        <v>285600</v>
       </c>
       <c r="I33" s="3">
-        <v>305600</v>
+        <v>292200</v>
       </c>
       <c r="J33" s="3">
-        <v>294200</v>
+        <v>281300</v>
       </c>
       <c r="K33" s="3">
         <v>221600</v>
@@ -1709,25 +1709,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>166400</v>
+        <v>159100</v>
       </c>
       <c r="E35" s="3">
-        <v>174800</v>
+        <v>167100</v>
       </c>
       <c r="F35" s="3">
-        <v>73100</v>
+        <v>69900</v>
       </c>
       <c r="G35" s="3">
-        <v>225100</v>
+        <v>215200</v>
       </c>
       <c r="H35" s="3">
-        <v>298700</v>
+        <v>285600</v>
       </c>
       <c r="I35" s="3">
-        <v>305600</v>
+        <v>292200</v>
       </c>
       <c r="J35" s="3">
-        <v>294200</v>
+        <v>281300</v>
       </c>
       <c r="K35" s="3">
         <v>221600</v>
@@ -1826,25 +1826,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>446200</v>
+        <v>426600</v>
       </c>
       <c r="E41" s="3">
-        <v>520900</v>
+        <v>497900</v>
       </c>
       <c r="F41" s="3">
-        <v>414000</v>
+        <v>395800</v>
       </c>
       <c r="G41" s="3">
-        <v>770900</v>
+        <v>736900</v>
       </c>
       <c r="H41" s="3">
-        <v>978900</v>
+        <v>935800</v>
       </c>
       <c r="I41" s="3">
-        <v>1672900</v>
+        <v>1599300</v>
       </c>
       <c r="J41" s="3">
-        <v>529000</v>
+        <v>505700</v>
       </c>
       <c r="K41" s="3">
         <v>1009500</v>
@@ -1865,25 +1865,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>353100</v>
+        <v>337500</v>
       </c>
       <c r="E42" s="3">
-        <v>985000</v>
+        <v>941700</v>
       </c>
       <c r="F42" s="3">
-        <v>604800</v>
+        <v>578100</v>
       </c>
       <c r="G42" s="3">
-        <v>558400</v>
+        <v>533800</v>
       </c>
       <c r="H42" s="3">
-        <v>502400</v>
+        <v>480300</v>
       </c>
       <c r="I42" s="3">
-        <v>552900</v>
+        <v>528600</v>
       </c>
       <c r="J42" s="3">
-        <v>157200</v>
+        <v>150300</v>
       </c>
       <c r="K42" s="3">
         <v>257400</v>
@@ -1904,25 +1904,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1159000</v>
+        <v>1108000</v>
       </c>
       <c r="E43" s="3">
-        <v>1044500</v>
+        <v>998500</v>
       </c>
       <c r="F43" s="3">
-        <v>1088100</v>
+        <v>1040200</v>
       </c>
       <c r="G43" s="3">
-        <v>1055400</v>
+        <v>1009000</v>
       </c>
       <c r="H43" s="3">
-        <v>1806800</v>
+        <v>1727300</v>
       </c>
       <c r="I43" s="3">
-        <v>1603700</v>
+        <v>1533200</v>
       </c>
       <c r="J43" s="3">
-        <v>749200</v>
+        <v>716300</v>
       </c>
       <c r="K43" s="3">
         <v>578600</v>
@@ -1943,25 +1943,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>766900</v>
+        <v>733200</v>
       </c>
       <c r="E44" s="3">
-        <v>752700</v>
+        <v>719600</v>
       </c>
       <c r="F44" s="3">
-        <v>727100</v>
+        <v>695100</v>
       </c>
       <c r="G44" s="3">
-        <v>656500</v>
+        <v>627600</v>
       </c>
       <c r="H44" s="3">
-        <v>687600</v>
+        <v>657400</v>
       </c>
       <c r="I44" s="3">
-        <v>1084700</v>
+        <v>1037000</v>
       </c>
       <c r="J44" s="3">
-        <v>488300</v>
+        <v>466800</v>
       </c>
       <c r="K44" s="3">
         <v>687300</v>
@@ -1982,25 +1982,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2172100</v>
+        <v>2076500</v>
       </c>
       <c r="E45" s="3">
-        <v>119600</v>
+        <v>114300</v>
       </c>
       <c r="F45" s="3">
-        <v>112900</v>
+        <v>107900</v>
       </c>
       <c r="G45" s="3">
-        <v>131500</v>
+        <v>125700</v>
       </c>
       <c r="H45" s="3">
-        <v>118600</v>
+        <v>113400</v>
       </c>
       <c r="I45" s="3">
-        <v>112000</v>
+        <v>107100</v>
       </c>
       <c r="J45" s="3">
-        <v>15900</v>
+        <v>15200</v>
       </c>
       <c r="K45" s="3">
         <v>12000</v>
@@ -2021,25 +2021,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4897200</v>
+        <v>4681800</v>
       </c>
       <c r="E46" s="3">
-        <v>3422600</v>
+        <v>3272000</v>
       </c>
       <c r="F46" s="3">
-        <v>2946900</v>
+        <v>2817200</v>
       </c>
       <c r="G46" s="3">
-        <v>3172600</v>
+        <v>3033000</v>
       </c>
       <c r="H46" s="3">
-        <v>3031400</v>
+        <v>2898000</v>
       </c>
       <c r="I46" s="3">
-        <v>2615800</v>
+        <v>2500700</v>
       </c>
       <c r="J46" s="3">
-        <v>1939700</v>
+        <v>1854300</v>
       </c>
       <c r="K46" s="3">
         <v>1696400</v>
@@ -2060,25 +2060,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>722800</v>
+        <v>691000</v>
       </c>
       <c r="E47" s="3">
-        <v>664500</v>
+        <v>635200</v>
       </c>
       <c r="F47" s="3">
-        <v>388000</v>
+        <v>371000</v>
       </c>
       <c r="G47" s="3">
-        <v>316200</v>
+        <v>302300</v>
       </c>
       <c r="H47" s="3">
-        <v>173400</v>
+        <v>165800</v>
       </c>
       <c r="I47" s="3">
-        <v>111500</v>
+        <v>106600</v>
       </c>
       <c r="J47" s="3">
-        <v>171300</v>
+        <v>163800</v>
       </c>
       <c r="K47" s="3">
         <v>89700</v>
@@ -2099,25 +2099,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1406300</v>
+        <v>1344400</v>
       </c>
       <c r="E48" s="3">
-        <v>1987600</v>
+        <v>1900100</v>
       </c>
       <c r="F48" s="3">
-        <v>1869700</v>
+        <v>1787400</v>
       </c>
       <c r="G48" s="3">
-        <v>1424500</v>
+        <v>1361800</v>
       </c>
       <c r="H48" s="3">
-        <v>2597400</v>
+        <v>2483100</v>
       </c>
       <c r="I48" s="3">
-        <v>2267100</v>
+        <v>2167300</v>
       </c>
       <c r="J48" s="3">
-        <v>1064400</v>
+        <v>1017600</v>
       </c>
       <c r="K48" s="3">
         <v>909000</v>
@@ -2138,25 +2138,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>287900</v>
+        <v>275300</v>
       </c>
       <c r="E49" s="3">
-        <v>348900</v>
+        <v>333500</v>
       </c>
       <c r="F49" s="3">
-        <v>344900</v>
+        <v>329800</v>
       </c>
       <c r="G49" s="3">
-        <v>463700</v>
+        <v>443300</v>
       </c>
       <c r="H49" s="3">
-        <v>861200</v>
+        <v>823300</v>
       </c>
       <c r="I49" s="3">
-        <v>1030000</v>
+        <v>984700</v>
       </c>
       <c r="J49" s="3">
-        <v>644600</v>
+        <v>616300</v>
       </c>
       <c r="K49" s="3">
         <v>563800</v>
@@ -2255,25 +2255,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>320000</v>
+        <v>306000</v>
       </c>
       <c r="E52" s="3">
-        <v>670600</v>
+        <v>641100</v>
       </c>
       <c r="F52" s="3">
-        <v>555500</v>
+        <v>531000</v>
       </c>
       <c r="G52" s="3">
-        <v>591700</v>
+        <v>565700</v>
       </c>
       <c r="H52" s="3">
-        <v>593400</v>
+        <v>567300</v>
       </c>
       <c r="I52" s="3">
-        <v>479600</v>
+        <v>458500</v>
       </c>
       <c r="J52" s="3">
-        <v>233600</v>
+        <v>223300</v>
       </c>
       <c r="K52" s="3">
         <v>203500</v>
@@ -2333,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7634300</v>
+        <v>7298400</v>
       </c>
       <c r="E54" s="3">
-        <v>7094200</v>
+        <v>6782000</v>
       </c>
       <c r="F54" s="3">
-        <v>6105000</v>
+        <v>5836400</v>
       </c>
       <c r="G54" s="3">
-        <v>5968700</v>
+        <v>5706100</v>
       </c>
       <c r="H54" s="3">
-        <v>5535200</v>
+        <v>5291700</v>
       </c>
       <c r="I54" s="3">
-        <v>4711400</v>
+        <v>4504100</v>
       </c>
       <c r="J54" s="3">
-        <v>4053500</v>
+        <v>3875200</v>
       </c>
       <c r="K54" s="3">
         <v>3450700</v>
@@ -2406,25 +2406,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1133100</v>
+        <v>1083200</v>
       </c>
       <c r="E57" s="3">
-        <v>790800</v>
+        <v>756000</v>
       </c>
       <c r="F57" s="3">
-        <v>528400</v>
+        <v>505200</v>
       </c>
       <c r="G57" s="3">
-        <v>534600</v>
+        <v>511100</v>
       </c>
       <c r="H57" s="3">
-        <v>421800</v>
+        <v>403300</v>
       </c>
       <c r="I57" s="3">
-        <v>334600</v>
+        <v>319900</v>
       </c>
       <c r="J57" s="3">
-        <v>285800</v>
+        <v>273300</v>
       </c>
       <c r="K57" s="3">
         <v>456800</v>
@@ -2445,25 +2445,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>597800</v>
+        <v>571500</v>
       </c>
       <c r="E58" s="3">
-        <v>688100</v>
+        <v>657800</v>
       </c>
       <c r="F58" s="3">
-        <v>259100</v>
+        <v>247700</v>
       </c>
       <c r="G58" s="3">
-        <v>445000</v>
+        <v>425400</v>
       </c>
       <c r="H58" s="3">
-        <v>685700</v>
+        <v>655500</v>
       </c>
       <c r="I58" s="3">
-        <v>484500</v>
+        <v>463200</v>
       </c>
       <c r="J58" s="3">
-        <v>214900</v>
+        <v>205400</v>
       </c>
       <c r="K58" s="3">
         <v>614500</v>
@@ -2484,25 +2484,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>742800</v>
+        <v>710100</v>
       </c>
       <c r="E59" s="3">
-        <v>329600</v>
+        <v>315100</v>
       </c>
       <c r="F59" s="3">
-        <v>229200</v>
+        <v>219100</v>
       </c>
       <c r="G59" s="3">
-        <v>260500</v>
+        <v>249000</v>
       </c>
       <c r="H59" s="3">
-        <v>264300</v>
+        <v>252700</v>
       </c>
       <c r="I59" s="3">
-        <v>254200</v>
+        <v>243000</v>
       </c>
       <c r="J59" s="3">
-        <v>249500</v>
+        <v>238500</v>
       </c>
       <c r="K59" s="3">
         <v>197200</v>
@@ -2523,25 +2523,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2473700</v>
+        <v>2364900</v>
       </c>
       <c r="E60" s="3">
-        <v>1808400</v>
+        <v>1728900</v>
       </c>
       <c r="F60" s="3">
-        <v>1016700</v>
+        <v>971900</v>
       </c>
       <c r="G60" s="3">
-        <v>1240100</v>
+        <v>1185600</v>
       </c>
       <c r="H60" s="3">
-        <v>1371800</v>
+        <v>1311400</v>
       </c>
       <c r="I60" s="3">
-        <v>1073300</v>
+        <v>1026100</v>
       </c>
       <c r="J60" s="3">
-        <v>750200</v>
+        <v>717200</v>
       </c>
       <c r="K60" s="3">
         <v>1016200</v>
@@ -2562,25 +2562,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2871100</v>
+        <v>2744800</v>
       </c>
       <c r="E61" s="3">
-        <v>3071200</v>
+        <v>2936100</v>
       </c>
       <c r="F61" s="3">
-        <v>2868500</v>
+        <v>2742300</v>
       </c>
       <c r="G61" s="3">
-        <v>2530800</v>
+        <v>2419500</v>
       </c>
       <c r="H61" s="3">
-        <v>1974000</v>
+        <v>1887200</v>
       </c>
       <c r="I61" s="3">
-        <v>1749900</v>
+        <v>1672900</v>
       </c>
       <c r="J61" s="3">
-        <v>1527200</v>
+        <v>1460000</v>
       </c>
       <c r="K61" s="3">
         <v>880600</v>
@@ -2601,25 +2601,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>240700</v>
+        <v>230100</v>
       </c>
       <c r="E62" s="3">
-        <v>275100</v>
+        <v>263000</v>
       </c>
       <c r="F62" s="3">
-        <v>295100</v>
+        <v>282100</v>
       </c>
       <c r="G62" s="3">
-        <v>279900</v>
+        <v>267600</v>
       </c>
       <c r="H62" s="3">
-        <v>306000</v>
+        <v>292600</v>
       </c>
       <c r="I62" s="3">
-        <v>229500</v>
+        <v>219400</v>
       </c>
       <c r="J62" s="3">
-        <v>237600</v>
+        <v>227100</v>
       </c>
       <c r="K62" s="3">
         <v>191000</v>
@@ -2757,25 +2757,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5664200</v>
+        <v>5415000</v>
       </c>
       <c r="E66" s="3">
-        <v>5228400</v>
+        <v>4998400</v>
       </c>
       <c r="F66" s="3">
-        <v>4254000</v>
+        <v>4066800</v>
       </c>
       <c r="G66" s="3">
-        <v>4119700</v>
+        <v>3938500</v>
       </c>
       <c r="H66" s="3">
-        <v>3725800</v>
+        <v>3561800</v>
       </c>
       <c r="I66" s="3">
-        <v>3058700</v>
+        <v>2924100</v>
       </c>
       <c r="J66" s="3">
-        <v>2498700</v>
+        <v>2388800</v>
       </c>
       <c r="K66" s="3">
         <v>2076500</v>
@@ -2969,25 +2969,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1076600</v>
+        <v>1029200</v>
       </c>
       <c r="E72" s="3">
-        <v>995000</v>
+        <v>951300</v>
       </c>
       <c r="F72" s="3">
-        <v>942400</v>
+        <v>901000</v>
       </c>
       <c r="G72" s="3">
-        <v>931500</v>
+        <v>890500</v>
       </c>
       <c r="H72" s="3">
-        <v>958800</v>
+        <v>916600</v>
       </c>
       <c r="I72" s="3">
-        <v>1107400</v>
+        <v>1058700</v>
       </c>
       <c r="J72" s="3">
-        <v>882900</v>
+        <v>844000</v>
       </c>
       <c r="K72" s="3">
         <v>698400</v>
@@ -3125,25 +3125,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1970100</v>
+        <v>1883400</v>
       </c>
       <c r="E76" s="3">
-        <v>1865800</v>
+        <v>1783700</v>
       </c>
       <c r="F76" s="3">
-        <v>1851000</v>
+        <v>1769500</v>
       </c>
       <c r="G76" s="3">
-        <v>1849000</v>
+        <v>1767600</v>
       </c>
       <c r="H76" s="3">
-        <v>1809500</v>
+        <v>1729900</v>
       </c>
       <c r="I76" s="3">
-        <v>1652700</v>
+        <v>1580000</v>
       </c>
       <c r="J76" s="3">
-        <v>1554800</v>
+        <v>1486400</v>
       </c>
       <c r="K76" s="3">
         <v>1374200</v>
@@ -3247,25 +3247,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>166400</v>
+        <v>159100</v>
       </c>
       <c r="E81" s="3">
-        <v>174800</v>
+        <v>167100</v>
       </c>
       <c r="F81" s="3">
-        <v>73100</v>
+        <v>69900</v>
       </c>
       <c r="G81" s="3">
-        <v>225100</v>
+        <v>215200</v>
       </c>
       <c r="H81" s="3">
-        <v>298700</v>
+        <v>285600</v>
       </c>
       <c r="I81" s="3">
-        <v>305600</v>
+        <v>292200</v>
       </c>
       <c r="J81" s="3">
-        <v>294200</v>
+        <v>281300</v>
       </c>
       <c r="K81" s="3">
         <v>221600</v>
@@ -3303,25 +3303,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>178800</v>
+        <v>171000</v>
       </c>
       <c r="E83" s="3">
-        <v>248000</v>
+        <v>237100</v>
       </c>
       <c r="F83" s="3">
-        <v>224000</v>
+        <v>214200</v>
       </c>
       <c r="G83" s="3">
-        <v>159000</v>
+        <v>152000</v>
       </c>
       <c r="H83" s="3">
-        <v>137900</v>
+        <v>131800</v>
       </c>
       <c r="I83" s="3">
-        <v>216000</v>
+        <v>206500</v>
       </c>
       <c r="J83" s="3">
-        <v>196200</v>
+        <v>187600</v>
       </c>
       <c r="K83" s="3">
         <v>158500</v>
@@ -3537,25 +3537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>506100</v>
+        <v>483800</v>
       </c>
       <c r="E89" s="3">
-        <v>614100</v>
+        <v>587100</v>
       </c>
       <c r="F89" s="3">
-        <v>572400</v>
+        <v>547200</v>
       </c>
       <c r="G89" s="3">
-        <v>565400</v>
+        <v>540500</v>
       </c>
       <c r="H89" s="3">
-        <v>340300</v>
+        <v>325400</v>
       </c>
       <c r="I89" s="3">
-        <v>491900</v>
+        <v>470300</v>
       </c>
       <c r="J89" s="3">
-        <v>626600</v>
+        <v>599000</v>
       </c>
       <c r="K89" s="3">
         <v>473200</v>
@@ -3593,25 +3593,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-201300</v>
+        <v>-192400</v>
       </c>
       <c r="E91" s="3">
-        <v>-189000</v>
+        <v>-180700</v>
       </c>
       <c r="F91" s="3">
-        <v>-199600</v>
+        <v>-190800</v>
       </c>
       <c r="G91" s="3">
-        <v>-230600</v>
+        <v>-220500</v>
       </c>
       <c r="H91" s="3">
-        <v>-254800</v>
+        <v>-243600</v>
       </c>
       <c r="I91" s="3">
-        <v>-198700</v>
+        <v>-189900</v>
       </c>
       <c r="J91" s="3">
-        <v>-157200</v>
+        <v>-150300</v>
       </c>
       <c r="K91" s="3">
         <v>-126000</v>
@@ -3710,25 +3710,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>141700</v>
+        <v>135500</v>
       </c>
       <c r="E94" s="3">
-        <v>-418100</v>
+        <v>-399700</v>
       </c>
       <c r="F94" s="3">
-        <v>-359200</v>
+        <v>-343400</v>
       </c>
       <c r="G94" s="3">
-        <v>-621900</v>
+        <v>-594500</v>
       </c>
       <c r="H94" s="3">
-        <v>-268500</v>
+        <v>-256600</v>
       </c>
       <c r="I94" s="3">
-        <v>-361800</v>
+        <v>-345900</v>
       </c>
       <c r="J94" s="3">
-        <v>-156900</v>
+        <v>-150000</v>
       </c>
       <c r="K94" s="3">
         <v>-275000</v>
@@ -3766,25 +3766,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-138100</v>
+        <v>-132000</v>
       </c>
       <c r="E96" s="3">
-        <v>-55700</v>
+        <v>-53300</v>
       </c>
       <c r="F96" s="3">
-        <v>-116700</v>
+        <v>-111600</v>
       </c>
       <c r="G96" s="3">
-        <v>-158200</v>
+        <v>-151300</v>
       </c>
       <c r="H96" s="3">
-        <v>-184000</v>
+        <v>-175900</v>
       </c>
       <c r="I96" s="3">
-        <v>-170900</v>
+        <v>-163400</v>
       </c>
       <c r="J96" s="3">
-        <v>-162800</v>
+        <v>-155600</v>
       </c>
       <c r="K96" s="3">
         <v>-139800</v>
@@ -3922,25 +3922,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-656700</v>
+        <v>-627800</v>
       </c>
       <c r="E100" s="3">
-        <v>-115900</v>
+        <v>-110800</v>
       </c>
       <c r="F100" s="3">
-        <v>-571900</v>
+        <v>-546700</v>
       </c>
       <c r="G100" s="3">
-        <v>-156800</v>
+        <v>-149900</v>
       </c>
       <c r="H100" s="3">
-        <v>66600</v>
+        <v>63700</v>
       </c>
       <c r="I100" s="3">
-        <v>181700</v>
+        <v>173700</v>
       </c>
       <c r="J100" s="3">
-        <v>-493300</v>
+        <v>-471600</v>
       </c>
       <c r="K100" s="3">
         <v>-96300</v>
@@ -3961,22 +3961,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10200</v>
+        <v>9700</v>
       </c>
       <c r="E101" s="3">
-        <v>26800</v>
+        <v>25600</v>
       </c>
       <c r="F101" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G101" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="H101" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="I101" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="J101" s="3">
         <v>-700</v>
@@ -4000,25 +4000,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E102" s="3">
-        <v>106900</v>
+        <v>102200</v>
       </c>
       <c r="F102" s="3">
-        <v>-356900</v>
+        <v>-341200</v>
       </c>
       <c r="G102" s="3">
-        <v>-208000</v>
+        <v>-198900</v>
       </c>
       <c r="H102" s="3">
-        <v>142400</v>
+        <v>136200</v>
       </c>
       <c r="I102" s="3">
-        <v>307500</v>
+        <v>294000</v>
       </c>
       <c r="J102" s="3">
-        <v>-24400</v>
+        <v>-23300</v>
       </c>
       <c r="K102" s="3">
         <v>98400</v>

--- a/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>UGP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,191 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20529900</v>
+        <v>27812000</v>
       </c>
       <c r="E8" s="3">
-        <v>13855500</v>
+        <v>21247600</v>
       </c>
       <c r="F8" s="3">
-        <v>16706800</v>
+        <v>14339900</v>
       </c>
       <c r="G8" s="3">
-        <v>16968700</v>
+        <v>17290800</v>
       </c>
       <c r="H8" s="3">
-        <v>14823100</v>
+        <v>17561900</v>
       </c>
       <c r="I8" s="3">
-        <v>14472000</v>
+        <v>15341300</v>
       </c>
       <c r="J8" s="3">
+        <v>14977900</v>
+      </c>
+      <c r="K8" s="3">
         <v>14154300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12092300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11403700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12579500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12063800</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19612300</v>
+        <v>26387200</v>
       </c>
       <c r="E9" s="3">
-        <v>27256100</v>
+        <v>20297800</v>
       </c>
       <c r="F9" s="3">
-        <v>15563500</v>
+        <v>28208900</v>
       </c>
       <c r="G9" s="3">
-        <v>15816100</v>
+        <v>16107500</v>
       </c>
       <c r="H9" s="3">
-        <v>13551200</v>
+        <v>16369000</v>
       </c>
       <c r="I9" s="3">
-        <v>13160400</v>
+        <v>14024900</v>
       </c>
       <c r="J9" s="3">
+        <v>13620500</v>
+      </c>
+      <c r="K9" s="3">
         <v>12896800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11122600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>21020500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11621900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11194400</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>917700</v>
+        <v>1424800</v>
       </c>
       <c r="E10" s="3">
-        <v>-13400600</v>
+        <v>949700</v>
       </c>
       <c r="F10" s="3">
-        <v>1143300</v>
+        <v>-13869100</v>
       </c>
       <c r="G10" s="3">
-        <v>1152600</v>
+        <v>1183200</v>
       </c>
       <c r="H10" s="3">
-        <v>1271900</v>
+        <v>1192900</v>
       </c>
       <c r="I10" s="3">
-        <v>1311500</v>
+        <v>1316400</v>
       </c>
       <c r="J10" s="3">
+        <v>1357400</v>
+      </c>
+      <c r="K10" s="3">
         <v>1257500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>969700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-9616700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>957600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>869400</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,22 +865,23 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3">
+        <v>12300</v>
+      </c>
+      <c r="G12" s="3">
         <v>11900</v>
-      </c>
-      <c r="F12" s="3">
-        <v>11500</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>8</v>
@@ -891,9 +904,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,23 +946,26 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-39900</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>-25500</v>
+        <v>-41300</v>
       </c>
       <c r="F14" s="3">
-        <v>111000</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>-26400</v>
+      </c>
+      <c r="G14" s="3">
+        <v>114900</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -963,54 +982,60 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
-        <v>146300</v>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F15" s="3">
-        <v>130100</v>
+        <v>151500</v>
       </c>
       <c r="G15" s="3">
-        <v>15800</v>
+        <v>134700</v>
       </c>
       <c r="H15" s="3">
-        <v>12900</v>
+        <v>16300</v>
       </c>
       <c r="I15" s="3">
-        <v>101100</v>
-      </c>
-      <c r="J15" s="3" t="s">
+        <v>13400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>104600</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>72700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>61600</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1023,86 +1048,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20198900</v>
+        <v>27163500</v>
       </c>
       <c r="E17" s="3">
-        <v>13574500</v>
+        <v>20905000</v>
       </c>
       <c r="F17" s="3">
-        <v>16465700</v>
+        <v>14049000</v>
       </c>
       <c r="G17" s="3">
-        <v>16616100</v>
+        <v>17041300</v>
       </c>
       <c r="H17" s="3">
-        <v>14296800</v>
+        <v>17196900</v>
       </c>
       <c r="I17" s="3">
-        <v>13889500</v>
+        <v>14796500</v>
       </c>
       <c r="J17" s="3">
+        <v>14375000</v>
+      </c>
+      <c r="K17" s="3">
         <v>13602300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11684100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11002500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12180600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11702700</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>331000</v>
+        <v>648500</v>
       </c>
       <c r="E18" s="3">
-        <v>281000</v>
+        <v>342600</v>
       </c>
       <c r="F18" s="3">
-        <v>241000</v>
+        <v>290800</v>
       </c>
       <c r="G18" s="3">
-        <v>352600</v>
+        <v>249500</v>
       </c>
       <c r="H18" s="3">
-        <v>526400</v>
+        <v>364900</v>
       </c>
       <c r="I18" s="3">
-        <v>582400</v>
+        <v>544800</v>
       </c>
       <c r="J18" s="3">
+        <v>602800</v>
+      </c>
+      <c r="K18" s="3">
         <v>552000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>408200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>401200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>398800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>361100</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1118,203 +1150,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>12200</v>
+        <v>24000</v>
       </c>
       <c r="E20" s="3">
-        <v>40800</v>
+        <v>12600</v>
       </c>
       <c r="F20" s="3">
-        <v>93100</v>
+        <v>42200</v>
       </c>
       <c r="G20" s="3">
-        <v>144300</v>
+        <v>96300</v>
       </c>
       <c r="H20" s="3">
-        <v>110000</v>
+        <v>149300</v>
       </c>
       <c r="I20" s="3">
-        <v>59300</v>
+        <v>113800</v>
       </c>
       <c r="J20" s="3">
+        <v>61300</v>
+      </c>
+      <c r="K20" s="3">
         <v>51600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>47700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>26600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>48200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>71800</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>519400</v>
+        <v>870900</v>
       </c>
       <c r="E21" s="3">
-        <v>566100</v>
+        <v>532800</v>
       </c>
       <c r="F21" s="3">
-        <v>554800</v>
+        <v>579300</v>
       </c>
       <c r="G21" s="3">
-        <v>653500</v>
+        <v>568300</v>
       </c>
       <c r="H21" s="3">
-        <v>772200</v>
+        <v>672100</v>
       </c>
       <c r="I21" s="3">
-        <v>854500</v>
+        <v>795500</v>
       </c>
       <c r="J21" s="3">
+        <v>878600</v>
+      </c>
+      <c r="K21" s="3">
         <v>796900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>614200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>573800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>610700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>574700</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>154900</v>
+        <v>308500</v>
       </c>
       <c r="E22" s="3">
-        <v>143700</v>
+        <v>160300</v>
       </c>
       <c r="F22" s="3">
-        <v>187900</v>
+        <v>148800</v>
       </c>
       <c r="G22" s="3">
-        <v>165500</v>
+        <v>194500</v>
       </c>
       <c r="H22" s="3">
-        <v>198700</v>
+        <v>171300</v>
       </c>
       <c r="I22" s="3">
-        <v>216900</v>
+        <v>205700</v>
       </c>
       <c r="J22" s="3">
+        <v>224500</v>
+      </c>
+      <c r="K22" s="3">
         <v>183200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>130100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>90700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>108900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>144700</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>188300</v>
+        <v>364000</v>
       </c>
       <c r="E23" s="3">
-        <v>178000</v>
+        <v>194900</v>
       </c>
       <c r="F23" s="3">
-        <v>146200</v>
+        <v>184300</v>
       </c>
       <c r="G23" s="3">
-        <v>331300</v>
+        <v>151300</v>
       </c>
       <c r="H23" s="3">
-        <v>437600</v>
+        <v>342900</v>
       </c>
       <c r="I23" s="3">
-        <v>424800</v>
+        <v>452900</v>
       </c>
       <c r="J23" s="3">
+        <v>439700</v>
+      </c>
+      <c r="K23" s="3">
         <v>420400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>325700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>337100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>338100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>288300</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>35200</v>
+        <v>66100</v>
       </c>
       <c r="E24" s="3">
-        <v>57000</v>
+        <v>36400</v>
       </c>
       <c r="F24" s="3">
-        <v>70800</v>
+        <v>59000</v>
       </c>
       <c r="G24" s="3">
-        <v>119500</v>
+        <v>73300</v>
       </c>
       <c r="H24" s="3">
-        <v>152200</v>
+        <v>123700</v>
       </c>
       <c r="I24" s="3">
-        <v>131000</v>
+        <v>157500</v>
       </c>
       <c r="J24" s="3">
+        <v>135500</v>
+      </c>
+      <c r="K24" s="3">
         <v>137400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>102400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>107200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>98400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>74800</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1351,87 +1399,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>153200</v>
+        <v>297800</v>
       </c>
       <c r="E26" s="3">
-        <v>121100</v>
+        <v>158500</v>
       </c>
       <c r="F26" s="3">
-        <v>75400</v>
+        <v>125300</v>
       </c>
       <c r="G26" s="3">
-        <v>211800</v>
+        <v>78000</v>
       </c>
       <c r="H26" s="3">
-        <v>285500</v>
+        <v>219300</v>
       </c>
       <c r="I26" s="3">
-        <v>293800</v>
+        <v>295500</v>
       </c>
       <c r="J26" s="3">
+        <v>304100</v>
+      </c>
+      <c r="K26" s="3">
         <v>283100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>223400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>229900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>239800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>213400</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>146900</v>
+        <v>290200</v>
       </c>
       <c r="E27" s="3">
-        <v>114600</v>
+        <v>152000</v>
       </c>
       <c r="F27" s="3">
-        <v>69900</v>
+        <v>118600</v>
       </c>
       <c r="G27" s="3">
-        <v>215200</v>
+        <v>72300</v>
       </c>
       <c r="H27" s="3">
-        <v>285600</v>
+        <v>222800</v>
       </c>
       <c r="I27" s="3">
-        <v>292200</v>
+        <v>295600</v>
       </c>
       <c r="J27" s="3">
+        <v>302400</v>
+      </c>
+      <c r="K27" s="3">
         <v>281300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>221600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>229300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>238200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>211900</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1468,20 +1525,23 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>12200</v>
+        <v>58400</v>
       </c>
       <c r="E29" s="3">
-        <v>52500</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+        <v>12600</v>
+      </c>
+      <c r="F29" s="3">
+        <v>54300</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1495,8 +1555,8 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1507,9 +1567,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1546,9 +1609,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1585,87 +1651,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-12200</v>
+        <v>-24000</v>
       </c>
       <c r="E32" s="3">
-        <v>-40800</v>
+        <v>-12600</v>
       </c>
       <c r="F32" s="3">
-        <v>-93100</v>
+        <v>-42200</v>
       </c>
       <c r="G32" s="3">
-        <v>-144300</v>
+        <v>-96300</v>
       </c>
       <c r="H32" s="3">
-        <v>-110000</v>
+        <v>-149300</v>
       </c>
       <c r="I32" s="3">
-        <v>-59300</v>
+        <v>-113800</v>
       </c>
       <c r="J32" s="3">
+        <v>-61300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-51600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-47700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-26600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-48200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-71800</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>159100</v>
+        <v>348700</v>
       </c>
       <c r="E33" s="3">
-        <v>167100</v>
+        <v>164700</v>
       </c>
       <c r="F33" s="3">
-        <v>69900</v>
+        <v>173000</v>
       </c>
       <c r="G33" s="3">
-        <v>215200</v>
+        <v>72300</v>
       </c>
       <c r="H33" s="3">
-        <v>285600</v>
+        <v>222800</v>
       </c>
       <c r="I33" s="3">
-        <v>292200</v>
+        <v>295600</v>
       </c>
       <c r="J33" s="3">
+        <v>302400</v>
+      </c>
+      <c r="K33" s="3">
         <v>281300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>221600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>229300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>238200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>211900</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1702,92 +1777,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>159100</v>
+        <v>348700</v>
       </c>
       <c r="E35" s="3">
-        <v>167100</v>
+        <v>164700</v>
       </c>
       <c r="F35" s="3">
-        <v>69900</v>
+        <v>173000</v>
       </c>
       <c r="G35" s="3">
-        <v>215200</v>
+        <v>72300</v>
       </c>
       <c r="H35" s="3">
-        <v>285600</v>
+        <v>222800</v>
       </c>
       <c r="I35" s="3">
-        <v>292200</v>
+        <v>295600</v>
       </c>
       <c r="J35" s="3">
+        <v>302400</v>
+      </c>
+      <c r="K35" s="3">
         <v>281300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>221600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>229300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>238200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>211900</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1803,8 +1887,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1820,359 +1905,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>426600</v>
+        <v>1088500</v>
       </c>
       <c r="E41" s="3">
-        <v>497900</v>
+        <v>441500</v>
       </c>
       <c r="F41" s="3">
-        <v>395800</v>
+        <v>515300</v>
       </c>
       <c r="G41" s="3">
-        <v>736900</v>
+        <v>409600</v>
       </c>
       <c r="H41" s="3">
-        <v>935800</v>
+        <v>762700</v>
       </c>
       <c r="I41" s="3">
-        <v>1599300</v>
+        <v>968500</v>
       </c>
       <c r="J41" s="3">
+        <v>1655200</v>
+      </c>
+      <c r="K41" s="3">
         <v>505700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1009500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>425900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>472000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>26700</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>337500</v>
+        <v>100800</v>
       </c>
       <c r="E42" s="3">
-        <v>941700</v>
+        <v>349300</v>
       </c>
       <c r="F42" s="3">
-        <v>578100</v>
+        <v>974600</v>
       </c>
       <c r="G42" s="3">
-        <v>533800</v>
+        <v>598400</v>
       </c>
       <c r="H42" s="3">
-        <v>480300</v>
+        <v>552400</v>
       </c>
       <c r="I42" s="3">
-        <v>528600</v>
+        <v>497000</v>
       </c>
       <c r="J42" s="3">
+        <v>547000</v>
+      </c>
+      <c r="K42" s="3">
         <v>150300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>257400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>215000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>684500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>645100</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1108000</v>
+        <v>1431400</v>
       </c>
       <c r="E43" s="3">
-        <v>998500</v>
+        <v>1146700</v>
       </c>
       <c r="F43" s="3">
-        <v>1040200</v>
+        <v>1033400</v>
       </c>
       <c r="G43" s="3">
-        <v>1009000</v>
+        <v>1076600</v>
       </c>
       <c r="H43" s="3">
-        <v>1727300</v>
+        <v>1044300</v>
       </c>
       <c r="I43" s="3">
-        <v>1533200</v>
+        <v>1787700</v>
       </c>
       <c r="J43" s="3">
+        <v>1586800</v>
+      </c>
+      <c r="K43" s="3">
         <v>716300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>578600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>527900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>655300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>624500</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>733200</v>
+        <v>950000</v>
       </c>
       <c r="E44" s="3">
-        <v>719600</v>
+        <v>758800</v>
       </c>
       <c r="F44" s="3">
-        <v>695100</v>
+        <v>744700</v>
       </c>
       <c r="G44" s="3">
-        <v>627600</v>
+        <v>719400</v>
       </c>
       <c r="H44" s="3">
-        <v>657400</v>
+        <v>649500</v>
       </c>
       <c r="I44" s="3">
-        <v>1037000</v>
+        <v>680400</v>
       </c>
       <c r="J44" s="3">
+        <v>1073200</v>
+      </c>
+      <c r="K44" s="3">
         <v>466800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>687300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>298000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>301400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>302900</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2076500</v>
+        <v>24000</v>
       </c>
       <c r="E45" s="3">
-        <v>114300</v>
+        <v>2149100</v>
       </c>
       <c r="F45" s="3">
-        <v>107900</v>
+        <v>118300</v>
       </c>
       <c r="G45" s="3">
-        <v>125700</v>
+        <v>111700</v>
       </c>
       <c r="H45" s="3">
-        <v>113400</v>
+        <v>130100</v>
       </c>
       <c r="I45" s="3">
-        <v>107100</v>
+        <v>117400</v>
       </c>
       <c r="J45" s="3">
+        <v>110800</v>
+      </c>
+      <c r="K45" s="3">
         <v>15200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>29900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>32100</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4681800</v>
+        <v>3594700</v>
       </c>
       <c r="E46" s="3">
-        <v>3272000</v>
+        <v>4845400</v>
       </c>
       <c r="F46" s="3">
-        <v>2817200</v>
+        <v>3386400</v>
       </c>
       <c r="G46" s="3">
-        <v>3033000</v>
+        <v>2915700</v>
       </c>
       <c r="H46" s="3">
-        <v>2898000</v>
+        <v>3139100</v>
       </c>
       <c r="I46" s="3">
-        <v>2500700</v>
+        <v>2999400</v>
       </c>
       <c r="J46" s="3">
+        <v>2588100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1854300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1696400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1479100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1665700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1631200</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>691000</v>
+        <v>1211800</v>
       </c>
       <c r="E47" s="3">
-        <v>635200</v>
+        <v>715200</v>
       </c>
       <c r="F47" s="3">
-        <v>371000</v>
+        <v>657500</v>
       </c>
       <c r="G47" s="3">
-        <v>302300</v>
+        <v>383900</v>
       </c>
       <c r="H47" s="3">
-        <v>165800</v>
+        <v>312900</v>
       </c>
       <c r="I47" s="3">
-        <v>106600</v>
+        <v>171600</v>
       </c>
       <c r="J47" s="3">
+        <v>110300</v>
+      </c>
+      <c r="K47" s="3">
         <v>163800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>89700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>68800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>132300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>72000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1344400</v>
+        <v>1482000</v>
       </c>
       <c r="E48" s="3">
-        <v>1900100</v>
+        <v>1391400</v>
       </c>
       <c r="F48" s="3">
-        <v>1787400</v>
+        <v>1966500</v>
       </c>
       <c r="G48" s="3">
-        <v>1361800</v>
+        <v>1849900</v>
       </c>
       <c r="H48" s="3">
-        <v>2483100</v>
+        <v>1409400</v>
       </c>
       <c r="I48" s="3">
-        <v>2167300</v>
+        <v>2569900</v>
       </c>
       <c r="J48" s="3">
+        <v>2243100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1017600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>909000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>909500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>381600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1061500</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>275300</v>
+        <v>371400</v>
       </c>
       <c r="E49" s="3">
-        <v>333500</v>
+        <v>284900</v>
       </c>
       <c r="F49" s="3">
-        <v>329800</v>
+        <v>345200</v>
       </c>
       <c r="G49" s="3">
-        <v>443300</v>
+        <v>341300</v>
       </c>
       <c r="H49" s="3">
-        <v>823300</v>
+        <v>458800</v>
       </c>
       <c r="I49" s="3">
-        <v>984700</v>
+        <v>852100</v>
       </c>
       <c r="J49" s="3">
+        <v>1019100</v>
+      </c>
+      <c r="K49" s="3">
         <v>616300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>563800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>386800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>918600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>381800</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2209,9 +2322,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2248,48 +2364,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>306000</v>
+        <v>396200</v>
       </c>
       <c r="E52" s="3">
-        <v>641100</v>
+        <v>316700</v>
       </c>
       <c r="F52" s="3">
-        <v>531000</v>
+        <v>663500</v>
       </c>
       <c r="G52" s="3">
-        <v>565700</v>
+        <v>549600</v>
       </c>
       <c r="H52" s="3">
-        <v>567300</v>
+        <v>585400</v>
       </c>
       <c r="I52" s="3">
-        <v>458500</v>
+        <v>587100</v>
       </c>
       <c r="J52" s="3">
+        <v>474500</v>
+      </c>
+      <c r="K52" s="3">
         <v>223300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>203500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>203800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>274300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>262700</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2326,48 +2448,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7298400</v>
+        <v>7056100</v>
       </c>
       <c r="E54" s="3">
-        <v>6782000</v>
+        <v>7553600</v>
       </c>
       <c r="F54" s="3">
-        <v>5836400</v>
+        <v>7019100</v>
       </c>
       <c r="G54" s="3">
-        <v>5706100</v>
+        <v>6040400</v>
       </c>
       <c r="H54" s="3">
-        <v>5291700</v>
+        <v>5905600</v>
       </c>
       <c r="I54" s="3">
-        <v>4504100</v>
+        <v>5476700</v>
       </c>
       <c r="J54" s="3">
+        <v>4661500</v>
+      </c>
+      <c r="K54" s="3">
         <v>3875200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3450700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3064900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3561100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3409300</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2383,8 +2511,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2400,242 +2529,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1083200</v>
+        <v>1428600</v>
       </c>
       <c r="E57" s="3">
-        <v>756000</v>
+        <v>1121100</v>
       </c>
       <c r="F57" s="3">
-        <v>505200</v>
+        <v>782400</v>
       </c>
       <c r="G57" s="3">
-        <v>511100</v>
+        <v>522800</v>
       </c>
       <c r="H57" s="3">
-        <v>403300</v>
+        <v>528900</v>
       </c>
       <c r="I57" s="3">
-        <v>319900</v>
+        <v>417400</v>
       </c>
       <c r="J57" s="3">
+        <v>331000</v>
+      </c>
+      <c r="K57" s="3">
         <v>273300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>456800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>181300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>609500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>266700</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>571500</v>
+        <v>694300</v>
       </c>
       <c r="E58" s="3">
-        <v>657800</v>
+        <v>591500</v>
       </c>
       <c r="F58" s="3">
-        <v>247700</v>
+        <v>680800</v>
       </c>
       <c r="G58" s="3">
-        <v>425400</v>
+        <v>256300</v>
       </c>
       <c r="H58" s="3">
-        <v>655500</v>
+        <v>440300</v>
       </c>
       <c r="I58" s="3">
-        <v>463200</v>
+        <v>678400</v>
       </c>
       <c r="J58" s="3">
+        <v>479400</v>
+      </c>
+      <c r="K58" s="3">
         <v>205400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>614500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>342400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>380200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>571800</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>710100</v>
+        <v>349100</v>
       </c>
       <c r="E59" s="3">
-        <v>315100</v>
+        <v>734900</v>
       </c>
       <c r="F59" s="3">
-        <v>219100</v>
+        <v>326100</v>
       </c>
       <c r="G59" s="3">
-        <v>249000</v>
+        <v>226800</v>
       </c>
       <c r="H59" s="3">
-        <v>252700</v>
+        <v>257700</v>
       </c>
       <c r="I59" s="3">
-        <v>243000</v>
+        <v>261500</v>
       </c>
       <c r="J59" s="3">
+        <v>251500</v>
+      </c>
+      <c r="K59" s="3">
         <v>238500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>197200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>180700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>185800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>178000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2364900</v>
+        <v>2471900</v>
       </c>
       <c r="E60" s="3">
-        <v>1728900</v>
+        <v>2447500</v>
       </c>
       <c r="F60" s="3">
-        <v>971900</v>
+        <v>1789300</v>
       </c>
       <c r="G60" s="3">
-        <v>1185600</v>
+        <v>1005900</v>
       </c>
       <c r="H60" s="3">
-        <v>1311400</v>
+        <v>1227000</v>
       </c>
       <c r="I60" s="3">
-        <v>1026100</v>
+        <v>1357300</v>
       </c>
       <c r="J60" s="3">
+        <v>1061900</v>
+      </c>
+      <c r="K60" s="3">
         <v>717200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1016200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>704400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>869000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1016600</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2744800</v>
+        <v>1876000</v>
       </c>
       <c r="E61" s="3">
-        <v>2936100</v>
+        <v>2840800</v>
       </c>
       <c r="F61" s="3">
-        <v>2742300</v>
+        <v>3038700</v>
       </c>
       <c r="G61" s="3">
-        <v>2419500</v>
+        <v>2838100</v>
       </c>
       <c r="H61" s="3">
-        <v>1887200</v>
+        <v>2504100</v>
       </c>
       <c r="I61" s="3">
-        <v>1672900</v>
+        <v>1953100</v>
       </c>
       <c r="J61" s="3">
+        <v>1731300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1460000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>880600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>961800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1071400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>807900</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>230100</v>
+        <v>350700</v>
       </c>
       <c r="E62" s="3">
-        <v>263000</v>
+        <v>238100</v>
       </c>
       <c r="F62" s="3">
-        <v>282100</v>
+        <v>272200</v>
       </c>
       <c r="G62" s="3">
-        <v>267600</v>
+        <v>291900</v>
       </c>
       <c r="H62" s="3">
-        <v>292600</v>
+        <v>277000</v>
       </c>
       <c r="I62" s="3">
-        <v>219400</v>
+        <v>302800</v>
       </c>
       <c r="J62" s="3">
         <v>227100</v>
       </c>
       <c r="K62" s="3">
+        <v>227100</v>
+      </c>
+      <c r="L62" s="3">
         <v>191000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>173600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>218200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>201200</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2672,9 +2820,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2711,9 +2862,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2750,48 +2904,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5415000</v>
+        <v>4788900</v>
       </c>
       <c r="E66" s="3">
-        <v>4998400</v>
+        <v>5604300</v>
       </c>
       <c r="F66" s="3">
-        <v>4066800</v>
+        <v>5173100</v>
       </c>
       <c r="G66" s="3">
-        <v>3938500</v>
+        <v>4209000</v>
       </c>
       <c r="H66" s="3">
-        <v>3561800</v>
+        <v>4076200</v>
       </c>
       <c r="I66" s="3">
-        <v>2924100</v>
+        <v>3686400</v>
       </c>
       <c r="J66" s="3">
+        <v>3026300</v>
+      </c>
+      <c r="K66" s="3">
         <v>2388800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2076500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1844800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2164500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2032200</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2807,8 +2967,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2845,9 +3006,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2884,9 +3048,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2918,14 +3085,17 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>-26800</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>-29300</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2962,48 +3132,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1029200</v>
+        <v>1323800</v>
       </c>
       <c r="E72" s="3">
-        <v>951300</v>
+        <v>1065200</v>
       </c>
       <c r="F72" s="3">
-        <v>901000</v>
+        <v>984500</v>
       </c>
       <c r="G72" s="3">
-        <v>890500</v>
+        <v>932500</v>
       </c>
       <c r="H72" s="3">
-        <v>916600</v>
+        <v>921700</v>
       </c>
       <c r="I72" s="3">
-        <v>1058700</v>
+        <v>948600</v>
       </c>
       <c r="J72" s="3">
+        <v>1095700</v>
+      </c>
+      <c r="K72" s="3">
         <v>844000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>698400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>541700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>560100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>458300</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3040,9 +3216,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3079,9 +3258,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3118,48 +3300,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1883400</v>
+        <v>2267200</v>
       </c>
       <c r="E76" s="3">
-        <v>1783700</v>
+        <v>1949300</v>
       </c>
       <c r="F76" s="3">
-        <v>1769500</v>
+        <v>1846000</v>
       </c>
       <c r="G76" s="3">
-        <v>1767600</v>
+        <v>1831400</v>
       </c>
       <c r="H76" s="3">
-        <v>1729900</v>
+        <v>1829400</v>
       </c>
       <c r="I76" s="3">
-        <v>1580000</v>
+        <v>1790300</v>
       </c>
       <c r="J76" s="3">
+        <v>1635200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1486400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1374200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1220100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1423400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1406400</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3196,92 +3384,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>159100</v>
+        <v>348700</v>
       </c>
       <c r="E81" s="3">
-        <v>167100</v>
+        <v>164700</v>
       </c>
       <c r="F81" s="3">
-        <v>69900</v>
+        <v>173000</v>
       </c>
       <c r="G81" s="3">
-        <v>215200</v>
+        <v>72300</v>
       </c>
       <c r="H81" s="3">
-        <v>285600</v>
+        <v>222800</v>
       </c>
       <c r="I81" s="3">
-        <v>292200</v>
+        <v>295600</v>
       </c>
       <c r="J81" s="3">
+        <v>302400</v>
+      </c>
+      <c r="K81" s="3">
         <v>281300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>221600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>229300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>238200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>211900</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3297,47 +3494,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>171000</v>
+        <v>197600</v>
       </c>
       <c r="E83" s="3">
-        <v>237100</v>
+        <v>176900</v>
       </c>
       <c r="F83" s="3">
-        <v>214200</v>
+        <v>245400</v>
       </c>
       <c r="G83" s="3">
-        <v>152000</v>
+        <v>221600</v>
       </c>
       <c r="H83" s="3">
-        <v>131800</v>
+        <v>157300</v>
       </c>
       <c r="I83" s="3">
-        <v>206500</v>
+        <v>136400</v>
       </c>
       <c r="J83" s="3">
+        <v>213700</v>
+      </c>
+      <c r="K83" s="3">
         <v>187600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>158500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>145800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>161800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>143900</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3374,9 +3575,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3413,9 +3617,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3452,9 +3659,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3491,9 +3701,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3530,48 +3743,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>483800</v>
+        <v>388200</v>
       </c>
       <c r="E89" s="3">
-        <v>587100</v>
+        <v>500700</v>
       </c>
       <c r="F89" s="3">
-        <v>547200</v>
+        <v>607600</v>
       </c>
       <c r="G89" s="3">
-        <v>540500</v>
+        <v>566300</v>
       </c>
       <c r="H89" s="3">
-        <v>325400</v>
+        <v>559400</v>
       </c>
       <c r="I89" s="3">
-        <v>470300</v>
+        <v>336700</v>
       </c>
       <c r="J89" s="3">
+        <v>486700</v>
+      </c>
+      <c r="K89" s="3">
         <v>599000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>473200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>396800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>570600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>424200</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3587,47 +3806,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-192400</v>
+        <v>-179900</v>
       </c>
       <c r="E91" s="3">
-        <v>-180700</v>
+        <v>-199100</v>
       </c>
       <c r="F91" s="3">
-        <v>-190800</v>
+        <v>-187000</v>
       </c>
       <c r="G91" s="3">
-        <v>-220500</v>
+        <v>-197500</v>
       </c>
       <c r="H91" s="3">
-        <v>-243600</v>
+        <v>-228200</v>
       </c>
       <c r="I91" s="3">
-        <v>-189900</v>
+        <v>-252100</v>
       </c>
       <c r="J91" s="3">
+        <v>-196600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-150300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-126000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-123700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-176100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-265800</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3664,9 +3887,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3703,48 +3929,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>135500</v>
+        <v>1530300</v>
       </c>
       <c r="E94" s="3">
-        <v>-399700</v>
+        <v>140200</v>
       </c>
       <c r="F94" s="3">
-        <v>-343400</v>
+        <v>-413700</v>
       </c>
       <c r="G94" s="3">
-        <v>-594500</v>
+        <v>-355400</v>
       </c>
       <c r="H94" s="3">
-        <v>-256600</v>
+        <v>-615300</v>
       </c>
       <c r="I94" s="3">
-        <v>-345900</v>
+        <v>-265600</v>
       </c>
       <c r="J94" s="3">
+        <v>-358000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-150000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-275000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-241000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-365500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-361700</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3760,47 +3992,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-132000</v>
+        <v>-123600</v>
       </c>
       <c r="E96" s="3">
-        <v>-53300</v>
+        <v>-136700</v>
       </c>
       <c r="F96" s="3">
-        <v>-111600</v>
+        <v>-55100</v>
       </c>
       <c r="G96" s="3">
-        <v>-151300</v>
+        <v>-115500</v>
       </c>
       <c r="H96" s="3">
-        <v>-175900</v>
+        <v>-156600</v>
       </c>
       <c r="I96" s="3">
-        <v>-163400</v>
+        <v>-182100</v>
       </c>
       <c r="J96" s="3">
+        <v>-169100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-155600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-139800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-133100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-128100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-124500</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3837,9 +4073,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3876,9 +4115,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3915,124 +4157,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-627800</v>
+        <v>-1338100</v>
       </c>
       <c r="E100" s="3">
-        <v>-110800</v>
+        <v>-649700</v>
       </c>
       <c r="F100" s="3">
-        <v>-546700</v>
+        <v>-114700</v>
       </c>
       <c r="G100" s="3">
-        <v>-149900</v>
+        <v>-565800</v>
       </c>
       <c r="H100" s="3">
-        <v>63700</v>
+        <v>-155100</v>
       </c>
       <c r="I100" s="3">
-        <v>173700</v>
+        <v>65900</v>
       </c>
       <c r="J100" s="3">
+        <v>179800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-471600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-96300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-108300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-145400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-274000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9700</v>
+        <v>-8400</v>
       </c>
       <c r="E101" s="3">
-        <v>25600</v>
+        <v>10100</v>
       </c>
       <c r="F101" s="3">
-        <v>1700</v>
+        <v>26500</v>
       </c>
       <c r="G101" s="3">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="H101" s="3">
-        <v>3800</v>
+        <v>5200</v>
       </c>
       <c r="I101" s="3">
-        <v>-4100</v>
+        <v>3900</v>
       </c>
       <c r="J101" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1200</v>
+        <v>571900</v>
       </c>
       <c r="E102" s="3">
-        <v>102200</v>
+        <v>1300</v>
       </c>
       <c r="F102" s="3">
-        <v>-341200</v>
+        <v>105700</v>
       </c>
       <c r="G102" s="3">
-        <v>-198900</v>
+        <v>-353100</v>
       </c>
       <c r="H102" s="3">
-        <v>136200</v>
+        <v>-205800</v>
       </c>
       <c r="I102" s="3">
-        <v>294000</v>
+        <v>140900</v>
       </c>
       <c r="J102" s="3">
+        <v>304200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-23300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>98400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>47700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>59700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-211200</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
@@ -728,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>27812000</v>
+        <v>28928000</v>
       </c>
       <c r="E8" s="3">
-        <v>21247600</v>
+        <v>22100200</v>
       </c>
       <c r="F8" s="3">
-        <v>14339900</v>
+        <v>14915300</v>
       </c>
       <c r="G8" s="3">
-        <v>17290800</v>
+        <v>17984600</v>
       </c>
       <c r="H8" s="3">
-        <v>17561900</v>
+        <v>18266600</v>
       </c>
       <c r="I8" s="3">
-        <v>15341300</v>
+        <v>15956900</v>
       </c>
       <c r="J8" s="3">
-        <v>14977900</v>
+        <v>15578900</v>
       </c>
       <c r="K8" s="3">
         <v>14154300</v>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>26387200</v>
+        <v>27446000</v>
       </c>
       <c r="E9" s="3">
-        <v>20297800</v>
+        <v>21112400</v>
       </c>
       <c r="F9" s="3">
-        <v>28208900</v>
+        <v>29340900</v>
       </c>
       <c r="G9" s="3">
-        <v>16107500</v>
+        <v>16753900</v>
       </c>
       <c r="H9" s="3">
-        <v>16369000</v>
+        <v>17025800</v>
       </c>
       <c r="I9" s="3">
-        <v>14024900</v>
+        <v>14587700</v>
       </c>
       <c r="J9" s="3">
-        <v>13620500</v>
+        <v>14167000</v>
       </c>
       <c r="K9" s="3">
         <v>12896800</v>
@@ -812,25 +812,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1424800</v>
+        <v>1482000</v>
       </c>
       <c r="E10" s="3">
-        <v>949700</v>
+        <v>987800</v>
       </c>
       <c r="F10" s="3">
-        <v>-13869100</v>
+        <v>-14425600</v>
       </c>
       <c r="G10" s="3">
-        <v>1183200</v>
+        <v>1230700</v>
       </c>
       <c r="H10" s="3">
-        <v>1192900</v>
+        <v>1240700</v>
       </c>
       <c r="I10" s="3">
-        <v>1316400</v>
+        <v>1369200</v>
       </c>
       <c r="J10" s="3">
-        <v>1357400</v>
+        <v>1411900</v>
       </c>
       <c r="K10" s="3">
         <v>1257500</v>
@@ -878,10 +878,10 @@
         <v>8</v>
       </c>
       <c r="F12" s="3">
-        <v>12300</v>
+        <v>12800</v>
       </c>
       <c r="G12" s="3">
-        <v>11900</v>
+        <v>12400</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>8</v>
@@ -959,13 +959,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>-41300</v>
+        <v>-42900</v>
       </c>
       <c r="F14" s="3">
-        <v>-26400</v>
+        <v>-27500</v>
       </c>
       <c r="G14" s="3">
-        <v>114900</v>
+        <v>119500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1004,19 +1004,19 @@
         <v>8</v>
       </c>
       <c r="F15" s="3">
-        <v>151500</v>
+        <v>157500</v>
       </c>
       <c r="G15" s="3">
-        <v>134700</v>
+        <v>140100</v>
       </c>
       <c r="H15" s="3">
-        <v>16300</v>
+        <v>17000</v>
       </c>
       <c r="I15" s="3">
-        <v>13400</v>
+        <v>13900</v>
       </c>
       <c r="J15" s="3">
-        <v>104600</v>
+        <v>108800</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1055,25 +1055,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>27163500</v>
+        <v>28253600</v>
       </c>
       <c r="E17" s="3">
-        <v>20905000</v>
+        <v>21743800</v>
       </c>
       <c r="F17" s="3">
-        <v>14049000</v>
+        <v>14612800</v>
       </c>
       <c r="G17" s="3">
-        <v>17041300</v>
+        <v>17725100</v>
       </c>
       <c r="H17" s="3">
-        <v>17196900</v>
+        <v>17887000</v>
       </c>
       <c r="I17" s="3">
-        <v>14796500</v>
+        <v>15390300</v>
       </c>
       <c r="J17" s="3">
-        <v>14375000</v>
+        <v>14951900</v>
       </c>
       <c r="K17" s="3">
         <v>13602300</v>
@@ -1097,25 +1097,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>648500</v>
+        <v>674500</v>
       </c>
       <c r="E18" s="3">
-        <v>342600</v>
+        <v>356400</v>
       </c>
       <c r="F18" s="3">
-        <v>290800</v>
+        <v>302500</v>
       </c>
       <c r="G18" s="3">
-        <v>249500</v>
+        <v>259500</v>
       </c>
       <c r="H18" s="3">
-        <v>364900</v>
+        <v>379600</v>
       </c>
       <c r="I18" s="3">
-        <v>544800</v>
+        <v>566600</v>
       </c>
       <c r="J18" s="3">
-        <v>602800</v>
+        <v>627000</v>
       </c>
       <c r="K18" s="3">
         <v>552000</v>
@@ -1157,25 +1157,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="E20" s="3">
-        <v>12600</v>
+        <v>13100</v>
       </c>
       <c r="F20" s="3">
-        <v>42200</v>
+        <v>43900</v>
       </c>
       <c r="G20" s="3">
-        <v>96300</v>
+        <v>100200</v>
       </c>
       <c r="H20" s="3">
-        <v>149300</v>
+        <v>155300</v>
       </c>
       <c r="I20" s="3">
-        <v>113800</v>
+        <v>118400</v>
       </c>
       <c r="J20" s="3">
-        <v>61300</v>
+        <v>63800</v>
       </c>
       <c r="K20" s="3">
         <v>51600</v>
@@ -1199,25 +1199,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>870900</v>
+        <v>906100</v>
       </c>
       <c r="E21" s="3">
-        <v>532800</v>
+        <v>554500</v>
       </c>
       <c r="F21" s="3">
-        <v>579300</v>
+        <v>602900</v>
       </c>
       <c r="G21" s="3">
-        <v>568300</v>
+        <v>591400</v>
       </c>
       <c r="H21" s="3">
-        <v>672100</v>
+        <v>699400</v>
       </c>
       <c r="I21" s="3">
-        <v>795500</v>
+        <v>827600</v>
       </c>
       <c r="J21" s="3">
-        <v>878600</v>
+        <v>914200</v>
       </c>
       <c r="K21" s="3">
         <v>796900</v>
@@ -1241,25 +1241,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>308500</v>
+        <v>320900</v>
       </c>
       <c r="E22" s="3">
-        <v>160300</v>
+        <v>166700</v>
       </c>
       <c r="F22" s="3">
-        <v>148800</v>
+        <v>154700</v>
       </c>
       <c r="G22" s="3">
-        <v>194500</v>
+        <v>202300</v>
       </c>
       <c r="H22" s="3">
-        <v>171300</v>
+        <v>178200</v>
       </c>
       <c r="I22" s="3">
-        <v>205700</v>
+        <v>213900</v>
       </c>
       <c r="J22" s="3">
-        <v>224500</v>
+        <v>233500</v>
       </c>
       <c r="K22" s="3">
         <v>183200</v>
@@ -1283,25 +1283,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>364000</v>
+        <v>378600</v>
       </c>
       <c r="E23" s="3">
-        <v>194900</v>
+        <v>202700</v>
       </c>
       <c r="F23" s="3">
-        <v>184300</v>
+        <v>191600</v>
       </c>
       <c r="G23" s="3">
-        <v>151300</v>
+        <v>157400</v>
       </c>
       <c r="H23" s="3">
-        <v>342900</v>
+        <v>356700</v>
       </c>
       <c r="I23" s="3">
-        <v>452900</v>
+        <v>471100</v>
       </c>
       <c r="J23" s="3">
-        <v>439700</v>
+        <v>457300</v>
       </c>
       <c r="K23" s="3">
         <v>420400</v>
@@ -1325,25 +1325,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>66100</v>
+        <v>68800</v>
       </c>
       <c r="E24" s="3">
-        <v>36400</v>
+        <v>37900</v>
       </c>
       <c r="F24" s="3">
-        <v>59000</v>
+        <v>61300</v>
       </c>
       <c r="G24" s="3">
-        <v>73300</v>
+        <v>76300</v>
       </c>
       <c r="H24" s="3">
-        <v>123700</v>
+        <v>128600</v>
       </c>
       <c r="I24" s="3">
-        <v>157500</v>
+        <v>163800</v>
       </c>
       <c r="J24" s="3">
-        <v>135500</v>
+        <v>141000</v>
       </c>
       <c r="K24" s="3">
         <v>137400</v>
@@ -1409,25 +1409,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>297800</v>
+        <v>309800</v>
       </c>
       <c r="E26" s="3">
-        <v>158500</v>
+        <v>164900</v>
       </c>
       <c r="F26" s="3">
-        <v>125300</v>
+        <v>130300</v>
       </c>
       <c r="G26" s="3">
-        <v>78000</v>
+        <v>81200</v>
       </c>
       <c r="H26" s="3">
-        <v>219300</v>
+        <v>228000</v>
       </c>
       <c r="I26" s="3">
-        <v>295500</v>
+        <v>307300</v>
       </c>
       <c r="J26" s="3">
-        <v>304100</v>
+        <v>316300</v>
       </c>
       <c r="K26" s="3">
         <v>283100</v>
@@ -1451,25 +1451,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>290200</v>
+        <v>301900</v>
       </c>
       <c r="E27" s="3">
-        <v>152000</v>
+        <v>158100</v>
       </c>
       <c r="F27" s="3">
-        <v>118600</v>
+        <v>123400</v>
       </c>
       <c r="G27" s="3">
-        <v>72300</v>
+        <v>75200</v>
       </c>
       <c r="H27" s="3">
-        <v>222800</v>
+        <v>231700</v>
       </c>
       <c r="I27" s="3">
-        <v>295600</v>
+        <v>307400</v>
       </c>
       <c r="J27" s="3">
-        <v>302400</v>
+        <v>314500</v>
       </c>
       <c r="K27" s="3">
         <v>281300</v>
@@ -1535,13 +1535,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>58400</v>
+        <v>60800</v>
       </c>
       <c r="E29" s="3">
-        <v>12600</v>
+        <v>13100</v>
       </c>
       <c r="F29" s="3">
-        <v>54300</v>
+        <v>56500</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1661,25 +1661,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-24000</v>
+        <v>-25000</v>
       </c>
       <c r="E32" s="3">
-        <v>-12600</v>
+        <v>-13100</v>
       </c>
       <c r="F32" s="3">
-        <v>-42200</v>
+        <v>-43900</v>
       </c>
       <c r="G32" s="3">
-        <v>-96300</v>
+        <v>-100200</v>
       </c>
       <c r="H32" s="3">
-        <v>-149300</v>
+        <v>-155300</v>
       </c>
       <c r="I32" s="3">
-        <v>-113800</v>
+        <v>-118400</v>
       </c>
       <c r="J32" s="3">
-        <v>-61300</v>
+        <v>-63800</v>
       </c>
       <c r="K32" s="3">
         <v>-51600</v>
@@ -1703,25 +1703,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>348700</v>
+        <v>362700</v>
       </c>
       <c r="E33" s="3">
-        <v>164700</v>
+        <v>171300</v>
       </c>
       <c r="F33" s="3">
-        <v>173000</v>
+        <v>179900</v>
       </c>
       <c r="G33" s="3">
-        <v>72300</v>
+        <v>75200</v>
       </c>
       <c r="H33" s="3">
-        <v>222800</v>
+        <v>231700</v>
       </c>
       <c r="I33" s="3">
-        <v>295600</v>
+        <v>307400</v>
       </c>
       <c r="J33" s="3">
-        <v>302400</v>
+        <v>314500</v>
       </c>
       <c r="K33" s="3">
         <v>281300</v>
@@ -1787,25 +1787,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>348700</v>
+        <v>362700</v>
       </c>
       <c r="E35" s="3">
-        <v>164700</v>
+        <v>171300</v>
       </c>
       <c r="F35" s="3">
-        <v>173000</v>
+        <v>179900</v>
       </c>
       <c r="G35" s="3">
-        <v>72300</v>
+        <v>75200</v>
       </c>
       <c r="H35" s="3">
-        <v>222800</v>
+        <v>231700</v>
       </c>
       <c r="I35" s="3">
-        <v>295600</v>
+        <v>307400</v>
       </c>
       <c r="J35" s="3">
-        <v>302400</v>
+        <v>314500</v>
       </c>
       <c r="K35" s="3">
         <v>281300</v>
@@ -1912,25 +1912,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1088500</v>
+        <v>1132200</v>
       </c>
       <c r="E41" s="3">
-        <v>441500</v>
+        <v>459200</v>
       </c>
       <c r="F41" s="3">
-        <v>515300</v>
+        <v>536000</v>
       </c>
       <c r="G41" s="3">
-        <v>409600</v>
+        <v>426000</v>
       </c>
       <c r="H41" s="3">
-        <v>762700</v>
+        <v>793300</v>
       </c>
       <c r="I41" s="3">
-        <v>968500</v>
+        <v>1007400</v>
       </c>
       <c r="J41" s="3">
-        <v>1655200</v>
+        <v>1721600</v>
       </c>
       <c r="K41" s="3">
         <v>505700</v>
@@ -1954,25 +1954,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>100800</v>
+        <v>104800</v>
       </c>
       <c r="E42" s="3">
-        <v>349300</v>
+        <v>363400</v>
       </c>
       <c r="F42" s="3">
-        <v>974600</v>
+        <v>1013700</v>
       </c>
       <c r="G42" s="3">
-        <v>598400</v>
+        <v>622400</v>
       </c>
       <c r="H42" s="3">
-        <v>552400</v>
+        <v>574600</v>
       </c>
       <c r="I42" s="3">
-        <v>497000</v>
+        <v>517000</v>
       </c>
       <c r="J42" s="3">
-        <v>547000</v>
+        <v>569000</v>
       </c>
       <c r="K42" s="3">
         <v>150300</v>
@@ -1996,25 +1996,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1431400</v>
+        <v>1488900</v>
       </c>
       <c r="E43" s="3">
-        <v>1146700</v>
+        <v>1192700</v>
       </c>
       <c r="F43" s="3">
-        <v>1033400</v>
+        <v>1074900</v>
       </c>
       <c r="G43" s="3">
-        <v>1076600</v>
+        <v>1119800</v>
       </c>
       <c r="H43" s="3">
-        <v>1044300</v>
+        <v>1086200</v>
       </c>
       <c r="I43" s="3">
-        <v>1787700</v>
+        <v>1859400</v>
       </c>
       <c r="J43" s="3">
-        <v>1586800</v>
+        <v>1650400</v>
       </c>
       <c r="K43" s="3">
         <v>716300</v>
@@ -2038,25 +2038,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>950000</v>
+        <v>988100</v>
       </c>
       <c r="E44" s="3">
-        <v>758800</v>
+        <v>789200</v>
       </c>
       <c r="F44" s="3">
-        <v>744700</v>
+        <v>774600</v>
       </c>
       <c r="G44" s="3">
-        <v>719400</v>
+        <v>748300</v>
       </c>
       <c r="H44" s="3">
-        <v>649500</v>
+        <v>675600</v>
       </c>
       <c r="I44" s="3">
-        <v>680400</v>
+        <v>707700</v>
       </c>
       <c r="J44" s="3">
-        <v>1073200</v>
+        <v>1116300</v>
       </c>
       <c r="K44" s="3">
         <v>466800</v>
@@ -2080,25 +2080,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24000</v>
+        <v>24900</v>
       </c>
       <c r="E45" s="3">
-        <v>2149100</v>
+        <v>2235300</v>
       </c>
       <c r="F45" s="3">
-        <v>118300</v>
+        <v>123100</v>
       </c>
       <c r="G45" s="3">
-        <v>111700</v>
+        <v>116200</v>
       </c>
       <c r="H45" s="3">
-        <v>130100</v>
+        <v>135300</v>
       </c>
       <c r="I45" s="3">
-        <v>117400</v>
+        <v>122100</v>
       </c>
       <c r="J45" s="3">
-        <v>110800</v>
+        <v>115200</v>
       </c>
       <c r="K45" s="3">
         <v>15200</v>
@@ -2122,25 +2122,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3594700</v>
+        <v>3738900</v>
       </c>
       <c r="E46" s="3">
-        <v>4845400</v>
+        <v>5039900</v>
       </c>
       <c r="F46" s="3">
-        <v>3386400</v>
+        <v>3522300</v>
       </c>
       <c r="G46" s="3">
-        <v>2915700</v>
+        <v>3032700</v>
       </c>
       <c r="H46" s="3">
-        <v>3139100</v>
+        <v>3265000</v>
       </c>
       <c r="I46" s="3">
-        <v>2999400</v>
+        <v>3119700</v>
       </c>
       <c r="J46" s="3">
-        <v>2588100</v>
+        <v>2691900</v>
       </c>
       <c r="K46" s="3">
         <v>1854300</v>
@@ -2164,25 +2164,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1211800</v>
+        <v>1260400</v>
       </c>
       <c r="E47" s="3">
-        <v>715200</v>
+        <v>743900</v>
       </c>
       <c r="F47" s="3">
-        <v>657500</v>
+        <v>683800</v>
       </c>
       <c r="G47" s="3">
-        <v>383900</v>
+        <v>399300</v>
       </c>
       <c r="H47" s="3">
-        <v>312900</v>
+        <v>325500</v>
       </c>
       <c r="I47" s="3">
-        <v>171600</v>
+        <v>178500</v>
       </c>
       <c r="J47" s="3">
-        <v>110300</v>
+        <v>114700</v>
       </c>
       <c r="K47" s="3">
         <v>163800</v>
@@ -2206,25 +2206,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1482000</v>
+        <v>1541500</v>
       </c>
       <c r="E48" s="3">
-        <v>1391400</v>
+        <v>1447200</v>
       </c>
       <c r="F48" s="3">
-        <v>1966500</v>
+        <v>2045400</v>
       </c>
       <c r="G48" s="3">
-        <v>1849900</v>
+        <v>1924100</v>
       </c>
       <c r="H48" s="3">
-        <v>1409400</v>
+        <v>1466000</v>
       </c>
       <c r="I48" s="3">
-        <v>2569900</v>
+        <v>2673100</v>
       </c>
       <c r="J48" s="3">
-        <v>2243100</v>
+        <v>2333100</v>
       </c>
       <c r="K48" s="3">
         <v>1017600</v>
@@ -2248,25 +2248,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>371400</v>
+        <v>386400</v>
       </c>
       <c r="E49" s="3">
-        <v>284900</v>
+        <v>296300</v>
       </c>
       <c r="F49" s="3">
-        <v>345200</v>
+        <v>359000</v>
       </c>
       <c r="G49" s="3">
-        <v>341300</v>
+        <v>355000</v>
       </c>
       <c r="H49" s="3">
-        <v>458800</v>
+        <v>477200</v>
       </c>
       <c r="I49" s="3">
-        <v>852100</v>
+        <v>886300</v>
       </c>
       <c r="J49" s="3">
-        <v>1019100</v>
+        <v>1060000</v>
       </c>
       <c r="K49" s="3">
         <v>616300</v>
@@ -2374,25 +2374,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>396200</v>
+        <v>412100</v>
       </c>
       <c r="E52" s="3">
-        <v>316700</v>
+        <v>329400</v>
       </c>
       <c r="F52" s="3">
-        <v>663500</v>
+        <v>690200</v>
       </c>
       <c r="G52" s="3">
-        <v>549600</v>
+        <v>571700</v>
       </c>
       <c r="H52" s="3">
-        <v>585400</v>
+        <v>608900</v>
       </c>
       <c r="I52" s="3">
-        <v>587100</v>
+        <v>610700</v>
       </c>
       <c r="J52" s="3">
-        <v>474500</v>
+        <v>493600</v>
       </c>
       <c r="K52" s="3">
         <v>223300</v>
@@ -2458,25 +2458,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7056100</v>
+        <v>7339200</v>
       </c>
       <c r="E54" s="3">
-        <v>7553600</v>
+        <v>7856700</v>
       </c>
       <c r="F54" s="3">
-        <v>7019100</v>
+        <v>7300800</v>
       </c>
       <c r="G54" s="3">
-        <v>6040400</v>
+        <v>6282800</v>
       </c>
       <c r="H54" s="3">
-        <v>5905600</v>
+        <v>6142600</v>
       </c>
       <c r="I54" s="3">
-        <v>5476700</v>
+        <v>5696500</v>
       </c>
       <c r="J54" s="3">
-        <v>4661500</v>
+        <v>4848600</v>
       </c>
       <c r="K54" s="3">
         <v>3875200</v>
@@ -2536,25 +2536,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1428600</v>
+        <v>1485900</v>
       </c>
       <c r="E57" s="3">
-        <v>1121100</v>
+        <v>1166100</v>
       </c>
       <c r="F57" s="3">
-        <v>782400</v>
+        <v>813800</v>
       </c>
       <c r="G57" s="3">
-        <v>522800</v>
+        <v>543800</v>
       </c>
       <c r="H57" s="3">
-        <v>528900</v>
+        <v>550200</v>
       </c>
       <c r="I57" s="3">
-        <v>417400</v>
+        <v>434100</v>
       </c>
       <c r="J57" s="3">
-        <v>331000</v>
+        <v>344300</v>
       </c>
       <c r="K57" s="3">
         <v>273300</v>
@@ -2578,25 +2578,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>694300</v>
+        <v>722200</v>
       </c>
       <c r="E58" s="3">
-        <v>591500</v>
+        <v>615300</v>
       </c>
       <c r="F58" s="3">
-        <v>680800</v>
+        <v>708100</v>
       </c>
       <c r="G58" s="3">
-        <v>256300</v>
+        <v>266600</v>
       </c>
       <c r="H58" s="3">
-        <v>440300</v>
+        <v>458000</v>
       </c>
       <c r="I58" s="3">
-        <v>678400</v>
+        <v>705600</v>
       </c>
       <c r="J58" s="3">
-        <v>479400</v>
+        <v>498600</v>
       </c>
       <c r="K58" s="3">
         <v>205400</v>
@@ -2620,25 +2620,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>349100</v>
+        <v>363100</v>
       </c>
       <c r="E59" s="3">
-        <v>734900</v>
+        <v>764400</v>
       </c>
       <c r="F59" s="3">
-        <v>326100</v>
+        <v>339200</v>
       </c>
       <c r="G59" s="3">
-        <v>226800</v>
+        <v>235900</v>
       </c>
       <c r="H59" s="3">
-        <v>257700</v>
+        <v>268100</v>
       </c>
       <c r="I59" s="3">
-        <v>261500</v>
+        <v>272000</v>
       </c>
       <c r="J59" s="3">
-        <v>251500</v>
+        <v>261600</v>
       </c>
       <c r="K59" s="3">
         <v>238500</v>
@@ -2662,25 +2662,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2471900</v>
+        <v>2571100</v>
       </c>
       <c r="E60" s="3">
-        <v>2447500</v>
+        <v>2545700</v>
       </c>
       <c r="F60" s="3">
-        <v>1789300</v>
+        <v>1861100</v>
       </c>
       <c r="G60" s="3">
-        <v>1005900</v>
+        <v>1046300</v>
       </c>
       <c r="H60" s="3">
-        <v>1227000</v>
+        <v>1276200</v>
       </c>
       <c r="I60" s="3">
-        <v>1357300</v>
+        <v>1411800</v>
       </c>
       <c r="J60" s="3">
-        <v>1061900</v>
+        <v>1104500</v>
       </c>
       <c r="K60" s="3">
         <v>717200</v>
@@ -2704,25 +2704,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1876000</v>
+        <v>1951200</v>
       </c>
       <c r="E61" s="3">
-        <v>2840800</v>
+        <v>2954800</v>
       </c>
       <c r="F61" s="3">
-        <v>3038700</v>
+        <v>3160600</v>
       </c>
       <c r="G61" s="3">
-        <v>2838100</v>
+        <v>2952000</v>
       </c>
       <c r="H61" s="3">
-        <v>2504100</v>
+        <v>2604500</v>
       </c>
       <c r="I61" s="3">
-        <v>1953100</v>
+        <v>2031500</v>
       </c>
       <c r="J61" s="3">
-        <v>1731300</v>
+        <v>1800800</v>
       </c>
       <c r="K61" s="3">
         <v>1460000</v>
@@ -2746,25 +2746,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>350700</v>
+        <v>364800</v>
       </c>
       <c r="E62" s="3">
-        <v>238100</v>
+        <v>247700</v>
       </c>
       <c r="F62" s="3">
-        <v>272200</v>
+        <v>283100</v>
       </c>
       <c r="G62" s="3">
-        <v>291900</v>
+        <v>303600</v>
       </c>
       <c r="H62" s="3">
-        <v>277000</v>
+        <v>288100</v>
       </c>
       <c r="I62" s="3">
-        <v>302800</v>
+        <v>314900</v>
       </c>
       <c r="J62" s="3">
-        <v>227100</v>
+        <v>236200</v>
       </c>
       <c r="K62" s="3">
         <v>227100</v>
@@ -2914,25 +2914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4788900</v>
+        <v>4981100</v>
       </c>
       <c r="E66" s="3">
-        <v>5604300</v>
+        <v>5829200</v>
       </c>
       <c r="F66" s="3">
-        <v>5173100</v>
+        <v>5380700</v>
       </c>
       <c r="G66" s="3">
-        <v>4209000</v>
+        <v>4377900</v>
       </c>
       <c r="H66" s="3">
-        <v>4076200</v>
+        <v>4239700</v>
       </c>
       <c r="I66" s="3">
-        <v>3686400</v>
+        <v>3834300</v>
       </c>
       <c r="J66" s="3">
-        <v>3026300</v>
+        <v>3147700</v>
       </c>
       <c r="K66" s="3">
         <v>2388800</v>
@@ -3142,25 +3142,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1323800</v>
+        <v>1376900</v>
       </c>
       <c r="E72" s="3">
-        <v>1065200</v>
+        <v>1107900</v>
       </c>
       <c r="F72" s="3">
-        <v>984500</v>
+        <v>1024000</v>
       </c>
       <c r="G72" s="3">
-        <v>932500</v>
+        <v>969900</v>
       </c>
       <c r="H72" s="3">
-        <v>921700</v>
+        <v>958600</v>
       </c>
       <c r="I72" s="3">
-        <v>948600</v>
+        <v>986700</v>
       </c>
       <c r="J72" s="3">
-        <v>1095700</v>
+        <v>1139700</v>
       </c>
       <c r="K72" s="3">
         <v>844000</v>
@@ -3310,25 +3310,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2267200</v>
+        <v>2358100</v>
       </c>
       <c r="E76" s="3">
-        <v>1949300</v>
+        <v>2027500</v>
       </c>
       <c r="F76" s="3">
-        <v>1846000</v>
+        <v>1920100</v>
       </c>
       <c r="G76" s="3">
-        <v>1831400</v>
+        <v>1904900</v>
       </c>
       <c r="H76" s="3">
-        <v>1829400</v>
+        <v>1902800</v>
       </c>
       <c r="I76" s="3">
-        <v>1790300</v>
+        <v>1862200</v>
       </c>
       <c r="J76" s="3">
-        <v>1635200</v>
+        <v>1700900</v>
       </c>
       <c r="K76" s="3">
         <v>1486400</v>
@@ -3441,25 +3441,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>348700</v>
+        <v>362700</v>
       </c>
       <c r="E81" s="3">
-        <v>164700</v>
+        <v>171300</v>
       </c>
       <c r="F81" s="3">
-        <v>173000</v>
+        <v>179900</v>
       </c>
       <c r="G81" s="3">
-        <v>72300</v>
+        <v>75200</v>
       </c>
       <c r="H81" s="3">
-        <v>222800</v>
+        <v>231700</v>
       </c>
       <c r="I81" s="3">
-        <v>295600</v>
+        <v>307400</v>
       </c>
       <c r="J81" s="3">
-        <v>302400</v>
+        <v>314500</v>
       </c>
       <c r="K81" s="3">
         <v>281300</v>
@@ -3501,25 +3501,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>197600</v>
+        <v>205600</v>
       </c>
       <c r="E83" s="3">
-        <v>176900</v>
+        <v>184000</v>
       </c>
       <c r="F83" s="3">
-        <v>245400</v>
+        <v>255200</v>
       </c>
       <c r="G83" s="3">
-        <v>221600</v>
+        <v>230500</v>
       </c>
       <c r="H83" s="3">
-        <v>157300</v>
+        <v>163600</v>
       </c>
       <c r="I83" s="3">
-        <v>136400</v>
+        <v>141900</v>
       </c>
       <c r="J83" s="3">
-        <v>213700</v>
+        <v>222300</v>
       </c>
       <c r="K83" s="3">
         <v>187600</v>
@@ -3753,25 +3753,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>388200</v>
+        <v>403700</v>
       </c>
       <c r="E89" s="3">
-        <v>500700</v>
+        <v>520800</v>
       </c>
       <c r="F89" s="3">
-        <v>607600</v>
+        <v>632000</v>
       </c>
       <c r="G89" s="3">
-        <v>566300</v>
+        <v>589100</v>
       </c>
       <c r="H89" s="3">
-        <v>559400</v>
+        <v>581800</v>
       </c>
       <c r="I89" s="3">
-        <v>336700</v>
+        <v>350200</v>
       </c>
       <c r="J89" s="3">
-        <v>486700</v>
+        <v>506300</v>
       </c>
       <c r="K89" s="3">
         <v>599000</v>
@@ -3813,25 +3813,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-179900</v>
+        <v>-187100</v>
       </c>
       <c r="E91" s="3">
-        <v>-199100</v>
+        <v>-207100</v>
       </c>
       <c r="F91" s="3">
-        <v>-187000</v>
+        <v>-194500</v>
       </c>
       <c r="G91" s="3">
-        <v>-197500</v>
+        <v>-205400</v>
       </c>
       <c r="H91" s="3">
-        <v>-228200</v>
+        <v>-237300</v>
       </c>
       <c r="I91" s="3">
-        <v>-252100</v>
+        <v>-262300</v>
       </c>
       <c r="J91" s="3">
-        <v>-196600</v>
+        <v>-204500</v>
       </c>
       <c r="K91" s="3">
         <v>-150300</v>
@@ -3939,25 +3939,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1530300</v>
+        <v>1591700</v>
       </c>
       <c r="E94" s="3">
-        <v>140200</v>
+        <v>145800</v>
       </c>
       <c r="F94" s="3">
-        <v>-413700</v>
+        <v>-430300</v>
       </c>
       <c r="G94" s="3">
-        <v>-355400</v>
+        <v>-369600</v>
       </c>
       <c r="H94" s="3">
-        <v>-615300</v>
+        <v>-640000</v>
       </c>
       <c r="I94" s="3">
-        <v>-265600</v>
+        <v>-276300</v>
       </c>
       <c r="J94" s="3">
-        <v>-358000</v>
+        <v>-372300</v>
       </c>
       <c r="K94" s="3">
         <v>-150000</v>
@@ -3999,25 +3999,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-123600</v>
+        <v>-128500</v>
       </c>
       <c r="E96" s="3">
-        <v>-136700</v>
+        <v>-142100</v>
       </c>
       <c r="F96" s="3">
-        <v>-55100</v>
+        <v>-57400</v>
       </c>
       <c r="G96" s="3">
-        <v>-115500</v>
+        <v>-120100</v>
       </c>
       <c r="H96" s="3">
-        <v>-156600</v>
+        <v>-162900</v>
       </c>
       <c r="I96" s="3">
-        <v>-182100</v>
+        <v>-189400</v>
       </c>
       <c r="J96" s="3">
-        <v>-169100</v>
+        <v>-175900</v>
       </c>
       <c r="K96" s="3">
         <v>-155600</v>
@@ -4167,25 +4167,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1338100</v>
+        <v>-1391800</v>
       </c>
       <c r="E100" s="3">
-        <v>-649700</v>
+        <v>-675800</v>
       </c>
       <c r="F100" s="3">
-        <v>-114700</v>
+        <v>-119300</v>
       </c>
       <c r="G100" s="3">
-        <v>-565800</v>
+        <v>-588500</v>
       </c>
       <c r="H100" s="3">
-        <v>-155100</v>
+        <v>-161300</v>
       </c>
       <c r="I100" s="3">
-        <v>65900</v>
+        <v>68500</v>
       </c>
       <c r="J100" s="3">
-        <v>179800</v>
+        <v>187000</v>
       </c>
       <c r="K100" s="3">
         <v>-471600</v>
@@ -4209,25 +4209,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8400</v>
+        <v>-8700</v>
       </c>
       <c r="E101" s="3">
-        <v>10100</v>
+        <v>10500</v>
       </c>
       <c r="F101" s="3">
-        <v>26500</v>
+        <v>27500</v>
       </c>
       <c r="G101" s="3">
         <v>1800</v>
       </c>
       <c r="H101" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="I101" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="J101" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="K101" s="3">
         <v>-700</v>
@@ -4251,25 +4251,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>571900</v>
+        <v>594900</v>
       </c>
       <c r="E102" s="3">
         <v>1300</v>
       </c>
       <c r="F102" s="3">
-        <v>105700</v>
+        <v>110000</v>
       </c>
       <c r="G102" s="3">
-        <v>-353100</v>
+        <v>-367300</v>
       </c>
       <c r="H102" s="3">
-        <v>-205800</v>
+        <v>-214100</v>
       </c>
       <c r="I102" s="3">
-        <v>140900</v>
+        <v>146600</v>
       </c>
       <c r="J102" s="3">
-        <v>304200</v>
+        <v>316500</v>
       </c>
       <c r="K102" s="3">
         <v>-23300</v>

--- a/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
@@ -728,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>28928000</v>
+        <v>28991200</v>
       </c>
       <c r="E8" s="3">
-        <v>22100200</v>
+        <v>22148500</v>
       </c>
       <c r="F8" s="3">
-        <v>14915300</v>
+        <v>14947900</v>
       </c>
       <c r="G8" s="3">
-        <v>17984600</v>
+        <v>18023900</v>
       </c>
       <c r="H8" s="3">
-        <v>18266600</v>
+        <v>18306500</v>
       </c>
       <c r="I8" s="3">
-        <v>15956900</v>
+        <v>15991800</v>
       </c>
       <c r="J8" s="3">
-        <v>15578900</v>
+        <v>15612900</v>
       </c>
       <c r="K8" s="3">
         <v>14154300</v>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>27446000</v>
+        <v>27506000</v>
       </c>
       <c r="E9" s="3">
-        <v>21112400</v>
+        <v>21158500</v>
       </c>
       <c r="F9" s="3">
-        <v>29340900</v>
+        <v>29405000</v>
       </c>
       <c r="G9" s="3">
-        <v>16753900</v>
+        <v>16790500</v>
       </c>
       <c r="H9" s="3">
-        <v>17025800</v>
+        <v>17063000</v>
       </c>
       <c r="I9" s="3">
-        <v>14587700</v>
+        <v>14619600</v>
       </c>
       <c r="J9" s="3">
-        <v>14167000</v>
+        <v>14198000</v>
       </c>
       <c r="K9" s="3">
         <v>12896800</v>
@@ -812,25 +812,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1482000</v>
+        <v>1485200</v>
       </c>
       <c r="E10" s="3">
-        <v>987800</v>
+        <v>990000</v>
       </c>
       <c r="F10" s="3">
-        <v>-14425600</v>
+        <v>-14457100</v>
       </c>
       <c r="G10" s="3">
-        <v>1230700</v>
+        <v>1233400</v>
       </c>
       <c r="H10" s="3">
-        <v>1240700</v>
+        <v>1243500</v>
       </c>
       <c r="I10" s="3">
-        <v>1369200</v>
+        <v>1372200</v>
       </c>
       <c r="J10" s="3">
-        <v>1411900</v>
+        <v>1414900</v>
       </c>
       <c r="K10" s="3">
         <v>1257500</v>
@@ -878,7 +878,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
       <c r="G12" s="3">
         <v>12400</v>
@@ -959,13 +959,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>-42900</v>
+        <v>-43000</v>
       </c>
       <c r="F14" s="3">
-        <v>-27500</v>
+        <v>-27600</v>
       </c>
       <c r="G14" s="3">
-        <v>119500</v>
+        <v>119700</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1004,10 +1004,10 @@
         <v>8</v>
       </c>
       <c r="F15" s="3">
-        <v>157500</v>
+        <v>157900</v>
       </c>
       <c r="G15" s="3">
-        <v>140100</v>
+        <v>140400</v>
       </c>
       <c r="H15" s="3">
         <v>17000</v>
@@ -1016,7 +1016,7 @@
         <v>13900</v>
       </c>
       <c r="J15" s="3">
-        <v>108800</v>
+        <v>109100</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1055,25 +1055,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>28253600</v>
+        <v>28315300</v>
       </c>
       <c r="E17" s="3">
-        <v>21743800</v>
+        <v>21791300</v>
       </c>
       <c r="F17" s="3">
-        <v>14612800</v>
+        <v>14644700</v>
       </c>
       <c r="G17" s="3">
-        <v>17725100</v>
+        <v>17763900</v>
       </c>
       <c r="H17" s="3">
-        <v>17887000</v>
+        <v>17926100</v>
       </c>
       <c r="I17" s="3">
-        <v>15390300</v>
+        <v>15423900</v>
       </c>
       <c r="J17" s="3">
-        <v>14951900</v>
+        <v>14984600</v>
       </c>
       <c r="K17" s="3">
         <v>13602300</v>
@@ -1097,25 +1097,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>674500</v>
+        <v>675900</v>
       </c>
       <c r="E18" s="3">
-        <v>356400</v>
+        <v>357100</v>
       </c>
       <c r="F18" s="3">
-        <v>302500</v>
+        <v>303100</v>
       </c>
       <c r="G18" s="3">
-        <v>259500</v>
+        <v>260100</v>
       </c>
       <c r="H18" s="3">
-        <v>379600</v>
+        <v>380400</v>
       </c>
       <c r="I18" s="3">
-        <v>566600</v>
+        <v>567900</v>
       </c>
       <c r="J18" s="3">
-        <v>627000</v>
+        <v>628400</v>
       </c>
       <c r="K18" s="3">
         <v>552000</v>
@@ -1157,25 +1157,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>25000</v>
+        <v>25100</v>
       </c>
       <c r="E20" s="3">
         <v>13100</v>
       </c>
       <c r="F20" s="3">
-        <v>43900</v>
+        <v>44000</v>
       </c>
       <c r="G20" s="3">
-        <v>100200</v>
+        <v>100400</v>
       </c>
       <c r="H20" s="3">
-        <v>155300</v>
+        <v>155700</v>
       </c>
       <c r="I20" s="3">
-        <v>118400</v>
+        <v>118600</v>
       </c>
       <c r="J20" s="3">
-        <v>63800</v>
+        <v>63900</v>
       </c>
       <c r="K20" s="3">
         <v>51600</v>
@@ -1199,25 +1199,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>906100</v>
+        <v>907000</v>
       </c>
       <c r="E21" s="3">
-        <v>554500</v>
+        <v>554700</v>
       </c>
       <c r="F21" s="3">
         <v>602900</v>
       </c>
       <c r="G21" s="3">
-        <v>591400</v>
+        <v>591500</v>
       </c>
       <c r="H21" s="3">
-        <v>699400</v>
+        <v>700000</v>
       </c>
       <c r="I21" s="3">
-        <v>827600</v>
+        <v>828700</v>
       </c>
       <c r="J21" s="3">
-        <v>914200</v>
+        <v>915000</v>
       </c>
       <c r="K21" s="3">
         <v>796900</v>
@@ -1241,25 +1241,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>320900</v>
+        <v>321600</v>
       </c>
       <c r="E22" s="3">
-        <v>166700</v>
+        <v>167100</v>
       </c>
       <c r="F22" s="3">
-        <v>154700</v>
+        <v>155100</v>
       </c>
       <c r="G22" s="3">
-        <v>202300</v>
+        <v>202700</v>
       </c>
       <c r="H22" s="3">
-        <v>178200</v>
+        <v>178600</v>
       </c>
       <c r="I22" s="3">
-        <v>213900</v>
+        <v>214400</v>
       </c>
       <c r="J22" s="3">
-        <v>233500</v>
+        <v>234000</v>
       </c>
       <c r="K22" s="3">
         <v>183200</v>
@@ -1283,25 +1283,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>378600</v>
+        <v>379400</v>
       </c>
       <c r="E23" s="3">
-        <v>202700</v>
+        <v>203200</v>
       </c>
       <c r="F23" s="3">
-        <v>191600</v>
+        <v>192100</v>
       </c>
       <c r="G23" s="3">
-        <v>157400</v>
+        <v>157700</v>
       </c>
       <c r="H23" s="3">
-        <v>356700</v>
+        <v>357500</v>
       </c>
       <c r="I23" s="3">
-        <v>471100</v>
+        <v>472100</v>
       </c>
       <c r="J23" s="3">
-        <v>457300</v>
+        <v>458300</v>
       </c>
       <c r="K23" s="3">
         <v>420400</v>
@@ -1325,25 +1325,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>68800</v>
+        <v>68900</v>
       </c>
       <c r="E24" s="3">
-        <v>37900</v>
+        <v>38000</v>
       </c>
       <c r="F24" s="3">
-        <v>61300</v>
+        <v>61500</v>
       </c>
       <c r="G24" s="3">
-        <v>76300</v>
+        <v>76400</v>
       </c>
       <c r="H24" s="3">
-        <v>128600</v>
+        <v>128900</v>
       </c>
       <c r="I24" s="3">
-        <v>163800</v>
+        <v>164100</v>
       </c>
       <c r="J24" s="3">
-        <v>141000</v>
+        <v>141300</v>
       </c>
       <c r="K24" s="3">
         <v>137400</v>
@@ -1409,25 +1409,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>309800</v>
+        <v>310500</v>
       </c>
       <c r="E26" s="3">
-        <v>164900</v>
+        <v>165200</v>
       </c>
       <c r="F26" s="3">
-        <v>130300</v>
+        <v>130600</v>
       </c>
       <c r="G26" s="3">
-        <v>81200</v>
+        <v>81300</v>
       </c>
       <c r="H26" s="3">
-        <v>228000</v>
+        <v>228500</v>
       </c>
       <c r="I26" s="3">
-        <v>307300</v>
+        <v>308000</v>
       </c>
       <c r="J26" s="3">
-        <v>316300</v>
+        <v>317000</v>
       </c>
       <c r="K26" s="3">
         <v>283100</v>
@@ -1451,25 +1451,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>301900</v>
+        <v>302600</v>
       </c>
       <c r="E27" s="3">
-        <v>158100</v>
+        <v>158500</v>
       </c>
       <c r="F27" s="3">
-        <v>123400</v>
+        <v>123700</v>
       </c>
       <c r="G27" s="3">
-        <v>75200</v>
+        <v>75400</v>
       </c>
       <c r="H27" s="3">
-        <v>231700</v>
+        <v>232200</v>
       </c>
       <c r="I27" s="3">
-        <v>307400</v>
+        <v>308100</v>
       </c>
       <c r="J27" s="3">
-        <v>314500</v>
+        <v>315200</v>
       </c>
       <c r="K27" s="3">
         <v>281300</v>
@@ -1535,13 +1535,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>60800</v>
+        <v>60900</v>
       </c>
       <c r="E29" s="3">
-        <v>13100</v>
+        <v>13200</v>
       </c>
       <c r="F29" s="3">
-        <v>56500</v>
+        <v>56600</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1661,25 +1661,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-25000</v>
+        <v>-25100</v>
       </c>
       <c r="E32" s="3">
         <v>-13100</v>
       </c>
       <c r="F32" s="3">
-        <v>-43900</v>
+        <v>-44000</v>
       </c>
       <c r="G32" s="3">
-        <v>-100200</v>
+        <v>-100400</v>
       </c>
       <c r="H32" s="3">
-        <v>-155300</v>
+        <v>-155700</v>
       </c>
       <c r="I32" s="3">
-        <v>-118400</v>
+        <v>-118600</v>
       </c>
       <c r="J32" s="3">
-        <v>-63800</v>
+        <v>-63900</v>
       </c>
       <c r="K32" s="3">
         <v>-51600</v>
@@ -1703,25 +1703,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>362700</v>
+        <v>363500</v>
       </c>
       <c r="E33" s="3">
-        <v>171300</v>
+        <v>171700</v>
       </c>
       <c r="F33" s="3">
-        <v>179900</v>
+        <v>180300</v>
       </c>
       <c r="G33" s="3">
-        <v>75200</v>
+        <v>75400</v>
       </c>
       <c r="H33" s="3">
-        <v>231700</v>
+        <v>232200</v>
       </c>
       <c r="I33" s="3">
-        <v>307400</v>
+        <v>308100</v>
       </c>
       <c r="J33" s="3">
-        <v>314500</v>
+        <v>315200</v>
       </c>
       <c r="K33" s="3">
         <v>281300</v>
@@ -1787,25 +1787,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>362700</v>
+        <v>363500</v>
       </c>
       <c r="E35" s="3">
-        <v>171300</v>
+        <v>171700</v>
       </c>
       <c r="F35" s="3">
-        <v>179900</v>
+        <v>180300</v>
       </c>
       <c r="G35" s="3">
-        <v>75200</v>
+        <v>75400</v>
       </c>
       <c r="H35" s="3">
-        <v>231700</v>
+        <v>232200</v>
       </c>
       <c r="I35" s="3">
-        <v>307400</v>
+        <v>308100</v>
       </c>
       <c r="J35" s="3">
-        <v>314500</v>
+        <v>315200</v>
       </c>
       <c r="K35" s="3">
         <v>281300</v>
@@ -1912,25 +1912,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1132200</v>
+        <v>1134700</v>
       </c>
       <c r="E41" s="3">
-        <v>459200</v>
+        <v>460200</v>
       </c>
       <c r="F41" s="3">
-        <v>536000</v>
+        <v>537200</v>
       </c>
       <c r="G41" s="3">
-        <v>426000</v>
+        <v>427000</v>
       </c>
       <c r="H41" s="3">
-        <v>793300</v>
+        <v>795000</v>
       </c>
       <c r="I41" s="3">
-        <v>1007400</v>
+        <v>1009600</v>
       </c>
       <c r="J41" s="3">
-        <v>1721600</v>
+        <v>1725400</v>
       </c>
       <c r="K41" s="3">
         <v>505700</v>
@@ -1954,25 +1954,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>104800</v>
+        <v>105000</v>
       </c>
       <c r="E42" s="3">
-        <v>363400</v>
+        <v>364100</v>
       </c>
       <c r="F42" s="3">
-        <v>1013700</v>
+        <v>1015900</v>
       </c>
       <c r="G42" s="3">
-        <v>622400</v>
+        <v>623700</v>
       </c>
       <c r="H42" s="3">
-        <v>574600</v>
+        <v>575900</v>
       </c>
       <c r="I42" s="3">
-        <v>517000</v>
+        <v>518100</v>
       </c>
       <c r="J42" s="3">
-        <v>569000</v>
+        <v>570200</v>
       </c>
       <c r="K42" s="3">
         <v>150300</v>
@@ -1996,25 +1996,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1488900</v>
+        <v>1492100</v>
       </c>
       <c r="E43" s="3">
-        <v>1192700</v>
+        <v>1195400</v>
       </c>
       <c r="F43" s="3">
-        <v>1074900</v>
+        <v>1077200</v>
       </c>
       <c r="G43" s="3">
-        <v>1119800</v>
+        <v>1122200</v>
       </c>
       <c r="H43" s="3">
-        <v>1086200</v>
+        <v>1088500</v>
       </c>
       <c r="I43" s="3">
-        <v>1859400</v>
+        <v>1863500</v>
       </c>
       <c r="J43" s="3">
-        <v>1650400</v>
+        <v>1654000</v>
       </c>
       <c r="K43" s="3">
         <v>716300</v>
@@ -2038,25 +2038,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>988100</v>
+        <v>990200</v>
       </c>
       <c r="E44" s="3">
-        <v>789200</v>
+        <v>791000</v>
       </c>
       <c r="F44" s="3">
-        <v>774600</v>
+        <v>776300</v>
       </c>
       <c r="G44" s="3">
-        <v>748300</v>
+        <v>749900</v>
       </c>
       <c r="H44" s="3">
-        <v>675600</v>
+        <v>677100</v>
       </c>
       <c r="I44" s="3">
-        <v>707700</v>
+        <v>709200</v>
       </c>
       <c r="J44" s="3">
-        <v>1116300</v>
+        <v>1118700</v>
       </c>
       <c r="K44" s="3">
         <v>466800</v>
@@ -2080,25 +2080,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24900</v>
+        <v>25000</v>
       </c>
       <c r="E45" s="3">
-        <v>2235300</v>
+        <v>2240200</v>
       </c>
       <c r="F45" s="3">
-        <v>123100</v>
+        <v>123300</v>
       </c>
       <c r="G45" s="3">
-        <v>116200</v>
+        <v>116400</v>
       </c>
       <c r="H45" s="3">
-        <v>135300</v>
+        <v>135600</v>
       </c>
       <c r="I45" s="3">
-        <v>122100</v>
+        <v>122400</v>
       </c>
       <c r="J45" s="3">
-        <v>115200</v>
+        <v>115500</v>
       </c>
       <c r="K45" s="3">
         <v>15200</v>
@@ -2122,25 +2122,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3738900</v>
+        <v>3747100</v>
       </c>
       <c r="E46" s="3">
-        <v>5039900</v>
+        <v>5050900</v>
       </c>
       <c r="F46" s="3">
-        <v>3522300</v>
+        <v>3530000</v>
       </c>
       <c r="G46" s="3">
-        <v>3032700</v>
+        <v>3039300</v>
       </c>
       <c r="H46" s="3">
-        <v>3265000</v>
+        <v>3272200</v>
       </c>
       <c r="I46" s="3">
-        <v>3119700</v>
+        <v>3126500</v>
       </c>
       <c r="J46" s="3">
-        <v>2691900</v>
+        <v>2697800</v>
       </c>
       <c r="K46" s="3">
         <v>1854300</v>
@@ -2164,25 +2164,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1260400</v>
+        <v>1263200</v>
       </c>
       <c r="E47" s="3">
-        <v>743900</v>
+        <v>745500</v>
       </c>
       <c r="F47" s="3">
-        <v>683800</v>
+        <v>685300</v>
       </c>
       <c r="G47" s="3">
-        <v>399300</v>
+        <v>400200</v>
       </c>
       <c r="H47" s="3">
-        <v>325500</v>
+        <v>326200</v>
       </c>
       <c r="I47" s="3">
-        <v>178500</v>
+        <v>178900</v>
       </c>
       <c r="J47" s="3">
-        <v>114700</v>
+        <v>115000</v>
       </c>
       <c r="K47" s="3">
         <v>163800</v>
@@ -2206,25 +2206,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1541500</v>
+        <v>1544800</v>
       </c>
       <c r="E48" s="3">
-        <v>1447200</v>
+        <v>1450400</v>
       </c>
       <c r="F48" s="3">
-        <v>2045400</v>
+        <v>2049900</v>
       </c>
       <c r="G48" s="3">
-        <v>1924100</v>
+        <v>1928300</v>
       </c>
       <c r="H48" s="3">
-        <v>1466000</v>
+        <v>1469200</v>
       </c>
       <c r="I48" s="3">
-        <v>2673100</v>
+        <v>2678900</v>
       </c>
       <c r="J48" s="3">
-        <v>2333100</v>
+        <v>2338200</v>
       </c>
       <c r="K48" s="3">
         <v>1017600</v>
@@ -2248,25 +2248,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>386400</v>
+        <v>387200</v>
       </c>
       <c r="E49" s="3">
-        <v>296300</v>
+        <v>297000</v>
       </c>
       <c r="F49" s="3">
-        <v>359000</v>
+        <v>359800</v>
       </c>
       <c r="G49" s="3">
-        <v>355000</v>
+        <v>355800</v>
       </c>
       <c r="H49" s="3">
-        <v>477200</v>
+        <v>478200</v>
       </c>
       <c r="I49" s="3">
-        <v>886300</v>
+        <v>888200</v>
       </c>
       <c r="J49" s="3">
-        <v>1060000</v>
+        <v>1062300</v>
       </c>
       <c r="K49" s="3">
         <v>616300</v>
@@ -2374,25 +2374,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>412100</v>
+        <v>413000</v>
       </c>
       <c r="E52" s="3">
-        <v>329400</v>
+        <v>330100</v>
       </c>
       <c r="F52" s="3">
-        <v>690200</v>
+        <v>691700</v>
       </c>
       <c r="G52" s="3">
-        <v>571700</v>
+        <v>572900</v>
       </c>
       <c r="H52" s="3">
-        <v>608900</v>
+        <v>610300</v>
       </c>
       <c r="I52" s="3">
-        <v>610700</v>
+        <v>612000</v>
       </c>
       <c r="J52" s="3">
-        <v>493600</v>
+        <v>494600</v>
       </c>
       <c r="K52" s="3">
         <v>223300</v>
@@ -2458,25 +2458,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7339200</v>
+        <v>7355300</v>
       </c>
       <c r="E54" s="3">
-        <v>7856700</v>
+        <v>7873900</v>
       </c>
       <c r="F54" s="3">
-        <v>7300800</v>
+        <v>7316700</v>
       </c>
       <c r="G54" s="3">
-        <v>6282800</v>
+        <v>6296500</v>
       </c>
       <c r="H54" s="3">
-        <v>6142600</v>
+        <v>6156000</v>
       </c>
       <c r="I54" s="3">
-        <v>5696500</v>
+        <v>5708900</v>
       </c>
       <c r="J54" s="3">
-        <v>4848600</v>
+        <v>4859200</v>
       </c>
       <c r="K54" s="3">
         <v>3875200</v>
@@ -2536,25 +2536,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1485900</v>
+        <v>1489100</v>
       </c>
       <c r="E57" s="3">
-        <v>1166100</v>
+        <v>1168600</v>
       </c>
       <c r="F57" s="3">
-        <v>813800</v>
+        <v>815600</v>
       </c>
       <c r="G57" s="3">
-        <v>543800</v>
+        <v>545000</v>
       </c>
       <c r="H57" s="3">
-        <v>550200</v>
+        <v>551400</v>
       </c>
       <c r="I57" s="3">
-        <v>434100</v>
+        <v>435100</v>
       </c>
       <c r="J57" s="3">
-        <v>344300</v>
+        <v>345100</v>
       </c>
       <c r="K57" s="3">
         <v>273300</v>
@@ -2578,25 +2578,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>722200</v>
+        <v>723700</v>
       </c>
       <c r="E58" s="3">
-        <v>615300</v>
+        <v>616600</v>
       </c>
       <c r="F58" s="3">
-        <v>708100</v>
+        <v>709700</v>
       </c>
       <c r="G58" s="3">
-        <v>266600</v>
+        <v>267200</v>
       </c>
       <c r="H58" s="3">
-        <v>458000</v>
+        <v>459000</v>
       </c>
       <c r="I58" s="3">
-        <v>705600</v>
+        <v>707200</v>
       </c>
       <c r="J58" s="3">
-        <v>498600</v>
+        <v>499700</v>
       </c>
       <c r="K58" s="3">
         <v>205400</v>
@@ -2620,25 +2620,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>363100</v>
+        <v>363900</v>
       </c>
       <c r="E59" s="3">
-        <v>764400</v>
+        <v>766100</v>
       </c>
       <c r="F59" s="3">
-        <v>339200</v>
+        <v>339900</v>
       </c>
       <c r="G59" s="3">
-        <v>235900</v>
+        <v>236400</v>
       </c>
       <c r="H59" s="3">
-        <v>268100</v>
+        <v>268700</v>
       </c>
       <c r="I59" s="3">
-        <v>272000</v>
+        <v>272600</v>
       </c>
       <c r="J59" s="3">
-        <v>261600</v>
+        <v>262200</v>
       </c>
       <c r="K59" s="3">
         <v>238500</v>
@@ -2662,25 +2662,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2571100</v>
+        <v>2576700</v>
       </c>
       <c r="E60" s="3">
-        <v>2545700</v>
+        <v>2551300</v>
       </c>
       <c r="F60" s="3">
-        <v>1861100</v>
+        <v>1865200</v>
       </c>
       <c r="G60" s="3">
-        <v>1046300</v>
+        <v>1048600</v>
       </c>
       <c r="H60" s="3">
-        <v>1276200</v>
+        <v>1279000</v>
       </c>
       <c r="I60" s="3">
-        <v>1411800</v>
+        <v>1414800</v>
       </c>
       <c r="J60" s="3">
-        <v>1104500</v>
+        <v>1107000</v>
       </c>
       <c r="K60" s="3">
         <v>717200</v>
@@ -2704,25 +2704,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1951200</v>
+        <v>1955500</v>
       </c>
       <c r="E61" s="3">
-        <v>2954800</v>
+        <v>2961200</v>
       </c>
       <c r="F61" s="3">
-        <v>3160600</v>
+        <v>3167600</v>
       </c>
       <c r="G61" s="3">
-        <v>2952000</v>
+        <v>2958500</v>
       </c>
       <c r="H61" s="3">
-        <v>2604500</v>
+        <v>2610200</v>
       </c>
       <c r="I61" s="3">
-        <v>2031500</v>
+        <v>2035900</v>
       </c>
       <c r="J61" s="3">
-        <v>1800800</v>
+        <v>1804800</v>
       </c>
       <c r="K61" s="3">
         <v>1460000</v>
@@ -2746,25 +2746,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>364800</v>
+        <v>365600</v>
       </c>
       <c r="E62" s="3">
-        <v>247700</v>
+        <v>248200</v>
       </c>
       <c r="F62" s="3">
-        <v>283100</v>
+        <v>283700</v>
       </c>
       <c r="G62" s="3">
-        <v>303600</v>
+        <v>304300</v>
       </c>
       <c r="H62" s="3">
-        <v>288100</v>
+        <v>288700</v>
       </c>
       <c r="I62" s="3">
-        <v>314900</v>
+        <v>315600</v>
       </c>
       <c r="J62" s="3">
-        <v>236200</v>
+        <v>236700</v>
       </c>
       <c r="K62" s="3">
         <v>227100</v>
@@ -2914,25 +2914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4981100</v>
+        <v>4992000</v>
       </c>
       <c r="E66" s="3">
-        <v>5829200</v>
+        <v>5841900</v>
       </c>
       <c r="F66" s="3">
-        <v>5380700</v>
+        <v>5392400</v>
       </c>
       <c r="G66" s="3">
-        <v>4377900</v>
+        <v>4387400</v>
       </c>
       <c r="H66" s="3">
-        <v>4239700</v>
+        <v>4249000</v>
       </c>
       <c r="I66" s="3">
-        <v>3834300</v>
+        <v>3842700</v>
       </c>
       <c r="J66" s="3">
-        <v>3147700</v>
+        <v>3154600</v>
       </c>
       <c r="K66" s="3">
         <v>2388800</v>
@@ -3142,25 +3142,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1376900</v>
+        <v>1379900</v>
       </c>
       <c r="E72" s="3">
-        <v>1107900</v>
+        <v>1110300</v>
       </c>
       <c r="F72" s="3">
-        <v>1024000</v>
+        <v>1026200</v>
       </c>
       <c r="G72" s="3">
-        <v>969900</v>
+        <v>972000</v>
       </c>
       <c r="H72" s="3">
-        <v>958600</v>
+        <v>960700</v>
       </c>
       <c r="I72" s="3">
-        <v>986700</v>
+        <v>988800</v>
       </c>
       <c r="J72" s="3">
-        <v>1139700</v>
+        <v>1142200</v>
       </c>
       <c r="K72" s="3">
         <v>844000</v>
@@ -3310,25 +3310,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2358100</v>
+        <v>2363300</v>
       </c>
       <c r="E76" s="3">
-        <v>2027500</v>
+        <v>2031900</v>
       </c>
       <c r="F76" s="3">
-        <v>1920100</v>
+        <v>1924300</v>
       </c>
       <c r="G76" s="3">
-        <v>1904900</v>
+        <v>1909100</v>
       </c>
       <c r="H76" s="3">
-        <v>1902800</v>
+        <v>1907000</v>
       </c>
       <c r="I76" s="3">
-        <v>1862200</v>
+        <v>1866300</v>
       </c>
       <c r="J76" s="3">
-        <v>1700900</v>
+        <v>1704600</v>
       </c>
       <c r="K76" s="3">
         <v>1486400</v>
@@ -3441,25 +3441,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>362700</v>
+        <v>363500</v>
       </c>
       <c r="E81" s="3">
-        <v>171300</v>
+        <v>171700</v>
       </c>
       <c r="F81" s="3">
-        <v>179900</v>
+        <v>180300</v>
       </c>
       <c r="G81" s="3">
-        <v>75200</v>
+        <v>75400</v>
       </c>
       <c r="H81" s="3">
-        <v>231700</v>
+        <v>232200</v>
       </c>
       <c r="I81" s="3">
-        <v>307400</v>
+        <v>308100</v>
       </c>
       <c r="J81" s="3">
-        <v>314500</v>
+        <v>315200</v>
       </c>
       <c r="K81" s="3">
         <v>281300</v>
@@ -3501,25 +3501,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>205600</v>
+        <v>206000</v>
       </c>
       <c r="E83" s="3">
-        <v>184000</v>
+        <v>184400</v>
       </c>
       <c r="F83" s="3">
-        <v>255200</v>
+        <v>255800</v>
       </c>
       <c r="G83" s="3">
-        <v>230500</v>
+        <v>231000</v>
       </c>
       <c r="H83" s="3">
-        <v>163600</v>
+        <v>164000</v>
       </c>
       <c r="I83" s="3">
-        <v>141900</v>
+        <v>142200</v>
       </c>
       <c r="J83" s="3">
-        <v>222300</v>
+        <v>222700</v>
       </c>
       <c r="K83" s="3">
         <v>187600</v>
@@ -3753,25 +3753,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>403700</v>
+        <v>404600</v>
       </c>
       <c r="E89" s="3">
-        <v>520800</v>
+        <v>522000</v>
       </c>
       <c r="F89" s="3">
-        <v>632000</v>
+        <v>633400</v>
       </c>
       <c r="G89" s="3">
-        <v>589100</v>
+        <v>590400</v>
       </c>
       <c r="H89" s="3">
-        <v>581800</v>
+        <v>583100</v>
       </c>
       <c r="I89" s="3">
-        <v>350200</v>
+        <v>351000</v>
       </c>
       <c r="J89" s="3">
-        <v>506300</v>
+        <v>507400</v>
       </c>
       <c r="K89" s="3">
         <v>599000</v>
@@ -3813,25 +3813,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-187100</v>
+        <v>-187600</v>
       </c>
       <c r="E91" s="3">
-        <v>-207100</v>
+        <v>-207600</v>
       </c>
       <c r="F91" s="3">
-        <v>-194500</v>
+        <v>-194900</v>
       </c>
       <c r="G91" s="3">
-        <v>-205400</v>
+        <v>-205900</v>
       </c>
       <c r="H91" s="3">
-        <v>-237300</v>
+        <v>-237800</v>
       </c>
       <c r="I91" s="3">
-        <v>-262300</v>
+        <v>-262800</v>
       </c>
       <c r="J91" s="3">
-        <v>-204500</v>
+        <v>-204900</v>
       </c>
       <c r="K91" s="3">
         <v>-150300</v>
@@ -3939,25 +3939,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1591700</v>
+        <v>1595200</v>
       </c>
       <c r="E94" s="3">
-        <v>145800</v>
+        <v>146200</v>
       </c>
       <c r="F94" s="3">
-        <v>-430300</v>
+        <v>-431200</v>
       </c>
       <c r="G94" s="3">
-        <v>-369600</v>
+        <v>-370400</v>
       </c>
       <c r="H94" s="3">
-        <v>-640000</v>
+        <v>-641400</v>
       </c>
       <c r="I94" s="3">
-        <v>-276300</v>
+        <v>-276900</v>
       </c>
       <c r="J94" s="3">
-        <v>-372300</v>
+        <v>-373200</v>
       </c>
       <c r="K94" s="3">
         <v>-150000</v>
@@ -3999,25 +3999,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-128500</v>
+        <v>-128800</v>
       </c>
       <c r="E96" s="3">
-        <v>-142100</v>
+        <v>-142400</v>
       </c>
       <c r="F96" s="3">
-        <v>-57400</v>
+        <v>-57500</v>
       </c>
       <c r="G96" s="3">
-        <v>-120100</v>
+        <v>-120400</v>
       </c>
       <c r="H96" s="3">
-        <v>-162900</v>
+        <v>-163200</v>
       </c>
       <c r="I96" s="3">
-        <v>-189400</v>
+        <v>-189800</v>
       </c>
       <c r="J96" s="3">
-        <v>-175900</v>
+        <v>-176300</v>
       </c>
       <c r="K96" s="3">
         <v>-155600</v>
@@ -4167,25 +4167,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1391800</v>
+        <v>-1394900</v>
       </c>
       <c r="E100" s="3">
-        <v>-675800</v>
+        <v>-677300</v>
       </c>
       <c r="F100" s="3">
-        <v>-119300</v>
+        <v>-119600</v>
       </c>
       <c r="G100" s="3">
-        <v>-588500</v>
+        <v>-589800</v>
       </c>
       <c r="H100" s="3">
-        <v>-161300</v>
+        <v>-161700</v>
       </c>
       <c r="I100" s="3">
-        <v>68500</v>
+        <v>68700</v>
       </c>
       <c r="J100" s="3">
-        <v>187000</v>
+        <v>187400</v>
       </c>
       <c r="K100" s="3">
         <v>-471600</v>
@@ -4215,7 +4215,7 @@
         <v>10500</v>
       </c>
       <c r="F101" s="3">
-        <v>27500</v>
+        <v>27600</v>
       </c>
       <c r="G101" s="3">
         <v>1800</v>
@@ -4251,25 +4251,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>594900</v>
+        <v>596200</v>
       </c>
       <c r="E102" s="3">
         <v>1300</v>
       </c>
       <c r="F102" s="3">
-        <v>110000</v>
+        <v>110200</v>
       </c>
       <c r="G102" s="3">
-        <v>-367300</v>
+        <v>-368100</v>
       </c>
       <c r="H102" s="3">
-        <v>-214100</v>
+        <v>-214600</v>
       </c>
       <c r="I102" s="3">
-        <v>146600</v>
+        <v>146900</v>
       </c>
       <c r="J102" s="3">
-        <v>316500</v>
+        <v>317100</v>
       </c>
       <c r="K102" s="3">
         <v>-23300</v>

--- a/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/UGP_YR_FIN.xlsx
@@ -728,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>28991200</v>
+        <v>29535600</v>
       </c>
       <c r="E8" s="3">
-        <v>22148500</v>
+        <v>22564400</v>
       </c>
       <c r="F8" s="3">
-        <v>14947900</v>
+        <v>15228600</v>
       </c>
       <c r="G8" s="3">
-        <v>18023900</v>
+        <v>18362300</v>
       </c>
       <c r="H8" s="3">
-        <v>18306500</v>
+        <v>18650200</v>
       </c>
       <c r="I8" s="3">
-        <v>15991800</v>
+        <v>16292100</v>
       </c>
       <c r="J8" s="3">
-        <v>15612900</v>
+        <v>15906100</v>
       </c>
       <c r="K8" s="3">
         <v>14154300</v>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>27506000</v>
+        <v>28022500</v>
       </c>
       <c r="E9" s="3">
-        <v>21158500</v>
+        <v>21555800</v>
       </c>
       <c r="F9" s="3">
-        <v>29405000</v>
+        <v>29957100</v>
       </c>
       <c r="G9" s="3">
-        <v>16790500</v>
+        <v>17105800</v>
       </c>
       <c r="H9" s="3">
-        <v>17063000</v>
+        <v>17383400</v>
       </c>
       <c r="I9" s="3">
-        <v>14619600</v>
+        <v>14894100</v>
       </c>
       <c r="J9" s="3">
-        <v>14198000</v>
+        <v>14464600</v>
       </c>
       <c r="K9" s="3">
         <v>12896800</v>
@@ -812,25 +812,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1485200</v>
+        <v>1513100</v>
       </c>
       <c r="E10" s="3">
-        <v>990000</v>
+        <v>1008600</v>
       </c>
       <c r="F10" s="3">
-        <v>-14457100</v>
+        <v>-14728600</v>
       </c>
       <c r="G10" s="3">
-        <v>1233400</v>
+        <v>1256600</v>
       </c>
       <c r="H10" s="3">
-        <v>1243500</v>
+        <v>1266800</v>
       </c>
       <c r="I10" s="3">
-        <v>1372200</v>
+        <v>1398000</v>
       </c>
       <c r="J10" s="3">
-        <v>1414900</v>
+        <v>1441500</v>
       </c>
       <c r="K10" s="3">
         <v>1257500</v>
@@ -878,10 +878,10 @@
         <v>8</v>
       </c>
       <c r="F12" s="3">
-        <v>12900</v>
+        <v>13100</v>
       </c>
       <c r="G12" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>8</v>
@@ -959,13 +959,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>-43000</v>
+        <v>-43800</v>
       </c>
       <c r="F14" s="3">
-        <v>-27600</v>
+        <v>-28100</v>
       </c>
       <c r="G14" s="3">
-        <v>119700</v>
+        <v>122000</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1004,19 +1004,19 @@
         <v>8</v>
       </c>
       <c r="F15" s="3">
-        <v>157900</v>
+        <v>160900</v>
       </c>
       <c r="G15" s="3">
-        <v>140400</v>
+        <v>143000</v>
       </c>
       <c r="H15" s="3">
-        <v>17000</v>
+        <v>17300</v>
       </c>
       <c r="I15" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="J15" s="3">
-        <v>109100</v>
+        <v>111100</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1055,25 +1055,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>28315300</v>
+        <v>28847000</v>
       </c>
       <c r="E17" s="3">
-        <v>21791300</v>
+        <v>22200500</v>
       </c>
       <c r="F17" s="3">
-        <v>14644700</v>
+        <v>14919700</v>
       </c>
       <c r="G17" s="3">
-        <v>17763900</v>
+        <v>18097400</v>
       </c>
       <c r="H17" s="3">
-        <v>17926100</v>
+        <v>18262700</v>
       </c>
       <c r="I17" s="3">
-        <v>15423900</v>
+        <v>15713500</v>
       </c>
       <c r="J17" s="3">
-        <v>14984600</v>
+        <v>15265900</v>
       </c>
       <c r="K17" s="3">
         <v>13602300</v>
@@ -1097,25 +1097,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>675900</v>
+        <v>688600</v>
       </c>
       <c r="E18" s="3">
-        <v>357100</v>
+        <v>363800</v>
       </c>
       <c r="F18" s="3">
-        <v>303100</v>
+        <v>308800</v>
       </c>
       <c r="G18" s="3">
-        <v>260100</v>
+        <v>264900</v>
       </c>
       <c r="H18" s="3">
-        <v>380400</v>
+        <v>387500</v>
       </c>
       <c r="I18" s="3">
-        <v>567900</v>
+        <v>578500</v>
       </c>
       <c r="J18" s="3">
-        <v>628400</v>
+        <v>640200</v>
       </c>
       <c r="K18" s="3">
         <v>552000</v>
@@ -1157,25 +1157,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>25100</v>
+        <v>25500</v>
       </c>
       <c r="E20" s="3">
-        <v>13100</v>
+        <v>13400</v>
       </c>
       <c r="F20" s="3">
-        <v>44000</v>
+        <v>44800</v>
       </c>
       <c r="G20" s="3">
-        <v>100400</v>
+        <v>102300</v>
       </c>
       <c r="H20" s="3">
-        <v>155700</v>
+        <v>158600</v>
       </c>
       <c r="I20" s="3">
-        <v>118600</v>
+        <v>120900</v>
       </c>
       <c r="J20" s="3">
-        <v>63900</v>
+        <v>65100</v>
       </c>
       <c r="K20" s="3">
         <v>51600</v>
@@ -1199,25 +1199,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>907000</v>
+        <v>924100</v>
       </c>
       <c r="E21" s="3">
-        <v>554700</v>
+        <v>565200</v>
       </c>
       <c r="F21" s="3">
-        <v>602900</v>
+        <v>614300</v>
       </c>
       <c r="G21" s="3">
-        <v>591500</v>
+        <v>602700</v>
       </c>
       <c r="H21" s="3">
-        <v>700000</v>
+        <v>713200</v>
       </c>
       <c r="I21" s="3">
-        <v>828700</v>
+        <v>844300</v>
       </c>
       <c r="J21" s="3">
-        <v>915000</v>
+        <v>932300</v>
       </c>
       <c r="K21" s="3">
         <v>796900</v>
@@ -1241,25 +1241,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>321600</v>
+        <v>327600</v>
       </c>
       <c r="E22" s="3">
-        <v>167100</v>
+        <v>170200</v>
       </c>
       <c r="F22" s="3">
-        <v>155100</v>
+        <v>158000</v>
       </c>
       <c r="G22" s="3">
-        <v>202700</v>
+        <v>206500</v>
       </c>
       <c r="H22" s="3">
-        <v>178600</v>
+        <v>181900</v>
       </c>
       <c r="I22" s="3">
-        <v>214400</v>
+        <v>218400</v>
       </c>
       <c r="J22" s="3">
-        <v>234000</v>
+        <v>238400</v>
       </c>
       <c r="K22" s="3">
         <v>183200</v>
@@ -1283,25 +1283,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>379400</v>
+        <v>386500</v>
       </c>
       <c r="E23" s="3">
-        <v>203200</v>
+        <v>207000</v>
       </c>
       <c r="F23" s="3">
-        <v>192100</v>
+        <v>195700</v>
       </c>
       <c r="G23" s="3">
-        <v>157700</v>
+        <v>160700</v>
       </c>
       <c r="H23" s="3">
-        <v>357500</v>
+        <v>364200</v>
       </c>
       <c r="I23" s="3">
-        <v>472100</v>
+        <v>481000</v>
       </c>
       <c r="J23" s="3">
-        <v>458300</v>
+        <v>466900</v>
       </c>
       <c r="K23" s="3">
         <v>420400</v>
@@ -1325,25 +1325,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>68900</v>
+        <v>70200</v>
       </c>
       <c r="E24" s="3">
-        <v>38000</v>
+        <v>38700</v>
       </c>
       <c r="F24" s="3">
-        <v>61500</v>
+        <v>62600</v>
       </c>
       <c r="G24" s="3">
-        <v>76400</v>
+        <v>77900</v>
       </c>
       <c r="H24" s="3">
-        <v>128900</v>
+        <v>131300</v>
       </c>
       <c r="I24" s="3">
-        <v>164100</v>
+        <v>167200</v>
       </c>
       <c r="J24" s="3">
-        <v>141300</v>
+        <v>143900</v>
       </c>
       <c r="K24" s="3">
         <v>137400</v>
@@ -1409,25 +1409,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>310500</v>
+        <v>316300</v>
       </c>
       <c r="E26" s="3">
-        <v>165200</v>
+        <v>168300</v>
       </c>
       <c r="F26" s="3">
-        <v>130600</v>
+        <v>133100</v>
       </c>
       <c r="G26" s="3">
-        <v>81300</v>
+        <v>82900</v>
       </c>
       <c r="H26" s="3">
-        <v>228500</v>
+        <v>232800</v>
       </c>
       <c r="I26" s="3">
-        <v>308000</v>
+        <v>313800</v>
       </c>
       <c r="J26" s="3">
-        <v>317000</v>
+        <v>323000</v>
       </c>
       <c r="K26" s="3">
         <v>283100</v>
@@ -1451,25 +1451,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>302600</v>
+        <v>308200</v>
       </c>
       <c r="E27" s="3">
-        <v>158500</v>
+        <v>161500</v>
       </c>
       <c r="F27" s="3">
-        <v>123700</v>
+        <v>126000</v>
       </c>
       <c r="G27" s="3">
-        <v>75400</v>
+        <v>76800</v>
       </c>
       <c r="H27" s="3">
-        <v>232200</v>
+        <v>236600</v>
       </c>
       <c r="I27" s="3">
-        <v>308100</v>
+        <v>313900</v>
       </c>
       <c r="J27" s="3">
-        <v>315200</v>
+        <v>321100</v>
       </c>
       <c r="K27" s="3">
         <v>281300</v>
@@ -1535,13 +1535,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>60900</v>
+        <v>62100</v>
       </c>
       <c r="E29" s="3">
-        <v>13200</v>
+        <v>13400</v>
       </c>
       <c r="F29" s="3">
-        <v>56600</v>
+        <v>57700</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1661,25 +1661,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-25100</v>
+        <v>-25500</v>
       </c>
       <c r="E32" s="3">
-        <v>-13100</v>
+        <v>-13400</v>
       </c>
       <c r="F32" s="3">
-        <v>-44000</v>
+        <v>-44800</v>
       </c>
       <c r="G32" s="3">
-        <v>-100400</v>
+        <v>-102300</v>
       </c>
       <c r="H32" s="3">
-        <v>-155700</v>
+        <v>-158600</v>
       </c>
       <c r="I32" s="3">
-        <v>-118600</v>
+        <v>-120900</v>
       </c>
       <c r="J32" s="3">
-        <v>-63900</v>
+        <v>-65100</v>
       </c>
       <c r="K32" s="3">
         <v>-51600</v>
@@ -1703,25 +1703,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>363500</v>
+        <v>370300</v>
       </c>
       <c r="E33" s="3">
-        <v>171700</v>
+        <v>174900</v>
       </c>
       <c r="F33" s="3">
-        <v>180300</v>
+        <v>183700</v>
       </c>
       <c r="G33" s="3">
-        <v>75400</v>
+        <v>76800</v>
       </c>
       <c r="H33" s="3">
-        <v>232200</v>
+        <v>236600</v>
       </c>
       <c r="I33" s="3">
-        <v>308100</v>
+        <v>313900</v>
       </c>
       <c r="J33" s="3">
-        <v>315200</v>
+        <v>321100</v>
       </c>
       <c r="K33" s="3">
         <v>281300</v>
@@ -1787,25 +1787,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>363500</v>
+        <v>370300</v>
       </c>
       <c r="E35" s="3">
-        <v>171700</v>
+        <v>174900</v>
       </c>
       <c r="F35" s="3">
-        <v>180300</v>
+        <v>183700</v>
       </c>
       <c r="G35" s="3">
-        <v>75400</v>
+        <v>76800</v>
       </c>
       <c r="H35" s="3">
-        <v>232200</v>
+        <v>236600</v>
       </c>
       <c r="I35" s="3">
-        <v>308100</v>
+        <v>313900</v>
       </c>
       <c r="J35" s="3">
-        <v>315200</v>
+        <v>321100</v>
       </c>
       <c r="K35" s="3">
         <v>281300</v>
@@ -1912,25 +1912,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1134700</v>
+        <v>1156000</v>
       </c>
       <c r="E41" s="3">
-        <v>460200</v>
+        <v>468900</v>
       </c>
       <c r="F41" s="3">
-        <v>537200</v>
+        <v>547300</v>
       </c>
       <c r="G41" s="3">
-        <v>427000</v>
+        <v>435000</v>
       </c>
       <c r="H41" s="3">
-        <v>795000</v>
+        <v>810000</v>
       </c>
       <c r="I41" s="3">
-        <v>1009600</v>
+        <v>1028600</v>
       </c>
       <c r="J41" s="3">
-        <v>1725400</v>
+        <v>1757800</v>
       </c>
       <c r="K41" s="3">
         <v>505700</v>
@@ -1954,25 +1954,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>105000</v>
+        <v>107000</v>
       </c>
       <c r="E42" s="3">
-        <v>364100</v>
+        <v>371000</v>
       </c>
       <c r="F42" s="3">
-        <v>1015900</v>
+        <v>1035000</v>
       </c>
       <c r="G42" s="3">
-        <v>623700</v>
+        <v>635400</v>
       </c>
       <c r="H42" s="3">
-        <v>575900</v>
+        <v>586700</v>
       </c>
       <c r="I42" s="3">
-        <v>518100</v>
+        <v>527900</v>
       </c>
       <c r="J42" s="3">
-        <v>570200</v>
+        <v>580900</v>
       </c>
       <c r="K42" s="3">
         <v>150300</v>
@@ -1996,25 +1996,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1492100</v>
+        <v>1520200</v>
       </c>
       <c r="E43" s="3">
-        <v>1195400</v>
+        <v>1217800</v>
       </c>
       <c r="F43" s="3">
-        <v>1077200</v>
+        <v>1097500</v>
       </c>
       <c r="G43" s="3">
-        <v>1122200</v>
+        <v>1143300</v>
       </c>
       <c r="H43" s="3">
-        <v>1088500</v>
+        <v>1109000</v>
       </c>
       <c r="I43" s="3">
-        <v>1863500</v>
+        <v>1898500</v>
       </c>
       <c r="J43" s="3">
-        <v>1654000</v>
+        <v>1685100</v>
       </c>
       <c r="K43" s="3">
         <v>716300</v>
@@ -2038,25 +2038,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>990200</v>
+        <v>1008800</v>
       </c>
       <c r="E44" s="3">
-        <v>791000</v>
+        <v>805800</v>
       </c>
       <c r="F44" s="3">
-        <v>776300</v>
+        <v>790900</v>
       </c>
       <c r="G44" s="3">
-        <v>749900</v>
+        <v>764000</v>
       </c>
       <c r="H44" s="3">
-        <v>677100</v>
+        <v>689800</v>
       </c>
       <c r="I44" s="3">
-        <v>709200</v>
+        <v>722500</v>
       </c>
       <c r="J44" s="3">
-        <v>1118700</v>
+        <v>1139700</v>
       </c>
       <c r="K44" s="3">
         <v>466800</v>
@@ -2080,25 +2080,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>25000</v>
+        <v>25400</v>
       </c>
       <c r="E45" s="3">
-        <v>2240200</v>
+        <v>2282300</v>
       </c>
       <c r="F45" s="3">
-        <v>123300</v>
+        <v>125600</v>
       </c>
       <c r="G45" s="3">
-        <v>116400</v>
+        <v>118600</v>
       </c>
       <c r="H45" s="3">
-        <v>135600</v>
+        <v>138200</v>
       </c>
       <c r="I45" s="3">
-        <v>122400</v>
+        <v>124700</v>
       </c>
       <c r="J45" s="3">
-        <v>115500</v>
+        <v>117700</v>
       </c>
       <c r="K45" s="3">
         <v>15200</v>
@@ -2122,25 +2122,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3747100</v>
+        <v>3817400</v>
       </c>
       <c r="E46" s="3">
-        <v>5050900</v>
+        <v>5145700</v>
       </c>
       <c r="F46" s="3">
-        <v>3530000</v>
+        <v>3596300</v>
       </c>
       <c r="G46" s="3">
-        <v>3039300</v>
+        <v>3096400</v>
       </c>
       <c r="H46" s="3">
-        <v>3272200</v>
+        <v>3333600</v>
       </c>
       <c r="I46" s="3">
-        <v>3126500</v>
+        <v>3185200</v>
       </c>
       <c r="J46" s="3">
-        <v>2697800</v>
+        <v>2748500</v>
       </c>
       <c r="K46" s="3">
         <v>1854300</v>
@@ -2164,25 +2164,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1263200</v>
+        <v>1286900</v>
       </c>
       <c r="E47" s="3">
-        <v>745500</v>
+        <v>759500</v>
       </c>
       <c r="F47" s="3">
-        <v>685300</v>
+        <v>698200</v>
       </c>
       <c r="G47" s="3">
-        <v>400200</v>
+        <v>407700</v>
       </c>
       <c r="H47" s="3">
-        <v>326200</v>
+        <v>332300</v>
       </c>
       <c r="I47" s="3">
-        <v>178900</v>
+        <v>182200</v>
       </c>
       <c r="J47" s="3">
-        <v>115000</v>
+        <v>117100</v>
       </c>
       <c r="K47" s="3">
         <v>163800</v>
@@ -2206,25 +2206,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1544800</v>
+        <v>1573800</v>
       </c>
       <c r="E48" s="3">
-        <v>1450400</v>
+        <v>1477600</v>
       </c>
       <c r="F48" s="3">
-        <v>2049900</v>
+        <v>2088400</v>
       </c>
       <c r="G48" s="3">
-        <v>1928300</v>
+        <v>1964500</v>
       </c>
       <c r="H48" s="3">
-        <v>1469200</v>
+        <v>1496800</v>
       </c>
       <c r="I48" s="3">
-        <v>2678900</v>
+        <v>2729200</v>
       </c>
       <c r="J48" s="3">
-        <v>2338200</v>
+        <v>2382100</v>
       </c>
       <c r="K48" s="3">
         <v>1017600</v>
@@ -2248,25 +2248,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>387200</v>
+        <v>394500</v>
       </c>
       <c r="E49" s="3">
-        <v>297000</v>
+        <v>302500</v>
       </c>
       <c r="F49" s="3">
-        <v>359800</v>
+        <v>366600</v>
       </c>
       <c r="G49" s="3">
-        <v>355800</v>
+        <v>362400</v>
       </c>
       <c r="H49" s="3">
-        <v>478200</v>
+        <v>487200</v>
       </c>
       <c r="I49" s="3">
-        <v>888200</v>
+        <v>904900</v>
       </c>
       <c r="J49" s="3">
-        <v>1062300</v>
+        <v>1082300</v>
       </c>
       <c r="K49" s="3">
         <v>616300</v>
@@ -2374,25 +2374,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>413000</v>
+        <v>420700</v>
       </c>
       <c r="E52" s="3">
-        <v>330100</v>
+        <v>336300</v>
       </c>
       <c r="F52" s="3">
-        <v>691700</v>
+        <v>704700</v>
       </c>
       <c r="G52" s="3">
-        <v>572900</v>
+        <v>583700</v>
       </c>
       <c r="H52" s="3">
-        <v>610300</v>
+        <v>621700</v>
       </c>
       <c r="I52" s="3">
-        <v>612000</v>
+        <v>623500</v>
       </c>
       <c r="J52" s="3">
-        <v>494600</v>
+        <v>503900</v>
       </c>
       <c r="K52" s="3">
         <v>223300</v>
@@ -2458,25 +2458,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7355300</v>
+        <v>7493400</v>
       </c>
       <c r="E54" s="3">
-        <v>7873900</v>
+        <v>8021700</v>
       </c>
       <c r="F54" s="3">
-        <v>7316700</v>
+        <v>7454100</v>
       </c>
       <c r="G54" s="3">
-        <v>6296500</v>
+        <v>6414700</v>
       </c>
       <c r="H54" s="3">
-        <v>6156000</v>
+        <v>6271600</v>
       </c>
       <c r="I54" s="3">
-        <v>5708900</v>
+        <v>5816100</v>
       </c>
       <c r="J54" s="3">
-        <v>4859200</v>
+        <v>4950400</v>
       </c>
       <c r="K54" s="3">
         <v>3875200</v>
@@ -2536,25 +2536,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1489100</v>
+        <v>1517100</v>
       </c>
       <c r="E57" s="3">
-        <v>1168600</v>
+        <v>1190600</v>
       </c>
       <c r="F57" s="3">
-        <v>815600</v>
+        <v>830900</v>
       </c>
       <c r="G57" s="3">
-        <v>545000</v>
+        <v>555200</v>
       </c>
       <c r="H57" s="3">
-        <v>551400</v>
+        <v>561700</v>
       </c>
       <c r="I57" s="3">
-        <v>435100</v>
+        <v>443200</v>
       </c>
       <c r="J57" s="3">
-        <v>345100</v>
+        <v>351600</v>
       </c>
       <c r="K57" s="3">
         <v>273300</v>
@@ -2578,25 +2578,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>723700</v>
+        <v>737300</v>
       </c>
       <c r="E58" s="3">
-        <v>616600</v>
+        <v>628200</v>
       </c>
       <c r="F58" s="3">
-        <v>709700</v>
+        <v>723000</v>
       </c>
       <c r="G58" s="3">
-        <v>267200</v>
+        <v>272200</v>
       </c>
       <c r="H58" s="3">
-        <v>459000</v>
+        <v>467600</v>
       </c>
       <c r="I58" s="3">
-        <v>707200</v>
+        <v>720500</v>
       </c>
       <c r="J58" s="3">
-        <v>499700</v>
+        <v>509100</v>
       </c>
       <c r="K58" s="3">
         <v>205400</v>
@@ -2620,25 +2620,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>363900</v>
+        <v>370700</v>
       </c>
       <c r="E59" s="3">
-        <v>766100</v>
+        <v>780400</v>
       </c>
       <c r="F59" s="3">
-        <v>339900</v>
+        <v>346300</v>
       </c>
       <c r="G59" s="3">
-        <v>236400</v>
+        <v>240800</v>
       </c>
       <c r="H59" s="3">
-        <v>268700</v>
+        <v>273700</v>
       </c>
       <c r="I59" s="3">
-        <v>272600</v>
+        <v>277700</v>
       </c>
       <c r="J59" s="3">
-        <v>262200</v>
+        <v>267100</v>
       </c>
       <c r="K59" s="3">
         <v>238500</v>
@@ -2662,25 +2662,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2576700</v>
+        <v>2625100</v>
       </c>
       <c r="E60" s="3">
-        <v>2551300</v>
+        <v>2599200</v>
       </c>
       <c r="F60" s="3">
-        <v>1865200</v>
+        <v>1900200</v>
       </c>
       <c r="G60" s="3">
-        <v>1048600</v>
+        <v>1068300</v>
       </c>
       <c r="H60" s="3">
-        <v>1279000</v>
+        <v>1303000</v>
       </c>
       <c r="I60" s="3">
-        <v>1414800</v>
+        <v>1441400</v>
       </c>
       <c r="J60" s="3">
-        <v>1107000</v>
+        <v>1127700</v>
       </c>
       <c r="K60" s="3">
         <v>717200</v>
@@ -2704,25 +2704,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1955500</v>
+        <v>1992200</v>
       </c>
       <c r="E61" s="3">
-        <v>2961200</v>
+        <v>3016800</v>
       </c>
       <c r="F61" s="3">
-        <v>3167600</v>
+        <v>3227000</v>
       </c>
       <c r="G61" s="3">
-        <v>2958500</v>
+        <v>3014000</v>
       </c>
       <c r="H61" s="3">
-        <v>2610200</v>
+        <v>2659200</v>
       </c>
       <c r="I61" s="3">
-        <v>2035900</v>
+        <v>2074200</v>
       </c>
       <c r="J61" s="3">
-        <v>1804800</v>
+        <v>1838600</v>
       </c>
       <c r="K61" s="3">
         <v>1460000</v>
@@ -2746,25 +2746,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>365600</v>
+        <v>372500</v>
       </c>
       <c r="E62" s="3">
-        <v>248200</v>
+        <v>252900</v>
       </c>
       <c r="F62" s="3">
-        <v>283700</v>
+        <v>289100</v>
       </c>
       <c r="G62" s="3">
-        <v>304300</v>
+        <v>310000</v>
       </c>
       <c r="H62" s="3">
-        <v>288700</v>
+        <v>294100</v>
       </c>
       <c r="I62" s="3">
-        <v>315600</v>
+        <v>321500</v>
       </c>
       <c r="J62" s="3">
-        <v>236700</v>
+        <v>241100</v>
       </c>
       <c r="K62" s="3">
         <v>227100</v>
@@ -2914,25 +2914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4992000</v>
+        <v>5085700</v>
       </c>
       <c r="E66" s="3">
-        <v>5841900</v>
+        <v>5951600</v>
       </c>
       <c r="F66" s="3">
-        <v>5392400</v>
+        <v>5493700</v>
       </c>
       <c r="G66" s="3">
-        <v>4387400</v>
+        <v>4469800</v>
       </c>
       <c r="H66" s="3">
-        <v>4249000</v>
+        <v>4328800</v>
       </c>
       <c r="I66" s="3">
-        <v>3842700</v>
+        <v>3914800</v>
       </c>
       <c r="J66" s="3">
-        <v>3154600</v>
+        <v>3213900</v>
       </c>
       <c r="K66" s="3">
         <v>2388800</v>
@@ -3142,25 +3142,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1379900</v>
+        <v>1405800</v>
       </c>
       <c r="E72" s="3">
-        <v>1110300</v>
+        <v>1131200</v>
       </c>
       <c r="F72" s="3">
-        <v>1026200</v>
+        <v>1045500</v>
       </c>
       <c r="G72" s="3">
-        <v>972000</v>
+        <v>990300</v>
       </c>
       <c r="H72" s="3">
-        <v>960700</v>
+        <v>978800</v>
       </c>
       <c r="I72" s="3">
-        <v>988800</v>
+        <v>1007400</v>
       </c>
       <c r="J72" s="3">
-        <v>1142200</v>
+        <v>1163600</v>
       </c>
       <c r="K72" s="3">
         <v>844000</v>
@@ -3310,25 +3310,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2363300</v>
+        <v>2407700</v>
       </c>
       <c r="E76" s="3">
-        <v>2031900</v>
+        <v>2070100</v>
       </c>
       <c r="F76" s="3">
-        <v>1924300</v>
+        <v>1960400</v>
       </c>
       <c r="G76" s="3">
-        <v>1909100</v>
+        <v>1944900</v>
       </c>
       <c r="H76" s="3">
-        <v>1907000</v>
+        <v>1942800</v>
       </c>
       <c r="I76" s="3">
-        <v>1866300</v>
+        <v>1901300</v>
       </c>
       <c r="J76" s="3">
-        <v>1704600</v>
+        <v>1736600</v>
       </c>
       <c r="K76" s="3">
         <v>1486400</v>
@@ -3441,25 +3441,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>363500</v>
+        <v>370300</v>
       </c>
       <c r="E81" s="3">
-        <v>171700</v>
+        <v>174900</v>
       </c>
       <c r="F81" s="3">
-        <v>180300</v>
+        <v>183700</v>
       </c>
       <c r="G81" s="3">
-        <v>75400</v>
+        <v>76800</v>
       </c>
       <c r="H81" s="3">
-        <v>232200</v>
+        <v>236600</v>
       </c>
       <c r="I81" s="3">
-        <v>308100</v>
+        <v>313900</v>
       </c>
       <c r="J81" s="3">
-        <v>315200</v>
+        <v>321100</v>
       </c>
       <c r="K81" s="3">
         <v>281300</v>
@@ -3501,25 +3501,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>206000</v>
+        <v>209900</v>
       </c>
       <c r="E83" s="3">
-        <v>184400</v>
+        <v>187900</v>
       </c>
       <c r="F83" s="3">
-        <v>255800</v>
+        <v>260600</v>
       </c>
       <c r="G83" s="3">
-        <v>231000</v>
+        <v>235400</v>
       </c>
       <c r="H83" s="3">
-        <v>164000</v>
+        <v>167100</v>
       </c>
       <c r="I83" s="3">
-        <v>142200</v>
+        <v>144900</v>
       </c>
       <c r="J83" s="3">
-        <v>222700</v>
+        <v>226900</v>
       </c>
       <c r="K83" s="3">
         <v>187600</v>
@@ -3753,25 +3753,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>404600</v>
+        <v>412200</v>
       </c>
       <c r="E89" s="3">
-        <v>522000</v>
+        <v>531800</v>
       </c>
       <c r="F89" s="3">
-        <v>633400</v>
+        <v>645300</v>
       </c>
       <c r="G89" s="3">
-        <v>590400</v>
+        <v>601400</v>
       </c>
       <c r="H89" s="3">
-        <v>583100</v>
+        <v>594100</v>
       </c>
       <c r="I89" s="3">
-        <v>351000</v>
+        <v>357600</v>
       </c>
       <c r="J89" s="3">
-        <v>507400</v>
+        <v>516900</v>
       </c>
       <c r="K89" s="3">
         <v>599000</v>
@@ -3813,25 +3813,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-187600</v>
+        <v>-191100</v>
       </c>
       <c r="E91" s="3">
-        <v>-207600</v>
+        <v>-211500</v>
       </c>
       <c r="F91" s="3">
-        <v>-194900</v>
+        <v>-198600</v>
       </c>
       <c r="G91" s="3">
-        <v>-205900</v>
+        <v>-209800</v>
       </c>
       <c r="H91" s="3">
-        <v>-237800</v>
+        <v>-242300</v>
       </c>
       <c r="I91" s="3">
-        <v>-262800</v>
+        <v>-267800</v>
       </c>
       <c r="J91" s="3">
-        <v>-204900</v>
+        <v>-208800</v>
       </c>
       <c r="K91" s="3">
         <v>-150300</v>
@@ -3939,25 +3939,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1595200</v>
+        <v>1625100</v>
       </c>
       <c r="E94" s="3">
-        <v>146200</v>
+        <v>148900</v>
       </c>
       <c r="F94" s="3">
-        <v>-431200</v>
+        <v>-439300</v>
       </c>
       <c r="G94" s="3">
-        <v>-370400</v>
+        <v>-377400</v>
       </c>
       <c r="H94" s="3">
-        <v>-641400</v>
+        <v>-653400</v>
       </c>
       <c r="I94" s="3">
-        <v>-276900</v>
+        <v>-282100</v>
       </c>
       <c r="J94" s="3">
-        <v>-373200</v>
+        <v>-380200</v>
       </c>
       <c r="K94" s="3">
         <v>-150000</v>
@@ -3999,25 +3999,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-128800</v>
+        <v>-131200</v>
       </c>
       <c r="E96" s="3">
-        <v>-142400</v>
+        <v>-145100</v>
       </c>
       <c r="F96" s="3">
-        <v>-57500</v>
+        <v>-58600</v>
       </c>
       <c r="G96" s="3">
-        <v>-120400</v>
+        <v>-122600</v>
       </c>
       <c r="H96" s="3">
-        <v>-163200</v>
+        <v>-166300</v>
       </c>
       <c r="I96" s="3">
-        <v>-189800</v>
+        <v>-193300</v>
       </c>
       <c r="J96" s="3">
-        <v>-176300</v>
+        <v>-179600</v>
       </c>
       <c r="K96" s="3">
         <v>-155600</v>
@@ -4167,25 +4167,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1394900</v>
+        <v>-1421100</v>
       </c>
       <c r="E100" s="3">
-        <v>-677300</v>
+        <v>-690000</v>
       </c>
       <c r="F100" s="3">
-        <v>-119600</v>
+        <v>-121800</v>
       </c>
       <c r="G100" s="3">
-        <v>-589800</v>
+        <v>-600900</v>
       </c>
       <c r="H100" s="3">
-        <v>-161700</v>
+        <v>-164700</v>
       </c>
       <c r="I100" s="3">
-        <v>68700</v>
+        <v>70000</v>
       </c>
       <c r="J100" s="3">
-        <v>187400</v>
+        <v>190900</v>
       </c>
       <c r="K100" s="3">
         <v>-471600</v>
@@ -4209,25 +4209,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8700</v>
+        <v>-8900</v>
       </c>
       <c r="E101" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="F101" s="3">
-        <v>27600</v>
+        <v>28100</v>
       </c>
       <c r="G101" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H101" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="I101" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="J101" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="K101" s="3">
         <v>-700</v>
@@ -4251,25 +4251,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>596200</v>
+        <v>607400</v>
       </c>
       <c r="E102" s="3">
         <v>1300</v>
       </c>
       <c r="F102" s="3">
-        <v>110200</v>
+        <v>112300</v>
       </c>
       <c r="G102" s="3">
-        <v>-368100</v>
+        <v>-375000</v>
       </c>
       <c r="H102" s="3">
-        <v>-214600</v>
+        <v>-218600</v>
       </c>
       <c r="I102" s="3">
-        <v>146900</v>
+        <v>149700</v>
       </c>
       <c r="J102" s="3">
-        <v>317100</v>
+        <v>323100</v>
       </c>
       <c r="K102" s="3">
         <v>-23300</v>
